--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassic\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -3697,10 +3697,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"aurora")){im.Hit*=s.Help/100;im.DHit.Source*=(1+s.Help/100);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"rocket"))im.OnMagicDamage(s.Damage,7);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3734,10 +3730,6 @@
   </si>
   <si>
     <t>farsummon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"farsummon"))im.DHit.Source*=(1+s.Help/100);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3894,6 +3886,14 @@
   </si>
   <si>
     <t>永久提高我方单体{3:0.0}%魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"aurora")){}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7302,7 +7302,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7451,11 +7450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-688691056"/>
-        <c:axId val="-688703024"/>
+        <c:axId val="222937840"/>
+        <c:axId val="225299968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-688691056"/>
+        <c:axId val="222937840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7498,7 +7497,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688703024"/>
+        <c:crossAx val="225299968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7506,7 +7505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-688703024"/>
+        <c:axId val="225299968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7557,7 +7556,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688691056"/>
+        <c:crossAx val="222937840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8585,28 +8584,28 @@
   <dimension ref="A1:Y128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomRight" activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.375" customWidth="1"/>
-    <col min="17" max="17" width="5.75" customWidth="1"/>
-    <col min="18" max="18" width="23.5" customWidth="1"/>
-    <col min="19" max="19" width="24.375" customWidth="1"/>
-    <col min="20" max="20" width="7.875" customWidth="1"/>
+    <col min="11" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" customWidth="1"/>
     <col min="21" max="24" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8817,7 +8816,7 @@
         <v>661</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>470</v>
@@ -8841,7 +8840,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="36">
+    <row r="4" spans="1:25" ht="45.6">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.25">
+    <row r="5" spans="1:25" ht="26.4">
       <c r="A5">
         <v>53000002</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24">
+    <row r="6" spans="1:25" ht="26.4">
       <c r="A6">
         <v>53000003</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="36">
+    <row r="7" spans="1:25" ht="34.200000000000003">
       <c r="A7">
         <v>53000004</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>2000</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>657</v>
@@ -9149,7 +9148,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24">
+    <row r="8" spans="1:25" ht="26.4">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>900</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>546</v>
@@ -9226,7 +9225,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="48">
+    <row r="9" spans="1:25" ht="57">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="48">
+    <row r="10" spans="1:25" ht="57">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="48">
+    <row r="11" spans="1:25" ht="57">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="48">
+    <row r="12" spans="1:25" ht="57">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="48">
+    <row r="13" spans="1:25" ht="57">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="48">
+    <row r="14" spans="1:25" ht="57">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="48">
+    <row r="15" spans="1:25" ht="57">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="48">
+    <row r="16" spans="1:25" ht="57">
       <c r="A16">
         <v>53000013</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="48">
+    <row r="17" spans="1:25" ht="57">
       <c r="A17">
         <v>53000014</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14.25">
+    <row r="18" spans="1:25" ht="26.4">
       <c r="A18">
         <v>53000015</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="24">
+    <row r="19" spans="1:25" ht="26.4">
       <c r="A19">
         <v>53000016</v>
       </c>
@@ -10049,7 +10048,7 @@
         <v>1200</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>508</v>
@@ -10073,7 +10072,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="24">
+    <row r="20" spans="1:25" ht="26.4">
       <c r="A20">
         <v>53000017</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>8000</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="S20" s="7" t="s">
         <v>509</v>
@@ -10150,7 +10149,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="48">
+    <row r="21" spans="1:25" ht="45.6">
       <c r="A21">
         <v>53000018</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="60">
+    <row r="22" spans="1:25" ht="57">
       <c r="A22">
         <v>53000019</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="60">
+    <row r="23" spans="1:25" ht="57">
       <c r="A23">
         <v>53000020</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="60">
+    <row r="24" spans="1:25" ht="57">
       <c r="A24">
         <v>53000021</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="24">
+    <row r="25" spans="1:25" ht="26.4">
       <c r="A25">
         <v>53000022</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="24">
+    <row r="26" spans="1:25" ht="26.4">
       <c r="A26">
         <v>53000023</v>
       </c>
@@ -10612,7 +10611,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="24">
+    <row r="27" spans="1:25" ht="26.4">
       <c r="A27">
         <v>53000024</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="48">
+    <row r="28" spans="1:25" ht="45.6">
       <c r="A28">
         <v>53000025</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="24">
+    <row r="29" spans="1:25" ht="26.4">
       <c r="A29">
         <v>53000026</v>
       </c>
@@ -10843,7 +10842,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="24">
+    <row r="30" spans="1:25" ht="26.4">
       <c r="A30">
         <v>53000027</v>
       </c>
@@ -10920,7 +10919,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="24">
+    <row r="31" spans="1:25" ht="26.4">
       <c r="A31">
         <v>53000028</v>
       </c>
@@ -10997,7 +10996,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="24">
+    <row r="32" spans="1:25" ht="26.4">
       <c r="A32">
         <v>53000029</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="24">
+    <row r="33" spans="1:25" ht="26.4">
       <c r="A33">
         <v>53000030</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>1500</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>818</v>
@@ -11151,7 +11150,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="24">
+    <row r="34" spans="1:25" ht="26.4">
       <c r="A34">
         <v>53000031</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>1500</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>823</v>
@@ -11228,7 +11227,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="48">
+    <row r="35" spans="1:25" ht="45.6">
       <c r="A35">
         <v>53000035</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>2000</v>
       </c>
       <c r="R35" s="12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>513</v>
@@ -11305,7 +11304,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="48">
+    <row r="36" spans="1:25" ht="57">
       <c r="A36">
         <v>53000036</v>
       </c>
@@ -11381,7 +11380,7 @@
       </c>
       <c r="Y36" s="27"/>
     </row>
-    <row r="37" spans="1:25" ht="24">
+    <row r="37" spans="1:25" ht="26.4">
       <c r="A37">
         <v>53000037</v>
       </c>
@@ -11458,7 +11457,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="24">
+    <row r="38" spans="1:25" ht="26.4">
       <c r="A38">
         <v>53000038</v>
       </c>
@@ -11511,10 +11510,10 @@
         <v>1200</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>63</v>
@@ -11535,7 +11534,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="24">
+    <row r="39" spans="1:25" ht="26.4">
       <c r="A39">
         <v>53000039</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>1700</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>812</v>
@@ -11612,7 +11611,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="24">
+    <row r="40" spans="1:25" ht="26.4">
       <c r="A40">
         <v>53000040</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>2000</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>813</v>
@@ -11689,7 +11688,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="24">
+    <row r="41" spans="1:25" ht="26.4">
       <c r="A41">
         <v>53000041</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="48">
+    <row r="42" spans="1:25" ht="45.6">
       <c r="A42">
         <v>53000042</v>
       </c>
@@ -11819,7 +11818,7 @@
         <v>2000</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>514</v>
@@ -11843,7 +11842,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="24">
+    <row r="43" spans="1:25" ht="26.4">
       <c r="A43">
         <v>53000043</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="24">
+    <row r="44" spans="1:25" ht="26.4">
       <c r="A44">
         <v>53000044</v>
       </c>
@@ -11973,7 +11972,7 @@
         <v>1900</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>814</v>
@@ -11997,7 +11996,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="60">
+    <row r="45" spans="1:25" ht="68.400000000000006">
       <c r="A45">
         <v>53000045</v>
       </c>
@@ -12073,7 +12072,7 @@
       </c>
       <c r="Y45" s="27"/>
     </row>
-    <row r="46" spans="1:25" ht="48">
+    <row r="46" spans="1:25" ht="57">
       <c r="A46">
         <v>53000046</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>2000</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S46" s="7" t="s">
         <v>528</v>
@@ -12150,7 +12149,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="60">
+    <row r="47" spans="1:25" ht="57">
       <c r="A47">
         <v>53000047</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>2200</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>529</v>
@@ -12227,7 +12226,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="48">
+    <row r="48" spans="1:25" ht="45.6">
       <c r="A48">
         <v>53000048</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>2000</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>515</v>
@@ -12304,7 +12303,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="60">
+    <row r="49" spans="1:25" ht="68.400000000000006">
       <c r="A49">
         <v>53000049</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="72">
+    <row r="50" spans="1:25" ht="79.8">
       <c r="A50">
         <v>53000050</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>1800</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="S50" s="7" t="s">
         <v>688</v>
@@ -12458,7 +12457,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="48">
+    <row r="51" spans="1:25" ht="45.6">
       <c r="A51">
         <v>53000051</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>2000</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>516</v>
@@ -12535,7 +12534,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="48">
+    <row r="52" spans="1:25" ht="45.6">
       <c r="A52">
         <v>53000052</v>
       </c>
@@ -12588,7 +12587,7 @@
         <v>2000</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>517</v>
@@ -12612,7 +12611,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="48">
+    <row r="53" spans="1:25" ht="45.6">
       <c r="A53">
         <v>53000053</v>
       </c>
@@ -12665,7 +12664,7 @@
         <v>2000</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>518</v>
@@ -12689,7 +12688,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="48">
+    <row r="54" spans="1:25" ht="57">
       <c r="A54">
         <v>53000054</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>1670</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="S54" s="7" t="s">
         <v>620</v>
@@ -12766,7 +12765,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="24">
+    <row r="55" spans="1:25" ht="26.4">
       <c r="A55">
         <v>53000055</v>
       </c>
@@ -12843,7 +12842,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="36">
+    <row r="56" spans="1:25" ht="45.6">
       <c r="A56">
         <v>53000056</v>
       </c>
@@ -12920,7 +12919,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="24">
+    <row r="57" spans="1:25" ht="34.200000000000003">
       <c r="A57">
         <v>53000057</v>
       </c>
@@ -12997,7 +12996,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="24">
+    <row r="58" spans="1:25" ht="26.4">
       <c r="A58">
         <v>53000058</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>1800</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="S58" s="7" t="s">
         <v>519</v>
@@ -13074,7 +13073,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="24">
+    <row r="59" spans="1:25" ht="34.200000000000003">
       <c r="A59">
         <v>53000059</v>
       </c>
@@ -13151,7 +13150,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="36">
+    <row r="60" spans="1:25" ht="45.6">
       <c r="A60">
         <v>53000060</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="48">
+    <row r="61" spans="1:25" ht="57">
       <c r="A61">
         <v>53000061</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>3000</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>571</v>
@@ -13305,7 +13304,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="24">
+    <row r="62" spans="1:25" ht="26.4">
       <c r="A62">
         <v>53000062</v>
       </c>
@@ -13358,7 +13357,7 @@
         <v>3000</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="S62" s="7" t="s">
         <v>520</v>
@@ -13382,7 +13381,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="14.25">
+    <row r="63" spans="1:25" ht="26.4">
       <c r="A63">
         <v>53000063</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="24">
+    <row r="64" spans="1:25" ht="26.4">
       <c r="A64">
         <v>53000064</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="48">
+    <row r="65" spans="1:25" ht="45.6">
       <c r="A65">
         <v>53000065</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>5000</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>713</v>
@@ -13613,7 +13612,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="24">
+    <row r="66" spans="1:25" ht="26.4">
       <c r="A66">
         <v>53000066</v>
       </c>
@@ -13666,7 +13665,7 @@
         <v>1700</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>815</v>
@@ -13690,7 +13689,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="14.25">
+    <row r="67" spans="1:25" ht="26.4">
       <c r="A67">
         <v>53000067</v>
       </c>
@@ -13767,7 +13766,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="60">
+    <row r="68" spans="1:25" ht="57">
       <c r="A68">
         <v>53000068</v>
       </c>
@@ -13820,7 +13819,7 @@
         <v>1200</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="S68" s="7" t="s">
         <v>690</v>
@@ -13844,7 +13843,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="24">
+    <row r="69" spans="1:25" ht="26.4">
       <c r="A69">
         <v>53000069</v>
       </c>
@@ -13897,7 +13896,7 @@
         <v>2000</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="S69" s="7" t="s">
         <v>521</v>
@@ -13921,7 +13920,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="24">
+    <row r="70" spans="1:25" ht="26.4">
       <c r="A70">
         <v>53000070</v>
       </c>
@@ -13998,7 +13997,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="72">
+    <row r="71" spans="1:25" ht="79.8">
       <c r="A71">
         <v>53000071</v>
       </c>
@@ -14051,7 +14050,7 @@
         <v>2000</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>483</v>
@@ -14073,7 +14072,7 @@
       </c>
       <c r="Y71" s="27"/>
     </row>
-    <row r="72" spans="1:25" ht="48">
+    <row r="72" spans="1:25" ht="57">
       <c r="A72">
         <v>53000072</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>4000</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>651</v>
@@ -14150,7 +14149,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="48">
+    <row r="73" spans="1:25" ht="45.6">
       <c r="A73">
         <v>53000073</v>
       </c>
@@ -14203,7 +14202,7 @@
         <v>1900</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>522</v>
@@ -14227,7 +14226,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="36">
+    <row r="74" spans="1:25" ht="34.200000000000003">
       <c r="A74">
         <v>53000074</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="108">
+    <row r="75" spans="1:25" ht="125.4">
       <c r="A75">
         <v>53000075</v>
       </c>
@@ -14357,7 +14356,7 @@
         <v>3600</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>523</v>
@@ -14381,7 +14380,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="60">
+    <row r="76" spans="1:25" ht="68.400000000000006">
       <c r="A76">
         <v>53000076</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>2200</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="S76" s="7" t="s">
         <v>691</v>
@@ -14458,7 +14457,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="48">
+    <row r="77" spans="1:25" ht="45.6">
       <c r="A77">
         <v>53000077</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>1200</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>524</v>
@@ -14535,7 +14534,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14.25">
+    <row r="78" spans="1:25" ht="26.4">
       <c r="A78">
         <v>53000078</v>
       </c>
@@ -14612,7 +14611,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="72">
+    <row r="79" spans="1:25" ht="45.6">
       <c r="A79">
         <v>53000079</v>
       </c>
@@ -14665,7 +14664,7 @@
         <v>2400</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>852</v>
+        <v>902</v>
       </c>
       <c r="S79" s="7" t="s">
         <v>720</v>
@@ -14689,7 +14688,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="60">
+    <row r="80" spans="1:25" ht="57">
       <c r="A80">
         <v>53000080</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>2000</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="S80" s="7" t="s">
         <v>525</v>
@@ -14766,7 +14765,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="60">
+    <row r="81" spans="1:25" ht="57">
       <c r="A81">
         <v>53000081</v>
       </c>
@@ -14843,7 +14842,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="36">
+    <row r="82" spans="1:25" ht="34.200000000000003">
       <c r="A82">
         <v>53000082</v>
       </c>
@@ -14920,7 +14919,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="72">
+    <row r="83" spans="1:25" ht="79.8">
       <c r="A83">
         <v>53000083</v>
       </c>
@@ -14973,13 +14972,13 @@
         <v>1200</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="S83" s="7" t="s">
         <v>721</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U83" s="1">
         <v>4</v>
@@ -14997,7 +14996,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="72">
+    <row r="84" spans="1:25" ht="26.4">
       <c r="A84">
         <v>53000084</v>
       </c>
@@ -15050,13 +15049,13 @@
         <v>800</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="S84" s="7" t="s">
         <v>567</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U84" s="1">
         <v>4</v>
@@ -15074,7 +15073,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="60">
+    <row r="85" spans="1:25" ht="79.8">
       <c r="A85">
         <v>53000085</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>2000</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="S85" s="7" t="s">
         <v>532</v>
@@ -15151,7 +15150,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="60">
+    <row r="86" spans="1:25" ht="68.400000000000006">
       <c r="A86">
         <v>53000086</v>
       </c>
@@ -15228,7 +15227,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="60">
+    <row r="87" spans="1:25" ht="57">
       <c r="A87">
         <v>53000087</v>
       </c>
@@ -15305,7 +15304,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="60">
+    <row r="88" spans="1:25" ht="57">
       <c r="A88">
         <v>53000088</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="60">
+    <row r="89" spans="1:25" ht="57">
       <c r="A89">
         <v>53000089</v>
       </c>
@@ -15435,7 +15434,7 @@
         <v>1800</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="S89" s="7" t="s">
         <v>529</v>
@@ -15459,7 +15458,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="60">
+    <row r="90" spans="1:25" ht="57">
       <c r="A90">
         <v>53000090</v>
       </c>
@@ -15512,7 +15511,7 @@
         <v>1650</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="S90" s="7" t="s">
         <v>693</v>
@@ -15536,7 +15535,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="36">
+    <row r="91" spans="1:25" ht="34.200000000000003">
       <c r="A91">
         <v>53000091</v>
       </c>
@@ -15613,7 +15612,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="60">
+    <row r="92" spans="1:25" ht="57">
       <c r="A92">
         <v>53000092</v>
       </c>
@@ -15690,7 +15689,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="48">
+    <row r="93" spans="1:25" ht="45.6">
       <c r="A93">
         <v>53000093</v>
       </c>
@@ -15767,7 +15766,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="36">
+    <row r="94" spans="1:25" ht="34.200000000000003">
       <c r="A94">
         <v>53000094</v>
       </c>
@@ -15844,7 +15843,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="48">
+    <row r="95" spans="1:25" ht="57">
       <c r="A95">
         <v>53000095</v>
       </c>
@@ -15921,7 +15920,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="24">
+    <row r="96" spans="1:25" ht="26.4">
       <c r="A96">
         <v>53000096</v>
       </c>
@@ -15996,7 +15995,7 @@
       </c>
       <c r="Y96" s="27"/>
     </row>
-    <row r="97" spans="1:25" ht="60">
+    <row r="97" spans="1:25" ht="57">
       <c r="A97">
         <v>53000097</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>900</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="S97" s="7" t="s">
         <v>526</v>
@@ -16073,7 +16072,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="24">
+    <row r="98" spans="1:25" ht="34.200000000000003">
       <c r="A98">
         <v>53000098</v>
       </c>
@@ -16150,7 +16149,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="24">
+    <row r="99" spans="1:25" ht="34.200000000000003">
       <c r="A99">
         <v>53000099</v>
       </c>
@@ -16227,7 +16226,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="24">
+    <row r="100" spans="1:25" ht="26.4">
       <c r="A100">
         <v>53000100</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="48">
+    <row r="101" spans="1:25" ht="45.6">
       <c r="A101">
         <v>53000101</v>
       </c>
@@ -16379,7 +16378,7 @@
       </c>
       <c r="Y101" s="27"/>
     </row>
-    <row r="102" spans="1:25" ht="24">
+    <row r="102" spans="1:25" ht="26.4">
       <c r="A102">
         <v>53000102</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="72">
+    <row r="103" spans="1:25" ht="79.8">
       <c r="A103">
         <v>53000103</v>
       </c>
@@ -16533,7 +16532,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="60">
+    <row r="104" spans="1:25" ht="57">
       <c r="A104">
         <v>53000104</v>
       </c>
@@ -16610,7 +16609,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="36">
+    <row r="105" spans="1:25" ht="57">
       <c r="A105">
         <v>53000105</v>
       </c>
@@ -16687,7 +16686,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="24">
+    <row r="106" spans="1:25" ht="26.4">
       <c r="A106">
         <v>53000106</v>
       </c>
@@ -16764,7 +16763,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="24">
+    <row r="107" spans="1:25" ht="26.4">
       <c r="A107">
         <v>53000107</v>
       </c>
@@ -16841,7 +16840,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="120">
+    <row r="108" spans="1:25" ht="136.80000000000001">
       <c r="A108">
         <v>53000108</v>
       </c>
@@ -16894,7 +16893,7 @@
         <v>1700</v>
       </c>
       <c r="R108" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="S108" s="7" t="s">
         <v>527</v>
@@ -16918,7 +16917,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="24">
+    <row r="109" spans="1:25" ht="26.4">
       <c r="A109">
         <v>53000109</v>
       </c>
@@ -16995,7 +16994,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="36">
+    <row r="110" spans="1:25" ht="45.6">
       <c r="A110">
         <v>53000110</v>
       </c>
@@ -17072,7 +17071,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="48">
+    <row r="111" spans="1:25" ht="57">
       <c r="A111">
         <v>53000111</v>
       </c>
@@ -17125,7 +17124,7 @@
         <v>1600</v>
       </c>
       <c r="R111" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="S111" s="7" t="s">
         <v>541</v>
@@ -17149,7 +17148,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="24">
+    <row r="112" spans="1:25" ht="26.4">
       <c r="A112">
         <v>53000112</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="24">
+    <row r="113" spans="1:25" ht="26.4">
       <c r="A113">
         <v>53000113</v>
       </c>
@@ -17303,7 +17302,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="24">
+    <row r="114" spans="1:25" ht="26.4">
       <c r="A114">
         <v>53000114</v>
       </c>
@@ -17378,7 +17377,7 @@
       </c>
       <c r="Y114" s="27"/>
     </row>
-    <row r="115" spans="1:25" ht="36">
+    <row r="115" spans="1:25" ht="34.200000000000003">
       <c r="A115">
         <v>53000115</v>
       </c>
@@ -17453,7 +17452,7 @@
       </c>
       <c r="Y115" s="27"/>
     </row>
-    <row r="116" spans="1:25" ht="36">
+    <row r="116" spans="1:25" ht="57">
       <c r="A116">
         <v>53000116</v>
       </c>
@@ -17530,7 +17529,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="48">
+    <row r="117" spans="1:25" ht="57">
       <c r="A117">
         <v>53000117</v>
       </c>
@@ -17607,7 +17606,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="48">
+    <row r="118" spans="1:25" ht="57">
       <c r="A118">
         <v>53000118</v>
       </c>
@@ -17684,7 +17683,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="48">
+    <row r="119" spans="1:25" ht="57">
       <c r="A119">
         <v>53000119</v>
       </c>
@@ -17761,7 +17760,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="48">
+    <row r="120" spans="1:25" ht="57">
       <c r="A120">
         <v>53000120</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="48">
+    <row r="121" spans="1:25" ht="57">
       <c r="A121">
         <v>53000121</v>
       </c>
@@ -17915,7 +17914,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="48">
+    <row r="122" spans="1:25" ht="57">
       <c r="A122">
         <v>53000122</v>
       </c>
@@ -17992,7 +17991,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="48">
+    <row r="123" spans="1:25" ht="57">
       <c r="A123">
         <v>53000123</v>
       </c>
@@ -18069,7 +18068,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="48">
+    <row r="124" spans="1:25" ht="57">
       <c r="A124">
         <v>53000124</v>
       </c>
@@ -18146,7 +18145,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="48">
+    <row r="125" spans="1:25" ht="57">
       <c r="A125">
         <v>53000125</v>
       </c>
@@ -18223,7 +18222,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="72">
+    <row r="126" spans="1:25" ht="79.8">
       <c r="A126">
         <v>53000126</v>
       </c>
@@ -18276,13 +18275,13 @@
         <v>2200</v>
       </c>
       <c r="R126" s="12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="S126" s="7" t="s">
         <v>773</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="U126" s="1">
         <v>4</v>
@@ -18300,7 +18299,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="48">
+    <row r="127" spans="1:25" ht="57">
       <c r="A127">
         <v>53000127</v>
       </c>
@@ -18353,7 +18352,7 @@
         <v>3000</v>
       </c>
       <c r="R127" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="S127" s="7" t="s">
         <v>570</v>
@@ -18377,7 +18376,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="36">
+    <row r="128" spans="1:25" ht="34.200000000000003">
       <c r="A128">
         <v>53000129</v>
       </c>
@@ -18544,22 +18543,22 @@
       <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="3.875" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.375" customWidth="1"/>
-    <col min="17" max="17" width="5.75" customWidth="1"/>
-    <col min="18" max="18" width="23.5" customWidth="1"/>
-    <col min="19" max="19" width="27.25" customWidth="1"/>
-    <col min="20" max="20" width="7.875" customWidth="1"/>
+    <col min="11" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="19" max="19" width="27.21875" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" customWidth="1"/>
     <col min="21" max="24" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18794,7 +18793,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24">
+    <row r="4" spans="1:25" ht="22.8">
       <c r="A4">
         <v>53100000</v>
       </c>
@@ -18865,7 +18864,7 @@
       </c>
       <c r="Y4" s="38"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>53100001</v>
       </c>
@@ -18936,7 +18935,7 @@
       </c>
       <c r="Y5" s="38"/>
     </row>
-    <row r="6" spans="1:25" ht="24">
+    <row r="6" spans="1:25" ht="34.200000000000003">
       <c r="A6">
         <v>53100002</v>
       </c>
@@ -19007,7 +19006,7 @@
       </c>
       <c r="Y6" s="38"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>53100003</v>
       </c>
@@ -19078,7 +19077,7 @@
       </c>
       <c r="Y7" s="38"/>
     </row>
-    <row r="8" spans="1:25" ht="36">
+    <row r="8" spans="1:25" ht="34.200000000000003">
       <c r="A8">
         <v>53100004</v>
       </c>
@@ -19149,7 +19148,7 @@
       </c>
       <c r="Y8" s="38"/>
     </row>
-    <row r="9" spans="1:25" ht="24">
+    <row r="9" spans="1:25" ht="22.8">
       <c r="A9">
         <v>53100005</v>
       </c>
@@ -19198,7 +19197,7 @@
         <v>-1</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>640</v>
@@ -19317,22 +19316,22 @@
       <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="4.375" customWidth="1"/>
-    <col min="7" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.375" customWidth="1"/>
-    <col min="17" max="17" width="5.75" customWidth="1"/>
-    <col min="18" max="18" width="23.5" customWidth="1"/>
-    <col min="19" max="19" width="27.25" customWidth="1"/>
-    <col min="20" max="20" width="7.875" customWidth="1"/>
+    <col min="11" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="19" max="19" width="27.21875" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" customWidth="1"/>
     <col min="21" max="21" width="4" customWidth="1"/>
     <col min="22" max="22" width="5" customWidth="1"/>
     <col min="23" max="24" width="4" customWidth="1"/>
@@ -19569,7 +19568,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="36">
+    <row r="4" spans="1:25" ht="45.6">
       <c r="A4">
         <v>53200100</v>
       </c>
@@ -19646,7 +19645,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="24">
+    <row r="5" spans="1:25" ht="26.4">
       <c r="A5">
         <v>53200101</v>
       </c>
@@ -19723,7 +19722,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="40.5">
+    <row r="6" spans="1:25" ht="43.2">
       <c r="A6">
         <v>53200102</v>
       </c>
@@ -19800,7 +19799,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.25">
+    <row r="7" spans="1:25" ht="26.4">
       <c r="A7">
         <v>53200103</v>
       </c>
@@ -19877,7 +19876,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="60">
+    <row r="8" spans="1:25" ht="57">
       <c r="A8">
         <v>53200104</v>
       </c>
@@ -19930,7 +19929,7 @@
         <v>1800</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>668</v>
@@ -19954,7 +19953,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24">
+    <row r="9" spans="1:25" ht="26.4">
       <c r="A9">
         <v>53200105</v>
       </c>
@@ -20007,7 +20006,7 @@
         <v>8000</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>509</v>
@@ -20070,7 +20069,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -20119,7 +20118,7 @@
         <v>2.3345235059857505</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
         <v>664</v>
       </c>
@@ -20196,7 +20195,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="896">
   <si>
     <t>慈悲</t>
   </si>
@@ -2514,10 +2514,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.Ats=20;if(MathTool.GetRandom(100)&lt;s.Rate)t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>永久降低敌方单体{3:0.0}%防御</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2846,10 +2842,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.Ats=0;if(MathTool.GetRandom(100)&lt;s.Rate)t.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.OnMagicDamage(s.Damage,0);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3397,10 +3389,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.Atk+=t.Def*s.Help/100;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>将单位的攻速永久升到20,{4:0.0}%几率同时回复{1}点生命</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3565,10 +3553,6 @@
   </si>
   <si>
     <t>t.ClearDebuff();t.Atk.Source*=(1+s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Atk.Source*=(float)(1+s.Help/100);t.Def.Source*=(1+s.Help/100);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3601,22 +3585,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.Def.Source*=(1+s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Def.Source*=(1-s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Spd.Source*=(1+s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Spd.Source*=(1-s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>属性,基础</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3653,18 +3621,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","C",40,mouse,"yellowflash"))im.Spd.Source*=(1+s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"bluebubble"))im.AddHp(s.Cure);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",12,mouse,"gravity"))im.Spd.Source*=(1-s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","C",40,mouse,"fireball"))im.OnMagicDamage(s.Damage,3);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3693,10 +3653,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"eclipse")){im.Atk.Source*=(1+s.Help/100);im.Spd.Source*=(1+s.Help/100);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"rocket"))im.OnMagicDamage(s.Damage,7);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3722,10 +3678,6 @@
   </si>
   <si>
     <t>farsummon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"farsummon"))im.Def.Source*=(1+s.Help/100);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3881,10 +3833,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.Mag.Source*=(1+s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>永久提高我方单体{3:0.0}%魔法</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3894,6 +3842,26 @@
   </si>
   <si>
     <t>m.UpdateCellOwner(mouse,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"eclipse")){im.Atk.Source*=(1+s.Help/100);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Atk.Source*=(float)(1+s.Help/100);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.AddHp(s.Cure);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7450,11 +7418,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="222937840"/>
-        <c:axId val="225299968"/>
+        <c:axId val="-311405968"/>
+        <c:axId val="-311404336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222937840"/>
+        <c:axId val="-311405968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7497,7 +7465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225299968"/>
+        <c:crossAx val="-311404336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7505,7 +7473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225299968"/>
+        <c:axId val="-311404336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,7 +7524,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222937840"/>
+        <c:crossAx val="-311405968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8583,29 +8551,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S85" sqref="S85"/>
+      <selection pane="bottomRight" activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="3.875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1"/>
-    <col min="20" max="20" width="7.88671875" customWidth="1"/>
+    <col min="11" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="17" max="17" width="5.75" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="24.375" customWidth="1"/>
+    <col min="20" max="20" width="7.875" customWidth="1"/>
     <col min="21" max="24" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8659,7 +8627,7 @@
         <v>486</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>548</v>
@@ -8668,7 +8636,7 @@
         <v>469</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="U1" s="14" t="s">
         <v>215</v>
@@ -8677,13 +8645,13 @@
         <v>216</v>
       </c>
       <c r="W1" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -8736,10 +8704,10 @@
         <v>201</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>201</v>
@@ -8754,7 +8722,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="X2" s="31" t="s">
         <v>491</v>
@@ -8813,10 +8781,10 @@
         <v>207</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>470</v>
@@ -8831,16 +8799,16 @@
         <v>209</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y3" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="45.6">
+    <row r="4" spans="1:25" ht="36">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -8893,10 +8861,10 @@
         <v>1704</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>2</v>
@@ -8914,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="26.4">
+    <row r="5" spans="1:25" ht="14.25">
       <c r="A5">
         <v>53000002</v>
       </c>
@@ -8970,7 +8938,7 @@
         <v>1550</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>547</v>
@@ -8991,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="26.4">
+    <row r="6" spans="1:25" ht="24">
       <c r="A6">
         <v>53000003</v>
       </c>
@@ -9047,10 +9015,10 @@
         <v>2000</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>7</v>
@@ -9068,10 +9036,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="34.200000000000003">
+    <row r="7" spans="1:25" ht="36">
       <c r="A7">
         <v>53000004</v>
       </c>
@@ -9124,10 +9092,10 @@
         <v>2000</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>9</v>
@@ -9145,10 +9113,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="26.4">
+    <row r="8" spans="1:25" ht="24">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9201,7 +9169,7 @@
         <v>900</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>546</v>
@@ -9222,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="27" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="57">
+    <row r="9" spans="1:25" ht="48">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9272,16 +9240,16 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q9" s="1">
         <v>500</v>
       </c>
       <c r="R9" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>2</v>
@@ -9299,10 +9267,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="57">
+    <row r="10" spans="1:25" ht="48">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9349,16 +9317,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q10" s="1">
         <v>500</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>2</v>
@@ -9376,10 +9344,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="57">
+    <row r="11" spans="1:25" ht="48">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9426,16 +9394,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q11" s="1">
         <v>500</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>2</v>
@@ -9453,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="27" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="57">
+    <row r="12" spans="1:25" ht="48">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9503,16 +9471,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q12" s="1">
         <v>500</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>2</v>
@@ -9530,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="57">
+    <row r="13" spans="1:25" ht="48">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -9580,16 +9548,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q13" s="1">
         <v>500</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>2</v>
@@ -9607,10 +9575,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="57">
+    <row r="14" spans="1:25" ht="48">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -9657,16 +9625,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q14" s="1">
         <v>500</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>2</v>
@@ -9684,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="57">
+    <row r="15" spans="1:25" ht="48">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -9734,16 +9702,16 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q15" s="1">
         <v>500</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>2</v>
@@ -9761,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="57">
+    <row r="16" spans="1:25" ht="48">
       <c r="A16">
         <v>53000013</v>
       </c>
@@ -9811,16 +9779,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q16" s="1">
         <v>500</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>2</v>
@@ -9838,10 +9806,10 @@
         <v>0</v>
       </c>
       <c r="Y16" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="57">
+    <row r="17" spans="1:25" ht="48">
       <c r="A17">
         <v>53000014</v>
       </c>
@@ -9888,16 +9856,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q17" s="1">
         <v>500</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>2</v>
@@ -9915,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="26.4">
+    <row r="18" spans="1:25" ht="14.25">
       <c r="A18">
         <v>53000015</v>
       </c>
@@ -9971,7 +9939,7 @@
         <v>1500</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="S18" s="7" t="s">
         <v>507</v>
@@ -9992,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="Y18" s="27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="26.4">
+    <row r="19" spans="1:25" ht="24">
       <c r="A19">
         <v>53000016</v>
       </c>
@@ -10048,7 +10016,7 @@
         <v>1200</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>508</v>
@@ -10069,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="Y19" s="27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="26.4">
+    <row r="20" spans="1:25" ht="24">
       <c r="A20">
         <v>53000017</v>
       </c>
@@ -10125,7 +10093,7 @@
         <v>8000</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="S20" s="7" t="s">
         <v>509</v>
@@ -10146,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="Y20" s="27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="45.6">
+    <row r="21" spans="1:25" ht="48">
       <c r="A21">
         <v>53000018</v>
       </c>
@@ -10205,7 +10173,7 @@
         <v>553</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>28</v>
@@ -10223,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="Y21" s="27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="57">
+    <row r="22" spans="1:25" ht="60">
       <c r="A22">
         <v>53000019</v>
       </c>
@@ -10279,10 +10247,10 @@
         <v>1800</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>30</v>
@@ -10300,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="57">
+    <row r="23" spans="1:25" ht="60">
       <c r="A23">
         <v>53000020</v>
       </c>
@@ -10356,10 +10324,10 @@
         <v>2100</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>30</v>
@@ -10377,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="Y23" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="57">
+    <row r="24" spans="1:25" ht="60">
       <c r="A24">
         <v>53000021</v>
       </c>
@@ -10433,10 +10401,10 @@
         <v>1875</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>33</v>
@@ -10454,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="26.4">
+    <row r="25" spans="1:25" ht="24">
       <c r="A25">
         <v>53000022</v>
       </c>
@@ -10510,10 +10478,10 @@
         <v>1500</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>36</v>
@@ -10531,10 +10499,10 @@
         <v>0</v>
       </c>
       <c r="Y25" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="26.4">
+    <row r="26" spans="1:25" ht="24">
       <c r="A26">
         <v>53000023</v>
       </c>
@@ -10587,10 +10555,10 @@
         <v>2400</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="S26" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>2</v>
@@ -10608,10 +10576,10 @@
         <v>0</v>
       </c>
       <c r="Y26" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="26.4">
+    <row r="27" spans="1:25" ht="24">
       <c r="A27">
         <v>53000024</v>
       </c>
@@ -10664,10 +10632,10 @@
         <v>1900</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>36</v>
@@ -10685,10 +10653,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="45.6">
+    <row r="28" spans="1:25" ht="48">
       <c r="A28">
         <v>53000025</v>
       </c>
@@ -10744,7 +10712,7 @@
         <v>558</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>40</v>
@@ -10762,10 +10730,10 @@
         <v>0</v>
       </c>
       <c r="Y28" s="27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="26.4">
+    <row r="29" spans="1:25" ht="24">
       <c r="A29">
         <v>53000026</v>
       </c>
@@ -10839,10 +10807,10 @@
         <v>0</v>
       </c>
       <c r="Y29" s="27" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="26.4">
+    <row r="30" spans="1:25" ht="14.25">
       <c r="A30">
         <v>53000027</v>
       </c>
@@ -10894,11 +10862,9 @@
       <c r="Q30" s="1">
         <v>600</v>
       </c>
-      <c r="R30" s="12" t="s">
-        <v>830</v>
-      </c>
+      <c r="R30" s="12"/>
       <c r="S30" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>46</v>
@@ -10916,10 +10882,10 @@
         <v>0</v>
       </c>
       <c r="Y30" s="27" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="26.4">
+    <row r="31" spans="1:25" ht="14.25">
       <c r="A31">
         <v>53000028</v>
       </c>
@@ -10971,11 +10937,9 @@
       <c r="Q31" s="1">
         <v>600</v>
       </c>
-      <c r="R31" s="12" t="s">
-        <v>831</v>
-      </c>
+      <c r="R31" s="12"/>
       <c r="S31" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>48</v>
@@ -10993,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="Y31" s="27" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="26.4">
+    <row r="32" spans="1:25" ht="24">
       <c r="A32">
         <v>53000029</v>
       </c>
@@ -11070,21 +11034,21 @@
         <v>0</v>
       </c>
       <c r="Y32" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="26.4">
+    <row r="33" spans="1:25" ht="24">
       <c r="A33">
         <v>53000030</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -11126,10 +11090,10 @@
         <v>1500</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>4</v>
@@ -11147,21 +11111,21 @@
         <v>1</v>
       </c>
       <c r="Y33" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="26.4">
+    <row r="34" spans="1:25" ht="24">
       <c r="A34">
         <v>53000031</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>819</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>822</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11203,10 +11167,10 @@
         <v>1500</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>4</v>
@@ -11224,10 +11188,10 @@
         <v>1</v>
       </c>
       <c r="Y34" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="45.6">
+    <row r="35" spans="1:25" ht="48">
       <c r="A35">
         <v>53000035</v>
       </c>
@@ -11280,7 +11244,7 @@
         <v>2000</v>
       </c>
       <c r="R35" s="12" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>513</v>
@@ -11301,10 +11265,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="57">
+    <row r="36" spans="1:25" ht="48">
       <c r="A36">
         <v>53000036</v>
       </c>
@@ -11358,10 +11322,10 @@
         <v>1220</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>59</v>
@@ -11380,7 +11344,7 @@
       </c>
       <c r="Y36" s="27"/>
     </row>
-    <row r="37" spans="1:25" ht="26.4">
+    <row r="37" spans="1:25" ht="14.25">
       <c r="A37">
         <v>53000037</v>
       </c>
@@ -11432,11 +11396,9 @@
       <c r="Q37" s="1">
         <v>1800</v>
       </c>
-      <c r="R37" s="12" t="s">
-        <v>828</v>
-      </c>
+      <c r="R37" s="12"/>
       <c r="S37" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>61</v>
@@ -11454,10 +11416,10 @@
         <v>0</v>
       </c>
       <c r="Y37" s="27" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="26.4">
+    <row r="38" spans="1:25" ht="14.25">
       <c r="A38">
         <v>53000038</v>
       </c>
@@ -11509,11 +11471,9 @@
       <c r="Q38" s="1">
         <v>1200</v>
       </c>
-      <c r="R38" s="12" t="s">
-        <v>900</v>
-      </c>
+      <c r="R38" s="12"/>
       <c r="S38" s="7" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>63</v>
@@ -11531,18 +11491,18 @@
         <v>0</v>
       </c>
       <c r="Y38" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="26.4">
+    <row r="39" spans="1:25" ht="24">
       <c r="A39">
         <v>53000039</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>374</v>
@@ -11587,10 +11547,10 @@
         <v>1700</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>4</v>
@@ -11608,15 +11568,15 @@
         <v>0</v>
       </c>
       <c r="Y39" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="26.4">
+    <row r="40" spans="1:25" ht="24">
       <c r="A40">
         <v>53000040</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>270</v>
@@ -11664,10 +11624,10 @@
         <v>2000</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>4</v>
@@ -11685,10 +11645,10 @@
         <v>0</v>
       </c>
       <c r="Y40" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="26.4">
+    <row r="41" spans="1:25" ht="24">
       <c r="A41">
         <v>53000041</v>
       </c>
@@ -11741,10 +11701,10 @@
         <v>2400</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>65</v>
@@ -11762,10 +11722,10 @@
         <v>0</v>
       </c>
       <c r="Y41" s="27" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="45.6">
+    <row r="42" spans="1:25" ht="48">
       <c r="A42">
         <v>53000042</v>
       </c>
@@ -11818,7 +11778,7 @@
         <v>2000</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>514</v>
@@ -11839,10 +11799,10 @@
         <v>0</v>
       </c>
       <c r="Y42" s="27" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="26.4">
+    <row r="43" spans="1:25" ht="24">
       <c r="A43">
         <v>53000043</v>
       </c>
@@ -11895,10 +11855,10 @@
         <v>2000</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>4</v>
@@ -11916,15 +11876,15 @@
         <v>0</v>
       </c>
       <c r="Y43" s="27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="26.4">
+    <row r="44" spans="1:25" ht="24">
       <c r="A44">
         <v>53000044</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>274</v>
@@ -11972,10 +11932,10 @@
         <v>1900</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>4</v>
@@ -11993,10 +11953,10 @@
         <v>0</v>
       </c>
       <c r="Y44" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="68.400000000000006">
+    <row r="45" spans="1:25" ht="60">
       <c r="A45">
         <v>53000045</v>
       </c>
@@ -12050,10 +12010,10 @@
         <v>1220</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>495</v>
@@ -12072,7 +12032,7 @@
       </c>
       <c r="Y45" s="27"/>
     </row>
-    <row r="46" spans="1:25" ht="57">
+    <row r="46" spans="1:25" ht="48">
       <c r="A46">
         <v>53000046</v>
       </c>
@@ -12125,7 +12085,7 @@
         <v>2000</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="S46" s="7" t="s">
         <v>528</v>
@@ -12146,10 +12106,10 @@
         <v>0</v>
       </c>
       <c r="Y46" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="57">
+    <row r="47" spans="1:25" ht="60">
       <c r="A47">
         <v>53000047</v>
       </c>
@@ -12202,7 +12162,7 @@
         <v>2200</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>529</v>
@@ -12223,10 +12183,10 @@
         <v>0</v>
       </c>
       <c r="Y47" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="45.6">
+    <row r="48" spans="1:25" ht="48">
       <c r="A48">
         <v>53000048</v>
       </c>
@@ -12279,7 +12239,7 @@
         <v>2000</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>515</v>
@@ -12300,10 +12260,10 @@
         <v>0</v>
       </c>
       <c r="Y48" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="68.400000000000006">
+    <row r="49" spans="1:25" ht="60">
       <c r="A49">
         <v>53000049</v>
       </c>
@@ -12356,7 +12316,7 @@
         <v>2200</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>530</v>
@@ -12377,10 +12337,10 @@
         <v>0</v>
       </c>
       <c r="Y49" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="79.8">
+    <row r="50" spans="1:25" ht="72">
       <c r="A50">
         <v>53000050</v>
       </c>
@@ -12427,16 +12387,16 @@
         <v>0</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="Q50" s="1">
         <v>1800</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>78</v>
@@ -12454,10 +12414,10 @@
         <v>0</v>
       </c>
       <c r="Y50" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="45.6">
+    <row r="51" spans="1:25" ht="48">
       <c r="A51">
         <v>53000051</v>
       </c>
@@ -12510,7 +12470,7 @@
         <v>2000</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>516</v>
@@ -12531,10 +12491,10 @@
         <v>0</v>
       </c>
       <c r="Y51" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="45.6">
+    <row r="52" spans="1:25" ht="48">
       <c r="A52">
         <v>53000052</v>
       </c>
@@ -12587,7 +12547,7 @@
         <v>2000</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>517</v>
@@ -12608,10 +12568,10 @@
         <v>0</v>
       </c>
       <c r="Y52" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="45.6">
+    <row r="53" spans="1:25" ht="48">
       <c r="A53">
         <v>53000053</v>
       </c>
@@ -12664,7 +12624,7 @@
         <v>2000</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>518</v>
@@ -12685,10 +12645,10 @@
         <v>0</v>
       </c>
       <c r="Y53" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="57">
+    <row r="54" spans="1:25" ht="48">
       <c r="A54">
         <v>53000054</v>
       </c>
@@ -12741,10 +12701,10 @@
         <v>1670</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>86</v>
@@ -12762,10 +12722,10 @@
         <v>0</v>
       </c>
       <c r="Y54" s="27" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="26.4">
+    <row r="55" spans="1:25" ht="24">
       <c r="A55">
         <v>53000055</v>
       </c>
@@ -12818,10 +12778,10 @@
         <v>3000</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>2</v>
@@ -12839,10 +12799,10 @@
         <v>0</v>
       </c>
       <c r="Y55" s="27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="45.6">
+    <row r="56" spans="1:25" ht="36">
       <c r="A56">
         <v>53000056</v>
       </c>
@@ -12895,10 +12855,10 @@
         <v>750</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>89</v>
@@ -12916,10 +12876,10 @@
         <v>0</v>
       </c>
       <c r="Y56" s="27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="34.200000000000003">
+    <row r="57" spans="1:25" ht="24">
       <c r="A57">
         <v>53000057</v>
       </c>
@@ -12966,16 +12926,16 @@
         <v>3</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Q57" s="39">
         <v>1500</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>2</v>
@@ -12993,10 +12953,10 @@
         <v>0</v>
       </c>
       <c r="Y57" s="27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="26.4">
+    <row r="58" spans="1:25" ht="24">
       <c r="A58">
         <v>53000058</v>
       </c>
@@ -13049,7 +13009,7 @@
         <v>1800</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="S58" s="7" t="s">
         <v>519</v>
@@ -13070,10 +13030,10 @@
         <v>0</v>
       </c>
       <c r="Y58" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="34.200000000000003">
+    <row r="59" spans="1:25" ht="24">
       <c r="A59">
         <v>53000059</v>
       </c>
@@ -13126,10 +13086,10 @@
         <v>560</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>94</v>
@@ -13147,10 +13107,10 @@
         <v>0</v>
       </c>
       <c r="Y59" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="45.6">
+    <row r="60" spans="1:25" ht="36">
       <c r="A60">
         <v>53000060</v>
       </c>
@@ -13203,10 +13163,10 @@
         <v>520</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>94</v>
@@ -13224,10 +13184,10 @@
         <v>0</v>
       </c>
       <c r="Y60" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="57">
+    <row r="61" spans="1:25" ht="48">
       <c r="A61">
         <v>53000061</v>
       </c>
@@ -13280,10 +13240,10 @@
         <v>3000</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>22</v>
@@ -13301,10 +13261,10 @@
         <v>0</v>
       </c>
       <c r="Y61" s="27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="26.4">
+    <row r="62" spans="1:25" ht="24">
       <c r="A62">
         <v>53000062</v>
       </c>
@@ -13357,7 +13317,7 @@
         <v>3000</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="S62" s="7" t="s">
         <v>520</v>
@@ -13378,10 +13338,10 @@
         <v>0</v>
       </c>
       <c r="Y62" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="26.4">
+    <row r="63" spans="1:25" ht="14.25">
       <c r="A63">
         <v>53000063</v>
       </c>
@@ -13434,10 +13394,10 @@
         <v>1500</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>101</v>
@@ -13455,10 +13415,10 @@
         <v>0</v>
       </c>
       <c r="Y63" s="27" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="26.4">
+    <row r="64" spans="1:25" ht="24">
       <c r="A64">
         <v>53000064</v>
       </c>
@@ -13511,10 +13471,10 @@
         <v>1500</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>103</v>
@@ -13532,10 +13492,10 @@
         <v>0</v>
       </c>
       <c r="Y64" s="27" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="45.6">
+    <row r="65" spans="1:25" ht="48">
       <c r="A65">
         <v>53000065</v>
       </c>
@@ -13588,10 +13548,10 @@
         <v>5000</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>104</v>
@@ -13609,10 +13569,10 @@
         <v>0</v>
       </c>
       <c r="Y65" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="26.4">
+    <row r="66" spans="1:25" ht="24">
       <c r="A66">
         <v>53000066</v>
       </c>
@@ -13665,10 +13625,10 @@
         <v>1700</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>4</v>
@@ -13686,10 +13646,10 @@
         <v>0</v>
       </c>
       <c r="Y66" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="26.4">
+    <row r="67" spans="1:25" ht="14.25">
       <c r="A67">
         <v>53000067</v>
       </c>
@@ -13742,10 +13702,10 @@
         <v>1800</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>106</v>
@@ -13763,10 +13723,10 @@
         <v>0</v>
       </c>
       <c r="Y67" s="27" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="57">
+    <row r="68" spans="1:25" ht="60">
       <c r="A68">
         <v>53000068</v>
       </c>
@@ -13819,10 +13779,10 @@
         <v>1200</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>108</v>
@@ -13840,10 +13800,10 @@
         <v>0</v>
       </c>
       <c r="Y68" s="27" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="26.4">
+    <row r="69" spans="1:25" ht="24">
       <c r="A69">
         <v>53000069</v>
       </c>
@@ -13896,7 +13856,7 @@
         <v>2000</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="S69" s="7" t="s">
         <v>521</v>
@@ -13917,10 +13877,10 @@
         <v>0</v>
       </c>
       <c r="Y69" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="26.4">
+    <row r="70" spans="1:25" ht="14.25">
       <c r="A70">
         <v>53000070</v>
       </c>
@@ -13972,11 +13932,9 @@
       <c r="Q70" s="1">
         <v>1800</v>
       </c>
-      <c r="R70" s="12" t="s">
-        <v>829</v>
-      </c>
+      <c r="R70" s="12"/>
       <c r="S70" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>112</v>
@@ -13994,10 +13952,10 @@
         <v>0</v>
       </c>
       <c r="Y70" s="27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="79.8">
+    <row r="71" spans="1:25" ht="72">
       <c r="A71">
         <v>53000071</v>
       </c>
@@ -14050,7 +14008,7 @@
         <v>2000</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>483</v>
@@ -14072,7 +14030,7 @@
       </c>
       <c r="Y71" s="27"/>
     </row>
-    <row r="72" spans="1:25" ht="57">
+    <row r="72" spans="1:25" ht="48">
       <c r="A72">
         <v>53000072</v>
       </c>
@@ -14125,10 +14083,10 @@
         <v>4000</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>116</v>
@@ -14146,10 +14104,10 @@
         <v>0</v>
       </c>
       <c r="Y72" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="45.6">
+    <row r="73" spans="1:25" ht="48">
       <c r="A73">
         <v>53000073</v>
       </c>
@@ -14202,7 +14160,7 @@
         <v>1900</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>522</v>
@@ -14223,10 +14181,10 @@
         <v>0</v>
       </c>
       <c r="Y73" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="34.200000000000003">
+    <row r="74" spans="1:25" ht="36">
       <c r="A74">
         <v>53000074</v>
       </c>
@@ -14279,7 +14237,7 @@
         <v>2100</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S74" s="7" t="s">
         <v>554</v>
@@ -14300,10 +14258,10 @@
         <v>0</v>
       </c>
       <c r="Y74" s="27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="125.4">
+    <row r="75" spans="1:25" ht="108">
       <c r="A75">
         <v>53000075</v>
       </c>
@@ -14356,7 +14314,7 @@
         <v>3600</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>523</v>
@@ -14377,10 +14335,10 @@
         <v>0</v>
       </c>
       <c r="Y75" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="68.400000000000006">
+    <row r="76" spans="1:25" ht="60">
       <c r="A76">
         <v>53000076</v>
       </c>
@@ -14433,10 +14391,10 @@
         <v>2200</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="S76" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>124</v>
@@ -14454,10 +14412,10 @@
         <v>0</v>
       </c>
       <c r="Y76" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="45.6">
+    <row r="77" spans="1:25" ht="48">
       <c r="A77">
         <v>53000077</v>
       </c>
@@ -14510,7 +14468,7 @@
         <v>1200</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>524</v>
@@ -14531,10 +14489,10 @@
         <v>0</v>
       </c>
       <c r="Y77" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="26.4">
+    <row r="78" spans="1:25" ht="14.25">
       <c r="A78">
         <v>53000078</v>
       </c>
@@ -14587,10 +14545,10 @@
         <v>1000</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>104</v>
@@ -14608,10 +14566,10 @@
         <v>0</v>
       </c>
       <c r="Y78" s="27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="45.6">
+    <row r="79" spans="1:25" ht="48">
       <c r="A79">
         <v>53000079</v>
       </c>
@@ -14664,10 +14622,10 @@
         <v>2400</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="S79" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>128</v>
@@ -14685,10 +14643,10 @@
         <v>0</v>
       </c>
       <c r="Y79" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="57">
+    <row r="80" spans="1:25" ht="60">
       <c r="A80">
         <v>53000080</v>
       </c>
@@ -14741,7 +14699,7 @@
         <v>2000</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="S80" s="7" t="s">
         <v>525</v>
@@ -14762,10 +14720,10 @@
         <v>0</v>
       </c>
       <c r="Y80" s="27" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="57">
+    <row r="81" spans="1:25" ht="60">
       <c r="A81">
         <v>53000081</v>
       </c>
@@ -14818,7 +14776,7 @@
         <v>1800</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>531</v>
@@ -14839,10 +14797,10 @@
         <v>0</v>
       </c>
       <c r="Y81" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="34.200000000000003">
+    <row r="82" spans="1:25" ht="24">
       <c r="A82">
         <v>53000082</v>
       </c>
@@ -14895,10 +14853,10 @@
         <v>2400</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>825</v>
+        <v>892</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>133</v>
@@ -14916,15 +14874,15 @@
         <v>0</v>
       </c>
       <c r="Y82" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="79.8">
+    <row r="83" spans="1:25" ht="24">
       <c r="A83">
         <v>53000083</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>306</v>
@@ -14972,13 +14930,13 @@
         <v>1200</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="S83" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="U83" s="1">
         <v>4</v>
@@ -14993,10 +14951,10 @@
         <v>0</v>
       </c>
       <c r="Y83" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="26.4">
+    <row r="84" spans="1:25" ht="24">
       <c r="A84">
         <v>53000084</v>
       </c>
@@ -15049,13 +15007,13 @@
         <v>800</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="S84" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="U84" s="1">
         <v>4</v>
@@ -15070,10 +15028,10 @@
         <v>0</v>
       </c>
       <c r="Y84" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="79.8">
+    <row r="85" spans="1:25" ht="60">
       <c r="A85">
         <v>53000085</v>
       </c>
@@ -15126,7 +15084,7 @@
         <v>2000</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="S85" s="7" t="s">
         <v>532</v>
@@ -15147,10 +15105,10 @@
         <v>0</v>
       </c>
       <c r="Y85" s="27" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="68.400000000000006">
+    <row r="86" spans="1:25" ht="14.25">
       <c r="A86">
         <v>53000086</v>
       </c>
@@ -15202,11 +15160,9 @@
       <c r="Q86" s="1">
         <v>600</v>
       </c>
-      <c r="R86" s="12" t="s">
-        <v>841</v>
-      </c>
+      <c r="R86" s="12"/>
       <c r="S86" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>2</v>
@@ -15224,10 +15180,10 @@
         <v>0</v>
       </c>
       <c r="Y86" s="27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="57">
+    <row r="87" spans="1:25" ht="60">
       <c r="A87">
         <v>53000087</v>
       </c>
@@ -15280,10 +15236,10 @@
         <v>1500</v>
       </c>
       <c r="R87" s="12" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>67</v>
@@ -15301,10 +15257,10 @@
         <v>0</v>
       </c>
       <c r="Y87" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="57">
+    <row r="88" spans="1:25" ht="60">
       <c r="A88">
         <v>53000088</v>
       </c>
@@ -15357,7 +15313,7 @@
         <v>1750</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="S88" s="7" t="s">
         <v>533</v>
@@ -15378,10 +15334,10 @@
         <v>0</v>
       </c>
       <c r="Y88" s="27" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="57">
+    <row r="89" spans="1:25" ht="60">
       <c r="A89">
         <v>53000089</v>
       </c>
@@ -15434,7 +15390,7 @@
         <v>1800</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="S89" s="7" t="s">
         <v>529</v>
@@ -15455,10 +15411,10 @@
         <v>0</v>
       </c>
       <c r="Y89" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="57">
+    <row r="90" spans="1:25" ht="60">
       <c r="A90">
         <v>53000090</v>
       </c>
@@ -15511,10 +15467,10 @@
         <v>1650</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>28</v>
@@ -15532,10 +15488,10 @@
         <v>0</v>
       </c>
       <c r="Y90" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="34.200000000000003">
+    <row r="91" spans="1:25" ht="36">
       <c r="A91">
         <v>53000091</v>
       </c>
@@ -15588,7 +15544,7 @@
         <v>2000</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>534</v>
@@ -15609,10 +15565,10 @@
         <v>0</v>
       </c>
       <c r="Y91" s="27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="57">
+    <row r="92" spans="1:25" ht="60">
       <c r="A92">
         <v>53000092</v>
       </c>
@@ -15665,7 +15621,7 @@
         <v>1500</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="S92" s="7" t="s">
         <v>535</v>
@@ -15686,10 +15642,10 @@
         <v>0</v>
       </c>
       <c r="Y92" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="45.6">
+    <row r="93" spans="1:25" ht="48">
       <c r="A93">
         <v>53000093</v>
       </c>
@@ -15763,10 +15719,10 @@
         <v>0</v>
       </c>
       <c r="Y93" s="27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="34.200000000000003">
+    <row r="94" spans="1:25" ht="36">
       <c r="A94">
         <v>53000094</v>
       </c>
@@ -15819,10 +15775,10 @@
         <v>500</v>
       </c>
       <c r="R94" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>150</v>
@@ -15840,10 +15796,10 @@
         <v>0</v>
       </c>
       <c r="Y94" s="27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="57">
+    <row r="95" spans="1:25" ht="48">
       <c r="A95">
         <v>53000095</v>
       </c>
@@ -15896,10 +15852,10 @@
         <v>1600</v>
       </c>
       <c r="R95" s="12" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>152</v>
@@ -15917,10 +15873,10 @@
         <v>0</v>
       </c>
       <c r="Y95" s="27" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="26.4">
+    <row r="96" spans="1:25" ht="24">
       <c r="A96">
         <v>53000096</v>
       </c>
@@ -15973,10 +15929,10 @@
         <v>1000</v>
       </c>
       <c r="R96" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>36</v>
@@ -15995,7 +15951,7 @@
       </c>
       <c r="Y96" s="27"/>
     </row>
-    <row r="97" spans="1:25" ht="57">
+    <row r="97" spans="1:25" ht="60">
       <c r="A97">
         <v>53000097</v>
       </c>
@@ -16048,7 +16004,7 @@
         <v>900</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="S97" s="7" t="s">
         <v>526</v>
@@ -16069,10 +16025,10 @@
         <v>0</v>
       </c>
       <c r="Y97" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="34.200000000000003">
+    <row r="98" spans="1:25" ht="24">
       <c r="A98">
         <v>53000098</v>
       </c>
@@ -16146,10 +16102,10 @@
         <v>0</v>
       </c>
       <c r="Y98" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="34.200000000000003">
+    <row r="99" spans="1:25" ht="24">
       <c r="A99">
         <v>53000099</v>
       </c>
@@ -16223,10 +16179,10 @@
         <v>0</v>
       </c>
       <c r="Y99" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="26.4">
+    <row r="100" spans="1:25" ht="24">
       <c r="A100">
         <v>53000100</v>
       </c>
@@ -16279,10 +16235,10 @@
         <v>1600</v>
       </c>
       <c r="R100" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T100" s="1" t="s">
         <v>158</v>
@@ -16300,10 +16256,10 @@
         <v>0</v>
       </c>
       <c r="Y100" s="27" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="45.6">
+    <row r="101" spans="1:25" ht="48">
       <c r="A101">
         <v>53000101</v>
       </c>
@@ -16356,10 +16312,10 @@
         <v>1500</v>
       </c>
       <c r="R101" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T101" s="1" t="s">
         <v>134</v>
@@ -16378,7 +16334,7 @@
       </c>
       <c r="Y101" s="27"/>
     </row>
-    <row r="102" spans="1:25" ht="26.4">
+    <row r="102" spans="1:25" ht="24">
       <c r="A102">
         <v>53000102</v>
       </c>
@@ -16452,10 +16408,10 @@
         <v>0</v>
       </c>
       <c r="Y102" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="79.8">
+    <row r="103" spans="1:25" ht="60">
       <c r="A103">
         <v>53000103</v>
       </c>
@@ -16508,10 +16464,10 @@
         <v>1300</v>
       </c>
       <c r="R103" s="12" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="T103" s="1" t="s">
         <v>162</v>
@@ -16529,10 +16485,10 @@
         <v>0</v>
       </c>
       <c r="Y103" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="57">
+    <row r="104" spans="1:25" ht="14.25">
       <c r="A104">
         <v>53000104</v>
       </c>
@@ -16584,11 +16540,9 @@
       <c r="Q104" s="1">
         <v>500</v>
       </c>
-      <c r="R104" s="12" t="s">
-        <v>843</v>
-      </c>
+      <c r="R104" s="12"/>
       <c r="S104" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T104" s="1" t="s">
         <v>164</v>
@@ -16606,10 +16560,10 @@
         <v>0</v>
       </c>
       <c r="Y104" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="57">
+    <row r="105" spans="1:25" ht="36">
       <c r="A105">
         <v>53000105</v>
       </c>
@@ -16662,10 +16616,10 @@
         <v>500</v>
       </c>
       <c r="R105" s="12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T105" s="1" t="s">
         <v>166</v>
@@ -16683,10 +16637,10 @@
         <v>0</v>
       </c>
       <c r="Y105" s="27" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="26.4">
+    <row r="106" spans="1:25" ht="24">
       <c r="A106">
         <v>53000106</v>
       </c>
@@ -16739,10 +16693,10 @@
         <v>1800</v>
       </c>
       <c r="R106" s="12" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="T106" s="1" t="s">
         <v>168</v>
@@ -16760,10 +16714,10 @@
         <v>0</v>
       </c>
       <c r="Y106" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="26.4">
+    <row r="107" spans="1:25" ht="24">
       <c r="A107">
         <v>53000107</v>
       </c>
@@ -16816,10 +16770,10 @@
         <v>1800</v>
       </c>
       <c r="R107" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T107" s="1" t="s">
         <v>170</v>
@@ -16837,10 +16791,10 @@
         <v>0</v>
       </c>
       <c r="Y107" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="136.80000000000001">
+    <row r="108" spans="1:25" ht="120">
       <c r="A108">
         <v>53000108</v>
       </c>
@@ -16893,7 +16847,7 @@
         <v>1700</v>
       </c>
       <c r="R108" s="12" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="S108" s="7" t="s">
         <v>527</v>
@@ -16914,10 +16868,10 @@
         <v>0</v>
       </c>
       <c r="Y108" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="26.4">
+    <row r="109" spans="1:25" ht="24">
       <c r="A109">
         <v>53000109</v>
       </c>
@@ -16970,7 +16924,7 @@
         <v>1800</v>
       </c>
       <c r="R109" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S109" s="7" t="s">
         <v>540</v>
@@ -16991,10 +16945,10 @@
         <v>0</v>
       </c>
       <c r="Y109" s="27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="45.6">
+    <row r="110" spans="1:25" ht="36">
       <c r="A110">
         <v>53000110</v>
       </c>
@@ -17047,10 +17001,10 @@
         <v>2100</v>
       </c>
       <c r="R110" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S110" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T110" s="1" t="s">
         <v>36</v>
@@ -17068,10 +17022,10 @@
         <v>0</v>
       </c>
       <c r="Y110" s="27" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="57">
+    <row r="111" spans="1:25" ht="48">
       <c r="A111">
         <v>53000111</v>
       </c>
@@ -17124,7 +17078,7 @@
         <v>1600</v>
       </c>
       <c r="R111" s="12" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="S111" s="7" t="s">
         <v>541</v>
@@ -17145,10 +17099,10 @@
         <v>0</v>
       </c>
       <c r="Y111" s="27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="26.4">
+    <row r="112" spans="1:25" ht="24">
       <c r="A112">
         <v>53000112</v>
       </c>
@@ -17201,10 +17155,10 @@
         <v>2400</v>
       </c>
       <c r="R112" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>179</v>
@@ -17222,10 +17176,10 @@
         <v>0</v>
       </c>
       <c r="Y112" s="27" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="26.4">
+    <row r="113" spans="1:25" ht="24">
       <c r="A113">
         <v>53000113</v>
       </c>
@@ -17278,10 +17232,10 @@
         <v>1400</v>
       </c>
       <c r="R113" s="12" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="T113" s="1" t="s">
         <v>181</v>
@@ -17299,10 +17253,10 @@
         <v>0</v>
       </c>
       <c r="Y113" s="27" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="26.4">
+    <row r="114" spans="1:25" ht="24">
       <c r="A114">
         <v>53000114</v>
       </c>
@@ -17377,7 +17331,7 @@
       </c>
       <c r="Y114" s="27"/>
     </row>
-    <row r="115" spans="1:25" ht="34.200000000000003">
+    <row r="115" spans="1:25" ht="36">
       <c r="A115">
         <v>53000115</v>
       </c>
@@ -17452,7 +17406,7 @@
       </c>
       <c r="Y115" s="27"/>
     </row>
-    <row r="116" spans="1:25" ht="57">
+    <row r="116" spans="1:25" ht="36">
       <c r="A116">
         <v>53000116</v>
       </c>
@@ -17505,10 +17459,10 @@
         <v>1300</v>
       </c>
       <c r="R116" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="S116" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>188</v>
@@ -17526,10 +17480,10 @@
         <v>0</v>
       </c>
       <c r="Y116" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="57">
+    <row r="117" spans="1:25" ht="48">
       <c r="A117">
         <v>53000117</v>
       </c>
@@ -17582,10 +17536,10 @@
         <v>500</v>
       </c>
       <c r="R117" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S117" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T117" s="1" t="s">
         <v>2</v>
@@ -17603,10 +17557,10 @@
         <v>0</v>
       </c>
       <c r="Y117" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="57">
+    <row r="118" spans="1:25" ht="48">
       <c r="A118">
         <v>53000118</v>
       </c>
@@ -17659,10 +17613,10 @@
         <v>500</v>
       </c>
       <c r="R118" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T118" s="1" t="s">
         <v>2</v>
@@ -17680,10 +17634,10 @@
         <v>0</v>
       </c>
       <c r="Y118" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="57">
+    <row r="119" spans="1:25" ht="48">
       <c r="A119">
         <v>53000119</v>
       </c>
@@ -17736,10 +17690,10 @@
         <v>500</v>
       </c>
       <c r="R119" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T119" s="1" t="s">
         <v>2</v>
@@ -17757,10 +17711,10 @@
         <v>0</v>
       </c>
       <c r="Y119" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="57">
+    <row r="120" spans="1:25" ht="48">
       <c r="A120">
         <v>53000120</v>
       </c>
@@ -17813,10 +17767,10 @@
         <v>500</v>
       </c>
       <c r="R120" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T120" s="1" t="s">
         <v>2</v>
@@ -17834,10 +17788,10 @@
         <v>0</v>
       </c>
       <c r="Y120" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="57">
+    <row r="121" spans="1:25" ht="48">
       <c r="A121">
         <v>53000121</v>
       </c>
@@ -17890,10 +17844,10 @@
         <v>500</v>
       </c>
       <c r="R121" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T121" s="1" t="s">
         <v>2</v>
@@ -17911,10 +17865,10 @@
         <v>0</v>
       </c>
       <c r="Y121" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="57">
+    <row r="122" spans="1:25" ht="48">
       <c r="A122">
         <v>53000122</v>
       </c>
@@ -17967,10 +17921,10 @@
         <v>500</v>
       </c>
       <c r="R122" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S122" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T122" s="1" t="s">
         <v>2</v>
@@ -17988,10 +17942,10 @@
         <v>0</v>
       </c>
       <c r="Y122" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="57">
+    <row r="123" spans="1:25" ht="48">
       <c r="A123">
         <v>53000123</v>
       </c>
@@ -18044,10 +17998,10 @@
         <v>500</v>
       </c>
       <c r="R123" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S123" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T123" s="1" t="s">
         <v>2</v>
@@ -18065,10 +18019,10 @@
         <v>0</v>
       </c>
       <c r="Y123" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="57">
+    <row r="124" spans="1:25" ht="48">
       <c r="A124">
         <v>53000124</v>
       </c>
@@ -18121,10 +18075,10 @@
         <v>500</v>
       </c>
       <c r="R124" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S124" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T124" s="1" t="s">
         <v>2</v>
@@ -18142,10 +18096,10 @@
         <v>0</v>
       </c>
       <c r="Y124" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="57">
+    <row r="125" spans="1:25" ht="48">
       <c r="A125">
         <v>53000125</v>
       </c>
@@ -18198,10 +18152,10 @@
         <v>500</v>
       </c>
       <c r="R125" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T125" s="1" t="s">
         <v>2</v>
@@ -18219,10 +18173,10 @@
         <v>0</v>
       </c>
       <c r="Y125" s="27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="79.8">
+    <row r="126" spans="1:25" ht="72">
       <c r="A126">
         <v>53000126</v>
       </c>
@@ -18275,13 +18229,13 @@
         <v>2200</v>
       </c>
       <c r="R126" s="12" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="S126" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="U126" s="1">
         <v>4</v>
@@ -18296,10 +18250,10 @@
         <v>1</v>
       </c>
       <c r="Y126" s="27" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="57">
+    <row r="127" spans="1:25" ht="48">
       <c r="A127">
         <v>53000127</v>
       </c>
@@ -18352,10 +18306,10 @@
         <v>3000</v>
       </c>
       <c r="R127" s="12" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="S127" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T127" s="1" t="s">
         <v>43</v>
@@ -18373,21 +18327,21 @@
         <v>1</v>
       </c>
       <c r="Y127" s="27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="34.200000000000003">
+    <row r="128" spans="1:25" ht="36">
       <c r="A128">
         <v>53000129</v>
       </c>
       <c r="B128" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="D128" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>638</v>
       </c>
       <c r="E128" s="16">
         <v>3</v>
@@ -18423,16 +18377,16 @@
         <v>0</v>
       </c>
       <c r="P128" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q128" s="1">
         <v>1800</v>
       </c>
       <c r="R128" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T128" s="1" t="s">
         <v>116</v>
@@ -18450,7 +18404,7 @@
         <v>1</v>
       </c>
       <c r="Y128" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -18543,22 +18497,22 @@
       <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="3.875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="27.21875" customWidth="1"/>
-    <col min="20" max="20" width="7.88671875" customWidth="1"/>
+    <col min="11" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="17" max="17" width="5.75" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="27.25" customWidth="1"/>
+    <col min="20" max="20" width="7.875" customWidth="1"/>
     <col min="21" max="24" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18612,7 +18566,7 @@
         <v>486</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>548</v>
@@ -18621,7 +18575,7 @@
         <v>469</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="U1" s="14" t="s">
         <v>215</v>
@@ -18630,13 +18584,13 @@
         <v>216</v>
       </c>
       <c r="W1" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -18766,7 +18720,7 @@
         <v>207</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>468</v>
@@ -18784,21 +18738,21 @@
         <v>209</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y3" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="22.8">
+    <row r="4" spans="1:25" ht="24">
       <c r="A4">
         <v>53100000</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="8"/>
@@ -18842,13 +18796,13 @@
         <v>-1</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>538</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U4" s="16">
         <v>4</v>
@@ -18864,7 +18818,7 @@
       </c>
       <c r="Y4" s="38"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" ht="14.25">
       <c r="A5">
         <v>53100001</v>
       </c>
@@ -18913,7 +18867,7 @@
         <v>-1</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>507</v>
@@ -18935,12 +18889,12 @@
       </c>
       <c r="Y5" s="38"/>
     </row>
-    <row r="6" spans="1:25" ht="34.200000000000003">
+    <row r="6" spans="1:25" ht="24">
       <c r="A6">
         <v>53100002</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="8"/>
@@ -18984,13 +18938,13 @@
         <v>-1</v>
       </c>
       <c r="R6" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>647</v>
-      </c>
       <c r="T6" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U6" s="16">
         <v>4</v>
@@ -19006,12 +18960,12 @@
       </c>
       <c r="Y6" s="38"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" ht="14.25">
       <c r="A7">
         <v>53100003</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="8"/>
@@ -19055,10 +19009,10 @@
         <v>-1</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="T7" s="16" t="s">
         <v>2</v>
@@ -19077,12 +19031,12 @@
       </c>
       <c r="Y7" s="38"/>
     </row>
-    <row r="8" spans="1:25" ht="34.200000000000003">
+    <row r="8" spans="1:25" ht="36">
       <c r="A8">
         <v>53100004</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="8"/>
@@ -19126,10 +19080,10 @@
         <v>-1</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T8" s="16" t="s">
         <v>2</v>
@@ -19148,12 +19102,12 @@
       </c>
       <c r="Y8" s="38"/>
     </row>
-    <row r="9" spans="1:25" ht="22.8">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9">
         <v>53100005</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
@@ -19197,13 +19151,13 @@
         <v>-1</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U9" s="16">
         <v>4</v>
@@ -19309,29 +19263,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="8" width="3.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
+    <col min="7" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="3.875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="27.21875" customWidth="1"/>
-    <col min="20" max="20" width="7.88671875" customWidth="1"/>
+    <col min="11" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="17" max="17" width="5.75" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="27.25" customWidth="1"/>
+    <col min="20" max="20" width="7.875" customWidth="1"/>
     <col min="21" max="21" width="4" customWidth="1"/>
     <col min="22" max="22" width="5" customWidth="1"/>
     <col min="23" max="24" width="4" customWidth="1"/>
@@ -19387,7 +19341,7 @@
         <v>486</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>548</v>
@@ -19396,7 +19350,7 @@
         <v>469</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="U1" s="14" t="s">
         <v>215</v>
@@ -19405,13 +19359,13 @@
         <v>216</v>
       </c>
       <c r="W1" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -19541,7 +19495,7 @@
         <v>207</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>468</v>
@@ -19559,27 +19513,27 @@
         <v>209</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y3" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="45.6">
+    <row r="4" spans="1:25" ht="36">
       <c r="A4">
         <v>53200100</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E4" s="16">
         <v>3</v>
@@ -19621,10 +19575,10 @@
         <v>2300</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>642</v>
+        <v>894</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="T4" s="16" t="s">
         <v>557</v>
@@ -19642,21 +19596,21 @@
         <v>0</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="26.4">
+    <row r="5" spans="1:25" ht="24">
       <c r="A5">
         <v>53200101</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>776</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>778</v>
       </c>
       <c r="E5" s="16">
         <v>3</v>
@@ -19698,10 +19652,10 @@
         <v>1800</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>51</v>
@@ -19719,21 +19673,21 @@
         <v>0</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="43.2">
+    <row r="6" spans="1:25" ht="40.5">
       <c r="A6">
         <v>53200102</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -19775,10 +19729,10 @@
         <v>2300</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>559</v>
+        <v>895</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>53</v>
@@ -19796,21 +19750,21 @@
         <v>0</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="26.4">
+    <row r="7" spans="1:25" ht="14.25">
       <c r="A7">
         <v>53200103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E7" s="16">
         <v>3</v>
@@ -19851,11 +19805,9 @@
       <c r="Q7" s="1">
         <v>2000</v>
       </c>
-      <c r="R7" s="12" t="s">
-        <v>782</v>
-      </c>
+      <c r="R7" s="12"/>
       <c r="S7" s="34" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>52</v>
@@ -19873,21 +19825,21 @@
         <v>0</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="57">
+    <row r="8" spans="1:25" ht="60">
       <c r="A8">
         <v>53200104</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>797</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -19929,13 +19881,13 @@
         <v>1800</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="U8" s="1">
         <v>4</v>
@@ -19950,21 +19902,21 @@
         <v>0</v>
       </c>
       <c r="Y8" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="26.4">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9">
         <v>53200105</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E9" s="16">
         <v>3</v>
@@ -20006,7 +19958,7 @@
         <v>8000</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>509</v>
@@ -20027,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -20069,11 +20021,11 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -20095,7 +20047,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B4">
         <f>SQRT((B3 + 19) / 20)</f>
@@ -20118,9 +20070,9 @@
         <v>2.3345235059857505</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="32" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B5">
         <f>SQRT((B4 + 19) / 20)</f>
@@ -20145,7 +20097,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B6">
         <f>SQRT((B3 + 20) / 30)</f>
@@ -20170,15 +20122,15 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -20195,16 +20147,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!Y:Y,"*单伤*")</f>
@@ -20213,7 +20165,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!Y:Y,"*群伤*")</f>
@@ -20222,7 +20174,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!Y:Y,"*单治*")</f>
@@ -20231,7 +20183,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!Y:Y,"*群治*")</f>
@@ -20240,7 +20192,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!Y:Y,"*正状*")</f>
@@ -20249,7 +20201,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!Y:Y,"*负状*")</f>
@@ -20258,7 +20210,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!Y:Y,"*手牌*")</f>
@@ -20267,7 +20219,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!Y:Y,"*过牌*")</f>
@@ -20276,7 +20228,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!Y:Y,"*陷阱*")</f>
@@ -20285,7 +20237,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!Y:Y,"*地形*")</f>
@@ -20294,7 +20246,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!Y:Y,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="875">
   <si>
     <t>慈悲</t>
   </si>
@@ -3157,31 +3157,155 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>单治,正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单治</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>过牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤，负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群治</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林巢穴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敌方墓地上尸爆，对1.5卡片距离内敌方单位造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>单伤</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>地形</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单负</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,负状</t>
+    <t>圣言-痛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Pain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Exchange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣言-换</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将单位的攻速永久升到20,{4:0.0}%几率同时回复{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加目标防御{3:0.0}%的攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣言-停</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Stop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣言-速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Haste</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddLp(p.Mp*s.Help);p.AddMp(-10);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.CopyRandomCardFor(p,(int)s.Help);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣言-转</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>holy3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Roll</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3189,15 +3313,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状</t>
+    <t>圣言-叛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Betray</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDB</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3205,270 +3329,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>单伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治,正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤，负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤，负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤，负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥布林巢穴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敌方墓地上尸爆，对1.5卡片距离内敌方单位造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣言-痛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Pain</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Exchange</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣言-换</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将单位的攻速永久升到20,{4:0.0}%几率同时回复{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加目标防御{3:0.0}%的攻击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣言-停</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Stop</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣言-速</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Haste</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddLp(p.Mp*s.Help);p.AddMp(-10);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>r.CopyRandomCardFor(p,(int)s.Help);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣言-转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>holy3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Roll</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣言-叛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Betray</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3489,19 +3349,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>倒虹吸</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Inverted Siphon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3585,38 +3437,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>属性,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单状,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状，基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状，基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","H",40,mouse,"firearrow"))im.OnMagicDamage(s.Damage,7);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3862,6 +3682,80 @@
   </si>
   <si>
     <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，单伤,基础</t>
+  </si>
+  <si>
+    <t>未完成，单伤,负状</t>
+  </si>
+  <si>
+    <t>未完成，单状,基础</t>
+  </si>
+  <si>
+    <t>未完成，地形</t>
+  </si>
+  <si>
+    <t>未完成，地形,基础</t>
+  </si>
+  <si>
+    <t>未完成，单治</t>
+  </si>
+  <si>
+    <t>未完成，单负</t>
+  </si>
+  <si>
+    <t>未完成，群伤</t>
+  </si>
+  <si>
+    <t>未完成，手牌</t>
+  </si>
+  <si>
+    <t>未完成，正状，基础</t>
+  </si>
+  <si>
+    <t>未完成，负状</t>
+  </si>
+  <si>
+    <t>未完成，单伤</t>
+  </si>
+  <si>
+    <t>未完成，陷阱</t>
+  </si>
+  <si>
+    <t>未完成，</t>
+  </si>
+  <si>
+    <t>未完成，正状</t>
+  </si>
+  <si>
+    <t>未完成，属性</t>
+  </si>
+  <si>
+    <t>未完成，单伤，负状</t>
+  </si>
+  <si>
+    <t>未完成，群治</t>
+  </si>
+  <si>
+    <t>未完成，群伤，负状</t>
+  </si>
+  <si>
+    <t>未完成，群伤,基础</t>
+  </si>
+  <si>
+    <t>未完成，卡牌</t>
+  </si>
+  <si>
+    <t>未完成，过牌</t>
+  </si>
+  <si>
+    <t>未完成，属性,基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，过牌,基础</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7270,6 +7164,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7418,11 +7313,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-311405968"/>
-        <c:axId val="-311404336"/>
+        <c:axId val="1969239232"/>
+        <c:axId val="1969239776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-311405968"/>
+        <c:axId val="1969239232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7465,7 +7360,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-311404336"/>
+        <c:crossAx val="1969239776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7473,7 +7368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-311404336"/>
+        <c:axId val="1969239776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7524,7 +7419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-311405968"/>
+        <c:crossAx val="1969239232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8551,11 +8446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R81" sqref="R81"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8707,7 +8602,7 @@
         <v>658</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>201</v>
@@ -8784,7 +8679,7 @@
         <v>659</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>852</v>
+        <v>807</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>470</v>
@@ -8861,7 +8756,7 @@
         <v>1704</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>581</v>
@@ -8882,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>830</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25">
@@ -8959,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>824</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24">
@@ -9015,7 +8910,7 @@
         <v>2000</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>654</v>
@@ -9036,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="36">
@@ -9092,7 +8987,7 @@
         <v>2000</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>881</v>
+        <v>836</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>655</v>
@@ -9113,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>726</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="24">
@@ -9169,7 +9064,7 @@
         <v>900</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>870</v>
+        <v>825</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>546</v>
@@ -9190,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="27" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="48">
@@ -9267,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="48">
@@ -9344,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="48">
@@ -9421,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="27" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="48">
@@ -9498,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="48">
@@ -9575,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="48">
@@ -9652,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="48">
@@ -9729,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="48">
@@ -9806,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="48">
@@ -9883,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>724</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="14.25">
@@ -9960,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="27" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="24">
@@ -10016,7 +9911,7 @@
         <v>1200</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>871</v>
+        <v>826</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>508</v>
@@ -10037,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="27" t="s">
-        <v>727</v>
+        <v>857</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="24">
@@ -10093,7 +9988,7 @@
         <v>8000</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
       <c r="S20" s="7" t="s">
         <v>509</v>
@@ -10114,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="27" t="s">
-        <v>727</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="48">
@@ -10191,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="27" t="s">
-        <v>728</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="60">
@@ -10247,7 +10142,7 @@
         <v>1800</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>834</v>
+        <v>789</v>
       </c>
       <c r="S22" s="7" t="s">
         <v>666</v>
@@ -10268,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="60">
@@ -10324,7 +10219,7 @@
         <v>2100</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>832</v>
+        <v>787</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>667</v>
@@ -10345,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="60">
@@ -10401,7 +10296,7 @@
         <v>1875</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="S24" s="7" t="s">
         <v>668</v>
@@ -10422,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="24">
@@ -10499,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="27" t="s">
-        <v>730</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="24">
@@ -10576,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="27" t="s">
-        <v>730</v>
+        <v>859</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="24">
@@ -10653,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="27" t="s">
-        <v>730</v>
+        <v>859</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="48">
@@ -10730,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="27" t="s">
-        <v>728</v>
+        <v>852</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="24">
@@ -10807,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="27" t="s">
-        <v>731</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="14.25">
@@ -10882,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="27" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="14.25">
@@ -10957,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="27" t="s">
-        <v>733</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="24">
@@ -11034,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="27" t="s">
-        <v>734</v>
+        <v>862</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="24">
@@ -11042,13 +10937,13 @@
         <v>53000030</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>813</v>
+        <v>776</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>814</v>
+        <v>777</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>818</v>
+        <v>781</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -11090,10 +10985,10 @@
         <v>1500</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>863</v>
+        <v>818</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>815</v>
+        <v>778</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>4</v>
@@ -11111,7 +11006,7 @@
         <v>1</v>
       </c>
       <c r="Y33" s="27" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="24">
@@ -11119,13 +11014,13 @@
         <v>53000031</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>816</v>
+        <v>779</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>817</v>
+        <v>780</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>819</v>
+        <v>782</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11167,10 +11062,10 @@
         <v>1500</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>820</v>
+        <v>783</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>4</v>
@@ -11188,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="Y34" s="27" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="48">
@@ -11244,7 +11139,7 @@
         <v>2000</v>
       </c>
       <c r="R35" s="12" t="s">
-        <v>853</v>
+        <v>808</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>513</v>
@@ -11265,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="48">
@@ -11342,7 +11237,9 @@
       <c r="X36" s="27">
         <v>0</v>
       </c>
-      <c r="Y36" s="27"/>
+      <c r="Y36" s="27" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="37" spans="1:25" ht="14.25">
       <c r="A37">
@@ -11416,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="27" t="s">
-        <v>826</v>
+        <v>860</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="14.25">
@@ -11473,7 +11370,7 @@
       </c>
       <c r="R38" s="12"/>
       <c r="S38" s="7" t="s">
-        <v>888</v>
+        <v>843</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>63</v>
@@ -11491,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="27" t="s">
-        <v>732</v>
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="24">
@@ -11499,10 +11396,10 @@
         <v>53000039</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>374</v>
@@ -11547,10 +11444,10 @@
         <v>1700</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>865</v>
+        <v>820</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>809</v>
+        <v>772</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>4</v>
@@ -11568,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="27" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="24">
@@ -11576,7 +11473,7 @@
         <v>53000040</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>270</v>
@@ -11624,10 +11521,10 @@
         <v>2000</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>866</v>
+        <v>821</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>810</v>
+        <v>773</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>4</v>
@@ -11645,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="27" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="24">
@@ -11722,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="27" t="s">
-        <v>746</v>
+        <v>859</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="48">
@@ -11778,7 +11675,7 @@
         <v>2000</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>854</v>
+        <v>809</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>514</v>
@@ -11799,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="27" t="s">
-        <v>747</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="24">
@@ -11876,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="27" t="s">
-        <v>749</v>
+        <v>866</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="24">
@@ -11884,7 +11781,7 @@
         <v>53000044</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>274</v>
@@ -11932,10 +11829,10 @@
         <v>1900</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>867</v>
+        <v>822</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>811</v>
+        <v>774</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>4</v>
@@ -11953,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="27" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="60">
@@ -12030,7 +11927,9 @@
       <c r="X45" s="27">
         <v>0</v>
       </c>
-      <c r="Y45" s="27"/>
+      <c r="Y45" s="27" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="46" spans="1:25" ht="48">
       <c r="A46">
@@ -12085,7 +11984,7 @@
         <v>2000</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>861</v>
+        <v>816</v>
       </c>
       <c r="S46" s="7" t="s">
         <v>528</v>
@@ -12106,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="60">
@@ -12162,7 +12061,7 @@
         <v>2200</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>843</v>
+        <v>798</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>529</v>
@@ -12183,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="48">
@@ -12239,7 +12138,7 @@
         <v>2000</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>855</v>
+        <v>810</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>515</v>
@@ -12260,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="60">
@@ -12316,7 +12215,7 @@
         <v>2200</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>836</v>
+        <v>791</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>530</v>
@@ -12337,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="72">
@@ -12393,7 +12292,7 @@
         <v>1800</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>869</v>
+        <v>824</v>
       </c>
       <c r="S50" s="7" t="s">
         <v>686</v>
@@ -12414,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="48">
@@ -12470,7 +12369,7 @@
         <v>2000</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>856</v>
+        <v>811</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>516</v>
@@ -12491,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="48">
@@ -12547,7 +12446,7 @@
         <v>2000</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>517</v>
@@ -12568,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="48">
@@ -12624,7 +12523,7 @@
         <v>2000</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>858</v>
+        <v>813</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>518</v>
@@ -12645,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="48">
@@ -12701,7 +12600,7 @@
         <v>1670</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>882</v>
+        <v>837</v>
       </c>
       <c r="S54" s="7" t="s">
         <v>619</v>
@@ -12722,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="27" t="s">
-        <v>752</v>
+        <v>867</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="24">
@@ -12799,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="27" t="s">
-        <v>749</v>
+        <v>866</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="36">
@@ -12876,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="27" t="s">
-        <v>749</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="24">
@@ -12953,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="27" t="s">
-        <v>749</v>
+        <v>866</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="24">
@@ -13009,7 +12908,7 @@
         <v>1800</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>883</v>
+        <v>838</v>
       </c>
       <c r="S58" s="7" t="s">
         <v>519</v>
@@ -13030,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="24">
@@ -13086,7 +12985,7 @@
         <v>560</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>821</v>
+        <v>784</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>579</v>
@@ -13107,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="27" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="36">
@@ -13184,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="27" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="48">
@@ -13240,7 +13139,7 @@
         <v>3000</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>859</v>
+        <v>814</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>570</v>
@@ -13261,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="27" t="s">
-        <v>755</v>
+        <v>868</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="24">
@@ -13317,7 +13216,7 @@
         <v>3000</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>880</v>
+        <v>835</v>
       </c>
       <c r="S62" s="7" t="s">
         <v>520</v>
@@ -13338,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="14.25">
@@ -13415,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="27" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="24">
@@ -13471,7 +13370,7 @@
         <v>1500</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>687</v>
@@ -13492,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="27" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="48">
@@ -13548,7 +13447,7 @@
         <v>5000</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>862</v>
+        <v>817</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>711</v>
@@ -13569,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="24">
@@ -13625,10 +13524,10 @@
         <v>1700</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>868</v>
+        <v>823</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>812</v>
+        <v>775</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>4</v>
@@ -13646,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="27" t="s">
-        <v>808</v>
+        <v>863</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="14.25">
@@ -13723,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="27" t="s">
-        <v>757</v>
+        <v>867</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="60">
@@ -13779,7 +13678,7 @@
         <v>1200</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>874</v>
+        <v>829</v>
       </c>
       <c r="S68" s="7" t="s">
         <v>688</v>
@@ -13800,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="27" t="s">
-        <v>758</v>
+        <v>869</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="24">
@@ -13856,7 +13755,7 @@
         <v>2000</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>873</v>
+        <v>828</v>
       </c>
       <c r="S69" s="7" t="s">
         <v>521</v>
@@ -13877,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="14.25">
@@ -13952,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="27" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="72">
@@ -14008,7 +13907,7 @@
         <v>2000</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>844</v>
+        <v>799</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>483</v>
@@ -14028,7 +13927,9 @@
       <c r="X71" s="27">
         <v>0</v>
       </c>
-      <c r="Y71" s="27"/>
+      <c r="Y71" s="27" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="72" spans="1:25" ht="48">
       <c r="A72">
@@ -14083,7 +13984,7 @@
         <v>4000</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>875</v>
+        <v>830</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>649</v>
@@ -14104,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="27" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="48">
@@ -14160,7 +14061,7 @@
         <v>1900</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>522</v>
@@ -14181,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="36">
@@ -14258,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="27" t="s">
-        <v>761</v>
+        <v>862</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="108">
@@ -14314,7 +14215,7 @@
         <v>3600</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>876</v>
+        <v>831</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>523</v>
@@ -14335,7 +14236,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="27" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="60">
@@ -14391,7 +14292,7 @@
         <v>2200</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>884</v>
+        <v>839</v>
       </c>
       <c r="S76" s="7" t="s">
         <v>689</v>
@@ -14412,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="48">
@@ -14468,7 +14369,7 @@
         <v>1200</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>885</v>
+        <v>840</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>524</v>
@@ -14489,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="Y77" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="14.25">
@@ -14566,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="27" t="s">
-        <v>749</v>
+        <v>866</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="48">
@@ -14622,7 +14523,7 @@
         <v>2400</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>889</v>
+        <v>844</v>
       </c>
       <c r="S79" s="7" t="s">
         <v>718</v>
@@ -14643,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="27" t="s">
-        <v>732</v>
+        <v>865</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="60">
@@ -14699,7 +14600,7 @@
         <v>2000</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>878</v>
+        <v>833</v>
       </c>
       <c r="S80" s="7" t="s">
         <v>525</v>
@@ -14720,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="27" t="s">
-        <v>762</v>
+        <v>861</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="60">
@@ -14776,7 +14677,7 @@
         <v>1800</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>837</v>
+        <v>792</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>531</v>
@@ -14797,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="27" t="s">
-        <v>729</v>
+        <v>858</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="24">
@@ -14853,7 +14754,7 @@
         <v>2400</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
       <c r="S82" s="7" t="s">
         <v>720</v>
@@ -14874,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="Y82" s="27" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="24">
@@ -14882,7 +14783,7 @@
         <v>53000083</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>306</v>
@@ -14930,13 +14831,13 @@
         <v>1200</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>893</v>
+        <v>848</v>
       </c>
       <c r="S83" s="7" t="s">
         <v>719</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>847</v>
+        <v>802</v>
       </c>
       <c r="U83" s="1">
         <v>4</v>
@@ -14951,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="27" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="24">
@@ -15007,13 +14908,13 @@
         <v>800</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>890</v>
+        <v>845</v>
       </c>
       <c r="S84" s="7" t="s">
         <v>566</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="U84" s="1">
         <v>4</v>
@@ -15028,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="27" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="60">
@@ -15084,7 +14985,7 @@
         <v>2000</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="S85" s="7" t="s">
         <v>532</v>
@@ -15105,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="27" t="s">
-        <v>764</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="14.25">
@@ -15180,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="27" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="60">
@@ -15236,7 +15137,7 @@
         <v>1500</v>
       </c>
       <c r="R87" s="12" t="s">
-        <v>838</v>
+        <v>793</v>
       </c>
       <c r="S87" s="7" t="s">
         <v>667</v>
@@ -15257,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="Y87" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="60">
@@ -15313,7 +15214,7 @@
         <v>1750</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="S88" s="7" t="s">
         <v>533</v>
@@ -15334,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="27" t="s">
-        <v>831</v>
+        <v>870</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="60">
@@ -15390,7 +15291,7 @@
         <v>1800</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>841</v>
+        <v>796</v>
       </c>
       <c r="S89" s="7" t="s">
         <v>529</v>
@@ -15411,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="60">
@@ -15467,7 +15368,7 @@
         <v>1650</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>842</v>
+        <v>797</v>
       </c>
       <c r="S90" s="7" t="s">
         <v>691</v>
@@ -15488,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="Y90" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="36">
@@ -15565,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="Y91" s="27" t="s">
-        <v>735</v>
+        <v>862</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="60">
@@ -15621,7 +15522,7 @@
         <v>1500</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="S92" s="7" t="s">
         <v>535</v>
@@ -15642,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="Y92" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="48">
@@ -15719,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="Y93" s="27" t="s">
-        <v>735</v>
+        <v>862</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="36">
@@ -15796,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="27" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="48">
@@ -15852,7 +15753,7 @@
         <v>1600</v>
       </c>
       <c r="R95" s="12" t="s">
-        <v>833</v>
+        <v>788</v>
       </c>
       <c r="S95" s="7" t="s">
         <v>568</v>
@@ -15873,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="27" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="24">
@@ -15949,7 +15850,9 @@
       <c r="X96" s="27">
         <v>0</v>
       </c>
-      <c r="Y96" s="27"/>
+      <c r="Y96" s="27" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="97" spans="1:25" ht="60">
       <c r="A97">
@@ -16004,7 +15907,7 @@
         <v>900</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>886</v>
+        <v>841</v>
       </c>
       <c r="S97" s="7" t="s">
         <v>526</v>
@@ -16025,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="24">
@@ -16102,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="27" t="s">
-        <v>723</v>
+        <v>862</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="24">
@@ -16179,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="Y99" s="27" t="s">
-        <v>723</v>
+        <v>862</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="24">
@@ -16256,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="27" t="s">
-        <v>767</v>
+        <v>871</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="48">
@@ -16332,7 +16235,9 @@
       <c r="X101" s="27">
         <v>0</v>
       </c>
-      <c r="Y101" s="27"/>
+      <c r="Y101" s="27" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="102" spans="1:25" ht="24">
       <c r="A102">
@@ -16408,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="27" t="s">
-        <v>723</v>
+        <v>862</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="60">
@@ -16464,7 +16369,7 @@
         <v>1300</v>
       </c>
       <c r="R103" s="12" t="s">
-        <v>891</v>
+        <v>846</v>
       </c>
       <c r="S103" s="7" t="s">
         <v>721</v>
@@ -16485,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="27" t="s">
-        <v>732</v>
+        <v>865</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="14.25">
@@ -16560,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="27" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="36">
@@ -16637,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="27" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="24">
@@ -16693,7 +16598,7 @@
         <v>1800</v>
       </c>
       <c r="R106" s="12" t="s">
-        <v>822</v>
+        <v>785</v>
       </c>
       <c r="S106" s="7" t="s">
         <v>702</v>
@@ -16714,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="27" t="s">
-        <v>732</v>
+        <v>865</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="24">
@@ -16770,7 +16675,7 @@
         <v>1800</v>
       </c>
       <c r="R107" s="12" t="s">
-        <v>823</v>
+        <v>786</v>
       </c>
       <c r="S107" s="7" t="s">
         <v>560</v>
@@ -16791,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="27" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="120">
@@ -16847,7 +16752,7 @@
         <v>1700</v>
       </c>
       <c r="R108" s="12" t="s">
-        <v>877</v>
+        <v>832</v>
       </c>
       <c r="S108" s="7" t="s">
         <v>527</v>
@@ -16868,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="Y108" s="27" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="24">
@@ -16945,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="27" t="s">
-        <v>725</v>
+        <v>856</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="36">
@@ -17022,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="27" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="48">
@@ -17078,7 +16983,7 @@
         <v>1600</v>
       </c>
       <c r="R111" s="12" t="s">
-        <v>860</v>
+        <v>815</v>
       </c>
       <c r="S111" s="7" t="s">
         <v>541</v>
@@ -17099,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="Y111" s="27" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="24">
@@ -17176,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="27" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="24">
@@ -17232,7 +17137,7 @@
         <v>1400</v>
       </c>
       <c r="R113" s="12" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="S113" s="7" t="s">
         <v>710</v>
@@ -17253,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="Y113" s="27" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="24">
@@ -17329,7 +17234,9 @@
       <c r="X114" s="27">
         <v>0</v>
       </c>
-      <c r="Y114" s="27"/>
+      <c r="Y114" s="27" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="115" spans="1:25" ht="36">
       <c r="A115">
@@ -17404,7 +17311,9 @@
       <c r="X115" s="27">
         <v>0</v>
       </c>
-      <c r="Y115" s="27"/>
+      <c r="Y115" s="27" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="116" spans="1:25" ht="36">
       <c r="A116">
@@ -17480,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="27" t="s">
-        <v>722</v>
+        <v>872</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="48">
@@ -17557,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Y117" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="48">
@@ -17634,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="Y118" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="48">
@@ -17711,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="Y119" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="48">
@@ -17788,7 +17697,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="48">
@@ -17865,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="Y121" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="48">
@@ -17942,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="Y122" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="48">
@@ -18019,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="48">
@@ -18096,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="Y124" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="48">
@@ -18173,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="Y125" s="27" t="s">
-        <v>769</v>
+        <v>854</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="72">
@@ -18229,13 +18138,13 @@
         <v>2200</v>
       </c>
       <c r="R126" s="12" t="s">
-        <v>851</v>
+        <v>806</v>
       </c>
       <c r="S126" s="7" t="s">
-        <v>771</v>
+        <v>736</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>850</v>
+        <v>805</v>
       </c>
       <c r="U126" s="1">
         <v>4</v>
@@ -18250,7 +18159,7 @@
         <v>1</v>
       </c>
       <c r="Y126" s="27" t="s">
-        <v>770</v>
+        <v>858</v>
       </c>
     </row>
     <row r="127" spans="1:25" ht="48">
@@ -18306,7 +18215,7 @@
         <v>3000</v>
       </c>
       <c r="R127" s="12" t="s">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="S127" s="7" t="s">
         <v>569</v>
@@ -18327,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="Y127" s="27" t="s">
-        <v>755</v>
+        <v>868</v>
       </c>
     </row>
     <row r="128" spans="1:25" ht="36">
@@ -18404,7 +18313,7 @@
         <v>1</v>
       </c>
       <c r="Y128" s="27" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -19151,7 +19060,7 @@
         <v>-1</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>887</v>
+        <v>842</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>639</v>
@@ -19263,7 +19172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -19527,13 +19436,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>783</v>
+        <v>748</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="E4" s="16">
         <v>3</v>
@@ -19575,7 +19484,7 @@
         <v>2300</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>894</v>
+        <v>849</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>644</v>
@@ -19596,7 +19505,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="24">
@@ -19604,13 +19513,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>775</v>
+        <v>740</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>776</v>
+        <v>741</v>
       </c>
       <c r="E5" s="16">
         <v>3</v>
@@ -19652,7 +19561,7 @@
         <v>1800</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>654</v>
@@ -19673,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>773</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="40.5">
@@ -19681,13 +19590,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>787</v>
+        <v>752</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>788</v>
+        <v>753</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -19729,10 +19638,10 @@
         <v>2300</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>895</v>
+        <v>850</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>780</v>
+        <v>745</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>53</v>
@@ -19750,7 +19659,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.25">
@@ -19758,13 +19667,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>779</v>
+        <v>744</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>777</v>
+        <v>742</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="E7" s="16">
         <v>3</v>
@@ -19807,7 +19716,7 @@
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="34" t="s">
-        <v>781</v>
+        <v>746</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>52</v>
@@ -19825,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>782</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="60">
@@ -19833,13 +19742,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>791</v>
+        <v>756</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>793</v>
+        <v>758</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -19881,13 +19790,13 @@
         <v>1800</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="U8" s="1">
         <v>4</v>
@@ -19902,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="27" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="24">
@@ -19910,13 +19819,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>797</v>
+        <v>762</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
       <c r="E9" s="16">
         <v>3</v>
@@ -19958,7 +19867,7 @@
         <v>8000</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>509</v>
@@ -19979,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -20151,12 +20060,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!Y:Y,"*单伤*")</f>
@@ -20165,7 +20074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!Y:Y,"*群伤*")</f>
@@ -20174,7 +20083,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!Y:Y,"*单治*")</f>
@@ -20183,7 +20092,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!Y:Y,"*群治*")</f>
@@ -20192,7 +20101,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!Y:Y,"*正状*")</f>
@@ -20201,7 +20110,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!Y:Y,"*负状*")</f>
@@ -20210,7 +20119,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!Y:Y,"*手牌*")</f>
@@ -20219,7 +20128,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!Y:Y,"*过牌*")</f>
@@ -20228,7 +20137,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!Y:Y,"*陷阱*")</f>
@@ -20237,7 +20146,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!Y:Y,"*地形*")</f>
@@ -20246,7 +20155,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!Y:Y,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -4769,174 +4769,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="137">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="125">
     <dxf>
       <font>
         <b val="0"/>
@@ -4995,284 +4828,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5287,33 +4842,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5596,6 +5125,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -6019,6 +5576,43 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6302,6 +5896,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -6733,6 +6355,138 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7016,6 +6770,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7445,6 +7227,143 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7621,11 +7540,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="575560432"/>
-        <c:axId val="727504992"/>
+        <c:axId val="1132320416"/>
+        <c:axId val="1132329120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="575560432"/>
+        <c:axId val="1132320416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7668,7 +7587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727504992"/>
+        <c:crossAx val="1132329120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7676,7 +7595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="727504992"/>
+        <c:axId val="1132329120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7646,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575560432"/>
+        <c:crossAx val="1132320416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8355,129 +8274,129 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AA128" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135" tableBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AA128" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
   <autoFilter ref="A3:AA128"/>
   <sortState ref="A4:Y128">
     <sortCondition ref="A3:A128"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="133"/>
-    <tableColumn id="2" name="Name" dataDxfId="132"/>
-    <tableColumn id="20" name="Ename" dataDxfId="131"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="130"/>
-    <tableColumn id="3" name="Star" dataDxfId="129"/>
-    <tableColumn id="4" name="Type" dataDxfId="128"/>
-    <tableColumn id="5" name="Attr" dataDxfId="127"/>
-    <tableColumn id="8" name="Quality" dataDxfId="1">
-      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;4,4,IF(P4&gt;2,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="104"/>
+    <tableColumn id="2" name="Name" dataDxfId="103"/>
+    <tableColumn id="20" name="Ename" dataDxfId="102"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="101"/>
+    <tableColumn id="3" name="Star" dataDxfId="100"/>
+    <tableColumn id="4" name="Type" dataDxfId="99"/>
+    <tableColumn id="5" name="Attr" dataDxfId="98"/>
+    <tableColumn id="8" name="Quality" dataDxfId="2">
+      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="126"/>
-    <tableColumn id="9" name="Damage" dataDxfId="125"/>
-    <tableColumn id="10" name="Cure" dataDxfId="124"/>
-    <tableColumn id="11" name="Time" dataDxfId="123"/>
-    <tableColumn id="13" name="Help" dataDxfId="122"/>
-    <tableColumn id="16" name="Rate" dataDxfId="121"/>
-    <tableColumn id="12" name="Modify" dataDxfId="120"/>
-    <tableColumn id="27" name="Sum" dataDxfId="0">
+    <tableColumn id="7" name="Cost" dataDxfId="97"/>
+    <tableColumn id="9" name="Damage" dataDxfId="96"/>
+    <tableColumn id="10" name="Cure" dataDxfId="95"/>
+    <tableColumn id="11" name="Time" dataDxfId="94"/>
+    <tableColumn id="13" name="Help" dataDxfId="93"/>
+    <tableColumn id="16" name="Rate" dataDxfId="92"/>
+    <tableColumn id="12" name="Modify" dataDxfId="91"/>
+    <tableColumn id="27" name="Sum" dataDxfId="90">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="119"/>
-    <tableColumn id="15" name="Target" dataDxfId="118"/>
-    <tableColumn id="25" name="Mark" dataDxfId="117"/>
-    <tableColumn id="22" name="Effect" dataDxfId="116"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="115"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="114"/>
-    <tableColumn id="18" name="Res" dataDxfId="113"/>
-    <tableColumn id="19" name="Icon" dataDxfId="112"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="111"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="110"/>
-    <tableColumn id="26" name="Remark" dataDxfId="109"/>
+    <tableColumn id="6" name="Range" dataDxfId="89"/>
+    <tableColumn id="15" name="Target" dataDxfId="88"/>
+    <tableColumn id="25" name="Mark" dataDxfId="87"/>
+    <tableColumn id="22" name="Effect" dataDxfId="86"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="85"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="84"/>
+    <tableColumn id="18" name="Res" dataDxfId="83"/>
+    <tableColumn id="19" name="Icon" dataDxfId="82"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="81"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="80"/>
+    <tableColumn id="26" name="Remark" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107" tableBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="A3:AA9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="105"/>
-    <tableColumn id="2" name="Name" dataDxfId="104"/>
-    <tableColumn id="20" name="Ename" dataDxfId="103"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="102"/>
-    <tableColumn id="3" name="Star" dataDxfId="101"/>
-    <tableColumn id="4" name="Type" dataDxfId="100"/>
-    <tableColumn id="5" name="Attr" dataDxfId="99"/>
-    <tableColumn id="8" name="Quality" dataDxfId="53">
-      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;4,4,IF(P4&gt;2,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="60"/>
+    <tableColumn id="2" name="Name" dataDxfId="59"/>
+    <tableColumn id="20" name="Ename" dataDxfId="58"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="57"/>
+    <tableColumn id="3" name="Star" dataDxfId="56"/>
+    <tableColumn id="4" name="Type" dataDxfId="55"/>
+    <tableColumn id="5" name="Attr" dataDxfId="54"/>
+    <tableColumn id="8" name="Quality" dataDxfId="1">
+      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="98"/>
-    <tableColumn id="9" name="Damage" dataDxfId="97"/>
-    <tableColumn id="10" name="Cure" dataDxfId="96"/>
-    <tableColumn id="11" name="Time" dataDxfId="95"/>
-    <tableColumn id="13" name="Help" dataDxfId="94"/>
-    <tableColumn id="16" name="Rate" dataDxfId="93"/>
-    <tableColumn id="12" name="Modify" dataDxfId="92"/>
-    <tableColumn id="27" name="Sum" dataDxfId="18">
+    <tableColumn id="7" name="Cost" dataDxfId="53"/>
+    <tableColumn id="9" name="Damage" dataDxfId="52"/>
+    <tableColumn id="10" name="Cure" dataDxfId="51"/>
+    <tableColumn id="11" name="Time" dataDxfId="50"/>
+    <tableColumn id="13" name="Help" dataDxfId="49"/>
+    <tableColumn id="16" name="Rate" dataDxfId="48"/>
+    <tableColumn id="12" name="Modify" dataDxfId="47"/>
+    <tableColumn id="27" name="Sum" dataDxfId="46">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="91"/>
-    <tableColumn id="15" name="Target" dataDxfId="90"/>
-    <tableColumn id="25" name="Mark" dataDxfId="89"/>
-    <tableColumn id="22" name="Effect" dataDxfId="88"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="87"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="86"/>
-    <tableColumn id="18" name="Res" dataDxfId="85"/>
-    <tableColumn id="19" name="Icon" dataDxfId="84"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="83"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="82"/>
-    <tableColumn id="26" name="Remark" dataDxfId="81"/>
+    <tableColumn id="6" name="Range" dataDxfId="45"/>
+    <tableColumn id="15" name="Target" dataDxfId="44"/>
+    <tableColumn id="25" name="Mark" dataDxfId="43"/>
+    <tableColumn id="22" name="Effect" dataDxfId="42"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="41"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="40"/>
+    <tableColumn id="18" name="Res" dataDxfId="39"/>
+    <tableColumn id="19" name="Icon" dataDxfId="38"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="37"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="36"/>
+    <tableColumn id="26" name="Remark" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="80" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="A3:AA9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="78"/>
-    <tableColumn id="2" name="Name" dataDxfId="77"/>
-    <tableColumn id="20" name="Ename" dataDxfId="76"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="75"/>
-    <tableColumn id="3" name="Star" dataDxfId="74"/>
-    <tableColumn id="4" name="Type" dataDxfId="73"/>
-    <tableColumn id="5" name="Attr" dataDxfId="72"/>
-    <tableColumn id="8" name="Quality" dataDxfId="52">
-      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;4,4,IF(P4&gt;2,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="28"/>
+    <tableColumn id="2" name="Name" dataDxfId="27"/>
+    <tableColumn id="20" name="Ename" dataDxfId="26"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="25"/>
+    <tableColumn id="3" name="Star" dataDxfId="24"/>
+    <tableColumn id="4" name="Type" dataDxfId="23"/>
+    <tableColumn id="5" name="Attr" dataDxfId="22"/>
+    <tableColumn id="8" name="Quality" dataDxfId="0">
+      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="71"/>
-    <tableColumn id="9" name="Damage" dataDxfId="70"/>
-    <tableColumn id="10" name="Cure" dataDxfId="69"/>
-    <tableColumn id="11" name="Time" dataDxfId="68"/>
-    <tableColumn id="13" name="Help" dataDxfId="67"/>
-    <tableColumn id="16" name="Rate" dataDxfId="66"/>
-    <tableColumn id="12" name="Modify" dataDxfId="65"/>
-    <tableColumn id="27" name="Sum" dataDxfId="19">
+    <tableColumn id="7" name="Cost" dataDxfId="21"/>
+    <tableColumn id="9" name="Damage" dataDxfId="20"/>
+    <tableColumn id="10" name="Cure" dataDxfId="19"/>
+    <tableColumn id="11" name="Time" dataDxfId="18"/>
+    <tableColumn id="13" name="Help" dataDxfId="17"/>
+    <tableColumn id="16" name="Rate" dataDxfId="16"/>
+    <tableColumn id="12" name="Modify" dataDxfId="15"/>
+    <tableColumn id="27" name="Sum" dataDxfId="14">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="64"/>
-    <tableColumn id="15" name="Target" dataDxfId="63"/>
-    <tableColumn id="25" name="Mark" dataDxfId="62"/>
-    <tableColumn id="22" name="Effect" dataDxfId="61"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="60"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="59"/>
-    <tableColumn id="18" name="Res" dataDxfId="58"/>
-    <tableColumn id="19" name="Icon" dataDxfId="57"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="56"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="55"/>
-    <tableColumn id="26" name="Remark" dataDxfId="54"/>
+    <tableColumn id="6" name="Range" dataDxfId="13"/>
+    <tableColumn id="15" name="Target" dataDxfId="12"/>
+    <tableColumn id="25" name="Mark" dataDxfId="11"/>
+    <tableColumn id="22" name="Effect" dataDxfId="10"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="9"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="8"/>
+    <tableColumn id="18" name="Res" dataDxfId="7"/>
+    <tableColumn id="19" name="Icon" dataDxfId="6"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="5"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="4"/>
+    <tableColumn id="26" name="Remark" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8772,11 +8691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9072,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(P4&gt;10,5,IF(P4&gt;4,4,IF(P4&gt;2,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H35" si="0">IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="1">
@@ -9097,7 +9016,7 @@
         <v>-3</v>
       </c>
       <c r="P4" s="43">
-        <f t="shared" ref="P4:P35" si="0">(S4-2000)/20+O4</f>
+        <f t="shared" ref="P4:P35" si="1">(S4-2000)/20+O4</f>
         <v>-17.8</v>
       </c>
       <c r="Q4" s="1">
@@ -9157,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H68" si="1">IF(P5&gt;10,5,IF(P5&gt;4,4,IF(P5&gt;2,3,IF(P5&gt;0,2,IF(P5&gt;-2.5,1,IF(P5&gt;-10,0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I5" s="1">
@@ -9182,7 +9101,7 @@
         <v>-3</v>
       </c>
       <c r="P5" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25.5</v>
       </c>
       <c r="Q5" s="1">
@@ -9242,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -9267,7 +9186,7 @@
         <v>-3</v>
       </c>
       <c r="P6" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="Q6" s="1">
@@ -9327,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="1">
@@ -9352,7 +9271,7 @@
         <v>-2</v>
       </c>
       <c r="P7" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="Q7" s="1">
@@ -9412,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I8" s="1">
@@ -9437,7 +9356,7 @@
         <v>-3</v>
       </c>
       <c r="P8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-58</v>
       </c>
       <c r="Q8" s="1">
@@ -9497,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I9" s="1">
@@ -9522,7 +9441,7 @@
         <v>-3</v>
       </c>
       <c r="P9" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q9" s="1">
@@ -9582,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I10" s="1">
@@ -9607,7 +9526,7 @@
         <v>-3</v>
       </c>
       <c r="P10" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q10" s="1">
@@ -9667,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I11" s="1">
@@ -9692,7 +9611,7 @@
         <v>-3</v>
       </c>
       <c r="P11" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q11" s="1">
@@ -9752,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I12" s="1">
@@ -9777,7 +9696,7 @@
         <v>-3</v>
       </c>
       <c r="P12" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q12" s="1">
@@ -9837,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I13" s="1">
@@ -9862,7 +9781,7 @@
         <v>-3</v>
       </c>
       <c r="P13" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q13" s="1">
@@ -9922,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I14" s="1">
@@ -9947,7 +9866,7 @@
         <v>-3</v>
       </c>
       <c r="P14" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q14" s="1">
@@ -10007,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I15" s="1">
@@ -10032,7 +9951,7 @@
         <v>-3</v>
       </c>
       <c r="P15" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q15" s="1">
@@ -10092,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I16" s="1">
@@ -10117,7 +10036,7 @@
         <v>-3</v>
       </c>
       <c r="P16" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q16" s="1">
@@ -10177,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -10202,7 +10121,7 @@
         <v>-3</v>
       </c>
       <c r="P17" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
       <c r="Q17" s="1">
@@ -10262,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I18" s="1">
@@ -10287,7 +10206,7 @@
         <v>-3</v>
       </c>
       <c r="P18" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28</v>
       </c>
       <c r="Q18" s="1">
@@ -10347,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I19" s="1">
@@ -10372,7 +10291,7 @@
         <v>-3</v>
       </c>
       <c r="P19" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-43</v>
       </c>
       <c r="Q19" s="1">
@@ -10432,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I20" s="1">
@@ -10457,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>301</v>
       </c>
       <c r="Q20" s="1">
@@ -10517,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I21" s="1">
@@ -10542,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q21" s="1">
@@ -10602,7 +10521,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="1">
@@ -10627,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="Q22" s="1">
@@ -10687,7 +10606,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I23" s="1">
@@ -10712,7 +10631,7 @@
         <v>-1</v>
       </c>
       <c r="P23" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q23" s="1">
@@ -10772,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="1">
@@ -10797,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.25</v>
       </c>
       <c r="Q24" s="1">
@@ -10857,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I25" s="1">
@@ -10882,7 +10801,7 @@
         <v>-3</v>
       </c>
       <c r="P25" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28</v>
       </c>
       <c r="Q25" s="1">
@@ -10942,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I26" s="1">
@@ -10967,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="Q26" s="1">
@@ -11027,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="1">
@@ -11052,7 +10971,7 @@
         <v>-3</v>
       </c>
       <c r="P27" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
       <c r="Q27" s="1">
@@ -11112,7 +11031,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I28" s="1">
@@ -11137,7 +11056,7 @@
         <v>-2</v>
       </c>
       <c r="P28" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Q28" s="1">
@@ -11197,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I29" s="1">
@@ -11222,7 +11141,7 @@
         <v>3</v>
       </c>
       <c r="P29" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22</v>
       </c>
       <c r="Q29" s="1">
@@ -11282,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I30" s="1">
@@ -11307,7 +11226,7 @@
         <v>-3</v>
       </c>
       <c r="P30" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-73</v>
       </c>
       <c r="Q30" s="1">
@@ -11365,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I31" s="1">
@@ -11390,7 +11309,7 @@
         <v>-3</v>
       </c>
       <c r="P31" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-73</v>
       </c>
       <c r="Q31" s="1">
@@ -11448,7 +11367,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I32" s="1">
@@ -11473,7 +11392,7 @@
         <v>-1</v>
       </c>
       <c r="P32" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="Q32" s="1">
@@ -11533,7 +11452,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I33" s="1">
@@ -11558,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="Q33" s="1">
@@ -11618,7 +11537,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I34" s="1">
@@ -11643,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="Q34" s="1">
@@ -11703,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="1">
@@ -11728,7 +11647,7 @@
         <v>-3</v>
       </c>
       <c r="P35" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="Q35" s="1">
@@ -11788,7 +11707,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H36:H67" si="2">IF(P36&gt;10,5,IF(P36&gt;5,4,IF(P36&gt;2.5,3,IF(P36&gt;0,2,IF(P36&gt;-2.5,1,IF(P36&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I36" s="1">
@@ -11813,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="43">
-        <f t="shared" ref="P36:P67" si="2">(S36-2000)/20+O36</f>
+        <f t="shared" ref="P36:P67" si="3">(S36-2000)/20+O36</f>
         <v>-39</v>
       </c>
       <c r="Q36" s="1">
@@ -11874,7 +11793,7 @@
         <v>7</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I37" s="1">
@@ -11899,7 +11818,7 @@
         <v>-1</v>
       </c>
       <c r="P37" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11</v>
       </c>
       <c r="Q37" s="1">
@@ -11957,7 +11876,7 @@
         <v>6</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I38" s="1">
@@ -11982,7 +11901,7 @@
         <v>-1</v>
       </c>
       <c r="P38" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-41</v>
       </c>
       <c r="Q38" s="1">
@@ -12040,7 +11959,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I39" s="1">
@@ -12065,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="Q39" s="1">
@@ -12125,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I40" s="1">
@@ -12150,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
@@ -12210,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I41" s="1">
@@ -12235,7 +12154,7 @@
         <v>-2</v>
       </c>
       <c r="P41" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="Q41" s="1">
@@ -12295,7 +12214,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="1">
@@ -12320,7 +12239,7 @@
         <v>-3</v>
       </c>
       <c r="P42" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q42" s="1">
@@ -12380,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I43" s="1">
@@ -12405,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q43" s="1">
@@ -12465,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="1">
@@ -12490,7 +12409,7 @@
         <v>2</v>
       </c>
       <c r="P44" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q44" s="1">
@@ -12550,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I45" s="1">
@@ -12575,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-39</v>
       </c>
       <c r="Q45" s="1">
@@ -12636,7 +12555,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I46" s="1">
@@ -12661,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q46" s="1">
@@ -12721,7 +12640,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I47" s="1">
@@ -12746,7 +12665,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Q47" s="1">
@@ -12806,7 +12725,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I48" s="1">
@@ -12831,7 +12750,7 @@
         <v>-3</v>
       </c>
       <c r="P48" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q48" s="1">
@@ -12891,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I49" s="1">
@@ -12916,7 +12835,7 @@
         <v>-1</v>
       </c>
       <c r="P49" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q49" s="1">
@@ -12976,7 +12895,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I50" s="1">
@@ -13001,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="Q50" s="1">
@@ -13061,7 +12980,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="1">
@@ -13086,7 +13005,7 @@
         <v>-3</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q51" s="1">
@@ -13146,7 +13065,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52" s="1">
@@ -13171,7 +13090,7 @@
         <v>-3</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q52" s="1">
@@ -13231,7 +13150,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53" s="1">
@@ -13256,7 +13175,7 @@
         <v>-3</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q53" s="1">
@@ -13316,7 +13235,7 @@
         <v>6</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I54" s="1">
@@ -13341,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-14.5</v>
       </c>
       <c r="Q54" s="1">
@@ -13401,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I55" s="1">
@@ -13426,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q55" s="1">
@@ -13486,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I56" s="1">
@@ -13511,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-62.5</v>
       </c>
       <c r="Q56" s="1">
@@ -13571,7 +13490,7 @@
         <v>8</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I57" s="1">
@@ -13596,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
       <c r="Q57" s="1">
@@ -13656,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I58" s="1">
@@ -13681,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="Q58" s="1">
@@ -13741,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I59" s="1">
@@ -13766,7 +13685,7 @@
         <v>-2</v>
       </c>
       <c r="P59" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-74</v>
       </c>
       <c r="Q59" s="1">
@@ -13826,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I60" s="1">
@@ -13851,7 +13770,7 @@
         <v>-3</v>
       </c>
       <c r="P60" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-77</v>
       </c>
       <c r="Q60" s="1">
@@ -13911,7 +13830,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I61" s="1">
@@ -13936,7 +13855,7 @@
         <v>-3</v>
       </c>
       <c r="P61" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q61" s="1">
@@ -13996,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I62" s="1">
@@ -14021,7 +13940,7 @@
         <v>-3</v>
       </c>
       <c r="P62" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q62" s="1">
@@ -14081,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I63" s="1">
@@ -14106,7 +14025,7 @@
         <v>3</v>
       </c>
       <c r="P63" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-22</v>
       </c>
       <c r="Q63" s="1">
@@ -14166,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I64" s="1">
@@ -14191,7 +14110,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-23</v>
       </c>
       <c r="Q64" s="1">
@@ -14251,7 +14170,7 @@
         <v>7</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I65" s="1">
@@ -14276,7 +14195,7 @@
         <v>3</v>
       </c>
       <c r="P65" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="Q65" s="1">
@@ -14336,7 +14255,7 @@
         <v>6</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I66" s="1">
@@ -14361,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="Q66" s="1">
@@ -14421,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I67" s="1">
@@ -14446,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="P67" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="Q67" s="1">
@@ -14506,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H68:H99" si="4">IF(P68&gt;10,5,IF(P68&gt;5,4,IF(P68&gt;2.5,3,IF(P68&gt;0,2,IF(P68&gt;-2.5,1,IF(P68&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I68" s="1">
@@ -14531,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="43">
-        <f t="shared" ref="P68:P99" si="3">(S68-2000)/20+O68</f>
+        <f t="shared" ref="P68:P99" si="5">(S68-2000)/20+O68</f>
         <v>-40</v>
       </c>
       <c r="Q68" s="1">
@@ -14591,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" ref="H69:H128" si="4">IF(P69&gt;10,5,IF(P69&gt;4,4,IF(P69&gt;2,3,IF(P69&gt;0,2,IF(P69&gt;-2.5,1,IF(P69&gt;-10,0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I69" s="1">
@@ -14616,7 +14535,7 @@
         <v>3</v>
       </c>
       <c r="P69" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q69" s="1">
@@ -14701,7 +14620,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="Q70" s="1">
@@ -14784,7 +14703,7 @@
         <v>2</v>
       </c>
       <c r="P71" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q71" s="1">
@@ -14869,7 +14788,7 @@
         <v>2</v>
       </c>
       <c r="P72" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="Q72" s="1">
@@ -14954,7 +14873,7 @@
         <v>3</v>
       </c>
       <c r="P73" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="Q73" s="1">
@@ -15015,7 +14934,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" s="1">
         <v>4</v>
@@ -15039,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q74" s="1">
@@ -15124,7 +15043,7 @@
         <v>-3</v>
       </c>
       <c r="P75" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="Q75" s="1">
@@ -15209,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q76" s="1">
@@ -15294,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-40</v>
       </c>
       <c r="Q77" s="1">
@@ -15379,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-50</v>
       </c>
       <c r="Q78" s="1">
@@ -15464,7 +15383,7 @@
         <v>-2</v>
       </c>
       <c r="P79" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="Q79" s="1">
@@ -15549,7 +15468,7 @@
         <v>-1</v>
       </c>
       <c r="P80" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q80" s="1">
@@ -15634,7 +15553,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="Q81" s="1">
@@ -15719,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="Q82" s="1">
@@ -15804,7 +15723,7 @@
         <v>3</v>
       </c>
       <c r="P83" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-37</v>
       </c>
       <c r="Q83" s="1">
@@ -15889,7 +15808,7 @@
         <v>3</v>
       </c>
       <c r="P84" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-57</v>
       </c>
       <c r="Q84" s="1">
@@ -15974,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q85" s="1">
@@ -16059,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-70</v>
       </c>
       <c r="Q86" s="1">
@@ -16142,7 +16061,7 @@
         <v>3</v>
       </c>
       <c r="P87" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-22</v>
       </c>
       <c r="Q87" s="1">
@@ -16227,7 +16146,7 @@
         <v>2</v>
       </c>
       <c r="P88" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-10.5</v>
       </c>
       <c r="Q88" s="1">
@@ -16312,7 +16231,7 @@
         <v>3</v>
       </c>
       <c r="P89" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="Q89" s="1">
@@ -16397,7 +16316,7 @@
         <v>3</v>
       </c>
       <c r="P90" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-14.5</v>
       </c>
       <c r="Q90" s="1">
@@ -16482,7 +16401,7 @@
         <v>-2</v>
       </c>
       <c r="P91" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="Q91" s="1">
@@ -16567,7 +16486,7 @@
         <v>2</v>
       </c>
       <c r="P92" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-23</v>
       </c>
       <c r="Q92" s="1">
@@ -16652,7 +16571,7 @@
         <v>-2</v>
       </c>
       <c r="P93" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="Q93" s="1">
@@ -16737,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-75</v>
       </c>
       <c r="Q94" s="1">
@@ -16822,7 +16741,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-17</v>
       </c>
       <c r="Q95" s="1">
@@ -16907,7 +16826,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-51</v>
       </c>
       <c r="Q96" s="1">
@@ -16992,7 +16911,7 @@
         <v>3</v>
       </c>
       <c r="P97" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-52</v>
       </c>
       <c r="Q97" s="1">
@@ -17077,7 +16996,7 @@
         <v>1</v>
       </c>
       <c r="P98" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q98" s="1">
@@ -17162,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="Q99" s="1">
@@ -17222,7 +17141,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H100:H128" si="6">IF(P100&gt;10,5,IF(P100&gt;5,4,IF(P100&gt;2.5,3,IF(P100&gt;0,2,IF(P100&gt;-2.5,1,IF(P100&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I100" s="1">
@@ -17247,7 +17166,7 @@
         <v>3</v>
       </c>
       <c r="P100" s="43">
-        <f t="shared" ref="P100:P131" si="5">(S100-2000)/20+O100</f>
+        <f t="shared" ref="P100:P128" si="7">(S100-2000)/20+O100</f>
         <v>-17</v>
       </c>
       <c r="Q100" s="1">
@@ -17307,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I101" s="1">
@@ -17332,7 +17251,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-25</v>
       </c>
       <c r="Q101" s="1">
@@ -17392,7 +17311,7 @@
         <v>2</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I102" s="1">
@@ -17417,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q102" s="1">
@@ -17477,7 +17396,7 @@
         <v>8</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I103" s="1">
@@ -17502,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-35</v>
       </c>
       <c r="Q103" s="1">
@@ -17562,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I104" s="1">
@@ -17587,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="P104" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-75</v>
       </c>
       <c r="Q104" s="1">
@@ -17645,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I105" s="1">
@@ -17670,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-75</v>
       </c>
       <c r="Q105" s="1">
@@ -17730,7 +17649,7 @@
         <v>3</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I106" s="1">
@@ -17755,7 +17674,7 @@
         <v>-1</v>
       </c>
       <c r="P106" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-11</v>
       </c>
       <c r="Q106" s="1">
@@ -17815,7 +17734,7 @@
         <v>8</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I107" s="1">
@@ -17840,7 +17759,7 @@
         <v>-1</v>
       </c>
       <c r="P107" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-11</v>
       </c>
       <c r="Q107" s="1">
@@ -17900,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I108" s="1">
@@ -17925,7 +17844,7 @@
         <v>3</v>
       </c>
       <c r="P108" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-12</v>
       </c>
       <c r="Q108" s="1">
@@ -17985,7 +17904,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I109" s="1">
@@ -18010,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
       <c r="Q109" s="1">
@@ -18070,8 +17989,8 @@
         <v>0</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I110" s="1">
         <v>4</v>
@@ -18095,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q110" s="1">
@@ -18155,7 +18074,7 @@
         <v>7</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I111" s="1">
@@ -18180,7 +18099,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-17</v>
       </c>
       <c r="Q111" s="1">
@@ -18240,7 +18159,7 @@
         <v>8</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I112" s="1">
@@ -18265,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Q112" s="1">
@@ -18325,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I113" s="1">
@@ -18350,7 +18269,7 @@
         <v>2</v>
       </c>
       <c r="P113" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-28</v>
       </c>
       <c r="Q113" s="1">
@@ -18410,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I114" s="1">
@@ -18435,7 +18354,7 @@
         <v>-1</v>
       </c>
       <c r="P114" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-86</v>
       </c>
       <c r="Q114" s="1">
@@ -18495,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I115" s="1">
@@ -18520,7 +18439,7 @@
         <v>-1</v>
       </c>
       <c r="P115" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-86</v>
       </c>
       <c r="Q115" s="1">
@@ -18580,7 +18499,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I116" s="1">
@@ -18605,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="P116" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-34</v>
       </c>
       <c r="Q116" s="1">
@@ -18665,7 +18584,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I117" s="1">
@@ -18690,7 +18609,7 @@
         <v>-3</v>
       </c>
       <c r="P117" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q117" s="1">
@@ -18750,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I118" s="1">
@@ -18775,7 +18694,7 @@
         <v>-3</v>
       </c>
       <c r="P118" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q118" s="1">
@@ -18835,7 +18754,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I119" s="1">
@@ -18860,7 +18779,7 @@
         <v>-3</v>
       </c>
       <c r="P119" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q119" s="1">
@@ -18920,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I120" s="1">
@@ -18945,7 +18864,7 @@
         <v>-3</v>
       </c>
       <c r="P120" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q120" s="1">
@@ -19005,7 +18924,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I121" s="1">
@@ -19030,7 +18949,7 @@
         <v>-3</v>
       </c>
       <c r="P121" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q121" s="1">
@@ -19090,7 +19009,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I122" s="1">
@@ -19115,7 +19034,7 @@
         <v>-3</v>
       </c>
       <c r="P122" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q122" s="1">
@@ -19175,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I123" s="1">
@@ -19200,7 +19119,7 @@
         <v>-3</v>
       </c>
       <c r="P123" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q123" s="1">
@@ -19260,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I124" s="1">
@@ -19285,7 +19204,7 @@
         <v>-3</v>
       </c>
       <c r="P124" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q124" s="1">
@@ -19345,7 +19264,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I125" s="1">
@@ -19370,7 +19289,7 @@
         <v>-3</v>
       </c>
       <c r="P125" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-78</v>
       </c>
       <c r="Q125" s="1">
@@ -19430,7 +19349,7 @@
         <v>8</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I126" s="1">
@@ -19455,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="Q126" s="1">
@@ -19515,7 +19434,7 @@
         <v>7</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I127" s="1">
@@ -19540,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q127" s="1">
@@ -19600,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I128" s="16">
@@ -19625,7 +19544,7 @@
         <v>3</v>
       </c>
       <c r="P128" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7</v>
       </c>
       <c r="Q128" s="16">
@@ -19668,81 +19587,81 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I121:I127 I71:I115 I4:I36 I39:I69">
-    <cfRule type="cellIs" dxfId="51" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="124" priority="47" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:P128 J71:P126 J5:P36 J39:P69 J4:O4">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="49" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="122" priority="44" operator="notEqual">
       <formula>$E127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:I120">
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="121" priority="42" operator="notEqual">
       <formula>$E116</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="47" priority="41" operator="notEqual">
+    <cfRule type="cellIs" dxfId="120" priority="41" operator="notEqual">
       <formula>$E128</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:P128">
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:P127">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="117" priority="11" operator="notEqual">
       <formula>$E70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:P70">
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="notEqual">
       <formula>$E38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:P38">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H128">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="5" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19775,7 +19694,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20067,7 +19986,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="16">
-        <f>IF(P4&gt;10,5,IF(P4&gt;4,4,IF(P4&gt;2,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H9" si="0">IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="16">
@@ -20146,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" ref="H5:H9" si="0">IF(P5&gt;10,5,IF(P5&gt;4,4,IF(P5&gt;2,3,IF(P5&gt;0,2,IF(P5&gt;-2.5,1,IF(P5&gt;-10,0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I5" s="16">
@@ -20171,7 +20090,7 @@
         <v>-3</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" ref="P4:P9" si="1">(S5-2000)/20+O5</f>
+        <f t="shared" ref="P5:P9" si="1">(S5-2000)/20+O5</f>
         <v>-103.05</v>
       </c>
       <c r="Q5" s="16">
@@ -20525,77 +20444,77 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="25" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="21" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="19" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20612,11 +20531,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20914,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="16">
-        <f>IF(P4&gt;10,5,IF(P4&gt;4,4,IF(P4&gt;2,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H9" si="0">IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
         <v>5</v>
       </c>
       <c r="I4" s="16">
@@ -20939,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P9" si="0">(S4-2000)/20+O4</f>
+        <f t="shared" ref="P4:P9" si="1">(S4-2000)/20+O4</f>
         <v>16</v>
       </c>
       <c r="Q4" s="1">
@@ -20999,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" ref="H5:H9" si="1">IF(P5&gt;10,5,IF(P5&gt;4,4,IF(P5&gt;2,3,IF(P5&gt;0,2,IF(P5&gt;-2.5,1,IF(P5&gt;-10,0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I5" s="16">
@@ -21024,7 +20943,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="Q5" s="1">
@@ -21084,7 +21003,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I6" s="16">
@@ -21109,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="Q6" s="1">
@@ -21169,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="16">
@@ -21194,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="1">
@@ -21252,7 +21171,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="16">
@@ -21277,7 +21196,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="Q8" s="1">
@@ -21337,7 +21256,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I9" s="16">
@@ -21362,7 +21281,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>301</v>
       </c>
       <c r="Q9" s="1">
@@ -21402,22 +21321,22 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -4591,7 +4591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4724,6 +4724,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4770,90 +4773,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="125">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5342,6 +5261,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -6113,6 +6060,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7014,6 +6989,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7540,11 +7543,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1132320416"/>
-        <c:axId val="1132329120"/>
+        <c:axId val="288210608"/>
+        <c:axId val="288211168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1132320416"/>
+        <c:axId val="288210608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7587,7 +7590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1132329120"/>
+        <c:crossAx val="288211168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7595,7 +7598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1132329120"/>
+        <c:axId val="288211168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7646,7 +7649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1132320416"/>
+        <c:crossAx val="288210608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8287,116 +8290,116 @@
     <tableColumn id="3" name="Star" dataDxfId="100"/>
     <tableColumn id="4" name="Type" dataDxfId="99"/>
     <tableColumn id="5" name="Attr" dataDxfId="98"/>
-    <tableColumn id="8" name="Quality" dataDxfId="2">
+    <tableColumn id="8" name="Quality" dataDxfId="97">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="97"/>
-    <tableColumn id="9" name="Damage" dataDxfId="96"/>
-    <tableColumn id="10" name="Cure" dataDxfId="95"/>
-    <tableColumn id="11" name="Time" dataDxfId="94"/>
-    <tableColumn id="13" name="Help" dataDxfId="93"/>
-    <tableColumn id="16" name="Rate" dataDxfId="92"/>
-    <tableColumn id="12" name="Modify" dataDxfId="91"/>
-    <tableColumn id="27" name="Sum" dataDxfId="90">
+    <tableColumn id="7" name="Cost" dataDxfId="96"/>
+    <tableColumn id="9" name="Damage" dataDxfId="95"/>
+    <tableColumn id="10" name="Cure" dataDxfId="94"/>
+    <tableColumn id="11" name="Time" dataDxfId="93"/>
+    <tableColumn id="13" name="Help" dataDxfId="92"/>
+    <tableColumn id="16" name="Rate" dataDxfId="91"/>
+    <tableColumn id="12" name="Modify" dataDxfId="90"/>
+    <tableColumn id="27" name="Sum" dataDxfId="89">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="89"/>
-    <tableColumn id="15" name="Target" dataDxfId="88"/>
-    <tableColumn id="25" name="Mark" dataDxfId="87"/>
-    <tableColumn id="22" name="Effect" dataDxfId="86"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="85"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="84"/>
-    <tableColumn id="18" name="Res" dataDxfId="83"/>
-    <tableColumn id="19" name="Icon" dataDxfId="82"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="81"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="80"/>
-    <tableColumn id="26" name="Remark" dataDxfId="79"/>
+    <tableColumn id="6" name="Range" dataDxfId="88"/>
+    <tableColumn id="15" name="Target" dataDxfId="87"/>
+    <tableColumn id="25" name="Mark" dataDxfId="86"/>
+    <tableColumn id="22" name="Effect" dataDxfId="85"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="84"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="83"/>
+    <tableColumn id="18" name="Res" dataDxfId="82"/>
+    <tableColumn id="19" name="Icon" dataDxfId="81"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="80"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="79"/>
+    <tableColumn id="26" name="Remark" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A3:AA9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="60"/>
-    <tableColumn id="2" name="Name" dataDxfId="59"/>
-    <tableColumn id="20" name="Ename" dataDxfId="58"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="57"/>
-    <tableColumn id="3" name="Star" dataDxfId="56"/>
-    <tableColumn id="4" name="Type" dataDxfId="55"/>
-    <tableColumn id="5" name="Attr" dataDxfId="54"/>
-    <tableColumn id="8" name="Quality" dataDxfId="1">
+    <tableColumn id="1" name="Id" dataDxfId="59"/>
+    <tableColumn id="2" name="Name" dataDxfId="58"/>
+    <tableColumn id="20" name="Ename" dataDxfId="57"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="56"/>
+    <tableColumn id="3" name="Star" dataDxfId="55"/>
+    <tableColumn id="4" name="Type" dataDxfId="54"/>
+    <tableColumn id="5" name="Attr" dataDxfId="53"/>
+    <tableColumn id="8" name="Quality" dataDxfId="52">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="53"/>
-    <tableColumn id="9" name="Damage" dataDxfId="52"/>
-    <tableColumn id="10" name="Cure" dataDxfId="51"/>
-    <tableColumn id="11" name="Time" dataDxfId="50"/>
-    <tableColumn id="13" name="Help" dataDxfId="49"/>
-    <tableColumn id="16" name="Rate" dataDxfId="48"/>
-    <tableColumn id="12" name="Modify" dataDxfId="47"/>
-    <tableColumn id="27" name="Sum" dataDxfId="46">
+    <tableColumn id="7" name="Cost" dataDxfId="51"/>
+    <tableColumn id="9" name="Damage" dataDxfId="50"/>
+    <tableColumn id="10" name="Cure" dataDxfId="49"/>
+    <tableColumn id="11" name="Time" dataDxfId="48"/>
+    <tableColumn id="13" name="Help" dataDxfId="47"/>
+    <tableColumn id="16" name="Rate" dataDxfId="46"/>
+    <tableColumn id="12" name="Modify" dataDxfId="45"/>
+    <tableColumn id="27" name="Sum" dataDxfId="44">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="45"/>
-    <tableColumn id="15" name="Target" dataDxfId="44"/>
-    <tableColumn id="25" name="Mark" dataDxfId="43"/>
-    <tableColumn id="22" name="Effect" dataDxfId="42"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="41"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="40"/>
-    <tableColumn id="18" name="Res" dataDxfId="39"/>
-    <tableColumn id="19" name="Icon" dataDxfId="38"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="37"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="36"/>
-    <tableColumn id="26" name="Remark" dataDxfId="35"/>
+    <tableColumn id="6" name="Range" dataDxfId="43"/>
+    <tableColumn id="15" name="Target" dataDxfId="42"/>
+    <tableColumn id="25" name="Mark" dataDxfId="41"/>
+    <tableColumn id="22" name="Effect" dataDxfId="40"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="39"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="38"/>
+    <tableColumn id="18" name="Res" dataDxfId="37"/>
+    <tableColumn id="19" name="Icon" dataDxfId="36"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="35"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="34"/>
+    <tableColumn id="26" name="Remark" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A3:AA9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="28"/>
-    <tableColumn id="2" name="Name" dataDxfId="27"/>
-    <tableColumn id="20" name="Ename" dataDxfId="26"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="25"/>
-    <tableColumn id="3" name="Star" dataDxfId="24"/>
-    <tableColumn id="4" name="Type" dataDxfId="23"/>
-    <tableColumn id="5" name="Attr" dataDxfId="22"/>
-    <tableColumn id="8" name="Quality" dataDxfId="0">
+    <tableColumn id="1" name="Id" dataDxfId="26"/>
+    <tableColumn id="2" name="Name" dataDxfId="25"/>
+    <tableColumn id="20" name="Ename" dataDxfId="24"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="23"/>
+    <tableColumn id="3" name="Star" dataDxfId="22"/>
+    <tableColumn id="4" name="Type" dataDxfId="21"/>
+    <tableColumn id="5" name="Attr" dataDxfId="20"/>
+    <tableColumn id="8" name="Quality" dataDxfId="19">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="21"/>
-    <tableColumn id="9" name="Damage" dataDxfId="20"/>
-    <tableColumn id="10" name="Cure" dataDxfId="19"/>
-    <tableColumn id="11" name="Time" dataDxfId="18"/>
-    <tableColumn id="13" name="Help" dataDxfId="17"/>
-    <tableColumn id="16" name="Rate" dataDxfId="16"/>
-    <tableColumn id="12" name="Modify" dataDxfId="15"/>
-    <tableColumn id="27" name="Sum" dataDxfId="14">
+    <tableColumn id="7" name="Cost" dataDxfId="18"/>
+    <tableColumn id="9" name="Damage" dataDxfId="17"/>
+    <tableColumn id="10" name="Cure" dataDxfId="16"/>
+    <tableColumn id="11" name="Time" dataDxfId="15"/>
+    <tableColumn id="13" name="Help" dataDxfId="14"/>
+    <tableColumn id="16" name="Rate" dataDxfId="13"/>
+    <tableColumn id="12" name="Modify" dataDxfId="12"/>
+    <tableColumn id="27" name="Sum" dataDxfId="11">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="13"/>
-    <tableColumn id="15" name="Target" dataDxfId="12"/>
-    <tableColumn id="25" name="Mark" dataDxfId="11"/>
-    <tableColumn id="22" name="Effect" dataDxfId="10"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="9"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="8"/>
-    <tableColumn id="18" name="Res" dataDxfId="7"/>
-    <tableColumn id="19" name="Icon" dataDxfId="6"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="5"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="4"/>
-    <tableColumn id="26" name="Remark" dataDxfId="3"/>
+    <tableColumn id="6" name="Range" dataDxfId="10"/>
+    <tableColumn id="15" name="Target" dataDxfId="9"/>
+    <tableColumn id="25" name="Mark" dataDxfId="8"/>
+    <tableColumn id="22" name="Effect" dataDxfId="7"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="6"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="5"/>
+    <tableColumn id="18" name="Res" dataDxfId="4"/>
+    <tableColumn id="19" name="Icon" dataDxfId="3"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="2"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
+    <tableColumn id="26" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8691,31 +8694,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="9" width="3.125" customWidth="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.25" customWidth="1"/>
-    <col min="17" max="17" width="3.125" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="5.75" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="24.375" customWidth="1"/>
-    <col min="22" max="22" width="7.875" customWidth="1"/>
+    <col min="12" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" customWidth="1"/>
+    <col min="21" max="21" width="24.33203125" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" customWidth="1"/>
     <col min="23" max="26" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8968,7 +8971,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="36">
+    <row r="4" spans="1:27" ht="48">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.25">
+    <row r="5" spans="1:27" ht="28.8">
       <c r="A5">
         <v>53000002</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="24">
+    <row r="6" spans="1:27" ht="28.8">
       <c r="A6">
         <v>53000003</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="24">
+    <row r="8" spans="1:27" ht="28.8">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9393,7 +9396,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="48">
+    <row r="9" spans="1:27" ht="60">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9478,7 +9481,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="48">
+    <row r="10" spans="1:27" ht="60">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="48">
+    <row r="11" spans="1:27" ht="60">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="48">
+    <row r="12" spans="1:27" ht="60">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9733,7 +9736,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="48">
+    <row r="13" spans="1:27" ht="60">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="48">
+    <row r="14" spans="1:27" ht="60">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="48">
+    <row r="15" spans="1:27" ht="60">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="48">
+    <row r="16" spans="1:27" ht="60">
       <c r="A16">
         <v>53000013</v>
       </c>
@@ -10073,7 +10076,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="48">
+    <row r="17" spans="1:27" ht="60">
       <c r="A17">
         <v>53000014</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25">
+    <row r="18" spans="1:27" ht="28.8">
       <c r="A18">
         <v>53000015</v>
       </c>
@@ -10243,7 +10246,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="24">
+    <row r="19" spans="1:27" ht="28.8">
       <c r="A19">
         <v>53000016</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="24">
+    <row r="20" spans="1:27" ht="28.8">
       <c r="A20">
         <v>53000017</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="24">
+    <row r="25" spans="1:27" ht="28.8">
       <c r="A25">
         <v>53000022</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="24">
+    <row r="26" spans="1:27" ht="28.8">
       <c r="A26">
         <v>53000023</v>
       </c>
@@ -10923,7 +10926,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="24">
+    <row r="27" spans="1:27" ht="28.8">
       <c r="A27">
         <v>53000024</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="24">
+    <row r="29" spans="1:27" ht="28.8">
       <c r="A29">
         <v>53000026</v>
       </c>
@@ -11178,7 +11181,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="14.25">
+    <row r="30" spans="1:27" ht="28.8">
       <c r="A30">
         <v>53000027</v>
       </c>
@@ -11261,7 +11264,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="14.25">
+    <row r="31" spans="1:27" ht="28.8">
       <c r="A31">
         <v>53000028</v>
       </c>
@@ -11344,7 +11347,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="24">
+    <row r="32" spans="1:27" ht="28.8">
       <c r="A32">
         <v>53000029</v>
       </c>
@@ -11429,7 +11432,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="24">
+    <row r="33" spans="1:27" ht="28.8">
       <c r="A33">
         <v>53000030</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="24">
+    <row r="34" spans="1:27" ht="28.8">
       <c r="A34">
         <v>53000031</v>
       </c>
@@ -11684,7 +11687,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="48">
+    <row r="36" spans="1:27" ht="60">
       <c r="A36">
         <v>53000036</v>
       </c>
@@ -11770,7 +11773,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="14.25">
+    <row r="37" spans="1:27" ht="28.8">
       <c r="A37">
         <v>53000037</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="14.25">
+    <row r="38" spans="1:27" ht="28.8">
       <c r="A38">
         <v>53000038</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="24">
+    <row r="39" spans="1:27" ht="28.8">
       <c r="A39">
         <v>53000039</v>
       </c>
@@ -12021,7 +12024,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="24">
+    <row r="40" spans="1:27" ht="28.8">
       <c r="A40">
         <v>53000040</v>
       </c>
@@ -12106,7 +12109,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="24">
+    <row r="41" spans="1:27" ht="28.8">
       <c r="A41">
         <v>53000041</v>
       </c>
@@ -12276,7 +12279,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="24">
+    <row r="43" spans="1:27" ht="28.8">
       <c r="A43">
         <v>53000043</v>
       </c>
@@ -12361,7 +12364,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="24">
+    <row r="44" spans="1:27" ht="28.8">
       <c r="A44">
         <v>53000044</v>
       </c>
@@ -12446,7 +12449,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="60">
+    <row r="45" spans="1:27" ht="72">
       <c r="A45">
         <v>53000045</v>
       </c>
@@ -12532,7 +12535,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="48">
+    <row r="46" spans="1:27" ht="60">
       <c r="A46">
         <v>53000046</v>
       </c>
@@ -12787,7 +12790,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="60">
+    <row r="49" spans="1:27" ht="72">
       <c r="A49">
         <v>53000049</v>
       </c>
@@ -12872,7 +12875,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="72">
+    <row r="50" spans="1:27" ht="84">
       <c r="A50">
         <v>53000050</v>
       </c>
@@ -13212,7 +13215,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="48">
+    <row r="54" spans="1:27" ht="60">
       <c r="A54">
         <v>53000054</v>
       </c>
@@ -13297,7 +13300,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="24">
+    <row r="55" spans="1:27" ht="28.8">
       <c r="A55">
         <v>53000055</v>
       </c>
@@ -13382,7 +13385,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="36">
+    <row r="56" spans="1:27" ht="48">
       <c r="A56">
         <v>53000056</v>
       </c>
@@ -13467,7 +13470,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="24">
+    <row r="57" spans="1:27" ht="36">
       <c r="A57">
         <v>53000057</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="24">
+    <row r="58" spans="1:27" ht="28.8">
       <c r="A58">
         <v>53000058</v>
       </c>
@@ -13637,7 +13640,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="24">
+    <row r="59" spans="1:27" ht="36">
       <c r="A59">
         <v>53000059</v>
       </c>
@@ -13722,7 +13725,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="36">
+    <row r="60" spans="1:27" ht="48">
       <c r="A60">
         <v>53000060</v>
       </c>
@@ -13807,7 +13810,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="48">
+    <row r="61" spans="1:27" ht="60">
       <c r="A61">
         <v>53000061</v>
       </c>
@@ -13892,7 +13895,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="24">
+    <row r="62" spans="1:27" ht="28.8">
       <c r="A62">
         <v>53000062</v>
       </c>
@@ -13977,7 +13980,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="14.25">
+    <row r="63" spans="1:27" ht="28.8">
       <c r="A63">
         <v>53000063</v>
       </c>
@@ -14062,7 +14065,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="24">
+    <row r="64" spans="1:27" ht="28.8">
       <c r="A64">
         <v>53000064</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="24">
+    <row r="66" spans="1:27" ht="28.8">
       <c r="A66">
         <v>53000066</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="14.25">
+    <row r="67" spans="1:27" ht="28.8">
       <c r="A67">
         <v>53000067</v>
       </c>
@@ -14487,7 +14490,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="24">
+    <row r="69" spans="1:27" ht="28.8">
       <c r="A69">
         <v>53000069</v>
       </c>
@@ -14572,7 +14575,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="14.25">
+    <row r="70" spans="1:27" ht="28.8">
       <c r="A70">
         <v>53000070</v>
       </c>
@@ -14655,7 +14658,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="72">
+    <row r="71" spans="1:27" ht="84">
       <c r="A71">
         <v>53000071</v>
       </c>
@@ -14740,7 +14743,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="48">
+    <row r="72" spans="1:27" ht="60">
       <c r="A72">
         <v>53000072</v>
       </c>
@@ -14995,7 +14998,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="108">
+    <row r="75" spans="1:27" ht="132">
       <c r="A75">
         <v>53000075</v>
       </c>
@@ -15080,7 +15083,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="60">
+    <row r="76" spans="1:27" ht="72">
       <c r="A76">
         <v>53000076</v>
       </c>
@@ -15250,7 +15253,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="14.25">
+    <row r="78" spans="1:27" ht="28.8">
       <c r="A78">
         <v>53000078</v>
       </c>
@@ -15590,7 +15593,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="24">
+    <row r="82" spans="1:27" ht="28.8">
       <c r="A82">
         <v>53000082</v>
       </c>
@@ -15675,8 +15678,8 @@
         <v>865</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="24">
-      <c r="A83">
+    <row r="83" spans="1:27" ht="28.8">
+      <c r="A83" s="44">
         <v>53000083</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -15760,7 +15763,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="24">
+    <row r="84" spans="1:27" ht="28.8">
       <c r="A84">
         <v>53000084</v>
       </c>
@@ -15845,7 +15848,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="60">
+    <row r="85" spans="1:27" ht="84">
       <c r="A85">
         <v>53000085</v>
       </c>
@@ -15930,7 +15933,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="14.25">
+    <row r="86" spans="1:27" ht="28.8">
       <c r="A86">
         <v>53000086</v>
       </c>
@@ -16693,7 +16696,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="48">
+    <row r="95" spans="1:27" ht="60">
       <c r="A95">
         <v>53000095</v>
       </c>
@@ -16778,7 +16781,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="24">
+    <row r="96" spans="1:27" ht="28.8">
       <c r="A96">
         <v>53000096</v>
       </c>
@@ -16948,7 +16951,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="24">
+    <row r="98" spans="1:27" ht="36">
       <c r="A98">
         <v>53000098</v>
       </c>
@@ -17033,7 +17036,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="24">
+    <row r="99" spans="1:27" ht="36">
       <c r="A99">
         <v>53000099</v>
       </c>
@@ -17118,7 +17121,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="24">
+    <row r="100" spans="1:27" ht="28.8">
       <c r="A100">
         <v>53000100</v>
       </c>
@@ -17288,7 +17291,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="24">
+    <row r="102" spans="1:27" ht="28.8">
       <c r="A102">
         <v>53000102</v>
       </c>
@@ -17458,7 +17461,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="14.25">
+    <row r="104" spans="1:27" ht="28.8">
       <c r="A104">
         <v>53000104</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="36">
+    <row r="105" spans="1:27" ht="60">
       <c r="A105">
         <v>53000105</v>
       </c>
@@ -17626,7 +17629,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="24">
+    <row r="106" spans="1:27" ht="28.8">
       <c r="A106">
         <v>53000106</v>
       </c>
@@ -17711,7 +17714,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="24">
+    <row r="107" spans="1:27" ht="28.8">
       <c r="A107">
         <v>53000107</v>
       </c>
@@ -17796,7 +17799,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="120">
+    <row r="108" spans="1:27" ht="144">
       <c r="A108">
         <v>53000108</v>
       </c>
@@ -17881,7 +17884,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="24">
+    <row r="109" spans="1:27" ht="28.8">
       <c r="A109">
         <v>53000109</v>
       </c>
@@ -17966,7 +17969,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="36">
+    <row r="110" spans="1:27" ht="48">
       <c r="A110">
         <v>53000110</v>
       </c>
@@ -18051,7 +18054,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="48">
+    <row r="111" spans="1:27" ht="60">
       <c r="A111">
         <v>53000111</v>
       </c>
@@ -18136,7 +18139,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="24">
+    <row r="112" spans="1:27" ht="28.8">
       <c r="A112">
         <v>53000112</v>
       </c>
@@ -18221,7 +18224,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="24">
+    <row r="113" spans="1:27" ht="28.8">
       <c r="A113">
         <v>53000113</v>
       </c>
@@ -18306,7 +18309,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="24">
+    <row r="114" spans="1:27" ht="28.8">
       <c r="A114">
         <v>53000114</v>
       </c>
@@ -18476,7 +18479,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="36">
+    <row r="116" spans="1:27" ht="60">
       <c r="A116">
         <v>53000116</v>
       </c>
@@ -18561,7 +18564,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="48">
+    <row r="117" spans="1:27" ht="60">
       <c r="A117">
         <v>53000117</v>
       </c>
@@ -18646,7 +18649,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="48">
+    <row r="118" spans="1:27" ht="60">
       <c r="A118">
         <v>53000118</v>
       </c>
@@ -18731,7 +18734,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="48">
+    <row r="119" spans="1:27" ht="60">
       <c r="A119">
         <v>53000119</v>
       </c>
@@ -18816,7 +18819,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="48">
+    <row r="120" spans="1:27" ht="60">
       <c r="A120">
         <v>53000120</v>
       </c>
@@ -18901,7 +18904,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="48">
+    <row r="121" spans="1:27" ht="60">
       <c r="A121">
         <v>53000121</v>
       </c>
@@ -18986,7 +18989,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="48">
+    <row r="122" spans="1:27" ht="60">
       <c r="A122">
         <v>53000122</v>
       </c>
@@ -19071,7 +19074,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="48">
+    <row r="123" spans="1:27" ht="60">
       <c r="A123">
         <v>53000123</v>
       </c>
@@ -19156,7 +19159,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="48">
+    <row r="124" spans="1:27" ht="60">
       <c r="A124">
         <v>53000124</v>
       </c>
@@ -19241,7 +19244,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="48">
+    <row r="125" spans="1:27" ht="60">
       <c r="A125">
         <v>53000125</v>
       </c>
@@ -19326,7 +19329,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="72">
+    <row r="126" spans="1:27" ht="84">
       <c r="A126">
         <v>53000126</v>
       </c>
@@ -19411,7 +19414,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="48">
+    <row r="127" spans="1:27" ht="60">
       <c r="A127">
         <v>53000127</v>
       </c>
@@ -19697,24 +19700,24 @@
       <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="9" width="3.125" customWidth="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.125" customWidth="1"/>
-    <col min="17" max="17" width="3.125" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="5.75" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="27.25" customWidth="1"/>
-    <col min="22" max="22" width="7.875" customWidth="1"/>
+    <col min="12" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" customWidth="1"/>
+    <col min="21" max="21" width="27.21875" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" customWidth="1"/>
     <col min="23" max="26" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20046,7 +20049,7 @@
       </c>
       <c r="AA4" s="38"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>53100001</v>
       </c>
@@ -20125,7 +20128,7 @@
       </c>
       <c r="AA5" s="38"/>
     </row>
-    <row r="6" spans="1:27" ht="24">
+    <row r="6" spans="1:27" ht="36">
       <c r="A6">
         <v>53100002</v>
       </c>
@@ -20204,7 +20207,7 @@
       </c>
       <c r="AA6" s="38"/>
     </row>
-    <row r="7" spans="1:27" ht="14.25">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>53100003</v>
       </c>
@@ -20444,77 +20447,77 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="78" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="75" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="25" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="23" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="71" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="21" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="19" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="17" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="15" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20531,31 +20534,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="4.375" customWidth="1"/>
-    <col min="7" max="9" width="3.125" customWidth="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.25" customWidth="1"/>
-    <col min="17" max="17" width="3.125" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="5.75" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="27.25" customWidth="1"/>
-    <col min="22" max="22" width="7.875" customWidth="1"/>
+    <col min="12" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" customWidth="1"/>
+    <col min="21" max="21" width="27.21875" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
     <col min="24" max="24" width="5" customWidth="1"/>
     <col min="25" max="26" width="4" customWidth="1"/>
@@ -20895,7 +20898,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="24">
+    <row r="5" spans="1:27" ht="28.8">
       <c r="A5">
         <v>53200101</v>
       </c>
@@ -20980,7 +20983,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="40.5">
+    <row r="6" spans="1:27" ht="43.2">
       <c r="A6">
         <v>53200102</v>
       </c>
@@ -21065,7 +21068,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25">
+    <row r="7" spans="1:27" ht="28.8">
       <c r="A7">
         <v>53200103</v>
       </c>
@@ -21233,7 +21236,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="24">
+    <row r="9" spans="1:27" ht="28.8">
       <c r="A9">
         <v>53200105</v>
       </c>
@@ -21321,22 +21324,22 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21357,7 +21360,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -21406,7 +21409,7 @@
         <v>2.3345235059857505</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
         <v>662</v>
       </c>
@@ -21483,7 +21486,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="882">
   <si>
     <t>慈悲</t>
   </si>
@@ -3437,66 +3437,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","H",40,mouse,"firearrow"))im.OnMagicDamage(s.Damage,7);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"bluebubble"))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","C",40,mouse,"fireball"))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","X",20,mouse,"waterball2"))im.OnMagicDamage(s.Damage,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"swarm"))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","V",10,mouse,"etwave"))im.OnMagicDamage(s.Damage,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","H",40,mouse,"electhit"))im.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",20,mouse,"arrow"))im.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","V",20,mouse,"waterball2"))im.OnMagicDamage(s.Damage,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"rocket"))im.OnMagicDamage(s.Damage,7);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",12,mouse,"fireball"))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"inferno"))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",12,mouse,"stonelight"))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",12,mouse,"redwing"))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","C",40,mouse,"holy3"))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>farsummon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3505,22 +3445,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"farsummon"))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>fireball</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"fireball"))im.OnMagicDamage(s.Damage,8);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(2))im.OnMagicDamage(s.Damage,1);</t>
   </si>
   <si>
@@ -3592,10 +3520,6 @@
   </si>
   <si>
     <t>t.AddBuff(56000021,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","C",40,mouse,"bleedglow"))im.AddBuff(56000013,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3613,10 +3537,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","H",10,mouse,"longly"))im.AddBuff(56000003,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetAllMonster(mouse))im.AddBuff(56000006,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3637,18 +3557,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",15,mouse,"faintlight"))im.AddBuff(56000011,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetAllMonster(mouse))im.AddBuff(56000007,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"E","R",12,mouse,"longly"))im.AddBuff(56000017,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.AddBuff(56000013,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3657,18 +3569,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"aurora")){}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m.UpdateCellOwner(mouse,0);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,"F","R",15,mouse,"eclipse")){im.Atk.Source*=(1+s.Help/100);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.Atk.Source*=(float)(1+s.Help/100);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3776,6 +3680,110 @@
   </si>
   <si>
     <t>Sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,7);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000013,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000011,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000003,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000017,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,8);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4772,7 +4780,394 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5520,43 +5915,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6330,138 +6688,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7230,143 +7456,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7543,11 +7632,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="288210608"/>
-        <c:axId val="288211168"/>
+        <c:axId val="-84969248"/>
+        <c:axId val="-84960544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288210608"/>
+        <c:axId val="-84969248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7590,7 +7679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288211168"/>
+        <c:crossAx val="-84960544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7598,7 +7687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288211168"/>
+        <c:axId val="-84960544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7649,7 +7738,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288210608"/>
+        <c:crossAx val="-84969248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8277,129 +8366,138 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AA128" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
-  <autoFilter ref="A3:AA128"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB128" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+  <autoFilter ref="A3:AB128">
+    <filterColumn colId="19">
+      <customFilters>
+        <customFilter val="*GetRangeMonster*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A4:Y128">
     <sortCondition ref="A3:A128"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="104"/>
-    <tableColumn id="2" name="Name" dataDxfId="103"/>
-    <tableColumn id="20" name="Ename" dataDxfId="102"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="101"/>
-    <tableColumn id="3" name="Star" dataDxfId="100"/>
-    <tableColumn id="4" name="Type" dataDxfId="99"/>
-    <tableColumn id="5" name="Attr" dataDxfId="98"/>
-    <tableColumn id="8" name="Quality" dataDxfId="97">
+  <tableColumns count="28">
+    <tableColumn id="1" name="Id" dataDxfId="124"/>
+    <tableColumn id="2" name="Name" dataDxfId="123"/>
+    <tableColumn id="20" name="Ename" dataDxfId="122"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="121"/>
+    <tableColumn id="3" name="Star" dataDxfId="120"/>
+    <tableColumn id="4" name="Type" dataDxfId="119"/>
+    <tableColumn id="5" name="Attr" dataDxfId="118"/>
+    <tableColumn id="8" name="Quality" dataDxfId="117">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="96"/>
-    <tableColumn id="9" name="Damage" dataDxfId="95"/>
-    <tableColumn id="10" name="Cure" dataDxfId="94"/>
-    <tableColumn id="11" name="Time" dataDxfId="93"/>
-    <tableColumn id="13" name="Help" dataDxfId="92"/>
-    <tableColumn id="16" name="Rate" dataDxfId="91"/>
-    <tableColumn id="12" name="Modify" dataDxfId="90"/>
-    <tableColumn id="27" name="Sum" dataDxfId="89">
+    <tableColumn id="7" name="Cost" dataDxfId="116"/>
+    <tableColumn id="9" name="Damage" dataDxfId="115"/>
+    <tableColumn id="10" name="Cure" dataDxfId="114"/>
+    <tableColumn id="11" name="Time" dataDxfId="113"/>
+    <tableColumn id="13" name="Help" dataDxfId="112"/>
+    <tableColumn id="16" name="Rate" dataDxfId="111"/>
+    <tableColumn id="12" name="Modify" dataDxfId="110"/>
+    <tableColumn id="27" name="Sum" dataDxfId="109">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="88"/>
-    <tableColumn id="15" name="Target" dataDxfId="87"/>
-    <tableColumn id="25" name="Mark" dataDxfId="86"/>
-    <tableColumn id="22" name="Effect" dataDxfId="85"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="84"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="83"/>
-    <tableColumn id="18" name="Res" dataDxfId="82"/>
-    <tableColumn id="19" name="Icon" dataDxfId="81"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="80"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="79"/>
-    <tableColumn id="26" name="Remark" dataDxfId="78"/>
+    <tableColumn id="6" name="Range" dataDxfId="108"/>
+    <tableColumn id="15" name="Target" dataDxfId="107"/>
+    <tableColumn id="25" name="Mark" dataDxfId="106"/>
+    <tableColumn id="22" name="Effect" dataDxfId="105"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="104"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="103"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="38"/>
+    <tableColumn id="18" name="Res" dataDxfId="102"/>
+    <tableColumn id="19" name="Icon" dataDxfId="101"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="100"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="99"/>
+    <tableColumn id="26" name="Remark" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
-  <autoFilter ref="A3:AA9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
+  <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="59"/>
-    <tableColumn id="2" name="Name" dataDxfId="58"/>
-    <tableColumn id="20" name="Ename" dataDxfId="57"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="56"/>
-    <tableColumn id="3" name="Star" dataDxfId="55"/>
-    <tableColumn id="4" name="Type" dataDxfId="54"/>
-    <tableColumn id="5" name="Attr" dataDxfId="53"/>
-    <tableColumn id="8" name="Quality" dataDxfId="52">
+  <tableColumns count="28">
+    <tableColumn id="1" name="Id" dataDxfId="94"/>
+    <tableColumn id="2" name="Name" dataDxfId="93"/>
+    <tableColumn id="20" name="Ename" dataDxfId="92"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="91"/>
+    <tableColumn id="3" name="Star" dataDxfId="90"/>
+    <tableColumn id="4" name="Type" dataDxfId="89"/>
+    <tableColumn id="5" name="Attr" dataDxfId="88"/>
+    <tableColumn id="8" name="Quality" dataDxfId="87">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="51"/>
-    <tableColumn id="9" name="Damage" dataDxfId="50"/>
-    <tableColumn id="10" name="Cure" dataDxfId="49"/>
-    <tableColumn id="11" name="Time" dataDxfId="48"/>
-    <tableColumn id="13" name="Help" dataDxfId="47"/>
-    <tableColumn id="16" name="Rate" dataDxfId="46"/>
-    <tableColumn id="12" name="Modify" dataDxfId="45"/>
-    <tableColumn id="27" name="Sum" dataDxfId="44">
+    <tableColumn id="7" name="Cost" dataDxfId="86"/>
+    <tableColumn id="9" name="Damage" dataDxfId="85"/>
+    <tableColumn id="10" name="Cure" dataDxfId="84"/>
+    <tableColumn id="11" name="Time" dataDxfId="83"/>
+    <tableColumn id="13" name="Help" dataDxfId="82"/>
+    <tableColumn id="16" name="Rate" dataDxfId="81"/>
+    <tableColumn id="12" name="Modify" dataDxfId="80"/>
+    <tableColumn id="27" name="Sum" dataDxfId="79">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="43"/>
-    <tableColumn id="15" name="Target" dataDxfId="42"/>
-    <tableColumn id="25" name="Mark" dataDxfId="41"/>
-    <tableColumn id="22" name="Effect" dataDxfId="40"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="39"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="38"/>
-    <tableColumn id="18" name="Res" dataDxfId="37"/>
-    <tableColumn id="19" name="Icon" dataDxfId="36"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="35"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="34"/>
-    <tableColumn id="26" name="Remark" dataDxfId="33"/>
+    <tableColumn id="6" name="Range" dataDxfId="78"/>
+    <tableColumn id="15" name="Target" dataDxfId="77"/>
+    <tableColumn id="25" name="Mark" dataDxfId="76"/>
+    <tableColumn id="22" name="Effect" dataDxfId="75"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="74"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="73"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="37"/>
+    <tableColumn id="18" name="Res" dataDxfId="72"/>
+    <tableColumn id="19" name="Icon" dataDxfId="71"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="70"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="69"/>
+    <tableColumn id="26" name="Remark" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A3:AA9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
+  <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="26"/>
-    <tableColumn id="2" name="Name" dataDxfId="25"/>
-    <tableColumn id="20" name="Ename" dataDxfId="24"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="23"/>
-    <tableColumn id="3" name="Star" dataDxfId="22"/>
-    <tableColumn id="4" name="Type" dataDxfId="21"/>
-    <tableColumn id="5" name="Attr" dataDxfId="20"/>
-    <tableColumn id="8" name="Quality" dataDxfId="19">
+  <tableColumns count="28">
+    <tableColumn id="1" name="Id" dataDxfId="65"/>
+    <tableColumn id="2" name="Name" dataDxfId="64"/>
+    <tableColumn id="20" name="Ename" dataDxfId="63"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="62"/>
+    <tableColumn id="3" name="Star" dataDxfId="61"/>
+    <tableColumn id="4" name="Type" dataDxfId="60"/>
+    <tableColumn id="5" name="Attr" dataDxfId="59"/>
+    <tableColumn id="8" name="Quality" dataDxfId="58">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="18"/>
-    <tableColumn id="9" name="Damage" dataDxfId="17"/>
-    <tableColumn id="10" name="Cure" dataDxfId="16"/>
-    <tableColumn id="11" name="Time" dataDxfId="15"/>
-    <tableColumn id="13" name="Help" dataDxfId="14"/>
-    <tableColumn id="16" name="Rate" dataDxfId="13"/>
-    <tableColumn id="12" name="Modify" dataDxfId="12"/>
-    <tableColumn id="27" name="Sum" dataDxfId="11">
+    <tableColumn id="7" name="Cost" dataDxfId="57"/>
+    <tableColumn id="9" name="Damage" dataDxfId="56"/>
+    <tableColumn id="10" name="Cure" dataDxfId="55"/>
+    <tableColumn id="11" name="Time" dataDxfId="54"/>
+    <tableColumn id="13" name="Help" dataDxfId="53"/>
+    <tableColumn id="16" name="Rate" dataDxfId="52"/>
+    <tableColumn id="12" name="Modify" dataDxfId="51"/>
+    <tableColumn id="27" name="Sum" dataDxfId="50">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="10"/>
-    <tableColumn id="15" name="Target" dataDxfId="9"/>
-    <tableColumn id="25" name="Mark" dataDxfId="8"/>
-    <tableColumn id="22" name="Effect" dataDxfId="7"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="6"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="5"/>
-    <tableColumn id="18" name="Res" dataDxfId="4"/>
-    <tableColumn id="19" name="Icon" dataDxfId="3"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="2"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
-    <tableColumn id="26" name="Remark" dataDxfId="0"/>
+    <tableColumn id="6" name="Range" dataDxfId="49"/>
+    <tableColumn id="15" name="Target" dataDxfId="48"/>
+    <tableColumn id="25" name="Mark" dataDxfId="47"/>
+    <tableColumn id="22" name="Effect" dataDxfId="46"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="45"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="44"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="0"/>
+    <tableColumn id="18" name="Res" dataDxfId="43"/>
+    <tableColumn id="19" name="Icon" dataDxfId="42"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="41"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="40"/>
+    <tableColumn id="26" name="Remark" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8692,37 +8790,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA128"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomRight" activeCell="T126" sqref="T126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="24.33203125" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" customWidth="1"/>
-    <col min="23" max="26" width="4" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="24.375" customWidth="1"/>
+    <col min="22" max="23" width="7.875" customWidth="1"/>
+    <col min="24" max="27" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="65.25" customHeight="1">
+    <row r="1" spans="1:28" ht="65.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
@@ -8745,7 +8843,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -8769,7 +8867,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -8790,22 +8888,25 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>200</v>
       </c>
@@ -8852,7 +8953,7 @@
         <v>505</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -8873,22 +8974,25 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="AA2" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AB2" s="37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>202</v>
       </c>
@@ -8911,7 +9015,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -8935,19 +9039,19 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>207</v>
+        <v>861</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>659</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>807</v>
+        <v>860</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>470</v>
@@ -8955,23 +9059,26 @@
       <c r="V3" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Z3" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="AA3" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AB3" s="28" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="48">
+    <row r="4" spans="1:28" ht="36" hidden="1">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -9040,23 +9147,24 @@
       <c r="V4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>1</v>
       </c>
-      <c r="Y4" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>874</v>
+      <c r="Z4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="28.8">
+    <row r="5" spans="1:28" ht="14.25" hidden="1">
       <c r="A5">
         <v>53000002</v>
       </c>
@@ -9125,23 +9233,24 @@
       <c r="V5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
         <v>4</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>2</v>
       </c>
-      <c r="Y5" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="27" t="s">
-        <v>873</v>
+      <c r="Z5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>849</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="28.8">
+    <row r="6" spans="1:28" ht="24" hidden="1">
       <c r="A6">
         <v>53000003</v>
       </c>
@@ -9210,23 +9319,24 @@
       <c r="V6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
         <v>4</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>3</v>
       </c>
-      <c r="Y6" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="27" t="s">
-        <v>851</v>
+      <c r="Z6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>827</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="36">
+    <row r="7" spans="1:28" ht="36" hidden="1">
       <c r="A7">
         <v>53000004</v>
       </c>
@@ -9287,7 +9397,7 @@
         <v>2000</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>655</v>
@@ -9295,23 +9405,24 @@
       <c r="V7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="1">
-        <v>4</v>
-      </c>
+      <c r="W7" s="1"/>
       <c r="X7" s="1">
         <v>4</v>
       </c>
-      <c r="Y7" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="27" t="s">
-        <v>852</v>
+      <c r="Y7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>828</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="28.8">
+    <row r="8" spans="1:28" ht="24" hidden="1">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9372,7 +9483,7 @@
         <v>900</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>546</v>
@@ -9380,23 +9491,24 @@
       <c r="V8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
         <v>4</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>5</v>
       </c>
-      <c r="Y8" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="27" t="s">
-        <v>853</v>
+      <c r="Z8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>829</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60">
+    <row r="9" spans="1:28" ht="48" hidden="1">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9465,23 +9577,24 @@
       <c r="V9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
         <v>4</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>6</v>
       </c>
-      <c r="Y9" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="27" t="s">
-        <v>854</v>
+      <c r="Z9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="60">
+    <row r="10" spans="1:28" ht="48" hidden="1">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9550,23 +9663,24 @@
       <c r="V10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
         <v>4</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>7</v>
       </c>
-      <c r="Y10" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="27" t="s">
-        <v>854</v>
+      <c r="Z10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="60">
+    <row r="11" spans="1:28" ht="48" hidden="1">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9635,23 +9749,24 @@
       <c r="V11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
         <v>4</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>8</v>
       </c>
-      <c r="Y11" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="27" t="s">
-        <v>855</v>
+      <c r="Z11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="60">
+    <row r="12" spans="1:28" ht="48" hidden="1">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9720,23 +9835,24 @@
       <c r="V12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
         <v>4</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>9</v>
       </c>
-      <c r="Y12" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>854</v>
+      <c r="Z12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="60">
+    <row r="13" spans="1:28" ht="48" hidden="1">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -9805,23 +9921,24 @@
       <c r="V13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
         <v>4</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>10</v>
       </c>
-      <c r="Y13" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="27" t="s">
-        <v>854</v>
+      <c r="Z13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="60">
+    <row r="14" spans="1:28" ht="48" hidden="1">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -9890,23 +10007,24 @@
       <c r="V14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="1"/>
+      <c r="X14" s="1">
         <v>4</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>11</v>
       </c>
-      <c r="Y14" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="27" t="s">
-        <v>854</v>
+      <c r="Z14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="60">
+    <row r="15" spans="1:28" ht="48" hidden="1">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -9975,23 +10093,24 @@
       <c r="V15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
         <v>4</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>12</v>
       </c>
-      <c r="Y15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="27" t="s">
-        <v>854</v>
+      <c r="Z15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="60">
+    <row r="16" spans="1:28" ht="48" hidden="1">
       <c r="A16">
         <v>53000013</v>
       </c>
@@ -10060,23 +10179,24 @@
       <c r="V16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
         <v>4</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>13</v>
       </c>
-      <c r="Y16" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="27" t="s">
-        <v>854</v>
+      <c r="Z16" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="60">
+    <row r="17" spans="1:28" ht="48" hidden="1">
       <c r="A17">
         <v>53000014</v>
       </c>
@@ -10145,23 +10265,24 @@
       <c r="V17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
         <v>4</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>14</v>
       </c>
-      <c r="Y17" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="27" t="s">
-        <v>854</v>
+      <c r="Z17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="28.8">
+    <row r="18" spans="1:28" ht="14.25" hidden="1">
       <c r="A18">
         <v>53000015</v>
       </c>
@@ -10230,23 +10351,24 @@
       <c r="V18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
         <v>4</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>15</v>
       </c>
-      <c r="Y18" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="27" t="s">
-        <v>856</v>
+      <c r="Z18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="27" t="s">
+        <v>832</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="28.8">
+    <row r="19" spans="1:28" ht="24" hidden="1">
       <c r="A19">
         <v>53000016</v>
       </c>
@@ -10307,7 +10429,7 @@
         <v>1200</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>508</v>
@@ -10315,23 +10437,24 @@
       <c r="V19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
         <v>4</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>16</v>
       </c>
-      <c r="Y19" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="27" t="s">
-        <v>857</v>
+      <c r="Z19" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="27" t="s">
+        <v>833</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="28.8">
+    <row r="20" spans="1:28" ht="24" hidden="1">
       <c r="A20">
         <v>53000017</v>
       </c>
@@ -10392,7 +10515,7 @@
         <v>8000</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>509</v>
@@ -10400,23 +10523,24 @@
       <c r="V20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="1"/>
+      <c r="X20" s="1">
         <v>4</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>17</v>
       </c>
-      <c r="Y20" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="27" t="s">
-        <v>857</v>
+      <c r="Z20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="27" t="s">
+        <v>833</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="48">
+    <row r="21" spans="1:28" ht="48" hidden="1">
       <c r="A21">
         <v>53000018</v>
       </c>
@@ -10485,23 +10609,24 @@
       <c r="V21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
         <v>4</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>18</v>
       </c>
-      <c r="Y21" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="27" t="s">
-        <v>852</v>
+      <c r="Z21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="27" t="s">
+        <v>828</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="60">
+    <row r="22" spans="1:28" ht="60">
       <c r="A22">
         <v>53000019</v>
       </c>
@@ -10562,7 +10687,7 @@
         <v>1800</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>789</v>
+        <v>862</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>666</v>
@@ -10570,23 +10695,26 @@
       <c r="V22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="1">
         <v>4</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>19</v>
       </c>
-      <c r="Y22" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="27" t="s">
-        <v>858</v>
+      <c r="Z22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="60">
+    <row r="23" spans="1:28" ht="60">
       <c r="A23">
         <v>53000020</v>
       </c>
@@ -10647,7 +10775,7 @@
         <v>2100</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>787</v>
+        <v>863</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>667</v>
@@ -10655,23 +10783,26 @@
       <c r="V23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="1">
         <v>4</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>20</v>
       </c>
-      <c r="Y23" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="27" t="s">
-        <v>858</v>
+      <c r="Z23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="60">
+    <row r="24" spans="1:28" ht="60">
       <c r="A24">
         <v>53000021</v>
       </c>
@@ -10732,7 +10863,7 @@
         <v>1875</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>790</v>
+        <v>864</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>668</v>
@@ -10740,23 +10871,26 @@
       <c r="V24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" s="1">
         <v>4</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>21</v>
       </c>
-      <c r="Y24" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="27" t="s">
-        <v>858</v>
+      <c r="Z24" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="28.8">
+    <row r="25" spans="1:28" ht="24" hidden="1">
       <c r="A25">
         <v>53000022</v>
       </c>
@@ -10825,23 +10959,24 @@
       <c r="V25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
         <v>4</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>22</v>
       </c>
-      <c r="Y25" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="27" t="s">
-        <v>859</v>
+      <c r="Z25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="28.8">
+    <row r="26" spans="1:28" ht="24" hidden="1">
       <c r="A26">
         <v>53000023</v>
       </c>
@@ -10910,23 +11045,24 @@
       <c r="V26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="1"/>
+      <c r="X26" s="1">
         <v>4</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>23</v>
       </c>
-      <c r="Y26" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="27" t="s">
-        <v>859</v>
+      <c r="Z26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="28.8">
+    <row r="27" spans="1:28" ht="24" hidden="1">
       <c r="A27">
         <v>53000024</v>
       </c>
@@ -10995,23 +11131,24 @@
       <c r="V27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27" s="1"/>
+      <c r="X27" s="1">
         <v>4</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>24</v>
       </c>
-      <c r="Y27" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="27" t="s">
-        <v>859</v>
+      <c r="Z27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="48">
+    <row r="28" spans="1:28" ht="48" hidden="1">
       <c r="A28">
         <v>53000025</v>
       </c>
@@ -11080,23 +11217,24 @@
       <c r="V28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28" s="1"/>
+      <c r="X28" s="1">
         <v>4</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>25</v>
       </c>
-      <c r="Y28" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="27" t="s">
-        <v>852</v>
+      <c r="Z28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="27" t="s">
+        <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="28.8">
+    <row r="29" spans="1:28" ht="24" hidden="1">
       <c r="A29">
         <v>53000026</v>
       </c>
@@ -11165,23 +11303,24 @@
       <c r="V29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29" s="1"/>
+      <c r="X29" s="1">
         <v>4</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Y29" s="1">
         <v>26</v>
       </c>
-      <c r="Y29" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="27" t="s">
-        <v>856</v>
+      <c r="Z29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="27" t="s">
+        <v>832</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="28.8">
+    <row r="30" spans="1:28" ht="14.25" hidden="1">
       <c r="A30">
         <v>53000027</v>
       </c>
@@ -11248,23 +11387,24 @@
       <c r="V30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30" s="1"/>
+      <c r="X30" s="1">
         <v>4</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Y30" s="1">
         <v>27</v>
       </c>
-      <c r="Y30" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="27" t="s">
-        <v>860</v>
+      <c r="Z30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="27" t="s">
+        <v>836</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="28.8">
+    <row r="31" spans="1:28" ht="14.25" hidden="1">
       <c r="A31">
         <v>53000028</v>
       </c>
@@ -11331,23 +11471,24 @@
       <c r="V31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31" s="1"/>
+      <c r="X31" s="1">
         <v>4</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>28</v>
       </c>
-      <c r="Y31" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="27" t="s">
-        <v>861</v>
+      <c r="Z31" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="28.8">
+    <row r="32" spans="1:28" ht="24" hidden="1">
       <c r="A32">
         <v>53000029</v>
       </c>
@@ -11416,23 +11557,24 @@
       <c r="V32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="1"/>
+      <c r="X32" s="1">
         <v>4</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y32" s="1">
         <v>29</v>
       </c>
-      <c r="Y32" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="27" t="s">
-        <v>862</v>
+      <c r="Z32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="28.8">
+    <row r="33" spans="1:28" ht="24" hidden="1">
       <c r="A33">
         <v>53000030</v>
       </c>
@@ -11493,7 +11635,7 @@
         <v>1500</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>778</v>
@@ -11501,23 +11643,24 @@
       <c r="V33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33" s="1"/>
+      <c r="X33" s="1">
         <v>4</v>
       </c>
-      <c r="X33" s="1">
+      <c r="Y33" s="1">
         <v>30</v>
       </c>
-      <c r="Y33" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="27">
+      <c r="Z33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="27">
         <v>1</v>
       </c>
-      <c r="AA33" s="27" t="s">
-        <v>863</v>
+      <c r="AB33" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="28.8">
+    <row r="34" spans="1:28" ht="24" hidden="1">
       <c r="A34">
         <v>53000031</v>
       </c>
@@ -11578,7 +11721,7 @@
         <v>1500</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>783</v>
@@ -11586,23 +11729,24 @@
       <c r="V34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34" s="1"/>
+      <c r="X34" s="1">
         <v>4</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Y34" s="1">
         <v>31</v>
       </c>
-      <c r="Y34" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="27">
+      <c r="Z34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="27">
         <v>1</v>
       </c>
-      <c r="AA34" s="27" t="s">
-        <v>863</v>
+      <c r="AB34" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="48">
+    <row r="35" spans="1:28" ht="48" hidden="1">
       <c r="A35">
         <v>53000035</v>
       </c>
@@ -11663,7 +11807,7 @@
         <v>2000</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>513</v>
@@ -11671,23 +11815,24 @@
       <c r="V35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W35" s="1">
+      <c r="W35" s="1"/>
+      <c r="X35" s="1">
         <v>4</v>
       </c>
-      <c r="X35" s="1">
+      <c r="Y35" s="1">
         <v>35</v>
       </c>
-      <c r="Y35" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="27" t="s">
-        <v>858</v>
+      <c r="Z35" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="60">
+    <row r="36" spans="1:28" ht="48" hidden="1">
       <c r="A36">
         <v>53000036</v>
       </c>
@@ -11757,23 +11902,24 @@
       <c r="V36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W36" s="1"/>
+      <c r="X36" s="1">
         <v>4</v>
       </c>
-      <c r="X36" s="1">
+      <c r="Y36" s="1">
         <v>36</v>
       </c>
-      <c r="Y36" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="27" t="s">
-        <v>864</v>
+      <c r="Z36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="28.8">
+    <row r="37" spans="1:28" ht="14.25" hidden="1">
       <c r="A37">
         <v>53000037</v>
       </c>
@@ -11840,23 +11986,24 @@
       <c r="V37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37" s="1"/>
+      <c r="X37" s="1">
         <v>4</v>
       </c>
-      <c r="X37" s="1">
+      <c r="Y37" s="1">
         <v>37</v>
       </c>
-      <c r="Y37" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="27" t="s">
-        <v>860</v>
+      <c r="Z37" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="27" t="s">
+        <v>836</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="28.8">
+    <row r="38" spans="1:28" ht="14.25" hidden="1">
       <c r="A38">
         <v>53000038</v>
       </c>
@@ -11918,28 +12065,29 @@
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="7" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="1"/>
+      <c r="X38" s="1">
         <v>4</v>
       </c>
-      <c r="X38" s="1">
+      <c r="Y38" s="1">
         <v>38</v>
       </c>
-      <c r="Y38" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="27" t="s">
-        <v>865</v>
+      <c r="Z38" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="28.8">
+    <row r="39" spans="1:28" ht="24" hidden="1">
       <c r="A39">
         <v>53000039</v>
       </c>
@@ -12000,7 +12148,7 @@
         <v>1700</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>772</v>
@@ -12008,23 +12156,24 @@
       <c r="V39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39" s="1"/>
+      <c r="X39" s="1">
         <v>4</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Y39" s="1">
         <v>39</v>
       </c>
-      <c r="Y39" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="27" t="s">
-        <v>863</v>
+      <c r="Z39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="28.8">
+    <row r="40" spans="1:28" ht="24" hidden="1">
       <c r="A40">
         <v>53000040</v>
       </c>
@@ -12085,7 +12234,7 @@
         <v>2000</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>773</v>
@@ -12093,23 +12242,24 @@
       <c r="V40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40" s="1"/>
+      <c r="X40" s="1">
         <v>4</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Y40" s="1">
         <v>40</v>
       </c>
-      <c r="Y40" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="27" t="s">
-        <v>863</v>
+      <c r="Z40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="28.8">
+    <row r="41" spans="1:28" ht="24" hidden="1">
       <c r="A41">
         <v>53000041</v>
       </c>
@@ -12178,23 +12328,24 @@
       <c r="V41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="1"/>
+      <c r="X41" s="1">
         <v>4</v>
       </c>
-      <c r="X41" s="1">
+      <c r="Y41" s="1">
         <v>41</v>
       </c>
-      <c r="Y41" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="27" t="s">
-        <v>859</v>
+      <c r="Z41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="48">
+    <row r="42" spans="1:28" ht="48" hidden="1">
       <c r="A42">
         <v>53000042</v>
       </c>
@@ -12255,7 +12406,7 @@
         <v>2000</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>514</v>
@@ -12263,23 +12414,24 @@
       <c r="V42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42" s="1"/>
+      <c r="X42" s="1">
         <v>4</v>
       </c>
-      <c r="X42" s="1">
+      <c r="Y42" s="1">
         <v>42</v>
       </c>
-      <c r="Y42" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="27" t="s">
-        <v>858</v>
+      <c r="Z42" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="28.8">
+    <row r="43" spans="1:28" ht="24" hidden="1">
       <c r="A43">
         <v>53000043</v>
       </c>
@@ -12348,23 +12500,24 @@
       <c r="V43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W43" s="1"/>
+      <c r="X43" s="1">
         <v>4</v>
       </c>
-      <c r="X43" s="1">
+      <c r="Y43" s="1">
         <v>43</v>
       </c>
-      <c r="Y43" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="27" t="s">
-        <v>866</v>
+      <c r="Z43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="28.8">
+    <row r="44" spans="1:28" ht="24" hidden="1">
       <c r="A44">
         <v>53000044</v>
       </c>
@@ -12425,7 +12578,7 @@
         <v>1900</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>774</v>
@@ -12433,23 +12586,24 @@
       <c r="V44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44" s="1"/>
+      <c r="X44" s="1">
         <v>4</v>
       </c>
-      <c r="X44" s="1">
+      <c r="Y44" s="1">
         <v>44</v>
       </c>
-      <c r="Y44" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="27" t="s">
-        <v>863</v>
+      <c r="Z44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="72">
+    <row r="45" spans="1:28" ht="60" hidden="1">
       <c r="A45">
         <v>53000045</v>
       </c>
@@ -12519,23 +12673,24 @@
       <c r="V45" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45" s="1"/>
+      <c r="X45" s="1">
         <v>4</v>
       </c>
-      <c r="X45" s="1">
+      <c r="Y45" s="1">
         <v>45</v>
       </c>
-      <c r="Y45" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="27" t="s">
-        <v>864</v>
+      <c r="Z45" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="60">
+    <row r="46" spans="1:28" ht="48" hidden="1">
       <c r="A46">
         <v>53000046</v>
       </c>
@@ -12596,7 +12751,7 @@
         <v>2000</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>528</v>
@@ -12604,23 +12759,24 @@
       <c r="V46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46" s="1"/>
+      <c r="X46" s="1">
         <v>4</v>
       </c>
-      <c r="X46" s="1">
+      <c r="Y46" s="1">
         <v>46</v>
       </c>
-      <c r="Y46" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="27" t="s">
-        <v>858</v>
+      <c r="Z46" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="60">
+    <row r="47" spans="1:28" ht="60">
       <c r="A47">
         <v>53000047</v>
       </c>
@@ -12681,7 +12837,7 @@
         <v>2200</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>798</v>
+        <v>862</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>529</v>
@@ -12689,23 +12845,26 @@
       <c r="V47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="W47" s="1">
+      <c r="W47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X47" s="1">
         <v>4</v>
       </c>
-      <c r="X47" s="1">
+      <c r="Y47" s="1">
         <v>47</v>
       </c>
-      <c r="Y47" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="27" t="s">
-        <v>858</v>
+      <c r="Z47" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="48">
+    <row r="48" spans="1:28" ht="48" hidden="1">
       <c r="A48">
         <v>53000048</v>
       </c>
@@ -12766,7 +12925,7 @@
         <v>2000</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>515</v>
@@ -12774,23 +12933,24 @@
       <c r="V48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W48" s="1">
+      <c r="W48" s="1"/>
+      <c r="X48" s="1">
         <v>4</v>
       </c>
-      <c r="X48" s="1">
+      <c r="Y48" s="1">
         <v>48</v>
       </c>
-      <c r="Y48" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="27" t="s">
-        <v>858</v>
+      <c r="Z48" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="72">
+    <row r="49" spans="1:28" ht="60">
       <c r="A49">
         <v>53000049</v>
       </c>
@@ -12851,7 +13011,7 @@
         <v>2200</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>791</v>
+        <v>865</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>530</v>
@@ -12859,23 +13019,26 @@
       <c r="V49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W49" s="1">
+      <c r="W49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X49" s="1">
         <v>4</v>
       </c>
-      <c r="X49" s="1">
+      <c r="Y49" s="1">
         <v>49</v>
       </c>
-      <c r="Y49" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="27" t="s">
-        <v>858</v>
+      <c r="Z49" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="84">
+    <row r="50" spans="1:28" ht="72" hidden="1">
       <c r="A50">
         <v>53000050</v>
       </c>
@@ -12936,7 +13099,7 @@
         <v>1800</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="U50" s="7" t="s">
         <v>686</v>
@@ -12944,23 +13107,24 @@
       <c r="V50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W50" s="1"/>
+      <c r="X50" s="1">
         <v>4</v>
       </c>
-      <c r="X50" s="1">
+      <c r="Y50" s="1">
         <v>50</v>
       </c>
-      <c r="Y50" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="27" t="s">
-        <v>858</v>
+      <c r="Z50" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="48">
+    <row r="51" spans="1:28" ht="48" hidden="1">
       <c r="A51">
         <v>53000051</v>
       </c>
@@ -13021,7 +13185,7 @@
         <v>2000</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>516</v>
@@ -13029,23 +13193,24 @@
       <c r="V51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W51" s="1"/>
+      <c r="X51" s="1">
         <v>4</v>
       </c>
-      <c r="X51" s="1">
+      <c r="Y51" s="1">
         <v>51</v>
       </c>
-      <c r="Y51" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="27" t="s">
-        <v>858</v>
+      <c r="Z51" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="48">
+    <row r="52" spans="1:28" ht="48" hidden="1">
       <c r="A52">
         <v>53000052</v>
       </c>
@@ -13106,7 +13271,7 @@
         <v>2000</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>517</v>
@@ -13114,23 +13279,24 @@
       <c r="V52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W52" s="1"/>
+      <c r="X52" s="1">
         <v>4</v>
       </c>
-      <c r="X52" s="1">
+      <c r="Y52" s="1">
         <v>52</v>
       </c>
-      <c r="Y52" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="27" t="s">
-        <v>858</v>
+      <c r="Z52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="48">
+    <row r="53" spans="1:28" ht="48" hidden="1">
       <c r="A53">
         <v>53000053</v>
       </c>
@@ -13191,7 +13357,7 @@
         <v>2000</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>518</v>
@@ -13199,23 +13365,24 @@
       <c r="V53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="1"/>
+      <c r="X53" s="1">
         <v>4</v>
       </c>
-      <c r="X53" s="1">
+      <c r="Y53" s="1">
         <v>53</v>
       </c>
-      <c r="Y53" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="27" t="s">
-        <v>858</v>
+      <c r="Z53" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="60">
+    <row r="54" spans="1:28" ht="48" hidden="1">
       <c r="A54">
         <v>53000054</v>
       </c>
@@ -13276,7 +13443,7 @@
         <v>1670</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>619</v>
@@ -13284,23 +13451,24 @@
       <c r="V54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W54" s="1"/>
+      <c r="X54" s="1">
         <v>4</v>
       </c>
-      <c r="X54" s="1">
+      <c r="Y54" s="1">
         <v>54</v>
       </c>
-      <c r="Y54" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="27" t="s">
-        <v>867</v>
+      <c r="Z54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="27" t="s">
+        <v>843</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="28.8">
+    <row r="55" spans="1:28" ht="24" hidden="1">
       <c r="A55">
         <v>53000055</v>
       </c>
@@ -13369,23 +13537,24 @@
       <c r="V55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W55" s="1">
+      <c r="W55" s="1"/>
+      <c r="X55" s="1">
         <v>4</v>
       </c>
-      <c r="X55" s="1">
+      <c r="Y55" s="1">
         <v>55</v>
       </c>
-      <c r="Y55" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="27" t="s">
-        <v>866</v>
+      <c r="Z55" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="48">
+    <row r="56" spans="1:28" ht="36" hidden="1">
       <c r="A56">
         <v>53000056</v>
       </c>
@@ -13454,23 +13623,24 @@
       <c r="V56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="W56" s="1">
+      <c r="W56" s="1"/>
+      <c r="X56" s="1">
         <v>4</v>
       </c>
-      <c r="X56" s="1">
+      <c r="Y56" s="1">
         <v>56</v>
       </c>
-      <c r="Y56" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="27" t="s">
-        <v>866</v>
+      <c r="Z56" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="36">
+    <row r="57" spans="1:28" ht="24" hidden="1">
       <c r="A57">
         <v>53000057</v>
       </c>
@@ -13539,23 +13709,24 @@
       <c r="V57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W57" s="1"/>
+      <c r="X57" s="1">
         <v>4</v>
       </c>
-      <c r="X57" s="1">
+      <c r="Y57" s="1">
         <v>57</v>
       </c>
-      <c r="Y57" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="27" t="s">
-        <v>866</v>
+      <c r="Z57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="28.8">
+    <row r="58" spans="1:28" ht="24" hidden="1">
       <c r="A58">
         <v>53000058</v>
       </c>
@@ -13616,7 +13787,7 @@
         <v>1800</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>519</v>
@@ -13624,23 +13795,24 @@
       <c r="V58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="1">
+      <c r="W58" s="1"/>
+      <c r="X58" s="1">
         <v>4</v>
       </c>
-      <c r="X58" s="1">
+      <c r="Y58" s="1">
         <v>58</v>
       </c>
-      <c r="Y58" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="27" t="s">
-        <v>861</v>
+      <c r="Z58" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="36">
+    <row r="59" spans="1:28" ht="24" hidden="1">
       <c r="A59">
         <v>53000059</v>
       </c>
@@ -13709,23 +13881,24 @@
       <c r="V59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W59" s="1"/>
+      <c r="X59" s="1">
         <v>4</v>
       </c>
-      <c r="X59" s="1">
+      <c r="Y59" s="1">
         <v>59</v>
       </c>
-      <c r="Y59" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="27" t="s">
-        <v>865</v>
+      <c r="Z59" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="48">
+    <row r="60" spans="1:28" ht="36" hidden="1">
       <c r="A60">
         <v>53000060</v>
       </c>
@@ -13794,23 +13967,24 @@
       <c r="V60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W60" s="1">
+      <c r="W60" s="1"/>
+      <c r="X60" s="1">
         <v>4</v>
       </c>
-      <c r="X60" s="1">
+      <c r="Y60" s="1">
         <v>60</v>
       </c>
-      <c r="Y60" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="27" t="s">
-        <v>865</v>
+      <c r="Z60" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="60">
+    <row r="61" spans="1:28" ht="48" hidden="1">
       <c r="A61">
         <v>53000061</v>
       </c>
@@ -13871,7 +14045,7 @@
         <v>3000</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>570</v>
@@ -13879,23 +14053,24 @@
       <c r="V61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W61" s="1">
+      <c r="W61" s="1"/>
+      <c r="X61" s="1">
         <v>4</v>
       </c>
-      <c r="X61" s="1">
+      <c r="Y61" s="1">
         <v>61</v>
       </c>
-      <c r="Y61" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="27" t="s">
-        <v>868</v>
+      <c r="Z61" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="27" t="s">
+        <v>844</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="28.8">
+    <row r="62" spans="1:28" ht="24" hidden="1">
       <c r="A62">
         <v>53000062</v>
       </c>
@@ -13956,7 +14131,7 @@
         <v>3000</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>520</v>
@@ -13964,23 +14139,24 @@
       <c r="V62" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W62" s="1">
+      <c r="W62" s="1"/>
+      <c r="X62" s="1">
         <v>4</v>
       </c>
-      <c r="X62" s="1">
+      <c r="Y62" s="1">
         <v>62</v>
       </c>
-      <c r="Y62" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="27" t="s">
-        <v>861</v>
+      <c r="Z62" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="28.8">
+    <row r="63" spans="1:28" ht="14.25" hidden="1">
       <c r="A63">
         <v>53000063</v>
       </c>
@@ -14049,23 +14225,24 @@
       <c r="V63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="W63" s="1">
+      <c r="W63" s="1"/>
+      <c r="X63" s="1">
         <v>4</v>
       </c>
-      <c r="X63" s="1">
+      <c r="Y63" s="1">
         <v>63</v>
       </c>
-      <c r="Y63" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="27" t="s">
-        <v>866</v>
+      <c r="Z63" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="28.8">
+    <row r="64" spans="1:28" ht="24" hidden="1">
       <c r="A64">
         <v>53000064</v>
       </c>
@@ -14134,23 +14311,24 @@
       <c r="V64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="W64" s="1">
+      <c r="W64" s="1"/>
+      <c r="X64" s="1">
         <v>4</v>
       </c>
-      <c r="X64" s="1">
+      <c r="Y64" s="1">
         <v>64</v>
       </c>
-      <c r="Y64" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="27" t="s">
-        <v>866</v>
+      <c r="Z64" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="48">
+    <row r="65" spans="1:28" ht="48" hidden="1">
       <c r="A65">
         <v>53000065</v>
       </c>
@@ -14211,7 +14389,7 @@
         <v>5000</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>711</v>
@@ -14219,23 +14397,24 @@
       <c r="V65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W65" s="1">
+      <c r="W65" s="1"/>
+      <c r="X65" s="1">
         <v>4</v>
       </c>
-      <c r="X65" s="1">
+      <c r="Y65" s="1">
         <v>65</v>
       </c>
-      <c r="Y65" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="27" t="s">
-        <v>858</v>
+      <c r="Z65" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="28.8">
+    <row r="66" spans="1:28" ht="24" hidden="1">
       <c r="A66">
         <v>53000066</v>
       </c>
@@ -14296,7 +14475,7 @@
         <v>1700</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="U66" s="1" t="s">
         <v>775</v>
@@ -14304,23 +14483,24 @@
       <c r="V66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W66" s="1">
+      <c r="W66" s="1"/>
+      <c r="X66" s="1">
         <v>4</v>
       </c>
-      <c r="X66" s="1">
+      <c r="Y66" s="1">
         <v>66</v>
       </c>
-      <c r="Y66" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="27" t="s">
-        <v>863</v>
+      <c r="Z66" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="28.8">
+    <row r="67" spans="1:28" ht="14.25" hidden="1">
       <c r="A67">
         <v>53000067</v>
       </c>
@@ -14389,23 +14569,24 @@
       <c r="V67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="W67" s="1">
+      <c r="W67" s="1"/>
+      <c r="X67" s="1">
         <v>4</v>
       </c>
-      <c r="X67" s="1">
+      <c r="Y67" s="1">
         <v>67</v>
       </c>
-      <c r="Y67" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="27" t="s">
-        <v>867</v>
+      <c r="Z67" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="27" t="s">
+        <v>843</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="60">
+    <row r="68" spans="1:28" ht="60">
       <c r="A68">
         <v>53000068</v>
       </c>
@@ -14466,7 +14647,7 @@
         <v>1200</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="U68" s="7" t="s">
         <v>688</v>
@@ -14474,23 +14655,26 @@
       <c r="V68" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W68" s="1">
+      <c r="W68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X68" s="1">
         <v>4</v>
       </c>
-      <c r="X68" s="1">
+      <c r="Y68" s="1">
         <v>68</v>
       </c>
-      <c r="Y68" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="27" t="s">
-        <v>869</v>
+      <c r="Z68" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="27" t="s">
+        <v>845</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="28.8">
+    <row r="69" spans="1:28" ht="24" hidden="1">
       <c r="A69">
         <v>53000069</v>
       </c>
@@ -14551,7 +14735,7 @@
         <v>2000</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>521</v>
@@ -14559,23 +14743,24 @@
       <c r="V69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="W69" s="1">
+      <c r="W69" s="1"/>
+      <c r="X69" s="1">
         <v>4</v>
       </c>
-      <c r="X69" s="1">
+      <c r="Y69" s="1">
         <v>69</v>
       </c>
-      <c r="Y69" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="27" t="s">
-        <v>861</v>
+      <c r="Z69" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="28.8">
+    <row r="70" spans="1:28" ht="14.25" hidden="1">
       <c r="A70">
         <v>53000070</v>
       </c>
@@ -14642,23 +14827,24 @@
       <c r="V70" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="W70" s="1">
+      <c r="W70" s="1"/>
+      <c r="X70" s="1">
         <v>4</v>
       </c>
-      <c r="X70" s="1">
+      <c r="Y70" s="1">
         <v>70</v>
       </c>
-      <c r="Y70" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="27" t="s">
-        <v>861</v>
+      <c r="Z70" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="84">
+    <row r="71" spans="1:28" ht="72">
       <c r="A71">
         <v>53000071</v>
       </c>
@@ -14719,7 +14905,7 @@
         <v>2000</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>799</v>
+        <v>867</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>483</v>
@@ -14727,23 +14913,26 @@
       <c r="V71" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="W71" s="1">
+      <c r="W71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X71" s="1">
         <v>4</v>
       </c>
-      <c r="X71" s="1">
+      <c r="Y71" s="1">
         <v>71</v>
       </c>
-      <c r="Y71" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="27" t="s">
-        <v>864</v>
+      <c r="Z71" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="60">
+    <row r="72" spans="1:28" ht="48" hidden="1">
       <c r="A72">
         <v>53000072</v>
       </c>
@@ -14804,7 +14993,7 @@
         <v>4000</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>649</v>
@@ -14812,23 +15001,24 @@
       <c r="V72" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W72" s="1">
+      <c r="W72" s="1"/>
+      <c r="X72" s="1">
         <v>4</v>
       </c>
-      <c r="X72" s="1">
+      <c r="Y72" s="1">
         <v>72</v>
       </c>
-      <c r="Y72" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="27" t="s">
-        <v>861</v>
+      <c r="Z72" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="48">
+    <row r="73" spans="1:28" ht="48" hidden="1">
       <c r="A73">
         <v>53000073</v>
       </c>
@@ -14889,7 +15079,7 @@
         <v>1900</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="U73" s="7" t="s">
         <v>522</v>
@@ -14897,23 +15087,24 @@
       <c r="V73" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="W73" s="1">
+      <c r="W73" s="1"/>
+      <c r="X73" s="1">
         <v>4</v>
       </c>
-      <c r="X73" s="1">
+      <c r="Y73" s="1">
         <v>73</v>
       </c>
-      <c r="Y73" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="27" t="s">
-        <v>861</v>
+      <c r="Z73" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="36">
+    <row r="74" spans="1:28" ht="36" hidden="1">
       <c r="A74">
         <v>53000074</v>
       </c>
@@ -14982,23 +15173,24 @@
       <c r="V74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W74" s="1">
+      <c r="W74" s="1"/>
+      <c r="X74" s="1">
         <v>4</v>
       </c>
-      <c r="X74" s="1">
+      <c r="Y74" s="1">
         <v>74</v>
       </c>
-      <c r="Y74" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="27" t="s">
-        <v>862</v>
+      <c r="Z74" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="132">
+    <row r="75" spans="1:28" ht="108" hidden="1">
       <c r="A75">
         <v>53000075</v>
       </c>
@@ -15059,7 +15251,7 @@
         <v>3600</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>523</v>
@@ -15067,23 +15259,24 @@
       <c r="V75" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W75" s="1">
+      <c r="W75" s="1"/>
+      <c r="X75" s="1">
         <v>4</v>
       </c>
-      <c r="X75" s="1">
+      <c r="Y75" s="1">
         <v>75</v>
       </c>
-      <c r="Y75" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="27" t="s">
-        <v>861</v>
+      <c r="Z75" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="72">
+    <row r="76" spans="1:28" ht="60">
       <c r="A76">
         <v>53000076</v>
       </c>
@@ -15144,7 +15337,7 @@
         <v>2200</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>689</v>
@@ -15152,23 +15345,26 @@
       <c r="V76" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="W76" s="1">
+      <c r="W76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X76" s="1">
         <v>4</v>
       </c>
-      <c r="X76" s="1">
+      <c r="Y76" s="1">
         <v>76</v>
       </c>
-      <c r="Y76" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="27" t="s">
-        <v>861</v>
+      <c r="Z76" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="48">
+    <row r="77" spans="1:28" ht="48" hidden="1">
       <c r="A77">
         <v>53000077</v>
       </c>
@@ -15229,7 +15425,7 @@
         <v>1200</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>524</v>
@@ -15237,23 +15433,24 @@
       <c r="V77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W77" s="1">
+      <c r="W77" s="1"/>
+      <c r="X77" s="1">
         <v>4</v>
       </c>
-      <c r="X77" s="1">
+      <c r="Y77" s="1">
         <v>77</v>
       </c>
-      <c r="Y77" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="27" t="s">
-        <v>861</v>
+      <c r="Z77" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="28.8">
+    <row r="78" spans="1:28" ht="14.25" hidden="1">
       <c r="A78">
         <v>53000078</v>
       </c>
@@ -15322,23 +15519,24 @@
       <c r="V78" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W78" s="1">
+      <c r="W78" s="1"/>
+      <c r="X78" s="1">
         <v>4</v>
       </c>
-      <c r="X78" s="1">
+      <c r="Y78" s="1">
         <v>78</v>
       </c>
-      <c r="Y78" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="27" t="s">
-        <v>866</v>
+      <c r="Z78" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="48">
+    <row r="79" spans="1:28" ht="48">
       <c r="A79">
         <v>53000079</v>
       </c>
@@ -15399,7 +15597,7 @@
         <v>2400</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="U79" s="7" t="s">
         <v>718</v>
@@ -15407,23 +15605,26 @@
       <c r="V79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="W79" s="1">
+      <c r="W79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X79" s="1">
         <v>4</v>
       </c>
-      <c r="X79" s="1">
+      <c r="Y79" s="1">
         <v>79</v>
       </c>
-      <c r="Y79" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="27" t="s">
-        <v>865</v>
+      <c r="Z79" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="60">
+    <row r="80" spans="1:28" ht="60">
       <c r="A80">
         <v>53000080</v>
       </c>
@@ -15484,7 +15685,7 @@
         <v>2000</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>525</v>
@@ -15492,23 +15693,26 @@
       <c r="V80" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W80" s="1">
+      <c r="W80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X80" s="1">
         <v>4</v>
       </c>
-      <c r="X80" s="1">
+      <c r="Y80" s="1">
         <v>80</v>
       </c>
-      <c r="Y80" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="27" t="s">
-        <v>861</v>
+      <c r="Z80" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="60">
+    <row r="81" spans="1:28" ht="60">
       <c r="A81">
         <v>53000081</v>
       </c>
@@ -15569,7 +15773,7 @@
         <v>1800</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>792</v>
+        <v>871</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>531</v>
@@ -15577,23 +15781,26 @@
       <c r="V81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W81" s="1">
+      <c r="W81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X81" s="1">
         <v>4</v>
       </c>
-      <c r="X81" s="1">
+      <c r="Y81" s="1">
         <v>81</v>
       </c>
-      <c r="Y81" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="27" t="s">
-        <v>858</v>
+      <c r="Z81" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="28.8">
+    <row r="82" spans="1:28" ht="24" hidden="1">
       <c r="A82">
         <v>53000082</v>
       </c>
@@ -15654,7 +15861,7 @@
         <v>2400</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="U82" s="7" t="s">
         <v>720</v>
@@ -15662,23 +15869,24 @@
       <c r="V82" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W82" s="1">
+      <c r="W82" s="1"/>
+      <c r="X82" s="1">
         <v>4</v>
       </c>
-      <c r="X82" s="1">
+      <c r="Y82" s="1">
         <v>82</v>
       </c>
-      <c r="Y82" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="27" t="s">
-        <v>865</v>
+      <c r="Z82" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="28.8">
+    <row r="83" spans="1:28" ht="24" hidden="1">
       <c r="A83" s="44">
         <v>53000083</v>
       </c>
@@ -15739,31 +15947,32 @@
         <v>1200</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="U83" s="7" t="s">
         <v>719</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="W83" s="1">
+        <v>787</v>
+      </c>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1">
         <v>4</v>
       </c>
-      <c r="X83" s="1">
+      <c r="Y83" s="1">
         <v>83</v>
       </c>
-      <c r="Y83" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="27" t="s">
-        <v>865</v>
+      <c r="Z83" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="28.8">
+    <row r="84" spans="1:28" ht="24" hidden="1">
       <c r="A84">
         <v>53000084</v>
       </c>
@@ -15824,31 +16033,32 @@
         <v>800</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>566</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="W84" s="1">
+        <v>788</v>
+      </c>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1">
         <v>4</v>
       </c>
-      <c r="X84" s="1">
+      <c r="Y84" s="1">
         <v>84</v>
       </c>
-      <c r="Y84" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="27" t="s">
-        <v>865</v>
+      <c r="Z84" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="84">
+    <row r="85" spans="1:28" ht="60">
       <c r="A85">
         <v>53000085</v>
       </c>
@@ -15909,7 +16119,7 @@
         <v>2000</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>804</v>
+        <v>873</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>532</v>
@@ -15917,23 +16127,26 @@
       <c r="V85" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W85" s="1">
+      <c r="W85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X85" s="1">
         <v>4</v>
       </c>
-      <c r="X85" s="1">
+      <c r="Y85" s="1">
         <v>85</v>
       </c>
-      <c r="Y85" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="27" t="s">
-        <v>868</v>
+      <c r="Z85" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="27" t="s">
+        <v>844</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="28.8">
+    <row r="86" spans="1:28" ht="14.25" hidden="1">
       <c r="A86">
         <v>53000086</v>
       </c>
@@ -16000,23 +16213,24 @@
       <c r="V86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W86" s="1">
+      <c r="W86" s="1"/>
+      <c r="X86" s="1">
         <v>4</v>
       </c>
-      <c r="X86" s="1">
+      <c r="Y86" s="1">
         <v>86</v>
       </c>
-      <c r="Y86" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="27" t="s">
-        <v>865</v>
+      <c r="Z86" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="60">
+    <row r="87" spans="1:28" ht="60">
       <c r="A87">
         <v>53000087</v>
       </c>
@@ -16077,7 +16291,7 @@
         <v>1500</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>793</v>
+        <v>872</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>667</v>
@@ -16085,23 +16299,26 @@
       <c r="V87" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W87" s="1">
+      <c r="W87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X87" s="1">
         <v>4</v>
       </c>
-      <c r="X87" s="1">
+      <c r="Y87" s="1">
         <v>87</v>
       </c>
-      <c r="Y87" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="27" t="s">
-        <v>858</v>
+      <c r="Z87" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="60">
+    <row r="88" spans="1:28" ht="60">
       <c r="A88">
         <v>53000088</v>
       </c>
@@ -16162,7 +16379,7 @@
         <v>1750</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>794</v>
+        <v>872</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>533</v>
@@ -16170,23 +16387,26 @@
       <c r="V88" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="W88" s="1">
+      <c r="W88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X88" s="1">
         <v>4</v>
       </c>
-      <c r="X88" s="1">
+      <c r="Y88" s="1">
         <v>88</v>
       </c>
-      <c r="Y88" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="27" t="s">
-        <v>870</v>
+      <c r="Z88" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="27" t="s">
+        <v>846</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="60">
+    <row r="89" spans="1:28" ht="60">
       <c r="A89">
         <v>53000089</v>
       </c>
@@ -16247,31 +16467,34 @@
         <v>1800</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>796</v>
+        <v>863</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>529</v>
       </c>
       <c r="V89" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="W89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W89" s="1">
+      <c r="X89" s="1">
         <v>4</v>
       </c>
-      <c r="X89" s="1">
+      <c r="Y89" s="1">
         <v>89</v>
       </c>
-      <c r="Y89" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="27" t="s">
-        <v>858</v>
+      <c r="Z89" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="60">
+    <row r="90" spans="1:28" ht="60">
       <c r="A90">
         <v>53000090</v>
       </c>
@@ -16332,7 +16555,7 @@
         <v>1650</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>797</v>
+        <v>874</v>
       </c>
       <c r="U90" s="7" t="s">
         <v>691</v>
@@ -16340,23 +16563,26 @@
       <c r="V90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W90" s="1">
+      <c r="W90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X90" s="1">
         <v>4</v>
       </c>
-      <c r="X90" s="1">
+      <c r="Y90" s="1">
         <v>90</v>
       </c>
-      <c r="Y90" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="27" t="s">
-        <v>858</v>
+      <c r="Z90" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="36">
+    <row r="91" spans="1:28" ht="36" hidden="1">
       <c r="A91">
         <v>53000091</v>
       </c>
@@ -16425,23 +16651,24 @@
       <c r="V91" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W91" s="1">
+      <c r="W91" s="1"/>
+      <c r="X91" s="1">
         <v>4</v>
       </c>
-      <c r="X91" s="1">
+      <c r="Y91" s="1">
         <v>91</v>
       </c>
-      <c r="Y91" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="27" t="s">
-        <v>862</v>
+      <c r="Z91" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="60">
+    <row r="92" spans="1:28" ht="60">
       <c r="A92">
         <v>53000092</v>
       </c>
@@ -16502,7 +16729,7 @@
         <v>1500</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>795</v>
+        <v>877</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>535</v>
@@ -16510,23 +16737,26 @@
       <c r="V92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W92" s="1">
+      <c r="W92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X92" s="1">
         <v>4</v>
       </c>
-      <c r="X92" s="1">
+      <c r="Y92" s="1">
         <v>92</v>
       </c>
-      <c r="Y92" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="27" t="s">
-        <v>858</v>
+      <c r="Z92" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="48">
+    <row r="93" spans="1:28" ht="48" hidden="1">
       <c r="A93">
         <v>53000093</v>
       </c>
@@ -16595,23 +16825,24 @@
       <c r="V93" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="W93" s="1">
+      <c r="W93" s="1"/>
+      <c r="X93" s="1">
         <v>4</v>
       </c>
-      <c r="X93" s="1">
+      <c r="Y93" s="1">
         <v>93</v>
       </c>
-      <c r="Y93" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="27" t="s">
-        <v>862</v>
+      <c r="Z93" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="36">
+    <row r="94" spans="1:28" ht="36" hidden="1">
       <c r="A94">
         <v>53000094</v>
       </c>
@@ -16680,23 +16911,24 @@
       <c r="V94" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="W94" s="1">
+      <c r="W94" s="1"/>
+      <c r="X94" s="1">
         <v>4</v>
       </c>
-      <c r="X94" s="1">
+      <c r="Y94" s="1">
         <v>94</v>
       </c>
-      <c r="Y94" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="27" t="s">
-        <v>866</v>
+      <c r="Z94" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="60">
+    <row r="95" spans="1:28" ht="48">
       <c r="A95">
         <v>53000095</v>
       </c>
@@ -16757,7 +16989,7 @@
         <v>1600</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>788</v>
+        <v>875</v>
       </c>
       <c r="U95" s="7" t="s">
         <v>568</v>
@@ -16765,23 +16997,26 @@
       <c r="V95" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="W95" s="1">
+      <c r="W95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X95" s="1">
         <v>4</v>
       </c>
-      <c r="X95" s="1">
+      <c r="Y95" s="1">
         <v>95</v>
       </c>
-      <c r="Y95" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z95" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="27" t="s">
-        <v>856</v>
+      <c r="Z95" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="27" t="s">
+        <v>832</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="28.8">
+    <row r="96" spans="1:28" ht="24" hidden="1">
       <c r="A96">
         <v>53000096</v>
       </c>
@@ -16850,23 +17085,24 @@
       <c r="V96" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W96" s="1">
+      <c r="W96" s="1"/>
+      <c r="X96" s="1">
         <v>4</v>
       </c>
-      <c r="X96" s="1">
+      <c r="Y96" s="1">
         <v>96</v>
       </c>
-      <c r="Y96" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="27" t="s">
-        <v>864</v>
+      <c r="Z96" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="60">
+    <row r="97" spans="1:28" ht="60">
       <c r="A97">
         <v>53000097</v>
       </c>
@@ -16927,7 +17163,7 @@
         <v>900</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
       <c r="U97" s="7" t="s">
         <v>526</v>
@@ -16935,23 +17171,26 @@
       <c r="V97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W97" s="1">
+      <c r="W97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X97" s="1">
         <v>4</v>
       </c>
-      <c r="X97" s="1">
+      <c r="Y97" s="1">
         <v>97</v>
       </c>
-      <c r="Y97" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z97" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="27" t="s">
-        <v>861</v>
+      <c r="Z97" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="36">
+    <row r="98" spans="1:28" ht="24" hidden="1">
       <c r="A98">
         <v>53000098</v>
       </c>
@@ -17020,23 +17259,24 @@
       <c r="V98" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W98" s="1">
+      <c r="W98" s="1"/>
+      <c r="X98" s="1">
         <v>4</v>
       </c>
-      <c r="X98" s="1">
+      <c r="Y98" s="1">
         <v>98</v>
       </c>
-      <c r="Y98" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="27" t="s">
-        <v>862</v>
+      <c r="Z98" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="36">
+    <row r="99" spans="1:28" ht="24" hidden="1">
       <c r="A99">
         <v>53000099</v>
       </c>
@@ -17105,23 +17345,24 @@
       <c r="V99" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W99" s="1">
+      <c r="W99" s="1"/>
+      <c r="X99" s="1">
         <v>4</v>
       </c>
-      <c r="X99" s="1">
+      <c r="Y99" s="1">
         <v>99</v>
       </c>
-      <c r="Y99" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="27" t="s">
-        <v>862</v>
+      <c r="Z99" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="28.8">
+    <row r="100" spans="1:28" ht="24" hidden="1">
       <c r="A100">
         <v>53000100</v>
       </c>
@@ -17190,23 +17431,24 @@
       <c r="V100" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W100" s="1">
+      <c r="W100" s="1"/>
+      <c r="X100" s="1">
         <v>4</v>
       </c>
-      <c r="X100" s="1">
+      <c r="Y100" s="1">
         <v>100</v>
       </c>
-      <c r="Y100" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="27" t="s">
-        <v>871</v>
+      <c r="Z100" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="27" t="s">
+        <v>847</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="48">
+    <row r="101" spans="1:28" ht="48" hidden="1">
       <c r="A101">
         <v>53000101</v>
       </c>
@@ -17275,23 +17517,24 @@
       <c r="V101" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W101" s="1">
+      <c r="W101" s="1"/>
+      <c r="X101" s="1">
         <v>4</v>
       </c>
-      <c r="X101" s="1">
+      <c r="Y101" s="1">
         <v>101</v>
       </c>
-      <c r="Y101" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="27" t="s">
-        <v>864</v>
+      <c r="Z101" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="28.8">
+    <row r="102" spans="1:28" ht="24" hidden="1">
       <c r="A102">
         <v>53000102</v>
       </c>
@@ -17360,23 +17603,24 @@
       <c r="V102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W102" s="1">
+      <c r="W102" s="1"/>
+      <c r="X102" s="1">
         <v>4</v>
       </c>
-      <c r="X102" s="1">
+      <c r="Y102" s="1">
         <v>102</v>
       </c>
-      <c r="Y102" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="27" t="s">
-        <v>862</v>
+      <c r="Z102" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="60">
+    <row r="103" spans="1:28" ht="60">
       <c r="A103">
         <v>53000103</v>
       </c>
@@ -17437,7 +17681,7 @@
         <v>1300</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="U103" s="7" t="s">
         <v>721</v>
@@ -17445,23 +17689,26 @@
       <c r="V103" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W103" s="1">
+      <c r="W103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="X103" s="1">
         <v>4</v>
       </c>
-      <c r="X103" s="1">
+      <c r="Y103" s="1">
         <v>103</v>
       </c>
-      <c r="Y103" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="27" t="s">
-        <v>865</v>
+      <c r="Z103" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="28.8">
+    <row r="104" spans="1:28" ht="14.25" hidden="1">
       <c r="A104">
         <v>53000104</v>
       </c>
@@ -17528,23 +17775,24 @@
       <c r="V104" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="W104" s="1">
+      <c r="W104" s="1"/>
+      <c r="X104" s="1">
         <v>4</v>
       </c>
-      <c r="X104" s="1">
+      <c r="Y104" s="1">
         <v>104</v>
       </c>
-      <c r="Y104" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z104" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="27" t="s">
-        <v>861</v>
+      <c r="Z104" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="60">
+    <row r="105" spans="1:28" ht="36" hidden="1">
       <c r="A105">
         <v>53000105</v>
       </c>
@@ -17613,23 +17861,24 @@
       <c r="V105" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="W105" s="1">
+      <c r="W105" s="1"/>
+      <c r="X105" s="1">
         <v>4</v>
       </c>
-      <c r="X105" s="1">
+      <c r="Y105" s="1">
         <v>105</v>
       </c>
-      <c r="Y105" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z105" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="27" t="s">
-        <v>866</v>
+      <c r="Z105" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="28.8">
+    <row r="106" spans="1:28" ht="24" hidden="1">
       <c r="A106">
         <v>53000106</v>
       </c>
@@ -17698,23 +17947,24 @@
       <c r="V106" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="W106" s="1">
+      <c r="W106" s="1"/>
+      <c r="X106" s="1">
         <v>4</v>
       </c>
-      <c r="X106" s="1">
+      <c r="Y106" s="1">
         <v>106</v>
       </c>
-      <c r="Y106" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="27" t="s">
-        <v>865</v>
+      <c r="Z106" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="28.8">
+    <row r="107" spans="1:28" ht="24" hidden="1">
       <c r="A107">
         <v>53000107</v>
       </c>
@@ -17783,23 +18033,24 @@
       <c r="V107" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="W107" s="1">
+      <c r="W107" s="1"/>
+      <c r="X107" s="1">
         <v>4</v>
       </c>
-      <c r="X107" s="1">
+      <c r="Y107" s="1">
         <v>107</v>
       </c>
-      <c r="Y107" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="27" t="s">
-        <v>861</v>
+      <c r="Z107" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="144">
+    <row r="108" spans="1:28" ht="120" hidden="1">
       <c r="A108">
         <v>53000108</v>
       </c>
@@ -17860,7 +18111,7 @@
         <v>1700</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="U108" s="7" t="s">
         <v>527</v>
@@ -17868,23 +18119,24 @@
       <c r="V108" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="W108" s="1">
+      <c r="W108" s="1"/>
+      <c r="X108" s="1">
         <v>4</v>
       </c>
-      <c r="X108" s="1">
+      <c r="Y108" s="1">
         <v>108</v>
       </c>
-      <c r="Y108" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="27" t="s">
-        <v>861</v>
+      <c r="Z108" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="28.8">
+    <row r="109" spans="1:28" ht="24" hidden="1">
       <c r="A109">
         <v>53000109</v>
       </c>
@@ -17953,23 +18205,24 @@
       <c r="V109" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="W109" s="1">
+      <c r="W109" s="1"/>
+      <c r="X109" s="1">
         <v>4</v>
       </c>
-      <c r="X109" s="1">
+      <c r="Y109" s="1">
         <v>109</v>
       </c>
-      <c r="Y109" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="27" t="s">
-        <v>856</v>
+      <c r="Z109" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="27" t="s">
+        <v>832</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="48">
+    <row r="110" spans="1:28" ht="36" hidden="1">
       <c r="A110">
         <v>53000110</v>
       </c>
@@ -18038,23 +18291,24 @@
       <c r="V110" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W110" s="1">
+      <c r="W110" s="1"/>
+      <c r="X110" s="1">
         <v>4</v>
       </c>
-      <c r="X110" s="1">
+      <c r="Y110" s="1">
         <v>110</v>
       </c>
-      <c r="Y110" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z110" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="27" t="s">
-        <v>859</v>
+      <c r="Z110" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="60">
+    <row r="111" spans="1:28" ht="48" hidden="1">
       <c r="A111">
         <v>53000111</v>
       </c>
@@ -18115,7 +18369,7 @@
         <v>1600</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="U111" s="7" t="s">
         <v>541</v>
@@ -18123,23 +18377,24 @@
       <c r="V111" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="W111" s="1">
+      <c r="W111" s="1"/>
+      <c r="X111" s="1">
         <v>4</v>
       </c>
-      <c r="X111" s="1">
+      <c r="Y111" s="1">
         <v>111</v>
       </c>
-      <c r="Y111" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z111" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="27" t="s">
-        <v>858</v>
+      <c r="Z111" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="28.8">
+    <row r="112" spans="1:28" ht="24" hidden="1">
       <c r="A112">
         <v>53000112</v>
       </c>
@@ -18208,23 +18463,24 @@
       <c r="V112" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="W112" s="1">
+      <c r="W112" s="1"/>
+      <c r="X112" s="1">
         <v>4</v>
       </c>
-      <c r="X112" s="1">
+      <c r="Y112" s="1">
         <v>112</v>
       </c>
-      <c r="Y112" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z112" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="27" t="s">
-        <v>859</v>
+      <c r="Z112" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="28.8">
+    <row r="113" spans="1:28" ht="24" hidden="1">
       <c r="A113">
         <v>53000113</v>
       </c>
@@ -18293,23 +18549,24 @@
       <c r="V113" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="W113" s="1">
+      <c r="W113" s="1"/>
+      <c r="X113" s="1">
         <v>4</v>
       </c>
-      <c r="X113" s="1">
+      <c r="Y113" s="1">
         <v>113</v>
       </c>
-      <c r="Y113" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z113" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="27" t="s">
-        <v>859</v>
+      <c r="Z113" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="28.8">
+    <row r="114" spans="1:28" ht="24" hidden="1">
       <c r="A114">
         <v>53000114</v>
       </c>
@@ -18378,23 +18635,24 @@
       <c r="V114" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="W114" s="1">
+      <c r="W114" s="1"/>
+      <c r="X114" s="1">
         <v>4</v>
       </c>
-      <c r="X114" s="1">
+      <c r="Y114" s="1">
         <v>114</v>
       </c>
-      <c r="Y114" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z114" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="27" t="s">
-        <v>864</v>
+      <c r="Z114" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="36">
+    <row r="115" spans="1:28" ht="36" hidden="1">
       <c r="A115">
         <v>53000115</v>
       </c>
@@ -18463,23 +18721,24 @@
       <c r="V115" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="W115" s="1">
+      <c r="W115" s="1"/>
+      <c r="X115" s="1">
         <v>4</v>
       </c>
-      <c r="X115" s="1">
+      <c r="Y115" s="1">
         <v>115</v>
       </c>
-      <c r="Y115" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z115" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="27" t="s">
-        <v>864</v>
+      <c r="Z115" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="60">
+    <row r="116" spans="1:28" ht="36" hidden="1">
       <c r="A116">
         <v>53000116</v>
       </c>
@@ -18548,23 +18807,24 @@
       <c r="V116" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="W116" s="1">
+      <c r="W116" s="1"/>
+      <c r="X116" s="1">
         <v>4</v>
       </c>
-      <c r="X116" s="1">
+      <c r="Y116" s="1">
         <v>116</v>
       </c>
-      <c r="Y116" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z116" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA116" s="27" t="s">
-        <v>872</v>
+      <c r="Z116" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="27" t="s">
+        <v>848</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="60">
+    <row r="117" spans="1:28" ht="48" hidden="1">
       <c r="A117">
         <v>53000117</v>
       </c>
@@ -18633,23 +18893,24 @@
       <c r="V117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W117" s="1">
+      <c r="W117" s="1"/>
+      <c r="X117" s="1">
         <v>4</v>
       </c>
-      <c r="X117" s="1">
+      <c r="Y117" s="1">
         <v>117</v>
       </c>
-      <c r="Y117" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="27" t="s">
-        <v>854</v>
+      <c r="Z117" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="60">
+    <row r="118" spans="1:28" ht="48" hidden="1">
       <c r="A118">
         <v>53000118</v>
       </c>
@@ -18718,23 +18979,24 @@
       <c r="V118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W118" s="1">
+      <c r="W118" s="1"/>
+      <c r="X118" s="1">
         <v>4</v>
       </c>
-      <c r="X118" s="1">
+      <c r="Y118" s="1">
         <v>118</v>
       </c>
-      <c r="Y118" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="27" t="s">
-        <v>854</v>
+      <c r="Z118" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="60">
+    <row r="119" spans="1:28" ht="48" hidden="1">
       <c r="A119">
         <v>53000119</v>
       </c>
@@ -18803,23 +19065,24 @@
       <c r="V119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W119" s="1">
+      <c r="W119" s="1"/>
+      <c r="X119" s="1">
         <v>4</v>
       </c>
-      <c r="X119" s="1">
+      <c r="Y119" s="1">
         <v>119</v>
       </c>
-      <c r="Y119" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z119" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA119" s="27" t="s">
-        <v>854</v>
+      <c r="Z119" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="60">
+    <row r="120" spans="1:28" ht="48" hidden="1">
       <c r="A120">
         <v>53000120</v>
       </c>
@@ -18888,23 +19151,24 @@
       <c r="V120" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W120" s="1">
+      <c r="W120" s="1"/>
+      <c r="X120" s="1">
         <v>4</v>
       </c>
-      <c r="X120" s="1">
+      <c r="Y120" s="1">
         <v>120</v>
       </c>
-      <c r="Y120" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z120" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA120" s="27" t="s">
-        <v>854</v>
+      <c r="Z120" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="60">
+    <row r="121" spans="1:28" ht="48" hidden="1">
       <c r="A121">
         <v>53000121</v>
       </c>
@@ -18973,23 +19237,24 @@
       <c r="V121" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W121" s="1">
+      <c r="W121" s="1"/>
+      <c r="X121" s="1">
         <v>4</v>
       </c>
-      <c r="X121" s="1">
+      <c r="Y121" s="1">
         <v>121</v>
       </c>
-      <c r="Y121" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z121" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA121" s="27" t="s">
-        <v>854</v>
+      <c r="Z121" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="60">
+    <row r="122" spans="1:28" ht="48" hidden="1">
       <c r="A122">
         <v>53000122</v>
       </c>
@@ -19058,23 +19323,24 @@
       <c r="V122" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W122" s="1">
+      <c r="W122" s="1"/>
+      <c r="X122" s="1">
         <v>4</v>
       </c>
-      <c r="X122" s="1">
+      <c r="Y122" s="1">
         <v>122</v>
       </c>
-      <c r="Y122" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z122" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA122" s="27" t="s">
-        <v>854</v>
+      <c r="Z122" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="60">
+    <row r="123" spans="1:28" ht="48" hidden="1">
       <c r="A123">
         <v>53000123</v>
       </c>
@@ -19143,23 +19409,24 @@
       <c r="V123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W123" s="1">
+      <c r="W123" s="1"/>
+      <c r="X123" s="1">
         <v>4</v>
       </c>
-      <c r="X123" s="1">
+      <c r="Y123" s="1">
         <v>123</v>
       </c>
-      <c r="Y123" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z123" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA123" s="27" t="s">
-        <v>854</v>
+      <c r="Z123" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="60">
+    <row r="124" spans="1:28" ht="48" hidden="1">
       <c r="A124">
         <v>53000124</v>
       </c>
@@ -19228,23 +19495,24 @@
       <c r="V124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W124" s="1">
+      <c r="W124" s="1"/>
+      <c r="X124" s="1">
         <v>4</v>
       </c>
-      <c r="X124" s="1">
+      <c r="Y124" s="1">
         <v>124</v>
       </c>
-      <c r="Y124" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z124" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA124" s="27" t="s">
-        <v>854</v>
+      <c r="Z124" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="60">
+    <row r="125" spans="1:28" ht="48" hidden="1">
       <c r="A125">
         <v>53000125</v>
       </c>
@@ -19313,23 +19581,24 @@
       <c r="V125" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W125" s="1">
+      <c r="W125" s="1"/>
+      <c r="X125" s="1">
         <v>4</v>
       </c>
-      <c r="X125" s="1">
+      <c r="Y125" s="1">
         <v>125</v>
       </c>
-      <c r="Y125" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z125" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="27" t="s">
-        <v>854</v>
+      <c r="Z125" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="27" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="84">
+    <row r="126" spans="1:28" ht="72">
       <c r="A126">
         <v>53000126</v>
       </c>
@@ -19390,31 +19659,34 @@
         <v>2200</v>
       </c>
       <c r="T126" s="12" t="s">
-        <v>806</v>
+        <v>879</v>
       </c>
       <c r="U126" s="7" t="s">
         <v>736</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="W126" s="1">
+        <v>789</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="X126" s="1">
         <v>4</v>
       </c>
-      <c r="X126" s="1">
+      <c r="Y126" s="1">
         <v>126</v>
       </c>
-      <c r="Y126" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z126" s="27">
+      <c r="Z126" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="27">
         <v>1</v>
       </c>
-      <c r="AA126" s="27" t="s">
-        <v>858</v>
+      <c r="AB126" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="60">
+    <row r="127" spans="1:28" ht="48">
       <c r="A127">
         <v>53000127</v>
       </c>
@@ -19475,7 +19747,7 @@
         <v>3000</v>
       </c>
       <c r="T127" s="12" t="s">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="U127" s="7" t="s">
         <v>569</v>
@@ -19483,23 +19755,26 @@
       <c r="V127" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W127" s="1">
+      <c r="W127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X127" s="1">
         <v>4</v>
       </c>
-      <c r="X127" s="1">
+      <c r="Y127" s="1">
         <v>127</v>
       </c>
-      <c r="Y127" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z127" s="27">
+      <c r="Z127" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="27">
         <v>1</v>
       </c>
-      <c r="AA127" s="27" t="s">
-        <v>868</v>
+      <c r="AB127" s="27" t="s">
+        <v>844</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="36">
+    <row r="128" spans="1:28" ht="36" hidden="1">
       <c r="A128">
         <v>53000129</v>
       </c>
@@ -19568,20 +19843,21 @@
       <c r="V128" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W128" s="16">
+      <c r="W128" s="1"/>
+      <c r="X128" s="16">
         <v>4</v>
       </c>
-      <c r="X128" s="16">
+      <c r="Y128" s="16">
         <v>129</v>
       </c>
-      <c r="Y128" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="16">
+      <c r="Z128" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="16">
         <v>1</v>
       </c>
-      <c r="AA128" s="27" t="s">
-        <v>861</v>
+      <c r="AB128" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -19590,81 +19866,81 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I121:I127 I71:I115 I4:I36 I39:I69">
-    <cfRule type="cellIs" dxfId="124" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:P128 J71:P126 J5:P36 J39:P69 J4:O4">
-    <cfRule type="cellIs" dxfId="123" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="122" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="notEqual">
       <formula>$E127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:I120">
-    <cfRule type="cellIs" dxfId="121" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="42" operator="notEqual">
       <formula>$E116</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="120" priority="41" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="41" operator="notEqual">
       <formula>$E128</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:P128">
-    <cfRule type="cellIs" dxfId="119" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:P127">
-    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="117" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="notEqual">
       <formula>$E70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:P70">
-    <cfRule type="cellIs" dxfId="116" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="115" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="114" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="notEqual">
       <formula>$E38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:P38">
-    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H128">
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19691,37 +19967,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" customWidth="1"/>
-    <col min="23" max="26" width="4" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.125" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="27.25" customWidth="1"/>
+    <col min="22" max="23" width="7.875" customWidth="1"/>
+    <col min="24" max="27" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="65.25" customHeight="1">
+    <row r="1" spans="1:28" ht="65.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
@@ -19744,7 +20020,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -19768,7 +20044,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -19789,22 +20065,25 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>200</v>
       </c>
@@ -19851,7 +20130,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -19872,22 +20151,25 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="AA2" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AB2" s="37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>202</v>
       </c>
@@ -19910,7 +20192,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -19934,7 +20216,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -19954,23 +20236,26 @@
       <c r="V3" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Z3" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="AA3" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AB3" s="28" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="24">
+    <row r="4" spans="1:28" ht="24">
       <c r="A4">
         <v>53100000</v>
       </c>
@@ -20035,21 +20320,22 @@
       <c r="V4" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="16"/>
+      <c r="X4" s="16">
         <v>4</v>
       </c>
-      <c r="X4" s="16">
+      <c r="Y4" s="16">
         <v>1</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Z4" s="29">
         <v>1</v>
       </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
+      <c r="AA4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="38"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28" ht="14.25">
       <c r="A5">
         <v>53100001</v>
       </c>
@@ -20114,21 +20400,22 @@
       <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="1"/>
+      <c r="X5" s="16">
         <v>4</v>
       </c>
-      <c r="X5" s="16">
+      <c r="Y5" s="16">
         <v>1</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Z5" s="29">
         <v>1</v>
       </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="38"/>
     </row>
-    <row r="6" spans="1:27" ht="36">
+    <row r="6" spans="1:28" ht="24">
       <c r="A6">
         <v>53100002</v>
       </c>
@@ -20193,21 +20480,22 @@
       <c r="V6" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="16"/>
+      <c r="X6" s="16">
         <v>4</v>
       </c>
-      <c r="X6" s="16">
+      <c r="Y6" s="16">
         <v>1</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Z6" s="29">
         <v>1</v>
       </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="38"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28" ht="14.25">
       <c r="A7">
         <v>53100003</v>
       </c>
@@ -20272,21 +20560,22 @@
       <c r="V7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="16"/>
+      <c r="X7" s="16">
         <v>4</v>
       </c>
-      <c r="X7" s="16">
+      <c r="Y7" s="16">
         <v>1</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Z7" s="29">
         <v>1</v>
       </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="38"/>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="38"/>
     </row>
-    <row r="8" spans="1:27" ht="36">
+    <row r="8" spans="1:28" ht="36">
       <c r="A8">
         <v>53100004</v>
       </c>
@@ -20351,21 +20640,22 @@
       <c r="V8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="16"/>
+      <c r="X8" s="16">
         <v>4</v>
       </c>
-      <c r="X8" s="16">
+      <c r="Y8" s="16">
         <v>1</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Z8" s="29">
         <v>1</v>
       </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="38"/>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="38"/>
     </row>
-    <row r="9" spans="1:27" ht="24">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9">
         <v>53100005</v>
       </c>
@@ -20422,7 +20712,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>639</v>
@@ -20430,94 +20720,95 @@
       <c r="V9" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="16"/>
+      <c r="X9" s="16">
         <v>4</v>
       </c>
-      <c r="X9" s="16">
+      <c r="Y9" s="16">
         <v>1</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Z9" s="29">
         <v>1</v>
       </c>
-      <c r="Z9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="38"/>
+      <c r="AA9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="77" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="75" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="74" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="72" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="71" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="70" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="69" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="67" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="66" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20532,39 +20823,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" customWidth="1"/>
-    <col min="23" max="23" width="4" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="26" width="4" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="27.25" customWidth="1"/>
+    <col min="22" max="23" width="7.875" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="27" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="65.25" customHeight="1">
+    <row r="1" spans="1:28" ht="65.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
@@ -20587,7 +20878,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -20611,7 +20902,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -20632,22 +20923,25 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>200</v>
       </c>
@@ -20694,7 +20988,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -20715,22 +21009,25 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="AA2" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AB2" s="37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>202</v>
       </c>
@@ -20753,7 +21050,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -20777,7 +21074,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -20797,23 +21094,26 @@
       <c r="V3" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Z3" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="AA3" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AB3" s="28" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="36">
+    <row r="4" spans="1:28" ht="36">
       <c r="A4">
         <v>53200100</v>
       </c>
@@ -20874,7 +21174,7 @@
         <v>2300</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>644</v>
@@ -20882,23 +21182,24 @@
       <c r="V4" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="16"/>
+      <c r="X4" s="16">
         <v>4</v>
       </c>
-      <c r="X4" s="16">
+      <c r="Y4" s="16">
         <v>2100</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Z4" s="29">
         <v>1</v>
       </c>
-      <c r="Z4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="28.8">
+    <row r="5" spans="1:28" ht="24">
       <c r="A5">
         <v>53200101</v>
       </c>
@@ -20967,23 +21268,24 @@
       <c r="V5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
         <v>4</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>2101</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Z5" s="29">
         <v>1</v>
       </c>
-      <c r="Z5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="27" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="43.2">
+    <row r="6" spans="1:28" ht="40.5">
       <c r="A6">
         <v>53200102</v>
       </c>
@@ -21044,7 +21346,7 @@
         <v>2300</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="U6" s="34" t="s">
         <v>745</v>
@@ -21052,23 +21354,24 @@
       <c r="V6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
         <v>4</v>
       </c>
-      <c r="X6" s="16">
+      <c r="Y6" s="16">
         <v>2102</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Z6" s="29">
         <v>1</v>
       </c>
-      <c r="Z6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="27" t="s">
+      <c r="AA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="27" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="28.8">
+    <row r="7" spans="1:28" ht="14.25">
       <c r="A7">
         <v>53200103</v>
       </c>
@@ -21135,23 +21438,24 @@
       <c r="V7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
         <v>4</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>2103</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Z7" s="29">
         <v>1</v>
       </c>
-      <c r="Z7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="27" t="s">
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="60">
+    <row r="8" spans="1:28" ht="60">
       <c r="A8">
         <v>53200104</v>
       </c>
@@ -21212,7 +21516,7 @@
         <v>1800</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>801</v>
+        <v>881</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>666</v>
@@ -21220,23 +21524,26 @@
       <c r="V8" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="X8" s="1">
         <v>4</v>
       </c>
-      <c r="X8" s="16">
+      <c r="Y8" s="16">
         <v>2104</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Z8" s="29">
         <v>1</v>
       </c>
-      <c r="Z8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="27" t="s">
+      <c r="AA8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="27" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="28.8">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9">
         <v>53200105</v>
       </c>
@@ -21297,7 +21604,7 @@
         <v>8000</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>509</v>
@@ -21305,41 +21612,42 @@
       <c r="V9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
         <v>4</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>2105</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Z9" s="29">
         <v>1</v>
       </c>
-      <c r="Z9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="27" t="s">
+      <c r="AA9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="27" t="s">
         <v>764</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21360,7 +21668,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -21409,7 +21717,7 @@
         <v>2.3345235059857505</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="32" t="s">
         <v>662</v>
       </c>
@@ -21486,7 +21794,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
@@ -21498,7 +21806,7 @@
         <v>723</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(标准!AA:AA,"*单伤*")</f>
+        <f>COUNTIF(标准!AB:AB,"*单伤*")</f>
         <v>13</v>
       </c>
     </row>
@@ -21507,7 +21815,7 @@
         <v>725</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(标准!AA:AA,"*群伤*")</f>
+        <f>COUNTIF(标准!AB:AB,"*群伤*")</f>
         <v>23</v>
       </c>
     </row>
@@ -21516,7 +21824,7 @@
         <v>726</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(标准!AA:AA,"*单治*")</f>
+        <f>COUNTIF(标准!AB:AB,"*单治*")</f>
         <v>4</v>
       </c>
     </row>
@@ -21525,7 +21833,7 @@
         <v>734</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(标准!AA:AA,"*群治*")</f>
+        <f>COUNTIF(标准!AB:AB,"*群治*")</f>
         <v>3</v>
       </c>
     </row>
@@ -21534,7 +21842,7 @@
         <v>727</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(标准!AA:AA,"*正状*")</f>
+        <f>COUNTIF(标准!AB:AB,"*正状*")</f>
         <v>12</v>
       </c>
     </row>
@@ -21543,7 +21851,7 @@
         <v>728</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(标准!AA:AA,"*负状*")</f>
+        <f>COUNTIF(标准!AB:AB,"*负状*")</f>
         <v>22</v>
       </c>
     </row>
@@ -21552,7 +21860,7 @@
         <v>730</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(标准!AA:AA,"*手牌*")</f>
+        <f>COUNTIF(标准!AB:AB,"*手牌*")</f>
         <v>7</v>
       </c>
     </row>
@@ -21561,7 +21869,7 @@
         <v>729</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(标准!AA:AA,"*过牌*")</f>
+        <f>COUNTIF(标准!AB:AB,"*过牌*")</f>
         <v>2</v>
       </c>
     </row>
@@ -21570,7 +21878,7 @@
         <v>769</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(标准!AA:AA,"*陷阱*")</f>
+        <f>COUNTIF(标准!AB:AB,"*陷阱*")</f>
         <v>6</v>
       </c>
     </row>
@@ -21579,7 +21887,7 @@
         <v>731</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(标准!AA:AA,"*地形*")</f>
+        <f>COUNTIF(标准!AB:AB,"*地形*")</f>
         <v>18</v>
       </c>
     </row>
@@ -21588,7 +21896,7 @@
         <v>732</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(标准!AA:AA,"*属性*")</f>
+        <f>COUNTIF(标准!AB:AB,"*属性*")</f>
         <v>10</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -3009,10 +3009,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.DragRandomUnitNear(mouse);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>复制一张己方场上怪物到手牌，并提升{3:0}级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3784,6 +3780,10 @@
   </si>
   <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4793,393 +4793,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="宋体"/>
         <scheme val="none"/>
@@ -5219,6 +4832,33 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5918,6 +5558,43 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5987,6 +5664,33 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -6688,6 +6392,138 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6757,6 +6593,33 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -7456,6 +7319,143 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7484,6 +7484,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7632,11 +7633,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-84969248"/>
-        <c:axId val="-84960544"/>
+        <c:axId val="1761749920"/>
+        <c:axId val="1761754272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-84969248"/>
+        <c:axId val="1761749920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7679,7 +7680,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84960544"/>
+        <c:crossAx val="1761754272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7687,7 +7688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-84960544"/>
+        <c:axId val="1761754272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7738,7 +7739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84969248"/>
+        <c:crossAx val="1761749920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8366,138 +8367,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB128" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
-  <autoFilter ref="A3:AB128">
-    <filterColumn colId="19">
-      <customFilters>
-        <customFilter val="*GetRangeMonster*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB128" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" tableBorderDxfId="108">
+  <autoFilter ref="A3:AB128"/>
   <sortState ref="A4:Y128">
     <sortCondition ref="A3:A128"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="124"/>
-    <tableColumn id="2" name="Name" dataDxfId="123"/>
-    <tableColumn id="20" name="Ename" dataDxfId="122"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="121"/>
-    <tableColumn id="3" name="Star" dataDxfId="120"/>
-    <tableColumn id="4" name="Type" dataDxfId="119"/>
-    <tableColumn id="5" name="Attr" dataDxfId="118"/>
-    <tableColumn id="8" name="Quality" dataDxfId="117">
+    <tableColumn id="1" name="Id" dataDxfId="107"/>
+    <tableColumn id="2" name="Name" dataDxfId="106"/>
+    <tableColumn id="20" name="Ename" dataDxfId="105"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="104"/>
+    <tableColumn id="3" name="Star" dataDxfId="103"/>
+    <tableColumn id="4" name="Type" dataDxfId="102"/>
+    <tableColumn id="5" name="Attr" dataDxfId="101"/>
+    <tableColumn id="8" name="Quality" dataDxfId="100">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="116"/>
-    <tableColumn id="9" name="Damage" dataDxfId="115"/>
-    <tableColumn id="10" name="Cure" dataDxfId="114"/>
-    <tableColumn id="11" name="Time" dataDxfId="113"/>
-    <tableColumn id="13" name="Help" dataDxfId="112"/>
-    <tableColumn id="16" name="Rate" dataDxfId="111"/>
-    <tableColumn id="12" name="Modify" dataDxfId="110"/>
-    <tableColumn id="27" name="Sum" dataDxfId="109">
+    <tableColumn id="7" name="Cost" dataDxfId="99"/>
+    <tableColumn id="9" name="Damage" dataDxfId="98"/>
+    <tableColumn id="10" name="Cure" dataDxfId="97"/>
+    <tableColumn id="11" name="Time" dataDxfId="96"/>
+    <tableColumn id="13" name="Help" dataDxfId="95"/>
+    <tableColumn id="16" name="Rate" dataDxfId="94"/>
+    <tableColumn id="12" name="Modify" dataDxfId="93"/>
+    <tableColumn id="27" name="Sum" dataDxfId="92">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="108"/>
-    <tableColumn id="15" name="Target" dataDxfId="107"/>
-    <tableColumn id="25" name="Mark" dataDxfId="106"/>
-    <tableColumn id="22" name="Effect" dataDxfId="105"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="104"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="103"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="38"/>
-    <tableColumn id="18" name="Res" dataDxfId="102"/>
-    <tableColumn id="19" name="Icon" dataDxfId="101"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="100"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="99"/>
-    <tableColumn id="26" name="Remark" dataDxfId="98"/>
+    <tableColumn id="6" name="Range" dataDxfId="91"/>
+    <tableColumn id="15" name="Target" dataDxfId="90"/>
+    <tableColumn id="25" name="Mark" dataDxfId="89"/>
+    <tableColumn id="22" name="Effect" dataDxfId="88"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="87"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="86"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="85"/>
+    <tableColumn id="18" name="Res" dataDxfId="84"/>
+    <tableColumn id="19" name="Icon" dataDxfId="83"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="82"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="81"/>
+    <tableColumn id="26" name="Remark" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="94"/>
-    <tableColumn id="2" name="Name" dataDxfId="93"/>
-    <tableColumn id="20" name="Ename" dataDxfId="92"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="91"/>
-    <tableColumn id="3" name="Star" dataDxfId="90"/>
-    <tableColumn id="4" name="Type" dataDxfId="89"/>
-    <tableColumn id="5" name="Attr" dataDxfId="88"/>
-    <tableColumn id="8" name="Quality" dataDxfId="87">
+    <tableColumn id="1" name="Id" dataDxfId="61"/>
+    <tableColumn id="2" name="Name" dataDxfId="60"/>
+    <tableColumn id="20" name="Ename" dataDxfId="59"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="58"/>
+    <tableColumn id="3" name="Star" dataDxfId="57"/>
+    <tableColumn id="4" name="Type" dataDxfId="56"/>
+    <tableColumn id="5" name="Attr" dataDxfId="55"/>
+    <tableColumn id="8" name="Quality" dataDxfId="54">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="86"/>
-    <tableColumn id="9" name="Damage" dataDxfId="85"/>
-    <tableColumn id="10" name="Cure" dataDxfId="84"/>
-    <tableColumn id="11" name="Time" dataDxfId="83"/>
-    <tableColumn id="13" name="Help" dataDxfId="82"/>
-    <tableColumn id="16" name="Rate" dataDxfId="81"/>
-    <tableColumn id="12" name="Modify" dataDxfId="80"/>
-    <tableColumn id="27" name="Sum" dataDxfId="79">
+    <tableColumn id="7" name="Cost" dataDxfId="53"/>
+    <tableColumn id="9" name="Damage" dataDxfId="52"/>
+    <tableColumn id="10" name="Cure" dataDxfId="51"/>
+    <tableColumn id="11" name="Time" dataDxfId="50"/>
+    <tableColumn id="13" name="Help" dataDxfId="49"/>
+    <tableColumn id="16" name="Rate" dataDxfId="48"/>
+    <tableColumn id="12" name="Modify" dataDxfId="47"/>
+    <tableColumn id="27" name="Sum" dataDxfId="46">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="78"/>
-    <tableColumn id="15" name="Target" dataDxfId="77"/>
-    <tableColumn id="25" name="Mark" dataDxfId="76"/>
-    <tableColumn id="22" name="Effect" dataDxfId="75"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="74"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="73"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="37"/>
-    <tableColumn id="18" name="Res" dataDxfId="72"/>
-    <tableColumn id="19" name="Icon" dataDxfId="71"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="70"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="69"/>
-    <tableColumn id="26" name="Remark" dataDxfId="68"/>
+    <tableColumn id="6" name="Range" dataDxfId="45"/>
+    <tableColumn id="15" name="Target" dataDxfId="44"/>
+    <tableColumn id="25" name="Mark" dataDxfId="43"/>
+    <tableColumn id="22" name="Effect" dataDxfId="42"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="41"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="40"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="39"/>
+    <tableColumn id="18" name="Res" dataDxfId="38"/>
+    <tableColumn id="19" name="Icon" dataDxfId="37"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="36"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="35"/>
+    <tableColumn id="26" name="Remark" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="65"/>
-    <tableColumn id="2" name="Name" dataDxfId="64"/>
-    <tableColumn id="20" name="Ename" dataDxfId="63"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="62"/>
-    <tableColumn id="3" name="Star" dataDxfId="61"/>
-    <tableColumn id="4" name="Type" dataDxfId="60"/>
-    <tableColumn id="5" name="Attr" dataDxfId="59"/>
-    <tableColumn id="8" name="Quality" dataDxfId="58">
+    <tableColumn id="1" name="Id" dataDxfId="27"/>
+    <tableColumn id="2" name="Name" dataDxfId="26"/>
+    <tableColumn id="20" name="Ename" dataDxfId="25"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="24"/>
+    <tableColumn id="3" name="Star" dataDxfId="23"/>
+    <tableColumn id="4" name="Type" dataDxfId="22"/>
+    <tableColumn id="5" name="Attr" dataDxfId="21"/>
+    <tableColumn id="8" name="Quality" dataDxfId="20">
       <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="57"/>
-    <tableColumn id="9" name="Damage" dataDxfId="56"/>
-    <tableColumn id="10" name="Cure" dataDxfId="55"/>
-    <tableColumn id="11" name="Time" dataDxfId="54"/>
-    <tableColumn id="13" name="Help" dataDxfId="53"/>
-    <tableColumn id="16" name="Rate" dataDxfId="52"/>
-    <tableColumn id="12" name="Modify" dataDxfId="51"/>
-    <tableColumn id="27" name="Sum" dataDxfId="50">
+    <tableColumn id="7" name="Cost" dataDxfId="19"/>
+    <tableColumn id="9" name="Damage" dataDxfId="18"/>
+    <tableColumn id="10" name="Cure" dataDxfId="17"/>
+    <tableColumn id="11" name="Time" dataDxfId="16"/>
+    <tableColumn id="13" name="Help" dataDxfId="15"/>
+    <tableColumn id="16" name="Rate" dataDxfId="14"/>
+    <tableColumn id="12" name="Modify" dataDxfId="13"/>
+    <tableColumn id="27" name="Sum" dataDxfId="12">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="49"/>
-    <tableColumn id="15" name="Target" dataDxfId="48"/>
-    <tableColumn id="25" name="Mark" dataDxfId="47"/>
-    <tableColumn id="22" name="Effect" dataDxfId="46"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="45"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="44"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="0"/>
-    <tableColumn id="18" name="Res" dataDxfId="43"/>
-    <tableColumn id="19" name="Icon" dataDxfId="42"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="41"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="40"/>
-    <tableColumn id="26" name="Remark" dataDxfId="39"/>
+    <tableColumn id="6" name="Range" dataDxfId="11"/>
+    <tableColumn id="15" name="Target" dataDxfId="10"/>
+    <tableColumn id="25" name="Mark" dataDxfId="9"/>
+    <tableColumn id="22" name="Effect" dataDxfId="8"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="7"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="6"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="5"/>
+    <tableColumn id="18" name="Res" dataDxfId="4"/>
+    <tableColumn id="19" name="Icon" dataDxfId="3"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="2"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
+    <tableColumn id="26" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8792,11 +8787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T126" sqref="T126"/>
+      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8843,7 +8838,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -8867,7 +8862,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -8888,7 +8883,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -8903,7 +8898,7 @@
         <v>625</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -8953,7 +8948,7 @@
         <v>505</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -8965,7 +8960,7 @@
         <v>658</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>201</v>
@@ -8974,7 +8969,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -9015,7 +9010,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -9039,19 +9034,19 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>659</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>470</v>
@@ -9060,7 +9055,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -9075,10 +9070,10 @@
         <v>626</v>
       </c>
       <c r="AB3" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="36" hidden="1">
+    <row r="4" spans="1:28" ht="36">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -9139,7 +9134,7 @@
         <v>1704</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U4" s="33" t="s">
         <v>581</v>
@@ -9161,10 +9156,10 @@
         <v>0</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.25" hidden="1">
+    <row r="5" spans="1:28" ht="14.25">
       <c r="A5">
         <v>53000002</v>
       </c>
@@ -9225,7 +9220,7 @@
         <v>1550</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>547</v>
@@ -9247,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="24" hidden="1">
+    <row r="6" spans="1:28" ht="24">
       <c r="A6">
         <v>53000003</v>
       </c>
@@ -9311,7 +9306,7 @@
         <v>2000</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>654</v>
@@ -9333,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="36" hidden="1">
+    <row r="7" spans="1:28" ht="36">
       <c r="A7">
         <v>53000004</v>
       </c>
@@ -9397,7 +9392,7 @@
         <v>2000</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>655</v>
@@ -9419,10 +9414,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="24" hidden="1">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9483,7 +9478,7 @@
         <v>900</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>546</v>
@@ -9505,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="48" hidden="1">
+    <row r="9" spans="1:28" ht="48">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9563,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S9" s="1">
         <v>500</v>
@@ -9591,10 +9586,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="48" hidden="1">
+    <row r="10" spans="1:28" ht="48">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9649,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S10" s="1">
         <v>500</v>
@@ -9677,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="48" hidden="1">
+    <row r="11" spans="1:28" ht="48">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9735,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S11" s="1">
         <v>500</v>
@@ -9763,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="48" hidden="1">
+    <row r="12" spans="1:28" ht="48">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9821,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S12" s="1">
         <v>500</v>
@@ -9849,10 +9844,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="48" hidden="1">
+    <row r="13" spans="1:28" ht="48">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -9907,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S13" s="1">
         <v>500</v>
@@ -9935,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="48" hidden="1">
+    <row r="14" spans="1:28" ht="48">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -9993,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S14" s="1">
         <v>500</v>
@@ -10021,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="48" hidden="1">
+    <row r="15" spans="1:28" ht="48">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -10079,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S15" s="1">
         <v>500</v>
@@ -10107,10 +10102,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="48" hidden="1">
+    <row r="16" spans="1:28" ht="48">
       <c r="A16">
         <v>53000013</v>
       </c>
@@ -10165,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S16" s="1">
         <v>500</v>
@@ -10193,10 +10188,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="48" hidden="1">
+    <row r="17" spans="1:28" ht="48">
       <c r="A17">
         <v>53000014</v>
       </c>
@@ -10251,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S17" s="1">
         <v>500</v>
@@ -10279,10 +10274,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.25" hidden="1">
+    <row r="18" spans="1:28" ht="14.25">
       <c r="A18">
         <v>53000015</v>
       </c>
@@ -10365,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="24" hidden="1">
+    <row r="19" spans="1:28" ht="24">
       <c r="A19">
         <v>53000016</v>
       </c>
@@ -10429,7 +10424,7 @@
         <v>1200</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>508</v>
@@ -10451,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="24" hidden="1">
+    <row r="20" spans="1:28" ht="24">
       <c r="A20">
         <v>53000017</v>
       </c>
@@ -10515,7 +10510,7 @@
         <v>8000</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>509</v>
@@ -10537,10 +10532,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="48" hidden="1">
+    <row r="21" spans="1:28" ht="48">
       <c r="A21">
         <v>53000018</v>
       </c>
@@ -10623,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="60">
@@ -10687,7 +10682,7 @@
         <v>1800</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>666</v>
@@ -10711,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="60">
@@ -10775,7 +10770,7 @@
         <v>2100</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>667</v>
@@ -10799,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="60">
@@ -10863,7 +10858,7 @@
         <v>1875</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>668</v>
@@ -10887,10 +10882,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="24" hidden="1">
+    <row r="25" spans="1:28" ht="24">
       <c r="A25">
         <v>53000022</v>
       </c>
@@ -10973,10 +10968,10 @@
         <v>0</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="24" hidden="1">
+    <row r="26" spans="1:28" ht="24">
       <c r="A26">
         <v>53000023</v>
       </c>
@@ -11059,10 +11054,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="24" hidden="1">
+    <row r="27" spans="1:28" ht="24">
       <c r="A27">
         <v>53000024</v>
       </c>
@@ -11145,10 +11140,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="48" hidden="1">
+    <row r="28" spans="1:28" ht="48">
       <c r="A28">
         <v>53000025</v>
       </c>
@@ -11231,10 +11226,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="24" hidden="1">
+    <row r="29" spans="1:28" ht="24">
       <c r="A29">
         <v>53000026</v>
       </c>
@@ -11317,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="AB29" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.25" hidden="1">
+    <row r="30" spans="1:28" ht="14.25">
       <c r="A30">
         <v>53000027</v>
       </c>
@@ -11382,7 +11377,7 @@
       </c>
       <c r="T30" s="12"/>
       <c r="U30" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>46</v>
@@ -11401,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.25" hidden="1">
+    <row r="31" spans="1:28" ht="14.25">
       <c r="A31">
         <v>53000028</v>
       </c>
@@ -11466,7 +11461,7 @@
       </c>
       <c r="T31" s="12"/>
       <c r="U31" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>48</v>
@@ -11485,10 +11480,10 @@
         <v>0</v>
       </c>
       <c r="AB31" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="24" hidden="1">
+    <row r="32" spans="1:28" ht="24">
       <c r="A32">
         <v>53000029</v>
       </c>
@@ -11571,21 +11566,21 @@
         <v>0</v>
       </c>
       <c r="AB32" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="24" hidden="1">
+    <row r="33" spans="1:28" ht="24">
       <c r="A33">
         <v>53000030</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -11635,10 +11630,10 @@
         <v>1500</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11657,21 +11652,21 @@
         <v>1</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="24" hidden="1">
+    <row r="34" spans="1:28" ht="24">
       <c r="A34">
         <v>53000031</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11721,10 +11716,10 @@
         <v>1500</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>4</v>
@@ -11743,10 +11738,10 @@
         <v>1</v>
       </c>
       <c r="AB34" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="48" hidden="1">
+    <row r="35" spans="1:28" ht="48">
       <c r="A35">
         <v>53000035</v>
       </c>
@@ -11807,7 +11802,7 @@
         <v>2000</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>513</v>
@@ -11829,10 +11824,10 @@
         <v>0</v>
       </c>
       <c r="AB35" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="48" hidden="1">
+    <row r="36" spans="1:28" ht="36">
       <c r="A36">
         <v>53000036</v>
       </c>
@@ -11894,7 +11889,7 @@
         <v>1220</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>683</v>
+        <v>881</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>679</v>
@@ -11916,10 +11911,10 @@
         <v>0</v>
       </c>
       <c r="AB36" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.25" hidden="1">
+    <row r="37" spans="1:28" ht="14.25">
       <c r="A37">
         <v>53000037</v>
       </c>
@@ -12000,10 +11995,10 @@
         <v>0</v>
       </c>
       <c r="AB37" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.25" hidden="1">
+    <row r="38" spans="1:28" ht="14.25">
       <c r="A38">
         <v>53000038</v>
       </c>
@@ -12065,7 +12060,7 @@
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>63</v>
@@ -12084,18 +12079,18 @@
         <v>0</v>
       </c>
       <c r="AB38" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="24" hidden="1">
+    <row r="39" spans="1:28" ht="24">
       <c r="A39">
         <v>53000039</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>374</v>
@@ -12148,10 +12143,10 @@
         <v>1700</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -12170,15 +12165,15 @@
         <v>0</v>
       </c>
       <c r="AB39" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="24" hidden="1">
+    <row r="40" spans="1:28" ht="24">
       <c r="A40">
         <v>53000040</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>270</v>
@@ -12234,10 +12229,10 @@
         <v>2000</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>4</v>
@@ -12256,10 +12251,10 @@
         <v>0</v>
       </c>
       <c r="AB40" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="24" hidden="1">
+    <row r="41" spans="1:28" ht="24">
       <c r="A41">
         <v>53000041</v>
       </c>
@@ -12323,7 +12318,7 @@
         <v>577</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>65</v>
@@ -12342,10 +12337,10 @@
         <v>0</v>
       </c>
       <c r="AB41" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="48" hidden="1">
+    <row r="42" spans="1:28" ht="48">
       <c r="A42">
         <v>53000042</v>
       </c>
@@ -12406,7 +12401,7 @@
         <v>2000</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>514</v>
@@ -12428,10 +12423,10 @@
         <v>0</v>
       </c>
       <c r="AB42" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="24" hidden="1">
+    <row r="43" spans="1:28" ht="24">
       <c r="A43">
         <v>53000043</v>
       </c>
@@ -12492,7 +12487,7 @@
         <v>2000</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>572</v>
@@ -12514,15 +12509,15 @@
         <v>0</v>
       </c>
       <c r="AB43" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="24" hidden="1">
+    <row r="44" spans="1:28" ht="24">
       <c r="A44">
         <v>53000044</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>274</v>
@@ -12578,10 +12573,10 @@
         <v>1900</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>4</v>
@@ -12600,10 +12595,10 @@
         <v>0</v>
       </c>
       <c r="AB44" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="60" hidden="1">
+    <row r="45" spans="1:28" ht="60">
       <c r="A45">
         <v>53000045</v>
       </c>
@@ -12687,10 +12682,10 @@
         <v>0</v>
       </c>
       <c r="AB45" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="48" hidden="1">
+    <row r="46" spans="1:28" ht="48">
       <c r="A46">
         <v>53000046</v>
       </c>
@@ -12751,7 +12746,7 @@
         <v>2000</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>528</v>
@@ -12773,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="60">
@@ -12837,7 +12832,7 @@
         <v>2200</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>529</v>
@@ -12861,10 +12856,10 @@
         <v>0</v>
       </c>
       <c r="AB47" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="48" hidden="1">
+    <row r="48" spans="1:28" ht="48">
       <c r="A48">
         <v>53000048</v>
       </c>
@@ -12925,7 +12920,7 @@
         <v>2000</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>515</v>
@@ -12947,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="60">
@@ -13011,7 +13006,7 @@
         <v>2200</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>530</v>
@@ -13035,10 +13030,10 @@
         <v>0</v>
       </c>
       <c r="AB49" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="72" hidden="1">
+    <row r="50" spans="1:28" ht="72">
       <c r="A50">
         <v>53000050</v>
       </c>
@@ -13093,16 +13088,16 @@
         <v>0</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S50" s="1">
         <v>1800</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>78</v>
@@ -13121,10 +13116,10 @@
         <v>0</v>
       </c>
       <c r="AB50" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="48" hidden="1">
+    <row r="51" spans="1:28" ht="48">
       <c r="A51">
         <v>53000051</v>
       </c>
@@ -13185,7 +13180,7 @@
         <v>2000</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>516</v>
@@ -13207,10 +13202,10 @@
         <v>0</v>
       </c>
       <c r="AB51" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="48" hidden="1">
+    <row r="52" spans="1:28" ht="48">
       <c r="A52">
         <v>53000052</v>
       </c>
@@ -13271,7 +13266,7 @@
         <v>2000</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>517</v>
@@ -13293,10 +13288,10 @@
         <v>0</v>
       </c>
       <c r="AB52" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="48" hidden="1">
+    <row r="53" spans="1:28" ht="48">
       <c r="A53">
         <v>53000053</v>
       </c>
@@ -13357,7 +13352,7 @@
         <v>2000</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>518</v>
@@ -13379,10 +13374,10 @@
         <v>0</v>
       </c>
       <c r="AB53" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="48" hidden="1">
+    <row r="54" spans="1:28" ht="48">
       <c r="A54">
         <v>53000054</v>
       </c>
@@ -13443,7 +13438,7 @@
         <v>1670</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>619</v>
@@ -13465,10 +13460,10 @@
         <v>0</v>
       </c>
       <c r="AB54" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="24" hidden="1">
+    <row r="55" spans="1:28" ht="24">
       <c r="A55">
         <v>53000055</v>
       </c>
@@ -13529,10 +13524,10 @@
         <v>3000</v>
       </c>
       <c r="T55" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>2</v>
@@ -13551,10 +13546,10 @@
         <v>0</v>
       </c>
       <c r="AB55" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="36" hidden="1">
+    <row r="56" spans="1:28" ht="36">
       <c r="A56">
         <v>53000056</v>
       </c>
@@ -13615,7 +13610,7 @@
         <v>750</v>
       </c>
       <c r="T56" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>562</v>
@@ -13637,10 +13632,10 @@
         <v>0</v>
       </c>
       <c r="AB56" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="24" hidden="1">
+    <row r="57" spans="1:28" ht="24">
       <c r="A57">
         <v>53000057</v>
       </c>
@@ -13695,16 +13690,16 @@
         <v>3</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S57" s="39">
         <v>1500</v>
       </c>
       <c r="T57" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>2</v>
@@ -13723,10 +13718,10 @@
         <v>0</v>
       </c>
       <c r="AB57" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="24" hidden="1">
+    <row r="58" spans="1:28" ht="24">
       <c r="A58">
         <v>53000058</v>
       </c>
@@ -13787,7 +13782,7 @@
         <v>1800</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>519</v>
@@ -13809,10 +13804,10 @@
         <v>0</v>
       </c>
       <c r="AB58" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="24" hidden="1">
+    <row r="59" spans="1:28" ht="24">
       <c r="A59">
         <v>53000059</v>
       </c>
@@ -13873,7 +13868,7 @@
         <v>560</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>579</v>
@@ -13895,10 +13890,10 @@
         <v>0</v>
       </c>
       <c r="AB59" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="36" hidden="1">
+    <row r="60" spans="1:28" ht="36">
       <c r="A60">
         <v>53000060</v>
       </c>
@@ -13981,10 +13976,10 @@
         <v>0</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="48" hidden="1">
+    <row r="61" spans="1:28" ht="48">
       <c r="A61">
         <v>53000061</v>
       </c>
@@ -14045,7 +14040,7 @@
         <v>3000</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>570</v>
@@ -14067,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="AB61" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="24" hidden="1">
+    <row r="62" spans="1:28" ht="24">
       <c r="A62">
         <v>53000062</v>
       </c>
@@ -14131,7 +14126,7 @@
         <v>3000</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>520</v>
@@ -14153,10 +14148,10 @@
         <v>0</v>
       </c>
       <c r="AB62" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="14.25" hidden="1">
+    <row r="63" spans="1:28" ht="14.25">
       <c r="A63">
         <v>53000063</v>
       </c>
@@ -14217,7 +14212,7 @@
         <v>1500</v>
       </c>
       <c r="T63" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U63" s="7" t="s">
         <v>571</v>
@@ -14239,10 +14234,10 @@
         <v>0</v>
       </c>
       <c r="AB63" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="24" hidden="1">
+    <row r="64" spans="1:28" ht="24">
       <c r="A64">
         <v>53000064</v>
       </c>
@@ -14303,10 +14298,10 @@
         <v>1500</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>103</v>
@@ -14325,10 +14320,10 @@
         <v>0</v>
       </c>
       <c r="AB64" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="48" hidden="1">
+    <row r="65" spans="1:28" ht="48">
       <c r="A65">
         <v>53000065</v>
       </c>
@@ -14389,10 +14384,10 @@
         <v>5000</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>104</v>
@@ -14411,10 +14406,10 @@
         <v>0</v>
       </c>
       <c r="AB65" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="24" hidden="1">
+    <row r="66" spans="1:28" ht="24">
       <c r="A66">
         <v>53000066</v>
       </c>
@@ -14475,10 +14470,10 @@
         <v>1700</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>4</v>
@@ -14497,10 +14492,10 @@
         <v>0</v>
       </c>
       <c r="AB66" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="14.25" hidden="1">
+    <row r="67" spans="1:28" ht="14.25">
       <c r="A67">
         <v>53000067</v>
       </c>
@@ -14561,10 +14556,10 @@
         <v>1800</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>106</v>
@@ -14583,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="60">
@@ -14647,10 +14642,10 @@
         <v>1200</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>108</v>
@@ -14671,10 +14666,10 @@
         <v>0</v>
       </c>
       <c r="AB68" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="24" hidden="1">
+    <row r="69" spans="1:28" ht="24">
       <c r="A69">
         <v>53000069</v>
       </c>
@@ -14735,7 +14730,7 @@
         <v>2000</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>521</v>
@@ -14757,10 +14752,10 @@
         <v>0</v>
       </c>
       <c r="AB69" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="14.25" hidden="1">
+    <row r="70" spans="1:28" ht="14.25">
       <c r="A70">
         <v>53000070</v>
       </c>
@@ -14841,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="72">
@@ -14905,7 +14900,7 @@
         <v>2000</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>483</v>
@@ -14929,10 +14924,10 @@
         <v>0</v>
       </c>
       <c r="AB71" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="48" hidden="1">
+    <row r="72" spans="1:28" ht="48">
       <c r="A72">
         <v>53000072</v>
       </c>
@@ -14993,7 +14988,7 @@
         <v>4000</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>649</v>
@@ -15015,10 +15010,10 @@
         <v>0</v>
       </c>
       <c r="AB72" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="48" hidden="1">
+    <row r="73" spans="1:28" ht="48">
       <c r="A73">
         <v>53000073</v>
       </c>
@@ -15079,7 +15074,7 @@
         <v>1900</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U73" s="7" t="s">
         <v>522</v>
@@ -15101,10 +15096,10 @@
         <v>0</v>
       </c>
       <c r="AB73" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="36" hidden="1">
+    <row r="74" spans="1:28" ht="36">
       <c r="A74">
         <v>53000074</v>
       </c>
@@ -15187,10 +15182,10 @@
         <v>0</v>
       </c>
       <c r="AB74" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="108" hidden="1">
+    <row r="75" spans="1:28" ht="108">
       <c r="A75">
         <v>53000075</v>
       </c>
@@ -15251,7 +15246,7 @@
         <v>3600</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>523</v>
@@ -15273,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="60">
@@ -15337,10 +15332,10 @@
         <v>2200</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="U76" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>124</v>
@@ -15361,10 +15356,10 @@
         <v>0</v>
       </c>
       <c r="AB76" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="48" hidden="1">
+    <row r="77" spans="1:28" ht="48">
       <c r="A77">
         <v>53000077</v>
       </c>
@@ -15425,7 +15420,7 @@
         <v>1200</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>524</v>
@@ -15447,10 +15442,10 @@
         <v>0</v>
       </c>
       <c r="AB77" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="14.25" hidden="1">
+    <row r="78" spans="1:28" ht="14.25">
       <c r="A78">
         <v>53000078</v>
       </c>
@@ -15511,10 +15506,10 @@
         <v>1000</v>
       </c>
       <c r="T78" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="U78" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="U78" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>104</v>
@@ -15533,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="48">
@@ -15597,10 +15592,10 @@
         <v>2400</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>128</v>
@@ -15621,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="60">
@@ -15685,7 +15680,7 @@
         <v>2000</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>525</v>
@@ -15709,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="60">
@@ -15773,7 +15768,7 @@
         <v>1800</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>531</v>
@@ -15797,10 +15792,10 @@
         <v>0</v>
       </c>
       <c r="AB81" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="24" hidden="1">
+    <row r="82" spans="1:28" ht="24">
       <c r="A82">
         <v>53000082</v>
       </c>
@@ -15861,10 +15856,10 @@
         <v>2400</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>133</v>
@@ -15883,15 +15878,15 @@
         <v>0</v>
       </c>
       <c r="AB82" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="24" hidden="1">
+    <row r="83" spans="1:28" ht="24">
       <c r="A83" s="44">
         <v>53000083</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>306</v>
@@ -15947,13 +15942,13 @@
         <v>1200</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1">
@@ -15969,10 +15964,10 @@
         <v>0</v>
       </c>
       <c r="AB83" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="24" hidden="1">
+    <row r="84" spans="1:28" ht="24">
       <c r="A84">
         <v>53000084</v>
       </c>
@@ -16033,13 +16028,13 @@
         <v>800</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>566</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1">
@@ -16055,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="60">
@@ -16119,7 +16114,7 @@
         <v>2000</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>532</v>
@@ -16143,10 +16138,10 @@
         <v>0</v>
       </c>
       <c r="AB85" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.25" hidden="1">
+    <row r="86" spans="1:28" ht="14.25">
       <c r="A86">
         <v>53000086</v>
       </c>
@@ -16208,7 +16203,7 @@
       </c>
       <c r="T86" s="12"/>
       <c r="U86" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>2</v>
@@ -16227,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="60">
@@ -16291,7 +16286,7 @@
         <v>1500</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>667</v>
@@ -16315,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="60">
@@ -16379,7 +16374,7 @@
         <v>1750</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>533</v>
@@ -16403,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="60">
@@ -16467,13 +16462,13 @@
         <v>1800</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>529</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>142</v>
@@ -16491,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="60">
@@ -16555,10 +16550,10 @@
         <v>1650</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="U90" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>28</v>
@@ -16579,10 +16574,10 @@
         <v>0</v>
       </c>
       <c r="AB90" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="36" hidden="1">
+    <row r="91" spans="1:28" ht="36">
       <c r="A91">
         <v>53000091</v>
       </c>
@@ -16665,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="60">
@@ -16729,7 +16724,7 @@
         <v>1500</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>535</v>
@@ -16753,10 +16748,10 @@
         <v>0</v>
       </c>
       <c r="AB92" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="48" hidden="1">
+    <row r="93" spans="1:28" ht="48">
       <c r="A93">
         <v>53000093</v>
       </c>
@@ -16839,10 +16834,10 @@
         <v>0</v>
       </c>
       <c r="AB93" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="36" hidden="1">
+    <row r="94" spans="1:28" ht="36">
       <c r="A94">
         <v>53000094</v>
       </c>
@@ -16903,7 +16898,7 @@
         <v>500</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U94" s="1" t="s">
         <v>650</v>
@@ -16925,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="AB94" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="48">
@@ -16989,7 +16984,7 @@
         <v>1600</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U95" s="7" t="s">
         <v>568</v>
@@ -17013,10 +17008,10 @@
         <v>0</v>
       </c>
       <c r="AB95" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="24" hidden="1">
+    <row r="96" spans="1:28" ht="24">
       <c r="A96">
         <v>53000096</v>
       </c>
@@ -17099,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="60">
@@ -17163,7 +17158,7 @@
         <v>900</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="U97" s="7" t="s">
         <v>526</v>
@@ -17187,10 +17182,10 @@
         <v>0</v>
       </c>
       <c r="AB97" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="24" hidden="1">
+    <row r="98" spans="1:28" ht="24">
       <c r="A98">
         <v>53000098</v>
       </c>
@@ -17273,10 +17268,10 @@
         <v>0</v>
       </c>
       <c r="AB98" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="24" hidden="1">
+    <row r="99" spans="1:28" ht="24">
       <c r="A99">
         <v>53000099</v>
       </c>
@@ -17359,10 +17354,10 @@
         <v>0</v>
       </c>
       <c r="AB99" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="24" hidden="1">
+    <row r="100" spans="1:28" ht="24">
       <c r="A100">
         <v>53000100</v>
       </c>
@@ -17445,10 +17440,10 @@
         <v>0</v>
       </c>
       <c r="AB100" s="27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="48" hidden="1">
+    <row r="101" spans="1:28" ht="48">
       <c r="A101">
         <v>53000101</v>
       </c>
@@ -17509,7 +17504,7 @@
         <v>1500</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U101" s="7" t="s">
         <v>578</v>
@@ -17531,10 +17526,10 @@
         <v>0</v>
       </c>
       <c r="AB101" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="24" hidden="1">
+    <row r="102" spans="1:28" ht="24">
       <c r="A102">
         <v>53000102</v>
       </c>
@@ -17617,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="60">
@@ -17681,10 +17676,10 @@
         <v>1300</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>162</v>
@@ -17705,10 +17700,10 @@
         <v>0</v>
       </c>
       <c r="AB103" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14.25" hidden="1">
+    <row r="104" spans="1:28" ht="14.25">
       <c r="A104">
         <v>53000104</v>
       </c>
@@ -17770,7 +17765,7 @@
       </c>
       <c r="T104" s="12"/>
       <c r="U104" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V104" s="1" t="s">
         <v>164</v>
@@ -17789,10 +17784,10 @@
         <v>0</v>
       </c>
       <c r="AB104" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="36" hidden="1">
+    <row r="105" spans="1:28" ht="36">
       <c r="A105">
         <v>53000105</v>
       </c>
@@ -17853,7 +17848,7 @@
         <v>500</v>
       </c>
       <c r="T105" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>563</v>
@@ -17875,10 +17870,10 @@
         <v>0</v>
       </c>
       <c r="AB105" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="24" hidden="1">
+    <row r="106" spans="1:28" ht="24">
       <c r="A106">
         <v>53000106</v>
       </c>
@@ -17939,10 +17934,10 @@
         <v>1800</v>
       </c>
       <c r="T106" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U106" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V106" s="1" t="s">
         <v>168</v>
@@ -17961,10 +17956,10 @@
         <v>0</v>
       </c>
       <c r="AB106" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="24" hidden="1">
+    <row r="107" spans="1:28" ht="24">
       <c r="A107">
         <v>53000107</v>
       </c>
@@ -18025,7 +18020,7 @@
         <v>1800</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U107" s="7" t="s">
         <v>560</v>
@@ -18047,10 +18042,10 @@
         <v>0</v>
       </c>
       <c r="AB107" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="120" hidden="1">
+    <row r="108" spans="1:28" ht="120">
       <c r="A108">
         <v>53000108</v>
       </c>
@@ -18111,7 +18106,7 @@
         <v>1700</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U108" s="7" t="s">
         <v>527</v>
@@ -18133,10 +18128,10 @@
         <v>0</v>
       </c>
       <c r="AB108" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="24" hidden="1">
+    <row r="109" spans="1:28" ht="24">
       <c r="A109">
         <v>53000109</v>
       </c>
@@ -18219,10 +18214,10 @@
         <v>0</v>
       </c>
       <c r="AB109" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="36" hidden="1">
+    <row r="110" spans="1:28" ht="36">
       <c r="A110">
         <v>53000110</v>
       </c>
@@ -18283,7 +18278,7 @@
         <v>2100</v>
       </c>
       <c r="T110" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U110" s="7" t="s">
         <v>621</v>
@@ -18305,10 +18300,10 @@
         <v>0</v>
       </c>
       <c r="AB110" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="48" hidden="1">
+    <row r="111" spans="1:28" ht="48">
       <c r="A111">
         <v>53000111</v>
       </c>
@@ -18369,7 +18364,7 @@
         <v>1600</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U111" s="7" t="s">
         <v>541</v>
@@ -18391,10 +18386,10 @@
         <v>0</v>
       </c>
       <c r="AB111" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="24" hidden="1">
+    <row r="112" spans="1:28" ht="24">
       <c r="A112">
         <v>53000112</v>
       </c>
@@ -18477,10 +18472,10 @@
         <v>0</v>
       </c>
       <c r="AB112" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="24" hidden="1">
+    <row r="113" spans="1:28" ht="24">
       <c r="A113">
         <v>53000113</v>
       </c>
@@ -18541,10 +18536,10 @@
         <v>1400</v>
       </c>
       <c r="T113" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U113" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V113" s="1" t="s">
         <v>181</v>
@@ -18563,10 +18558,10 @@
         <v>0</v>
       </c>
       <c r="AB113" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="24" hidden="1">
+    <row r="114" spans="1:28" ht="24">
       <c r="A114">
         <v>53000114</v>
       </c>
@@ -18649,10 +18644,10 @@
         <v>0</v>
       </c>
       <c r="AB114" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="36" hidden="1">
+    <row r="115" spans="1:28" ht="36">
       <c r="A115">
         <v>53000115</v>
       </c>
@@ -18735,10 +18730,10 @@
         <v>0</v>
       </c>
       <c r="AB115" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="36" hidden="1">
+    <row r="116" spans="1:28" ht="36">
       <c r="A116">
         <v>53000116</v>
       </c>
@@ -18821,10 +18816,10 @@
         <v>0</v>
       </c>
       <c r="AB116" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="48" hidden="1">
+    <row r="117" spans="1:28" ht="48">
       <c r="A117">
         <v>53000117</v>
       </c>
@@ -18907,10 +18902,10 @@
         <v>0</v>
       </c>
       <c r="AB117" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="48" hidden="1">
+    <row r="118" spans="1:28" ht="48">
       <c r="A118">
         <v>53000118</v>
       </c>
@@ -18993,10 +18988,10 @@
         <v>0</v>
       </c>
       <c r="AB118" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="48" hidden="1">
+    <row r="119" spans="1:28" ht="48">
       <c r="A119">
         <v>53000119</v>
       </c>
@@ -19079,10 +19074,10 @@
         <v>0</v>
       </c>
       <c r="AB119" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="48" hidden="1">
+    <row r="120" spans="1:28" ht="48">
       <c r="A120">
         <v>53000120</v>
       </c>
@@ -19165,10 +19160,10 @@
         <v>0</v>
       </c>
       <c r="AB120" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="48" hidden="1">
+    <row r="121" spans="1:28" ht="48">
       <c r="A121">
         <v>53000121</v>
       </c>
@@ -19251,10 +19246,10 @@
         <v>0</v>
       </c>
       <c r="AB121" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="48" hidden="1">
+    <row r="122" spans="1:28" ht="48">
       <c r="A122">
         <v>53000122</v>
       </c>
@@ -19337,10 +19332,10 @@
         <v>0</v>
       </c>
       <c r="AB122" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="48" hidden="1">
+    <row r="123" spans="1:28" ht="48">
       <c r="A123">
         <v>53000123</v>
       </c>
@@ -19423,10 +19418,10 @@
         <v>0</v>
       </c>
       <c r="AB123" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="48" hidden="1">
+    <row r="124" spans="1:28" ht="48">
       <c r="A124">
         <v>53000124</v>
       </c>
@@ -19509,10 +19504,10 @@
         <v>0</v>
       </c>
       <c r="AB124" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="48" hidden="1">
+    <row r="125" spans="1:28" ht="48">
       <c r="A125">
         <v>53000125</v>
       </c>
@@ -19595,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="AB125" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="72">
@@ -19659,16 +19654,16 @@
         <v>2200</v>
       </c>
       <c r="T126" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="U126" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="W126" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="X126" s="1">
         <v>4</v>
@@ -19683,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="AB126" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="48">
@@ -19747,7 +19742,7 @@
         <v>3000</v>
       </c>
       <c r="T127" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="U127" s="7" t="s">
         <v>569</v>
@@ -19771,10 +19766,10 @@
         <v>1</v>
       </c>
       <c r="AB127" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="36" hidden="1">
+    <row r="128" spans="1:28" ht="36">
       <c r="A128">
         <v>53000129</v>
       </c>
@@ -19857,7 +19852,7 @@
         <v>1</v>
       </c>
       <c r="AB128" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -19866,81 +19861,81 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I121:I127 I71:I115 I4:I36 I39:I69">
-    <cfRule type="cellIs" dxfId="36" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:P128 J71:P126 J5:P36 J39:P69 J4:O4">
-    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="34" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="125" priority="44" operator="notEqual">
       <formula>$E127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:I120">
-    <cfRule type="cellIs" dxfId="33" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="124" priority="42" operator="notEqual">
       <formula>$E116</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="notEqual">
+    <cfRule type="cellIs" dxfId="123" priority="41" operator="notEqual">
       <formula>$E128</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:P128">
-    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:P127">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="120" priority="11" operator="notEqual">
       <formula>$E70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:P70">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="118" priority="9" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="notEqual">
       <formula>$E38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:P38">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H128">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20020,7 +20015,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -20044,7 +20039,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -20065,7 +20060,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -20080,7 +20075,7 @@
         <v>625</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -20130,7 +20125,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -20151,7 +20146,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -20192,7 +20187,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -20216,7 +20211,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -20237,7 +20232,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -20252,7 +20247,7 @@
         <v>626</v>
       </c>
       <c r="AB3" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="24">
@@ -20552,7 +20547,7 @@
         <v>-1</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>646</v>
@@ -20712,7 +20707,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>639</v>
@@ -20738,77 +20733,77 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="76" priority="25" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="23" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="21" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="19" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="17" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="15" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20825,11 +20820,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20878,7 +20873,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -20902,7 +20897,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -20923,7 +20918,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -20938,7 +20933,7 @@
         <v>625</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -20988,7 +20983,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -21009,7 +21004,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -21050,7 +21045,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -21074,7 +21069,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -21095,7 +21090,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -21110,7 +21105,7 @@
         <v>626</v>
       </c>
       <c r="AB3" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="36">
@@ -21118,13 +21113,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>749</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>750</v>
       </c>
       <c r="E4" s="16">
         <v>3</v>
@@ -21174,7 +21169,7 @@
         <v>2300</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>644</v>
@@ -21196,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="24">
@@ -21204,13 +21199,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="E5" s="16">
         <v>3</v>
@@ -21260,7 +21255,7 @@
         <v>1800</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>654</v>
@@ -21282,7 +21277,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="40.5">
@@ -21290,13 +21285,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>753</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -21346,10 +21341,10 @@
         <v>2300</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>53</v>
@@ -21368,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25">
@@ -21376,13 +21371,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>742</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>743</v>
       </c>
       <c r="E7" s="16">
         <v>3</v>
@@ -21433,7 +21428,7 @@
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>52</v>
@@ -21452,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="60">
@@ -21460,13 +21455,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>758</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>759</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -21516,16 +21511,16 @@
         <v>1800</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="X8" s="1">
         <v>4</v>
@@ -21540,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="24">
@@ -21548,13 +21543,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>762</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>763</v>
       </c>
       <c r="E9" s="16">
         <v>3</v>
@@ -21604,7 +21599,7 @@
         <v>8000</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>509</v>
@@ -21626,28 +21621,28 @@
         <v>0</v>
       </c>
       <c r="AB9" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21798,12 +21793,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!AB:AB,"*单伤*")</f>
@@ -21812,7 +21807,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!AB:AB,"*群伤*")</f>
@@ -21821,7 +21816,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!AB:AB,"*单治*")</f>
@@ -21830,7 +21825,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!AB:AB,"*群治*")</f>
@@ -21839,7 +21834,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!AB:AB,"*正状*")</f>
@@ -21848,7 +21843,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!AB:AB,"*负状*")</f>
@@ -21857,7 +21852,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!AB:AB,"*手牌*")</f>
@@ -21866,7 +21861,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!AB:AB,"*过牌*")</f>
@@ -21875,7 +21870,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!AB:AB,"*陷阱*")</f>
@@ -21884,7 +21879,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!AB:AB,"*地形*")</f>
@@ -21893,7 +21888,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!AB:AB,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="881">
   <si>
     <t>慈悲</t>
   </si>
@@ -3126,10 +3126,6 @@
   </si>
   <si>
     <t>使目标减速{3:0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.MpCost+=2;p.LpCost-=2;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -4062,7 +4058,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4305,6 +4301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4599,7 +4601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4734,6 +4736,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7484,7 +7489,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7633,11 +7637,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1761749920"/>
-        <c:axId val="1761754272"/>
+        <c:axId val="1761761344"/>
+        <c:axId val="1761758080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1761749920"/>
+        <c:axId val="1761761344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7680,7 +7684,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761754272"/>
+        <c:crossAx val="1761758080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7688,7 +7692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1761754272"/>
+        <c:axId val="1761758080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7739,7 +7743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761749920"/>
+        <c:crossAx val="1761761344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8788,10 +8792,10 @@
   <dimension ref="A1:AB128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomRight" activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8838,7 +8842,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -8862,7 +8866,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -8883,7 +8887,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -8948,7 +8952,7 @@
         <v>505</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -8960,7 +8964,7 @@
         <v>658</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>201</v>
@@ -8969,7 +8973,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -9010,7 +9014,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -9034,19 +9038,19 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>659</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>470</v>
@@ -9055,7 +9059,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -9134,7 +9138,7 @@
         <v>1704</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U4" s="33" t="s">
         <v>581</v>
@@ -9156,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25">
@@ -9242,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="24">
@@ -9306,7 +9310,7 @@
         <v>2000</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>654</v>
@@ -9328,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="36">
@@ -9392,7 +9396,7 @@
         <v>2000</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>655</v>
@@ -9414,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="24">
@@ -9478,7 +9482,7 @@
         <v>900</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>546</v>
@@ -9500,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="48">
@@ -9586,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="48">
@@ -9672,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="48">
@@ -9758,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="48">
@@ -9844,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="48">
@@ -9930,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="48">
@@ -10016,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="48">
@@ -10102,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="48">
@@ -10188,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="48">
@@ -10274,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="14.25">
@@ -10360,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24">
@@ -10424,7 +10428,7 @@
         <v>1200</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>508</v>
@@ -10446,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="24">
@@ -10510,7 +10514,7 @@
         <v>8000</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>509</v>
@@ -10532,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="48">
@@ -10618,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="60">
@@ -10682,7 +10686,7 @@
         <v>1800</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>666</v>
@@ -10706,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="60">
@@ -10770,7 +10774,7 @@
         <v>2100</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>667</v>
@@ -10794,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="60">
@@ -10858,7 +10862,7 @@
         <v>1875</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>668</v>
@@ -10882,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24">
@@ -10968,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24">
@@ -11054,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24">
@@ -11140,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="48">
@@ -11226,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="24">
@@ -11312,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="14.25">
@@ -11396,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="14.25">
@@ -11480,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="24">
@@ -11566,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="24">
@@ -11574,13 +11578,13 @@
         <v>53000030</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>776</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -11630,10 +11634,10 @@
         <v>1500</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11652,7 +11656,7 @@
         <v>1</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="24">
@@ -11660,13 +11664,13 @@
         <v>53000031</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11716,10 +11720,10 @@
         <v>1500</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>4</v>
@@ -11738,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="AB34" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="48">
@@ -11802,7 +11806,7 @@
         <v>2000</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>513</v>
@@ -11824,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="36">
@@ -11889,7 +11893,7 @@
         <v>1220</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>679</v>
@@ -11911,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="14.25">
@@ -11995,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="14.25">
@@ -12060,7 +12064,7 @@
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>63</v>
@@ -12079,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="24">
@@ -12087,10 +12091,10 @@
         <v>53000039</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>374</v>
@@ -12143,10 +12147,10 @@
         <v>1700</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -12165,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24">
@@ -12173,7 +12177,7 @@
         <v>53000040</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>270</v>
@@ -12229,10 +12233,10 @@
         <v>2000</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>4</v>
@@ -12251,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="24">
@@ -12337,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="48">
@@ -12401,7 +12405,7 @@
         <v>2000</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>514</v>
@@ -12423,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="24">
@@ -12509,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24">
@@ -12517,7 +12521,7 @@
         <v>53000044</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>274</v>
@@ -12573,10 +12577,10 @@
         <v>1900</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>4</v>
@@ -12595,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="60">
@@ -12682,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="48">
@@ -12746,7 +12750,7 @@
         <v>2000</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>528</v>
@@ -12768,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="60">
@@ -12832,7 +12836,7 @@
         <v>2200</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>529</v>
@@ -12856,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="48">
@@ -12920,7 +12924,7 @@
         <v>2000</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>515</v>
@@ -12942,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="60">
@@ -13006,7 +13010,7 @@
         <v>2200</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>530</v>
@@ -13030,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="72">
@@ -13094,7 +13098,7 @@
         <v>1800</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U50" s="7" t="s">
         <v>685</v>
@@ -13116,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="48">
@@ -13180,7 +13184,7 @@
         <v>2000</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>516</v>
@@ -13202,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="48">
@@ -13266,7 +13270,7 @@
         <v>2000</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>517</v>
@@ -13288,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="48">
@@ -13352,7 +13356,7 @@
         <v>2000</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>518</v>
@@ -13374,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="48">
@@ -13438,7 +13442,7 @@
         <v>1670</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>619</v>
@@ -13460,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24">
@@ -13546,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="36">
@@ -13632,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24">
@@ -13718,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24">
@@ -13782,7 +13786,7 @@
         <v>1800</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>519</v>
@@ -13804,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24">
@@ -13868,7 +13872,7 @@
         <v>560</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>579</v>
@@ -13890,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="36">
@@ -13976,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="48">
@@ -14040,7 +14044,7 @@
         <v>3000</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>570</v>
@@ -14062,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24">
@@ -14126,7 +14130,7 @@
         <v>3000</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>520</v>
@@ -14148,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="14.25">
@@ -14234,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="24">
@@ -14298,7 +14302,7 @@
         <v>1500</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>686</v>
@@ -14320,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="48">
@@ -14384,7 +14388,7 @@
         <v>5000</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>710</v>
@@ -14406,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="24">
@@ -14470,10 +14474,10 @@
         <v>1700</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>4</v>
@@ -14492,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="14.25">
@@ -14578,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="60">
@@ -14642,7 +14646,7 @@
         <v>1200</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U68" s="7" t="s">
         <v>687</v>
@@ -14666,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="24">
@@ -14730,7 +14734,7 @@
         <v>2000</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>521</v>
@@ -14752,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="14.25">
@@ -14836,7 +14840,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="72">
@@ -14900,7 +14904,7 @@
         <v>2000</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>483</v>
@@ -14924,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="48">
@@ -14988,7 +14992,7 @@
         <v>4000</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>649</v>
@@ -15010,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="48">
@@ -15074,7 +15078,7 @@
         <v>1900</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U73" s="7" t="s">
         <v>522</v>
@@ -15096,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="36">
@@ -15182,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="108">
@@ -15246,7 +15250,7 @@
         <v>3600</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>523</v>
@@ -15268,7 +15272,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="60">
@@ -15332,7 +15336,7 @@
         <v>2200</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>688</v>
@@ -15356,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="48">
@@ -15420,7 +15424,7 @@
         <v>1200</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>524</v>
@@ -15442,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="14.25">
@@ -15505,11 +15509,9 @@
       <c r="S78" s="1">
         <v>1000</v>
       </c>
-      <c r="T78" s="7" t="s">
+      <c r="T78" s="45"/>
+      <c r="U78" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="U78" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>104</v>
@@ -15528,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="48">
@@ -15592,10 +15594,10 @@
         <v>2400</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>128</v>
@@ -15616,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="60">
@@ -15680,7 +15682,7 @@
         <v>2000</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>525</v>
@@ -15704,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="60">
@@ -15768,7 +15770,7 @@
         <v>1800</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>531</v>
@@ -15792,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="24">
@@ -15856,10 +15858,10 @@
         <v>2400</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>133</v>
@@ -15878,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="24">
@@ -15886,7 +15888,7 @@
         <v>53000083</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>306</v>
@@ -15942,13 +15944,13 @@
         <v>1200</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1">
@@ -15964,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="24">
@@ -16028,13 +16030,13 @@
         <v>800</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>566</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1">
@@ -16050,7 +16052,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="60">
@@ -16114,7 +16116,7 @@
         <v>2000</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>532</v>
@@ -16138,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="AB85" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="14.25">
@@ -16222,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="60">
@@ -16286,7 +16288,7 @@
         <v>1500</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>667</v>
@@ -16310,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="60">
@@ -16374,7 +16376,7 @@
         <v>1750</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>533</v>
@@ -16398,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="60">
@@ -16462,13 +16464,13 @@
         <v>1800</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>529</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>142</v>
@@ -16486,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="60">
@@ -16550,7 +16552,7 @@
         <v>1650</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="U90" s="7" t="s">
         <v>690</v>
@@ -16574,7 +16576,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="36">
@@ -16660,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="60">
@@ -16724,7 +16726,7 @@
         <v>1500</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>535</v>
@@ -16748,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="48">
@@ -16834,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="AB93" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="36">
@@ -16920,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="AB94" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="48">
@@ -16984,7 +16986,7 @@
         <v>1600</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="U95" s="7" t="s">
         <v>568</v>
@@ -17008,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="AB95" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="24">
@@ -17094,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="60">
@@ -17158,7 +17160,7 @@
         <v>900</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U97" s="7" t="s">
         <v>526</v>
@@ -17182,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="AB97" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="24">
@@ -17268,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="AB98" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="24">
@@ -17354,7 +17356,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="24">
@@ -17440,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="AB100" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="48">
@@ -17526,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="AB101" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="24">
@@ -17612,7 +17614,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="60">
@@ -17676,10 +17678,10 @@
         <v>1300</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>162</v>
@@ -17700,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AB103" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="14.25">
@@ -17784,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="AB104" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="36">
@@ -17870,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="AB105" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="24">
@@ -17934,7 +17936,7 @@
         <v>1800</v>
       </c>
       <c r="T106" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U106" s="7" t="s">
         <v>701</v>
@@ -17956,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="AB106" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="24">
@@ -18020,7 +18022,7 @@
         <v>1800</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U107" s="7" t="s">
         <v>560</v>
@@ -18042,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="AB107" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="120">
@@ -18106,7 +18108,7 @@
         <v>1700</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U108" s="7" t="s">
         <v>527</v>
@@ -18128,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="AB108" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="24">
@@ -18214,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="AB109" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="36">
@@ -18300,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="AB110" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="48">
@@ -18364,7 +18366,7 @@
         <v>1600</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U111" s="7" t="s">
         <v>541</v>
@@ -18386,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="AB111" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="24">
@@ -18472,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="AB112" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24">
@@ -18536,7 +18538,7 @@
         <v>1400</v>
       </c>
       <c r="T113" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U113" s="7" t="s">
         <v>709</v>
@@ -18558,7 +18560,7 @@
         <v>0</v>
       </c>
       <c r="AB113" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24">
@@ -18644,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="AB114" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="36">
@@ -18730,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="AB115" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="116" spans="1:28" ht="36">
@@ -18816,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="AB116" s="27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="48">
@@ -18902,7 +18904,7 @@
         <v>0</v>
       </c>
       <c r="AB117" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="48">
@@ -18988,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="AB118" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="48">
@@ -19074,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="AB119" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="48">
@@ -19160,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="AB120" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="48">
@@ -19246,7 +19248,7 @@
         <v>0</v>
       </c>
       <c r="AB121" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="48">
@@ -19332,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="AB122" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="48">
@@ -19418,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="AB123" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="48">
@@ -19504,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="AB124" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="48">
@@ -19590,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="AB125" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="72">
@@ -19654,16 +19656,16 @@
         <v>2200</v>
       </c>
       <c r="T126" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="U126" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W126" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="X126" s="1">
         <v>4</v>
@@ -19678,7 +19680,7 @@
         <v>1</v>
       </c>
       <c r="AB126" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="48">
@@ -19742,7 +19744,7 @@
         <v>3000</v>
       </c>
       <c r="T127" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="U127" s="7" t="s">
         <v>569</v>
@@ -19766,7 +19768,7 @@
         <v>1</v>
       </c>
       <c r="AB127" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="36">
@@ -19852,7 +19854,7 @@
         <v>1</v>
       </c>
       <c r="AB128" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -20015,7 +20017,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -20039,7 +20041,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -20060,7 +20062,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -20125,7 +20127,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -20146,7 +20148,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -20187,7 +20189,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -20211,7 +20213,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -20232,7 +20234,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -20707,7 +20709,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>639</v>
@@ -20873,7 +20875,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -20897,7 +20899,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -20918,7 +20920,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -20983,7 +20985,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -21004,7 +21006,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -21045,7 +21047,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -21069,7 +21071,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -21090,7 +21092,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -21113,13 +21115,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>748</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>749</v>
       </c>
       <c r="E4" s="16">
         <v>3</v>
@@ -21169,7 +21171,7 @@
         <v>2300</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>644</v>
@@ -21191,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="24">
@@ -21199,13 +21201,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>740</v>
       </c>
       <c r="E5" s="16">
         <v>3</v>
@@ -21255,7 +21257,7 @@
         <v>1800</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>654</v>
@@ -21277,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="40.5">
@@ -21285,13 +21287,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>751</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>752</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -21341,10 +21343,10 @@
         <v>2300</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>53</v>
@@ -21363,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25">
@@ -21371,13 +21373,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>741</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>742</v>
       </c>
       <c r="E7" s="16">
         <v>3</v>
@@ -21428,7 +21430,7 @@
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>52</v>
@@ -21447,7 +21449,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="60">
@@ -21455,13 +21457,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>758</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -21511,16 +21513,16 @@
         <v>1800</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="X8" s="1">
         <v>4</v>
@@ -21535,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="24">
@@ -21543,13 +21545,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>762</v>
       </c>
       <c r="E9" s="16">
         <v>3</v>
@@ -21599,7 +21601,7 @@
         <v>8000</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>509</v>
@@ -21621,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -21793,12 +21795,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!AB:AB,"*单伤*")</f>
@@ -21807,7 +21809,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!AB:AB,"*群伤*")</f>
@@ -21816,7 +21818,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!AB:AB,"*单治*")</f>
@@ -21825,7 +21827,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!AB:AB,"*群治*")</f>
@@ -21834,7 +21836,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!AB:AB,"*正状*")</f>
@@ -21843,7 +21845,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!AB:AB,"*负状*")</f>
@@ -21852,7 +21854,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!AB:AB,"*手牌*")</f>
@@ -21861,7 +21863,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!AB:AB,"*过牌*")</f>
@@ -21870,7 +21872,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!AB:AB,"*陷阱*")</f>
@@ -21879,7 +21881,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!AB:AB,"*地形*")</f>
@@ -21888,7 +21890,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!AB:AB,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="883">
   <si>
     <t>慈悲</t>
   </si>
@@ -3126,10 +3126,6 @@
   </si>
   <si>
     <t>使目标减速{3:0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方召唤师使用魔法/武器卡消耗+2，使用怪物卡消耗-2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3780,6 +3776,18 @@
   </si>
   <si>
     <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张使用的怪物卡消耗为0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddSpike(57000006);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8795,7 +8803,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P77" sqref="P77"/>
+      <selection pane="bottomRight" activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8842,7 +8850,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -8866,7 +8874,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -8887,7 +8895,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -8952,7 +8960,7 @@
         <v>505</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -8964,7 +8972,7 @@
         <v>658</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>201</v>
@@ -8973,7 +8981,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -9014,7 +9022,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -9038,19 +9046,19 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>659</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>470</v>
@@ -9059,7 +9067,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -9138,7 +9146,7 @@
         <v>1704</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="U4" s="33" t="s">
         <v>581</v>
@@ -9160,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25">
@@ -9246,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="24">
@@ -9310,7 +9318,7 @@
         <v>2000</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>654</v>
@@ -9332,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="36">
@@ -9396,7 +9404,7 @@
         <v>2000</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>655</v>
@@ -9418,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="24">
@@ -9482,7 +9490,7 @@
         <v>900</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>546</v>
@@ -9504,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="48">
@@ -9590,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="48">
@@ -9676,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="48">
@@ -9762,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="48">
@@ -9848,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="48">
@@ -9934,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="48">
@@ -10020,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="48">
@@ -10106,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="48">
@@ -10192,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="48">
@@ -10278,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="14.25">
@@ -10364,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24">
@@ -10428,7 +10436,7 @@
         <v>1200</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>508</v>
@@ -10450,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="24">
@@ -10514,7 +10522,7 @@
         <v>8000</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>509</v>
@@ -10536,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="48">
@@ -10622,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="60">
@@ -10686,7 +10694,7 @@
         <v>1800</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>666</v>
@@ -10710,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="60">
@@ -10774,7 +10782,7 @@
         <v>2100</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>667</v>
@@ -10798,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="60">
@@ -10862,7 +10870,7 @@
         <v>1875</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>668</v>
@@ -10886,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24">
@@ -10972,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24">
@@ -11058,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24">
@@ -11144,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="48">
@@ -11230,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="24">
@@ -11316,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="14.25">
@@ -11400,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="14.25">
@@ -11484,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="24">
@@ -11570,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="24">
@@ -11578,13 +11586,13 @@
         <v>53000030</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -11634,10 +11642,10 @@
         <v>1500</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11656,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="24">
@@ -11664,13 +11672,13 @@
         <v>53000031</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>778</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11720,10 +11728,10 @@
         <v>1500</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>4</v>
@@ -11742,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="AB34" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="48">
@@ -11806,7 +11814,7 @@
         <v>2000</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>513</v>
@@ -11828,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="36">
@@ -11893,7 +11901,7 @@
         <v>1220</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>679</v>
@@ -11915,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="14.25">
@@ -11999,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="14.25">
@@ -12064,7 +12072,7 @@
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>63</v>
@@ -12083,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="24">
@@ -12091,10 +12099,10 @@
         <v>53000039</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>374</v>
@@ -12147,10 +12155,10 @@
         <v>1700</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -12169,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24">
@@ -12177,7 +12185,7 @@
         <v>53000040</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>270</v>
@@ -12233,10 +12241,10 @@
         <v>2000</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>4</v>
@@ -12255,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="24">
@@ -12341,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="48">
@@ -12405,7 +12413,7 @@
         <v>2000</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>514</v>
@@ -12427,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="24">
@@ -12513,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24">
@@ -12521,7 +12529,7 @@
         <v>53000044</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>274</v>
@@ -12577,10 +12585,10 @@
         <v>1900</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>4</v>
@@ -12599,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="60">
@@ -12686,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="48">
@@ -12750,7 +12758,7 @@
         <v>2000</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>528</v>
@@ -12772,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="60">
@@ -12836,7 +12844,7 @@
         <v>2200</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>529</v>
@@ -12860,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="48">
@@ -12924,7 +12932,7 @@
         <v>2000</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>515</v>
@@ -12946,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="60">
@@ -13010,7 +13018,7 @@
         <v>2200</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>530</v>
@@ -13034,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="72">
@@ -13098,7 +13106,7 @@
         <v>1800</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U50" s="7" t="s">
         <v>685</v>
@@ -13120,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="48">
@@ -13184,7 +13192,7 @@
         <v>2000</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>516</v>
@@ -13206,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="48">
@@ -13270,7 +13278,7 @@
         <v>2000</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>517</v>
@@ -13292,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="48">
@@ -13356,7 +13364,7 @@
         <v>2000</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>518</v>
@@ -13378,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="48">
@@ -13442,7 +13450,7 @@
         <v>1670</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>619</v>
@@ -13464,7 +13472,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24">
@@ -13550,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="36">
@@ -13636,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24">
@@ -13722,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24">
@@ -13786,7 +13794,7 @@
         <v>1800</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>519</v>
@@ -13808,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24">
@@ -13872,7 +13880,7 @@
         <v>560</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>579</v>
@@ -13894,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="36">
@@ -13980,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="48">
@@ -14044,7 +14052,7 @@
         <v>3000</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>570</v>
@@ -14066,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24">
@@ -14130,7 +14138,7 @@
         <v>3000</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>520</v>
@@ -14152,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="14.25">
@@ -14238,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="24">
@@ -14302,7 +14310,7 @@
         <v>1500</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>686</v>
@@ -14324,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="48">
@@ -14388,7 +14396,7 @@
         <v>5000</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>710</v>
@@ -14410,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="24">
@@ -14474,10 +14482,10 @@
         <v>1700</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>4</v>
@@ -14496,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="14.25">
@@ -14582,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="60">
@@ -14646,7 +14654,7 @@
         <v>1200</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U68" s="7" t="s">
         <v>687</v>
@@ -14670,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="24">
@@ -14734,7 +14742,7 @@
         <v>2000</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>521</v>
@@ -14756,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="14.25">
@@ -14840,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="72">
@@ -14904,7 +14912,7 @@
         <v>2000</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>483</v>
@@ -14928,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="48">
@@ -14992,7 +15000,7 @@
         <v>4000</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>649</v>
@@ -15014,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="48">
@@ -15078,7 +15086,7 @@
         <v>1900</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U73" s="7" t="s">
         <v>522</v>
@@ -15100,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="36">
@@ -15186,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="108">
@@ -15250,7 +15258,7 @@
         <v>3600</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>523</v>
@@ -15272,7 +15280,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="60">
@@ -15336,7 +15344,7 @@
         <v>2200</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>688</v>
@@ -15360,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="48">
@@ -15424,7 +15432,7 @@
         <v>1200</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>524</v>
@@ -15446,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="14.25">
@@ -15463,7 +15471,7 @@
         <v>411</v>
       </c>
       <c r="E78" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>202</v>
@@ -15476,7 +15484,7 @@
         <v>6</v>
       </c>
       <c r="I78" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -15504,14 +15512,16 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>1</v>
+        <v>882</v>
       </c>
       <c r="S78" s="1">
         <v>1000</v>
       </c>
-      <c r="T78" s="45"/>
+      <c r="T78" s="45" t="s">
+        <v>881</v>
+      </c>
       <c r="U78" s="7" t="s">
-        <v>715</v>
+        <v>880</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>104</v>
@@ -15530,7 +15540,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="48">
@@ -15594,10 +15604,10 @@
         <v>2400</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>128</v>
@@ -15618,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="60">
@@ -15682,7 +15692,7 @@
         <v>2000</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>525</v>
@@ -15706,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="60">
@@ -15770,7 +15780,7 @@
         <v>1800</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>531</v>
@@ -15794,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="24">
@@ -15858,10 +15868,10 @@
         <v>2400</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>133</v>
@@ -15880,7 +15890,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="24">
@@ -15888,7 +15898,7 @@
         <v>53000083</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>306</v>
@@ -15944,13 +15954,13 @@
         <v>1200</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1">
@@ -15966,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="24">
@@ -16030,13 +16040,13 @@
         <v>800</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>566</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1">
@@ -16052,7 +16062,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="60">
@@ -16116,7 +16126,7 @@
         <v>2000</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>532</v>
@@ -16140,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AB85" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="14.25">
@@ -16224,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="60">
@@ -16288,7 +16298,7 @@
         <v>1500</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>667</v>
@@ -16312,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="60">
@@ -16376,7 +16386,7 @@
         <v>1750</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>533</v>
@@ -16400,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="60">
@@ -16464,13 +16474,13 @@
         <v>1800</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>529</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>142</v>
@@ -16488,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="60">
@@ -16552,7 +16562,7 @@
         <v>1650</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="U90" s="7" t="s">
         <v>690</v>
@@ -16576,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="36">
@@ -16662,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="60">
@@ -16726,7 +16736,7 @@
         <v>1500</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>535</v>
@@ -16750,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="48">
@@ -16836,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="AB93" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="36">
@@ -16922,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="AB94" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="48">
@@ -16986,7 +16996,7 @@
         <v>1600</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="U95" s="7" t="s">
         <v>568</v>
@@ -17010,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="AB95" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="24">
@@ -17096,7 +17106,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="60">
@@ -17160,7 +17170,7 @@
         <v>900</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="U97" s="7" t="s">
         <v>526</v>
@@ -17184,7 +17194,7 @@
         <v>0</v>
       </c>
       <c r="AB97" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="24">
@@ -17270,7 +17280,7 @@
         <v>0</v>
       </c>
       <c r="AB98" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="24">
@@ -17356,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="24">
@@ -17442,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="AB100" s="27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="48">
@@ -17528,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="AB101" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="24">
@@ -17614,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="60">
@@ -17678,10 +17688,10 @@
         <v>1300</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>162</v>
@@ -17702,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="AB103" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="14.25">
@@ -17786,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="AB104" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="36">
@@ -17872,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="AB105" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="24">
@@ -17936,7 +17946,7 @@
         <v>1800</v>
       </c>
       <c r="T106" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U106" s="7" t="s">
         <v>701</v>
@@ -17958,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="AB106" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="24">
@@ -18022,7 +18032,7 @@
         <v>1800</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U107" s="7" t="s">
         <v>560</v>
@@ -18044,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="AB107" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="120">
@@ -18108,7 +18118,7 @@
         <v>1700</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U108" s="7" t="s">
         <v>527</v>
@@ -18130,7 +18140,7 @@
         <v>0</v>
       </c>
       <c r="AB108" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="24">
@@ -18216,7 +18226,7 @@
         <v>0</v>
       </c>
       <c r="AB109" s="27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="36">
@@ -18302,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="AB110" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="48">
@@ -18366,7 +18376,7 @@
         <v>1600</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U111" s="7" t="s">
         <v>541</v>
@@ -18388,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="AB111" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="24">
@@ -18474,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="AB112" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24">
@@ -18538,7 +18548,7 @@
         <v>1400</v>
       </c>
       <c r="T113" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U113" s="7" t="s">
         <v>709</v>
@@ -18560,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="AB113" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24">
@@ -18646,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="AB114" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="36">
@@ -18732,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="AB115" s="27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="116" spans="1:28" ht="36">
@@ -18818,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="AB116" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="48">
@@ -18904,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="AB117" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="48">
@@ -18990,7 +19000,7 @@
         <v>0</v>
       </c>
       <c r="AB118" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="48">
@@ -19076,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="AB119" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="48">
@@ -19162,7 +19172,7 @@
         <v>0</v>
       </c>
       <c r="AB120" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="48">
@@ -19248,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="AB121" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="48">
@@ -19334,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="AB122" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="48">
@@ -19420,7 +19430,7 @@
         <v>0</v>
       </c>
       <c r="AB123" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="48">
@@ -19506,7 +19516,7 @@
         <v>0</v>
       </c>
       <c r="AB124" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="48">
@@ -19592,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="AB125" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="72">
@@ -19656,16 +19666,16 @@
         <v>2200</v>
       </c>
       <c r="T126" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U126" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="W126" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="X126" s="1">
         <v>4</v>
@@ -19680,7 +19690,7 @@
         <v>1</v>
       </c>
       <c r="AB126" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="48">
@@ -19744,7 +19754,7 @@
         <v>3000</v>
       </c>
       <c r="T127" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="U127" s="7" t="s">
         <v>569</v>
@@ -19768,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="AB127" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="36">
@@ -19854,7 +19864,7 @@
         <v>1</v>
       </c>
       <c r="AB128" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -20017,7 +20027,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -20041,7 +20051,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -20062,7 +20072,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -20127,7 +20137,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -20148,7 +20158,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -20189,7 +20199,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -20213,7 +20223,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -20234,7 +20244,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -20709,7 +20719,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>639</v>
@@ -20875,7 +20885,7 @@
         <v>214</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>490</v>
@@ -20899,7 +20909,7 @@
         <v>504</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>487</v>
@@ -20920,7 +20930,7 @@
         <v>656</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>215</v>
@@ -20985,7 +20995,7 @@
         <v>491</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>488</v>
@@ -21006,7 +21016,7 @@
         <v>201</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>200</v>
@@ -21047,7 +21057,7 @@
         <v>206</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>492</v>
@@ -21071,7 +21081,7 @@
         <v>506</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>489</v>
@@ -21092,7 +21102,7 @@
         <v>494</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>208</v>
@@ -21115,13 +21125,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>748</v>
       </c>
       <c r="E4" s="16">
         <v>3</v>
@@ -21171,7 +21181,7 @@
         <v>2300</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>644</v>
@@ -21193,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="24">
@@ -21201,13 +21211,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>738</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>739</v>
       </c>
       <c r="E5" s="16">
         <v>3</v>
@@ -21257,7 +21267,7 @@
         <v>1800</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>654</v>
@@ -21279,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="40.5">
@@ -21287,13 +21297,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>751</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -21343,10 +21353,10 @@
         <v>2300</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>53</v>
@@ -21365,7 +21375,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25">
@@ -21373,13 +21383,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="E7" s="16">
         <v>3</v>
@@ -21430,7 +21440,7 @@
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>52</v>
@@ -21449,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="60">
@@ -21457,13 +21467,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>756</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>757</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -21513,16 +21523,16 @@
         <v>1800</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="X8" s="1">
         <v>4</v>
@@ -21537,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="24">
@@ -21545,13 +21555,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>760</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>761</v>
       </c>
       <c r="E9" s="16">
         <v>3</v>
@@ -21601,7 +21611,7 @@
         <v>8000</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>509</v>
@@ -21623,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -21795,12 +21805,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!AB:AB,"*单伤*")</f>
@@ -21809,7 +21819,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!AB:AB,"*群伤*")</f>
@@ -21818,7 +21828,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!AB:AB,"*单治*")</f>
@@ -21827,7 +21837,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!AB:AB,"*群治*")</f>
@@ -21836,7 +21846,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!AB:AB,"*正状*")</f>
@@ -21845,7 +21855,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!AB:AB,"*负状*")</f>
@@ -21854,7 +21864,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!AB:AB,"*手牌*")</f>
@@ -21863,7 +21873,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!AB:AB,"*过牌*")</f>
@@ -21872,7 +21882,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!AB:AB,"*陷阱*")</f>
@@ -21881,7 +21891,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!AB:AB,"*地形*")</f>
@@ -21890,7 +21900,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!AB:AB,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -4724,7 +4724,203 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="152">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5267,34 +5463,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5498,6 +5666,34 @@
         <color theme="1"/>
         <name val="宋体"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -6093,34 +6289,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -6332,6 +6500,34 @@
         <color theme="1"/>
         <name val="宋体"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -7022,34 +7218,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7576,11 +7744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="858547648"/>
-        <c:axId val="858556352"/>
+        <c:axId val="1068425920"/>
+        <c:axId val="1068423200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="858547648"/>
+        <c:axId val="1068425920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7623,7 +7791,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858556352"/>
+        <c:crossAx val="1068423200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7631,7 +7799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="858556352"/>
+        <c:axId val="1068423200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7682,7 +7850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858547648"/>
+        <c:crossAx val="1068425920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8310,132 +8478,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB124" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB124" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" tableBorderDxfId="132">
   <autoFilter ref="A3:AB124"/>
   <sortState ref="A4:Y128">
     <sortCondition ref="A3:A128"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="107"/>
-    <tableColumn id="2" name="Name" dataDxfId="106"/>
-    <tableColumn id="20" name="Ename" dataDxfId="105"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="104"/>
-    <tableColumn id="3" name="Star" dataDxfId="103"/>
-    <tableColumn id="4" name="Type" dataDxfId="102"/>
-    <tableColumn id="5" name="Attr" dataDxfId="101"/>
-    <tableColumn id="8" name="Quality" dataDxfId="100">
-      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="131"/>
+    <tableColumn id="2" name="Name" dataDxfId="130"/>
+    <tableColumn id="20" name="Ename" dataDxfId="129"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="128"/>
+    <tableColumn id="3" name="Star" dataDxfId="127"/>
+    <tableColumn id="4" name="Type" dataDxfId="126"/>
+    <tableColumn id="5" name="Attr" dataDxfId="125"/>
+    <tableColumn id="8" name="Quality" dataDxfId="18">
+      <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="99"/>
-    <tableColumn id="9" name="Damage" dataDxfId="98"/>
-    <tableColumn id="10" name="Cure" dataDxfId="97"/>
-    <tableColumn id="11" name="Time" dataDxfId="96"/>
-    <tableColumn id="13" name="Help" dataDxfId="95"/>
-    <tableColumn id="16" name="Rate" dataDxfId="94"/>
-    <tableColumn id="12" name="Modify" dataDxfId="93"/>
-    <tableColumn id="27" name="Sum" dataDxfId="92">
+    <tableColumn id="7" name="Cost" dataDxfId="124"/>
+    <tableColumn id="9" name="Damage" dataDxfId="123"/>
+    <tableColumn id="10" name="Cure" dataDxfId="122"/>
+    <tableColumn id="11" name="Time" dataDxfId="121"/>
+    <tableColumn id="13" name="Help" dataDxfId="120"/>
+    <tableColumn id="16" name="Rate" dataDxfId="119"/>
+    <tableColumn id="12" name="Modify" dataDxfId="118"/>
+    <tableColumn id="27" name="Sum" dataDxfId="117">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="91"/>
-    <tableColumn id="15" name="Target" dataDxfId="90"/>
-    <tableColumn id="25" name="Mark" dataDxfId="89"/>
-    <tableColumn id="22" name="Effect" dataDxfId="88"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="87"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="86"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="85"/>
-    <tableColumn id="18" name="Res" dataDxfId="84"/>
-    <tableColumn id="19" name="Icon" dataDxfId="83"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="82"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="81"/>
-    <tableColumn id="26" name="Remark" dataDxfId="80"/>
+    <tableColumn id="6" name="Range" dataDxfId="116"/>
+    <tableColumn id="15" name="Target" dataDxfId="115"/>
+    <tableColumn id="25" name="Mark" dataDxfId="114"/>
+    <tableColumn id="22" name="Effect" dataDxfId="113"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="112"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="111"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="110"/>
+    <tableColumn id="18" name="Res" dataDxfId="109"/>
+    <tableColumn id="19" name="Icon" dataDxfId="108"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="107"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="106"/>
+    <tableColumn id="26" name="Remark" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="61"/>
-    <tableColumn id="2" name="Name" dataDxfId="60"/>
-    <tableColumn id="20" name="Ename" dataDxfId="59"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="58"/>
-    <tableColumn id="3" name="Star" dataDxfId="57"/>
-    <tableColumn id="4" name="Type" dataDxfId="56"/>
-    <tableColumn id="5" name="Attr" dataDxfId="55"/>
-    <tableColumn id="8" name="Quality" dataDxfId="54">
-      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="82"/>
+    <tableColumn id="2" name="Name" dataDxfId="81"/>
+    <tableColumn id="20" name="Ename" dataDxfId="80"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="79"/>
+    <tableColumn id="3" name="Star" dataDxfId="78"/>
+    <tableColumn id="4" name="Type" dataDxfId="77"/>
+    <tableColumn id="5" name="Attr" dataDxfId="76"/>
+    <tableColumn id="8" name="Quality" dataDxfId="9">
+      <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="53"/>
-    <tableColumn id="9" name="Damage" dataDxfId="52"/>
-    <tableColumn id="10" name="Cure" dataDxfId="51"/>
-    <tableColumn id="11" name="Time" dataDxfId="50"/>
-    <tableColumn id="13" name="Help" dataDxfId="49"/>
-    <tableColumn id="16" name="Rate" dataDxfId="48"/>
-    <tableColumn id="12" name="Modify" dataDxfId="47"/>
-    <tableColumn id="27" name="Sum" dataDxfId="46">
+    <tableColumn id="7" name="Cost" dataDxfId="75"/>
+    <tableColumn id="9" name="Damage" dataDxfId="74"/>
+    <tableColumn id="10" name="Cure" dataDxfId="73"/>
+    <tableColumn id="11" name="Time" dataDxfId="72"/>
+    <tableColumn id="13" name="Help" dataDxfId="71"/>
+    <tableColumn id="16" name="Rate" dataDxfId="70"/>
+    <tableColumn id="12" name="Modify" dataDxfId="69"/>
+    <tableColumn id="27" name="Sum" dataDxfId="68">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="45"/>
-    <tableColumn id="15" name="Target" dataDxfId="44"/>
-    <tableColumn id="25" name="Mark" dataDxfId="43"/>
-    <tableColumn id="22" name="Effect" dataDxfId="42"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="41"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="40"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="39"/>
-    <tableColumn id="18" name="Res" dataDxfId="38"/>
-    <tableColumn id="19" name="Icon" dataDxfId="37"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="36"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="35"/>
-    <tableColumn id="26" name="Remark" dataDxfId="34"/>
+    <tableColumn id="6" name="Range" dataDxfId="67"/>
+    <tableColumn id="15" name="Target" dataDxfId="66"/>
+    <tableColumn id="25" name="Mark" dataDxfId="65"/>
+    <tableColumn id="22" name="Effect" dataDxfId="64"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="63"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="62"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="61"/>
+    <tableColumn id="18" name="Res" dataDxfId="60"/>
+    <tableColumn id="19" name="Icon" dataDxfId="59"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="58"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="57"/>
+    <tableColumn id="26" name="Remark" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="27"/>
-    <tableColumn id="2" name="Name" dataDxfId="26"/>
-    <tableColumn id="20" name="Ename" dataDxfId="25"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="24"/>
-    <tableColumn id="3" name="Star" dataDxfId="23"/>
-    <tableColumn id="4" name="Type" dataDxfId="22"/>
-    <tableColumn id="5" name="Attr" dataDxfId="21"/>
-    <tableColumn id="8" name="Quality" dataDxfId="20">
-      <calculatedColumnFormula>IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</calculatedColumnFormula>
+    <tableColumn id="1" name="Id" dataDxfId="45"/>
+    <tableColumn id="2" name="Name" dataDxfId="44"/>
+    <tableColumn id="20" name="Ename" dataDxfId="43"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="42"/>
+    <tableColumn id="3" name="Star" dataDxfId="41"/>
+    <tableColumn id="4" name="Type" dataDxfId="40"/>
+    <tableColumn id="5" name="Attr" dataDxfId="39"/>
+    <tableColumn id="8" name="Quality" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="19"/>
-    <tableColumn id="9" name="Damage" dataDxfId="18"/>
-    <tableColumn id="10" name="Cure" dataDxfId="17"/>
-    <tableColumn id="11" name="Time" dataDxfId="16"/>
-    <tableColumn id="13" name="Help" dataDxfId="15"/>
-    <tableColumn id="16" name="Rate" dataDxfId="14"/>
-    <tableColumn id="12" name="Modify" dataDxfId="13"/>
-    <tableColumn id="27" name="Sum" dataDxfId="12">
+    <tableColumn id="7" name="Cost" dataDxfId="38"/>
+    <tableColumn id="9" name="Damage" dataDxfId="37"/>
+    <tableColumn id="10" name="Cure" dataDxfId="36"/>
+    <tableColumn id="11" name="Time" dataDxfId="35"/>
+    <tableColumn id="13" name="Help" dataDxfId="34"/>
+    <tableColumn id="16" name="Rate" dataDxfId="33"/>
+    <tableColumn id="12" name="Modify" dataDxfId="32"/>
+    <tableColumn id="27" name="Sum" dataDxfId="31">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="11"/>
-    <tableColumn id="15" name="Target" dataDxfId="10"/>
-    <tableColumn id="25" name="Mark" dataDxfId="9"/>
-    <tableColumn id="22" name="Effect" dataDxfId="8"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="7"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="6"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="5"/>
-    <tableColumn id="18" name="Res" dataDxfId="4"/>
-    <tableColumn id="19" name="Icon" dataDxfId="3"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="2"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
-    <tableColumn id="26" name="Remark" dataDxfId="0"/>
+    <tableColumn id="6" name="Range" dataDxfId="30"/>
+    <tableColumn id="15" name="Target" dataDxfId="29"/>
+    <tableColumn id="25" name="Mark" dataDxfId="28"/>
+    <tableColumn id="22" name="Effect" dataDxfId="27"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="26"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="25"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="24"/>
+    <tableColumn id="18" name="Res" dataDxfId="23"/>
+    <tableColumn id="19" name="Icon" dataDxfId="22"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="21"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="20"/>
+    <tableColumn id="26" name="Remark" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8730,11 +8898,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9039,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H33" si="0">IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
+        <f t="shared" ref="H4:H35" si="0">IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="1">
@@ -9212,7 +9380,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -10244,7 +10412,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1">
         <v>5</v>
@@ -10416,7 +10584,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1">
         <v>3</v>
@@ -10504,7 +10672,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -10592,7 +10760,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
@@ -10766,7 +10934,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
@@ -10852,7 +11020,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
@@ -10938,7 +11106,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -11536,7 +11704,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>3</v>
@@ -11621,7 +11789,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H65" si="2">IF(P34&gt;10,5,IF(P34&gt;5,4,IF(P34&gt;2.5,3,IF(P34&gt;0,2,IF(P34&gt;-2.5,1,IF(P34&gt;-10,0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I34" s="1">
@@ -11646,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="43">
-        <f t="shared" ref="P34:P65" si="3">(S34-2000)/20+O34</f>
+        <f t="shared" ref="P34:P65" si="2">(S34-2000)/20+O34</f>
         <v>-39</v>
       </c>
       <c r="Q34" s="1">
@@ -11708,7 +11876,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I35" s="1">
@@ -11733,7 +11901,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-11</v>
       </c>
       <c r="Q35" s="1">
@@ -11792,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H36:H67" si="3">IF(AND(P36&gt;=13,P36&lt;=16),5,IF(AND(P36&gt;=9,P36&lt;=12),4,IF(AND(P36&gt;=5,P36&lt;=8),3,IF(AND(P36&gt;=1,P36&lt;=4),2,IF(AND(P36&gt;=-3,P36&lt;=0),1,IF(AND(P36&gt;=-5,P36&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I36" s="1">
@@ -11817,7 +11985,7 @@
         <v>-1</v>
       </c>
       <c r="P36" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-41</v>
       </c>
       <c r="Q36" s="1">
@@ -11876,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I37" s="1">
@@ -11901,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="Q37" s="1">
@@ -11962,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I38" s="1">
@@ -11987,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q38" s="1">
@@ -12048,8 +12216,8 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="I39" s="1">
         <v>2</v>
@@ -12073,7 +12241,7 @@
         <v>-2</v>
       </c>
       <c r="P39" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="Q39" s="1">
@@ -12134,8 +12302,8 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
         <v>3</v>
@@ -12159,7 +12327,7 @@
         <v>-3</v>
       </c>
       <c r="P40" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="Q40" s="1">
@@ -12220,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I41" s="1">
@@ -12245,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q41" s="1">
@@ -12306,8 +12474,8 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I42" s="1">
         <v>4</v>
@@ -12331,7 +12499,7 @@
         <v>2</v>
       </c>
       <c r="P42" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="Q42" s="1">
@@ -12392,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I43" s="1">
@@ -12417,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-39</v>
       </c>
       <c r="Q43" s="1">
@@ -12479,7 +12647,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I44" s="1">
@@ -12504,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q44" s="1">
@@ -12565,7 +12733,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I45" s="1">
@@ -12590,7 +12758,7 @@
         <v>3</v>
       </c>
       <c r="P45" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="Q45" s="1">
@@ -12653,8 +12821,8 @@
         <v>3</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I46" s="1">
         <v>3</v>
@@ -12678,7 +12846,7 @@
         <v>-3</v>
       </c>
       <c r="P46" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="Q46" s="1">
@@ -12739,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I47" s="1">
@@ -12764,7 +12932,7 @@
         <v>-1</v>
       </c>
       <c r="P47" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Q47" s="1">
@@ -12827,7 +12995,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I48" s="1">
@@ -12852,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="Q48" s="1">
@@ -12913,8 +13081,8 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
         <v>3</v>
@@ -12938,7 +13106,7 @@
         <v>-3</v>
       </c>
       <c r="P49" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="Q49" s="1">
@@ -12999,8 +13167,8 @@
         <v>4</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
         <v>3</v>
@@ -13024,7 +13192,7 @@
         <v>-3</v>
       </c>
       <c r="P50" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="Q50" s="1">
@@ -13085,8 +13253,8 @@
         <v>2</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I51" s="1">
         <v>3</v>
@@ -13110,7 +13278,7 @@
         <v>-3</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="Q51" s="1">
@@ -13171,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I52" s="1">
@@ -13196,7 +13364,7 @@
         <v>2</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-14.5</v>
       </c>
       <c r="Q52" s="1">
@@ -13257,8 +13425,8 @@
         <v>5</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="I53" s="1">
         <v>3</v>
@@ -13282,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="Q53" s="1">
@@ -13343,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I54" s="1">
@@ -13368,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-62.5</v>
       </c>
       <c r="Q54" s="1">
@@ -13429,7 +13597,7 @@
         <v>6</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I55" s="1">
@@ -13454,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="Q55" s="1">
@@ -13515,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I56" s="1">
@@ -13540,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="Q56" s="1">
@@ -13601,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I57" s="1">
@@ -13626,7 +13794,7 @@
         <v>-2</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-74</v>
       </c>
       <c r="Q57" s="1">
@@ -13687,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I58" s="1">
@@ -13712,7 +13880,7 @@
         <v>-3</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-77</v>
       </c>
       <c r="Q58" s="1">
@@ -13773,8 +13941,8 @@
         <v>5</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="I59" s="1">
         <v>3</v>
@@ -13798,7 +13966,7 @@
         <v>-3</v>
       </c>
       <c r="P59" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="Q59" s="1">
@@ -13859,8 +14027,8 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -13884,7 +14052,7 @@
         <v>-3</v>
       </c>
       <c r="P60" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="Q60" s="1">
@@ -13945,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I61" s="1">
@@ -13970,7 +14138,7 @@
         <v>3</v>
       </c>
       <c r="P61" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
       <c r="Q61" s="1">
@@ -14031,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I62" s="1">
@@ -14056,7 +14224,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="Q62" s="1">
@@ -14117,8 +14285,8 @@
         <v>5</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="I63" s="1">
         <v>6</v>
@@ -14142,7 +14310,7 @@
         <v>3</v>
       </c>
       <c r="P63" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="Q63" s="1">
@@ -14203,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I64" s="1">
@@ -14228,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
       <c r="Q64" s="1">
@@ -14289,8 +14457,8 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="I65" s="1">
         <v>3</v>
@@ -14314,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="P65" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-9</v>
       </c>
       <c r="Q65" s="1">
@@ -14375,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:H97" si="4">IF(P66&gt;10,5,IF(P66&gt;5,4,IF(P66&gt;2.5,3,IF(P66&gt;0,2,IF(P66&gt;-2.5,1,IF(P66&gt;-10,0,6))))))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I66" s="1">
@@ -14400,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="43">
-        <f t="shared" ref="P66:P97" si="5">(S66-2000)/20+O66</f>
+        <f t="shared" ref="P66:P97" si="4">(S66-2000)/20+O66</f>
         <v>-40</v>
       </c>
       <c r="Q66" s="1">
@@ -14463,8 +14631,8 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="I67" s="1">
         <v>4</v>
@@ -14488,7 +14656,7 @@
         <v>3</v>
       </c>
       <c r="P67" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="Q67" s="1">
@@ -14549,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H68:H99" si="5">IF(AND(P68&gt;=13,P68&lt;=16),5,IF(AND(P68&gt;=9,P68&lt;=12),4,IF(AND(P68&gt;=5,P68&lt;=8),3,IF(AND(P68&gt;=1,P68&lt;=4),2,IF(AND(P68&gt;=-3,P68&lt;=0),1,IF(AND(P68&gt;=-5,P68&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I68" s="1">
@@ -14574,7 +14742,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="Q68" s="1">
@@ -14633,7 +14801,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I69" s="1">
@@ -14658,7 +14826,7 @@
         <v>2</v>
       </c>
       <c r="P69" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q69" s="1">
@@ -14721,8 +14889,8 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I70" s="1">
         <v>2</v>
@@ -14746,7 +14914,7 @@
         <v>2</v>
       </c>
       <c r="P70" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="Q70" s="1">
@@ -14807,7 +14975,7 @@
         <v>5</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I71" s="1">
@@ -14832,7 +15000,7 @@
         <v>3</v>
       </c>
       <c r="P71" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="Q71" s="1">
@@ -14893,7 +15061,7 @@
         <v>6</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I72" s="1">
@@ -14918,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Q72" s="1">
@@ -14979,8 +15147,8 @@
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I73" s="1">
         <v>4</v>
@@ -15004,7 +15172,7 @@
         <v>-3</v>
       </c>
       <c r="P73" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="Q73" s="1">
@@ -15065,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I74" s="1">
@@ -15090,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q74" s="1">
@@ -15153,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I75" s="1">
@@ -15178,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-40</v>
       </c>
       <c r="Q75" s="1">
@@ -15239,7 +15407,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I76" s="1">
@@ -15264,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-50</v>
       </c>
       <c r="Q76" s="1">
@@ -15325,8 +15493,8 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I77" s="1">
         <v>4</v>
@@ -15350,7 +15518,7 @@
         <v>-2</v>
       </c>
       <c r="P77" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="Q77" s="1">
@@ -15413,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I78" s="1">
@@ -15438,7 +15606,7 @@
         <v>-1</v>
       </c>
       <c r="P78" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q78" s="1">
@@ -15501,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I79" s="1">
@@ -15526,7 +15694,7 @@
         <v>-1</v>
       </c>
       <c r="P79" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="Q79" s="1">
@@ -15589,8 +15757,8 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I80" s="1">
         <v>3</v>
@@ -15614,7 +15782,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="Q80" s="1">
@@ -15675,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I81" s="1">
@@ -15700,7 +15868,7 @@
         <v>3</v>
       </c>
       <c r="P81" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-37</v>
       </c>
       <c r="Q81" s="1">
@@ -15761,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I82" s="1">
@@ -15786,7 +15954,7 @@
         <v>3</v>
       </c>
       <c r="P82" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-57</v>
       </c>
       <c r="Q82" s="1">
@@ -15847,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I83" s="1">
@@ -15872,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="P83" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q83" s="1">
@@ -15935,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I84" s="1">
@@ -15960,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-70</v>
       </c>
       <c r="Q84" s="1">
@@ -16019,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I85" s="1">
@@ -16044,7 +16212,7 @@
         <v>3</v>
       </c>
       <c r="P85" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-22</v>
       </c>
       <c r="Q85" s="1">
@@ -16107,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I86" s="1">
@@ -16132,7 +16300,7 @@
         <v>2</v>
       </c>
       <c r="P86" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-10.5</v>
       </c>
       <c r="Q86" s="1">
@@ -16195,8 +16363,8 @@
         <v>5</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I87" s="1">
         <v>4</v>
@@ -16220,7 +16388,7 @@
         <v>3</v>
       </c>
       <c r="P87" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
       <c r="Q87" s="1">
@@ -16283,7 +16451,7 @@
         <v>3</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I88" s="1">
@@ -16308,7 +16476,7 @@
         <v>3</v>
       </c>
       <c r="P88" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-14.5</v>
       </c>
       <c r="Q88" s="1">
@@ -16371,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I89" s="1">
@@ -16396,7 +16564,7 @@
         <v>-2</v>
       </c>
       <c r="P89" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="Q89" s="1">
@@ -16457,7 +16625,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I90" s="1">
@@ -16482,7 +16650,7 @@
         <v>2</v>
       </c>
       <c r="P90" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-23</v>
       </c>
       <c r="Q90" s="1">
@@ -16545,8 +16713,8 @@
         <v>5</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I91" s="1">
         <v>3</v>
@@ -16570,7 +16738,7 @@
         <v>-2</v>
       </c>
       <c r="P91" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="Q91" s="1">
@@ -16631,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I92" s="1">
@@ -16656,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="P92" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-75</v>
       </c>
       <c r="Q92" s="1">
@@ -16717,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I93" s="1">
@@ -16742,7 +16910,7 @@
         <v>3</v>
       </c>
       <c r="P93" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-17</v>
       </c>
       <c r="Q93" s="1">
@@ -16805,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I94" s="1">
@@ -16830,7 +16998,7 @@
         <v>-1</v>
       </c>
       <c r="P94" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-51</v>
       </c>
       <c r="Q94" s="1">
@@ -16891,7 +17059,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I95" s="1">
@@ -16916,7 +17084,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-52</v>
       </c>
       <c r="Q95" s="1">
@@ -16979,8 +17147,8 @@
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="I96" s="1">
         <v>4</v>
@@ -17004,7 +17172,7 @@
         <v>1</v>
       </c>
       <c r="P96" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="Q96" s="1">
@@ -17065,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I97" s="1">
@@ -17090,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="Q97" s="1">
@@ -17151,7 +17319,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" ref="H98:H124" si="6">IF(P98&gt;10,5,IF(P98&gt;5,4,IF(P98&gt;2.5,3,IF(P98&gt;0,2,IF(P98&gt;-2.5,1,IF(P98&gt;-10,0,6))))))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I98" s="1">
@@ -17176,7 +17344,7 @@
         <v>3</v>
       </c>
       <c r="P98" s="43">
-        <f t="shared" ref="P98:P124" si="7">(S98-2000)/20+O98</f>
+        <f t="shared" ref="P98:P124" si="6">(S98-2000)/20+O98</f>
         <v>-17</v>
       </c>
       <c r="Q98" s="1">
@@ -17237,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I99" s="1">
@@ -17262,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-25</v>
       </c>
       <c r="Q99" s="1">
@@ -17323,7 +17491,7 @@
         <v>2</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H100:H124" si="7">IF(AND(P100&gt;=13,P100&lt;=16),5,IF(AND(P100&gt;=9,P100&lt;=12),4,IF(AND(P100&gt;=5,P100&lt;=8),3,IF(AND(P100&gt;=1,P100&lt;=4),2,IF(AND(P100&gt;=-3,P100&lt;=0),1,IF(AND(P100&gt;=-5,P100&lt;=-4),0,6))))))</f>
         <v>1</v>
       </c>
       <c r="I100" s="1">
@@ -17348,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q100" s="1">
@@ -17409,7 +17577,7 @@
         <v>6</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I101" s="1">
@@ -17434,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-35</v>
       </c>
       <c r="Q101" s="1">
@@ -17497,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I102" s="1">
@@ -17522,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-75</v>
       </c>
       <c r="Q102" s="1">
@@ -17581,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I103" s="1">
@@ -17606,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-75</v>
       </c>
       <c r="Q103" s="1">
@@ -17667,7 +17835,7 @@
         <v>3</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I104" s="1">
@@ -17692,7 +17860,7 @@
         <v>-1</v>
       </c>
       <c r="P104" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-11</v>
       </c>
       <c r="Q104" s="1">
@@ -17753,7 +17921,7 @@
         <v>6</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I105" s="1">
@@ -17778,7 +17946,7 @@
         <v>-1</v>
       </c>
       <c r="P105" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-11</v>
       </c>
       <c r="Q105" s="1">
@@ -17839,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I106" s="1">
@@ -17864,7 +18032,7 @@
         <v>3</v>
       </c>
       <c r="P106" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-12</v>
       </c>
       <c r="Q106" s="1">
@@ -17925,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I107" s="1">
@@ -17950,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="P107" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="Q107" s="1">
@@ -18011,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I108" s="1">
@@ -18036,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q108" s="1">
@@ -18097,7 +18265,7 @@
         <v>5</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I109" s="1">
@@ -18122,7 +18290,7 @@
         <v>3</v>
       </c>
       <c r="P109" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-17</v>
       </c>
       <c r="Q109" s="1">
@@ -18183,8 +18351,8 @@
         <v>6</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="I110" s="1">
         <v>3</v>
@@ -18208,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="Q110" s="1">
@@ -18269,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I111" s="1">
@@ -18294,7 +18462,7 @@
         <v>2</v>
       </c>
       <c r="P111" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-28</v>
       </c>
       <c r="Q111" s="1">
@@ -18355,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I112" s="1">
@@ -18380,7 +18548,7 @@
         <v>-1</v>
       </c>
       <c r="P112" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-86</v>
       </c>
       <c r="Q112" s="1">
@@ -18441,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I113" s="1">
@@ -18466,7 +18634,7 @@
         <v>-1</v>
       </c>
       <c r="P113" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-86</v>
       </c>
       <c r="Q113" s="1">
@@ -18527,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I114" s="1">
@@ -18552,7 +18720,7 @@
         <v>1</v>
       </c>
       <c r="P114" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-34</v>
       </c>
       <c r="Q114" s="1">
@@ -18613,7 +18781,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I115" s="1">
@@ -18638,7 +18806,7 @@
         <v>-3</v>
       </c>
       <c r="P115" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-78</v>
       </c>
       <c r="Q115" s="1">
@@ -18699,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I116" s="1">
@@ -18724,7 +18892,7 @@
         <v>-3</v>
       </c>
       <c r="P116" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-78</v>
       </c>
       <c r="Q116" s="1">
@@ -18785,7 +18953,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I117" s="1">
@@ -18810,7 +18978,7 @@
         <v>-3</v>
       </c>
       <c r="P117" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-78</v>
       </c>
       <c r="Q117" s="1">
@@ -18871,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I118" s="1">
@@ -18896,7 +19064,7 @@
         <v>-3</v>
       </c>
       <c r="P118" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-78</v>
       </c>
       <c r="Q118" s="1">
@@ -18957,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I119" s="1">
@@ -18982,7 +19150,7 @@
         <v>-3</v>
       </c>
       <c r="P119" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-78</v>
       </c>
       <c r="Q119" s="1">
@@ -19043,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I120" s="1">
@@ -19068,7 +19236,7 @@
         <v>-3</v>
       </c>
       <c r="P120" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-78</v>
       </c>
       <c r="Q120" s="1">
@@ -19129,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I121" s="1">
@@ -19154,7 +19322,7 @@
         <v>-3</v>
       </c>
       <c r="P121" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-78</v>
       </c>
       <c r="Q121" s="1">
@@ -19215,8 +19383,8 @@
         <v>6</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="I122" s="1">
         <v>4</v>
@@ -19240,7 +19408,7 @@
         <v>1</v>
       </c>
       <c r="P122" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="Q122" s="1">
@@ -19303,8 +19471,8 @@
         <v>5</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="I123" s="1">
         <v>5</v>
@@ -19328,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="Q123" s="1">
@@ -19391,8 +19559,8 @@
         <v>0</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="I124" s="16">
         <v>3</v>
@@ -19416,7 +19584,7 @@
         <v>3</v>
       </c>
       <c r="P124" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="Q124" s="16">
@@ -19460,81 +19628,81 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I69:I113 I37:I67 I4:I34 I119:I123">
-    <cfRule type="cellIs" dxfId="127" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="151" priority="47" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124 J37:P67 J4:O4 J5:P34 J69:P122">
-    <cfRule type="cellIs" dxfId="126" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="125" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="149" priority="44" operator="notEqual">
       <formula>$E123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114:I118">
-    <cfRule type="cellIs" dxfId="124" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="148" priority="42" operator="notEqual">
       <formula>$E114</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="123" priority="41" operator="notEqual">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="notEqual">
       <formula>$E124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124">
-    <cfRule type="cellIs" dxfId="122" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:P123">
-    <cfRule type="cellIs" dxfId="121" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="120" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="144" priority="11" operator="notEqual">
       <formula>$E68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:P68">
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="118" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="142" priority="9" operator="notEqual">
       <formula>$E35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:P35">
-    <cfRule type="cellIs" dxfId="117" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="140" priority="7" operator="notEqual">
       <formula>$E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:P36">
-    <cfRule type="cellIs" dxfId="115" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H124">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="5" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19567,7 +19735,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19867,8 +20035,8 @@
       <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" ref="H4:H9" si="0">IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H9" si="0">IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="16">
@@ -19947,7 +20115,7 @@
       <c r="G5" s="16">
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -20027,7 +20195,7 @@
       <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -20107,7 +20275,7 @@
       <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -20187,7 +20355,7 @@
       <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -20267,7 +20435,7 @@
       <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -20332,78 +20500,106 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="77" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="76" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="33" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="75" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="74" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="99" priority="31" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="73" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="72" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="97" priority="29" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="70" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="27" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="69" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="68" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="67" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="91" priority="23" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="22" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H9">
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="8" operator="greaterThanOrEqual">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThanOrEqual">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20419,11 +20615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20729,8 +20925,8 @@
       <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" ref="H4:H9" si="0">IF(P4&gt;10,5,IF(P4&gt;5,4,IF(P4&gt;2.5,3,IF(P4&gt;0,2,IF(P4&gt;-2.5,1,IF(P4&gt;-10,0,6))))))</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H9" si="0">IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</f>
         <v>5</v>
       </c>
       <c r="I4" s="16">
@@ -20815,7 +21011,7 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -20901,7 +21097,7 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -20987,7 +21183,7 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -21071,9 +21267,9 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -21159,9 +21355,9 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -21226,23 +21422,51 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="12" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H9">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThanOrEqual">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="872">
   <si>
     <t>慈悲</t>
   </si>
@@ -3747,6 +3747,14 @@
   </si>
   <si>
     <t>对范围内3各随机敌人造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longly</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4755,6 +4763,469 @@
   <dxfs count="150">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5527,99 +5998,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6420,194 +6798,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7403,188 +7593,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7761,11 +7769,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="997281776"/>
-        <c:axId val="997283952"/>
+        <c:axId val="221286112"/>
+        <c:axId val="221286672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="997281776"/>
+        <c:axId val="221286112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7808,7 +7816,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="997283952"/>
+        <c:crossAx val="221286672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7816,7 +7824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="997283952"/>
+        <c:axId val="221286672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7867,7 +7875,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="997281776"/>
+        <c:crossAx val="221286112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8495,132 +8503,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148" tableBorderDxfId="147">
   <autoFilter ref="A3:AB125"/>
   <sortState ref="A4:Y128">
     <sortCondition ref="A3:A128"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="123"/>
-    <tableColumn id="2" name="Name" dataDxfId="122"/>
-    <tableColumn id="20" name="Ename" dataDxfId="121"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="120"/>
-    <tableColumn id="3" name="Star" dataDxfId="119"/>
-    <tableColumn id="4" name="Type" dataDxfId="118"/>
-    <tableColumn id="5" name="Attr" dataDxfId="117"/>
-    <tableColumn id="8" name="Quality" dataDxfId="116">
+    <tableColumn id="1" name="Id" dataDxfId="146"/>
+    <tableColumn id="2" name="Name" dataDxfId="145"/>
+    <tableColumn id="20" name="Ename" dataDxfId="144"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="143"/>
+    <tableColumn id="3" name="Star" dataDxfId="142"/>
+    <tableColumn id="4" name="Type" dataDxfId="141"/>
+    <tableColumn id="5" name="Attr" dataDxfId="140"/>
+    <tableColumn id="8" name="Quality" dataDxfId="139">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="115"/>
-    <tableColumn id="9" name="Damage" dataDxfId="114"/>
-    <tableColumn id="10" name="Cure" dataDxfId="113"/>
-    <tableColumn id="11" name="Time" dataDxfId="112"/>
-    <tableColumn id="13" name="Help" dataDxfId="111"/>
-    <tableColumn id="16" name="Rate" dataDxfId="110"/>
-    <tableColumn id="12" name="Modify" dataDxfId="109"/>
-    <tableColumn id="27" name="Sum" dataDxfId="108">
+    <tableColumn id="7" name="Cost" dataDxfId="138"/>
+    <tableColumn id="9" name="Damage" dataDxfId="137"/>
+    <tableColumn id="10" name="Cure" dataDxfId="136"/>
+    <tableColumn id="11" name="Time" dataDxfId="135"/>
+    <tableColumn id="13" name="Help" dataDxfId="134"/>
+    <tableColumn id="16" name="Rate" dataDxfId="133"/>
+    <tableColumn id="12" name="Modify" dataDxfId="132"/>
+    <tableColumn id="27" name="Sum" dataDxfId="131">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="107"/>
-    <tableColumn id="15" name="Target" dataDxfId="106"/>
-    <tableColumn id="25" name="Mark" dataDxfId="105"/>
-    <tableColumn id="22" name="Effect" dataDxfId="104"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="103"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="102"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="101"/>
-    <tableColumn id="18" name="Res" dataDxfId="100"/>
-    <tableColumn id="19" name="Icon" dataDxfId="99"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="98"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="97"/>
-    <tableColumn id="26" name="Remark" dataDxfId="96"/>
+    <tableColumn id="6" name="Range" dataDxfId="130"/>
+    <tableColumn id="15" name="Target" dataDxfId="129"/>
+    <tableColumn id="25" name="Mark" dataDxfId="128"/>
+    <tableColumn id="22" name="Effect" dataDxfId="127"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="126"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="125"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="124"/>
+    <tableColumn id="18" name="Res" dataDxfId="123"/>
+    <tableColumn id="19" name="Icon" dataDxfId="122"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="121"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="120"/>
+    <tableColumn id="26" name="Remark" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117" tableBorderDxfId="116">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="69"/>
-    <tableColumn id="2" name="Name" dataDxfId="68"/>
-    <tableColumn id="20" name="Ename" dataDxfId="67"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="66"/>
-    <tableColumn id="3" name="Star" dataDxfId="65"/>
-    <tableColumn id="4" name="Type" dataDxfId="64"/>
-    <tableColumn id="5" name="Attr" dataDxfId="63"/>
-    <tableColumn id="8" name="Quality" dataDxfId="62">
+    <tableColumn id="1" name="Id" dataDxfId="115"/>
+    <tableColumn id="2" name="Name" dataDxfId="114"/>
+    <tableColumn id="20" name="Ename" dataDxfId="113"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="112"/>
+    <tableColumn id="3" name="Star" dataDxfId="111"/>
+    <tableColumn id="4" name="Type" dataDxfId="110"/>
+    <tableColumn id="5" name="Attr" dataDxfId="109"/>
+    <tableColumn id="8" name="Quality" dataDxfId="108">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="61"/>
-    <tableColumn id="9" name="Damage" dataDxfId="60"/>
-    <tableColumn id="10" name="Cure" dataDxfId="59"/>
-    <tableColumn id="11" name="Time" dataDxfId="58"/>
-    <tableColumn id="13" name="Help" dataDxfId="57"/>
-    <tableColumn id="16" name="Rate" dataDxfId="56"/>
-    <tableColumn id="12" name="Modify" dataDxfId="55"/>
-    <tableColumn id="27" name="Sum" dataDxfId="54">
+    <tableColumn id="7" name="Cost" dataDxfId="107"/>
+    <tableColumn id="9" name="Damage" dataDxfId="106"/>
+    <tableColumn id="10" name="Cure" dataDxfId="105"/>
+    <tableColumn id="11" name="Time" dataDxfId="104"/>
+    <tableColumn id="13" name="Help" dataDxfId="103"/>
+    <tableColumn id="16" name="Rate" dataDxfId="102"/>
+    <tableColumn id="12" name="Modify" dataDxfId="101"/>
+    <tableColumn id="27" name="Sum" dataDxfId="100">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="53"/>
-    <tableColumn id="15" name="Target" dataDxfId="52"/>
-    <tableColumn id="25" name="Mark" dataDxfId="51"/>
-    <tableColumn id="22" name="Effect" dataDxfId="50"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="49"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="48"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="47"/>
-    <tableColumn id="18" name="Res" dataDxfId="46"/>
-    <tableColumn id="19" name="Icon" dataDxfId="45"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="44"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="43"/>
-    <tableColumn id="26" name="Remark" dataDxfId="42"/>
+    <tableColumn id="6" name="Range" dataDxfId="99"/>
+    <tableColumn id="15" name="Target" dataDxfId="98"/>
+    <tableColumn id="25" name="Mark" dataDxfId="97"/>
+    <tableColumn id="22" name="Effect" dataDxfId="96"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="95"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="94"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="93"/>
+    <tableColumn id="18" name="Res" dataDxfId="92"/>
+    <tableColumn id="19" name="Icon" dataDxfId="91"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="90"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="89"/>
+    <tableColumn id="26" name="Remark" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="87" tableBorderDxfId="86">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="27"/>
-    <tableColumn id="2" name="Name" dataDxfId="26"/>
-    <tableColumn id="20" name="Ename" dataDxfId="25"/>
-    <tableColumn id="21" name="EnameShort" dataDxfId="24"/>
-    <tableColumn id="3" name="Star" dataDxfId="23"/>
-    <tableColumn id="4" name="Type" dataDxfId="22"/>
-    <tableColumn id="5" name="Attr" dataDxfId="21"/>
-    <tableColumn id="8" name="Quality" dataDxfId="20">
+    <tableColumn id="1" name="Id" dataDxfId="85"/>
+    <tableColumn id="2" name="Name" dataDxfId="84"/>
+    <tableColumn id="20" name="Ename" dataDxfId="83"/>
+    <tableColumn id="21" name="EnameShort" dataDxfId="82"/>
+    <tableColumn id="3" name="Star" dataDxfId="81"/>
+    <tableColumn id="4" name="Type" dataDxfId="80"/>
+    <tableColumn id="5" name="Attr" dataDxfId="79"/>
+    <tableColumn id="8" name="Quality" dataDxfId="78">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="19"/>
-    <tableColumn id="9" name="Damage" dataDxfId="18"/>
-    <tableColumn id="10" name="Cure" dataDxfId="17"/>
-    <tableColumn id="11" name="Time" dataDxfId="16"/>
-    <tableColumn id="13" name="Help" dataDxfId="15"/>
-    <tableColumn id="16" name="Rate" dataDxfId="14"/>
-    <tableColumn id="12" name="Modify" dataDxfId="13"/>
-    <tableColumn id="27" name="Sum" dataDxfId="12">
+    <tableColumn id="7" name="Cost" dataDxfId="77"/>
+    <tableColumn id="9" name="Damage" dataDxfId="76"/>
+    <tableColumn id="10" name="Cure" dataDxfId="75"/>
+    <tableColumn id="11" name="Time" dataDxfId="74"/>
+    <tableColumn id="13" name="Help" dataDxfId="73"/>
+    <tableColumn id="16" name="Rate" dataDxfId="72"/>
+    <tableColumn id="12" name="Modify" dataDxfId="71"/>
+    <tableColumn id="27" name="Sum" dataDxfId="70">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="11"/>
-    <tableColumn id="15" name="Target" dataDxfId="10"/>
-    <tableColumn id="25" name="Mark" dataDxfId="9"/>
-    <tableColumn id="22" name="Effect" dataDxfId="8"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="7"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="6"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="5"/>
-    <tableColumn id="18" name="Res" dataDxfId="4"/>
-    <tableColumn id="19" name="Icon" dataDxfId="3"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="2"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="1"/>
-    <tableColumn id="26" name="Remark" dataDxfId="0"/>
+    <tableColumn id="6" name="Range" dataDxfId="69"/>
+    <tableColumn id="15" name="Target" dataDxfId="68"/>
+    <tableColumn id="25" name="Mark" dataDxfId="67"/>
+    <tableColumn id="22" name="Effect" dataDxfId="66"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="65"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="64"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="63"/>
+    <tableColumn id="18" name="Res" dataDxfId="62"/>
+    <tableColumn id="19" name="Icon" dataDxfId="61"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="60"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="59"/>
+    <tableColumn id="26" name="Remark" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8919,27 +8927,27 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="9" width="3.125" customWidth="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.25" customWidth="1"/>
-    <col min="17" max="17" width="3.125" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="5.75" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="24.375" customWidth="1"/>
-    <col min="22" max="23" width="7.875" customWidth="1"/>
+    <col min="12" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" customWidth="1"/>
+    <col min="21" max="21" width="24.33203125" customWidth="1"/>
+    <col min="22" max="23" width="7.88671875" customWidth="1"/>
     <col min="24" max="27" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9180,7 +9188,7 @@
         <v>458</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>482</v>
+        <v>870</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>831</v>
@@ -9201,7 +9209,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="36">
+    <row r="4" spans="1:28" ht="48">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -9287,7 +9295,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.25">
+    <row r="5" spans="1:28" ht="28.8">
       <c r="A5">
         <v>53000002</v>
       </c>
@@ -9373,7 +9381,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="24">
+    <row r="6" spans="1:28" ht="28.8">
       <c r="A6">
         <v>53000003</v>
       </c>
@@ -9545,7 +9553,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" spans="1:28" ht="28.8">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9631,7 +9639,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="48">
+    <row r="9" spans="1:28" ht="60">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9717,7 +9725,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="48">
+    <row r="10" spans="1:28" ht="60">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9803,7 +9811,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="48">
+    <row r="11" spans="1:28" ht="60">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9889,7 +9897,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="48">
+    <row r="12" spans="1:28" ht="60">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9975,7 +9983,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="48">
+    <row r="13" spans="1:28" ht="60">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -10061,7 +10069,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="48">
+    <row r="14" spans="1:28" ht="60">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -10147,7 +10155,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="48">
+    <row r="15" spans="1:28" ht="60">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -10299,7 +10307,9 @@
       <c r="U16" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>871</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
         <v>4</v>
@@ -10317,7 +10327,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.25">
+    <row r="17" spans="1:28" ht="28.8">
       <c r="A17">
         <v>53000015</v>
       </c>
@@ -10403,7 +10413,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="24">
+    <row r="18" spans="1:28" ht="28.8">
       <c r="A18">
         <v>53000016</v>
       </c>
@@ -10489,7 +10499,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="24">
+    <row r="19" spans="1:28" ht="28.8">
       <c r="A19">
         <v>53000017</v>
       </c>
@@ -10925,7 +10935,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="24">
+    <row r="24" spans="1:28" ht="28.8">
       <c r="A24">
         <v>53000022</v>
       </c>
@@ -11011,7 +11021,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="24">
+    <row r="25" spans="1:28" ht="28.8">
       <c r="A25">
         <v>53000023</v>
       </c>
@@ -11097,7 +11107,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="24">
+    <row r="26" spans="1:28" ht="28.8">
       <c r="A26">
         <v>53000024</v>
       </c>
@@ -11269,7 +11279,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="24">
+    <row r="28" spans="1:28" ht="28.8">
       <c r="A28">
         <v>53000026</v>
       </c>
@@ -11355,7 +11365,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.25">
+    <row r="29" spans="1:28" ht="28.8">
       <c r="A29">
         <v>53000027</v>
       </c>
@@ -11439,7 +11449,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.25">
+    <row r="30" spans="1:28" ht="28.8">
       <c r="A30">
         <v>53000028</v>
       </c>
@@ -11523,7 +11533,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="24">
+    <row r="31" spans="1:28" ht="28.8">
       <c r="A31">
         <v>53000029</v>
       </c>
@@ -11609,7 +11619,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="24">
+    <row r="32" spans="1:28" ht="28.8">
       <c r="A32">
         <v>53000030</v>
       </c>
@@ -11695,7 +11705,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="24">
+    <row r="33" spans="1:28" ht="28.8">
       <c r="A33">
         <v>53000031</v>
       </c>
@@ -11867,7 +11877,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="36">
+    <row r="35" spans="1:28" ht="48">
       <c r="A35">
         <v>53000036</v>
       </c>
@@ -11954,7 +11964,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14.25">
+    <row r="36" spans="1:28" ht="28.8">
       <c r="A36">
         <v>53000037</v>
       </c>
@@ -12038,7 +12048,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.25">
+    <row r="37" spans="1:28" ht="28.8">
       <c r="A37">
         <v>53000038</v>
       </c>
@@ -12122,7 +12132,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="24">
+    <row r="38" spans="1:28" ht="28.8">
       <c r="A38">
         <v>53000039</v>
       </c>
@@ -12208,7 +12218,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="24">
+    <row r="39" spans="1:28" ht="28.8">
       <c r="A39">
         <v>53000040</v>
       </c>
@@ -12294,7 +12304,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="24">
+    <row r="40" spans="1:28" ht="28.8">
       <c r="A40">
         <v>53000041</v>
       </c>
@@ -12466,7 +12476,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="24">
+    <row r="42" spans="1:28" ht="28.8">
       <c r="A42">
         <v>53000043</v>
       </c>
@@ -12552,7 +12562,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="24">
+    <row r="43" spans="1:28" ht="28.8">
       <c r="A43">
         <v>53000044</v>
       </c>
@@ -12638,7 +12648,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="60">
+    <row r="44" spans="1:28" ht="72">
       <c r="A44">
         <v>53000045</v>
       </c>
@@ -12725,7 +12735,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="48">
+    <row r="45" spans="1:28" ht="60">
       <c r="A45">
         <v>53000046</v>
       </c>
@@ -12985,7 +12995,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="60">
+    <row r="48" spans="1:28" ht="72">
       <c r="A48">
         <v>53000049</v>
       </c>
@@ -13073,7 +13083,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="72">
+    <row r="49" spans="1:28" ht="84">
       <c r="A49">
         <v>53000050</v>
       </c>
@@ -13417,7 +13427,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="48">
+    <row r="53" spans="1:28" ht="60">
       <c r="A53">
         <v>53000054</v>
       </c>
@@ -13503,7 +13513,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="24">
+    <row r="54" spans="1:28" ht="28.8">
       <c r="A54">
         <v>53000055</v>
       </c>
@@ -13589,7 +13599,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="36">
+    <row r="55" spans="1:28" ht="48">
       <c r="A55">
         <v>53000056</v>
       </c>
@@ -13675,7 +13685,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="24">
+    <row r="56" spans="1:28" ht="36">
       <c r="A56">
         <v>53000057</v>
       </c>
@@ -13761,7 +13771,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="24">
+    <row r="57" spans="1:28" ht="28.8">
       <c r="A57">
         <v>53000058</v>
       </c>
@@ -13847,7 +13857,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="24">
+    <row r="58" spans="1:28" ht="36">
       <c r="A58">
         <v>53000059</v>
       </c>
@@ -13933,7 +13943,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="36">
+    <row r="59" spans="1:28" ht="48">
       <c r="A59">
         <v>53000060</v>
       </c>
@@ -14019,7 +14029,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="48">
+    <row r="60" spans="1:28" ht="60">
       <c r="A60">
         <v>53000061</v>
       </c>
@@ -14105,7 +14115,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="24">
+    <row r="61" spans="1:28" ht="28.8">
       <c r="A61">
         <v>53000062</v>
       </c>
@@ -14191,7 +14201,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="14.25">
+    <row r="62" spans="1:28" ht="28.8">
       <c r="A62">
         <v>53000063</v>
       </c>
@@ -14277,7 +14287,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="24">
+    <row r="63" spans="1:28" ht="28.8">
       <c r="A63">
         <v>53000064</v>
       </c>
@@ -14449,7 +14459,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="24">
+    <row r="65" spans="1:28" ht="28.8">
       <c r="A65">
         <v>53000066</v>
       </c>
@@ -14535,7 +14545,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="14.25">
+    <row r="66" spans="1:28" ht="28.8">
       <c r="A66">
         <v>53000067</v>
       </c>
@@ -14621,7 +14631,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="60">
+    <row r="67" spans="1:28" ht="72">
       <c r="A67">
         <v>53000068</v>
       </c>
@@ -14709,7 +14719,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="24">
+    <row r="68" spans="1:28" ht="28.8">
       <c r="A68">
         <v>53000069</v>
       </c>
@@ -14795,7 +14805,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="14.25">
+    <row r="69" spans="1:28" ht="28.8">
       <c r="A69">
         <v>53000070</v>
       </c>
@@ -14879,7 +14889,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="72">
+    <row r="70" spans="1:28" ht="84">
       <c r="A70">
         <v>53000071</v>
       </c>
@@ -14967,7 +14977,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="48">
+    <row r="71" spans="1:28" ht="60">
       <c r="A71">
         <v>53000072</v>
       </c>
@@ -15225,7 +15235,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="108">
+    <row r="74" spans="1:28" ht="132">
       <c r="A74">
         <v>53000075</v>
       </c>
@@ -15311,7 +15321,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="60">
+    <row r="75" spans="1:28" ht="72">
       <c r="A75">
         <v>53000076</v>
       </c>
@@ -15485,7 +15495,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="14.25">
+    <row r="77" spans="1:28" ht="28.8">
       <c r="A77">
         <v>53000078</v>
       </c>
@@ -15659,7 +15669,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="60">
+    <row r="79" spans="1:28" ht="72">
       <c r="A79">
         <v>53000080</v>
       </c>
@@ -15835,7 +15845,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="24">
+    <row r="81" spans="1:28" ht="28.8">
       <c r="A81">
         <v>53000082</v>
       </c>
@@ -15921,7 +15931,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="24">
+    <row r="82" spans="1:28" ht="28.8">
       <c r="A82" s="44">
         <v>53000083</v>
       </c>
@@ -16007,7 +16017,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="24">
+    <row r="83" spans="1:28" ht="28.8">
       <c r="A83">
         <v>53000084</v>
       </c>
@@ -16093,7 +16103,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="60">
+    <row r="84" spans="1:28" ht="84">
       <c r="A84">
         <v>53000085</v>
       </c>
@@ -16181,7 +16191,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.25">
+    <row r="85" spans="1:28" ht="28.8">
       <c r="A85">
         <v>53000086</v>
       </c>
@@ -16963,7 +16973,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="48">
+    <row r="94" spans="1:28" ht="60">
       <c r="A94">
         <v>53000095</v>
       </c>
@@ -17051,7 +17061,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="24">
+    <row r="95" spans="1:28" ht="28.8">
       <c r="A95">
         <v>53000096</v>
       </c>
@@ -17137,7 +17147,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="60">
+    <row r="96" spans="1:28" ht="72">
       <c r="A96">
         <v>53000097</v>
       </c>
@@ -17225,7 +17235,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="24">
+    <row r="97" spans="1:28" ht="36">
       <c r="A97">
         <v>53000098</v>
       </c>
@@ -17311,7 +17321,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="24">
+    <row r="98" spans="1:28" ht="36">
       <c r="A98">
         <v>53000099</v>
       </c>
@@ -17397,7 +17407,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="24">
+    <row r="99" spans="1:28" ht="28.8">
       <c r="A99">
         <v>53000100</v>
       </c>
@@ -17569,7 +17579,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="24">
+    <row r="101" spans="1:28" ht="28.8">
       <c r="A101">
         <v>53000102</v>
       </c>
@@ -17655,7 +17665,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="60">
+    <row r="102" spans="1:28" ht="72">
       <c r="A102">
         <v>53000103</v>
       </c>
@@ -17743,7 +17753,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14.25">
+    <row r="103" spans="1:28" ht="28.8">
       <c r="A103">
         <v>53000104</v>
       </c>
@@ -17827,7 +17837,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="36">
+    <row r="104" spans="1:28" ht="60">
       <c r="A104">
         <v>53000105</v>
       </c>
@@ -17913,7 +17923,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="24">
+    <row r="105" spans="1:28" ht="28.8">
       <c r="A105">
         <v>53000106</v>
       </c>
@@ -17999,7 +18009,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="24">
+    <row r="106" spans="1:28" ht="28.8">
       <c r="A106">
         <v>53000107</v>
       </c>
@@ -18085,7 +18095,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="120">
+    <row r="107" spans="1:28" ht="144">
       <c r="A107">
         <v>53000108</v>
       </c>
@@ -18171,7 +18181,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="24">
+    <row r="108" spans="1:28" ht="28.8">
       <c r="A108">
         <v>53000109</v>
       </c>
@@ -18257,7 +18267,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="36">
+    <row r="109" spans="1:28" ht="48">
       <c r="A109">
         <v>53000110</v>
       </c>
@@ -18343,7 +18353,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="48">
+    <row r="110" spans="1:28" ht="60">
       <c r="A110">
         <v>53000111</v>
       </c>
@@ -18429,7 +18439,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="24">
+    <row r="111" spans="1:28" ht="28.8">
       <c r="A111">
         <v>53000112</v>
       </c>
@@ -18515,7 +18525,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="24">
+    <row r="112" spans="1:28" ht="28.8">
       <c r="A112">
         <v>53000113</v>
       </c>
@@ -18601,7 +18611,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="24">
+    <row r="113" spans="1:28" ht="28.8">
       <c r="A113">
         <v>53000114</v>
       </c>
@@ -18773,7 +18783,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="36">
+    <row r="115" spans="1:28" ht="60">
       <c r="A115">
         <v>53000116</v>
       </c>
@@ -18859,7 +18869,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="48">
+    <row r="116" spans="1:28" ht="60">
       <c r="A116">
         <v>53000117</v>
       </c>
@@ -18945,7 +18955,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="48">
+    <row r="117" spans="1:28" ht="60">
       <c r="A117">
         <v>53000118</v>
       </c>
@@ -19031,7 +19041,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="48">
+    <row r="118" spans="1:28" ht="60">
       <c r="A118">
         <v>53000119</v>
       </c>
@@ -19117,7 +19127,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="48">
+    <row r="119" spans="1:28" ht="60">
       <c r="A119">
         <v>53000120</v>
       </c>
@@ -19203,7 +19213,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="48">
+    <row r="120" spans="1:28" ht="60">
       <c r="A120">
         <v>53000121</v>
       </c>
@@ -19289,7 +19299,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="48">
+    <row r="121" spans="1:28" ht="60">
       <c r="A121">
         <v>53000122</v>
       </c>
@@ -19375,7 +19385,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="48">
+    <row r="122" spans="1:28" ht="60">
       <c r="A122">
         <v>53000125</v>
       </c>
@@ -19461,7 +19471,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="72">
+    <row r="123" spans="1:28" ht="84">
       <c r="A123">
         <v>53000126</v>
       </c>
@@ -19549,7 +19559,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="48">
+    <row r="124" spans="1:28" ht="60">
       <c r="A124">
         <v>53000127</v>
       </c>
@@ -19729,81 +19739,81 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I70:I114 I38:I68 I120:I124 I4:I15 I17:I35">
-    <cfRule type="cellIs" dxfId="149" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125 J38:P68 J4:O4 J70:P123 J5:P15 J17:P35">
-    <cfRule type="cellIs" dxfId="148" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="147" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="51" operator="notEqual">
       <formula>$E124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I119">
-    <cfRule type="cellIs" dxfId="146" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="notEqual">
       <formula>$E115</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="145" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="notEqual">
       <formula>$E125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125">
-    <cfRule type="cellIs" dxfId="144" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124">
-    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="142" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="notEqual">
       <formula>$E69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:P69">
-    <cfRule type="cellIs" dxfId="141" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="140" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="notEqual">
       <formula>$E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:P36">
-    <cfRule type="cellIs" dxfId="139" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="138" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15 H17:H125">
-    <cfRule type="cellIs" dxfId="136" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19820,26 +19830,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="132" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="notEqual">
       <formula>$E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:P16">
-    <cfRule type="cellIs" dxfId="131" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19875,24 +19885,24 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="9" width="3.125" customWidth="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.125" customWidth="1"/>
-    <col min="17" max="17" width="3.125" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="5.75" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="27.25" customWidth="1"/>
-    <col min="22" max="23" width="7.875" customWidth="1"/>
+    <col min="12" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" customWidth="1"/>
+    <col min="21" max="21" width="27.21875" customWidth="1"/>
+    <col min="22" max="23" width="7.88671875" customWidth="1"/>
     <col min="24" max="27" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20234,7 +20244,7 @@
       </c>
       <c r="AB4" s="38"/>
     </row>
-    <row r="5" spans="1:28" ht="14.25">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>53100001</v>
       </c>
@@ -20314,7 +20324,7 @@
       </c>
       <c r="AB5" s="38"/>
     </row>
-    <row r="6" spans="1:28" ht="24">
+    <row r="6" spans="1:28" ht="36">
       <c r="A6">
         <v>53100002</v>
       </c>
@@ -20394,7 +20404,7 @@
       </c>
       <c r="AB6" s="38"/>
     </row>
-    <row r="7" spans="1:28" ht="14.25">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>53100003</v>
       </c>
@@ -20637,105 +20647,105 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="94" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="93" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="92" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="91" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="90" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="89" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="88" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="87" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="86" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="85" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="84" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="83" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="82" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="81" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="80" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20759,24 +20769,24 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="4.375" customWidth="1"/>
-    <col min="7" max="9" width="3.125" customWidth="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="16" width="5.25" customWidth="1"/>
-    <col min="17" max="17" width="3.125" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="5.75" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="27.25" customWidth="1"/>
-    <col min="22" max="23" width="7.875" customWidth="1"/>
+    <col min="12" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" customWidth="1"/>
+    <col min="21" max="21" width="27.21875" customWidth="1"/>
+    <col min="22" max="23" width="7.88671875" customWidth="1"/>
     <col min="24" max="24" width="4" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
     <col min="26" max="27" width="4" customWidth="1"/>
@@ -21126,7 +21136,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="24">
+    <row r="5" spans="1:28" ht="28.8">
       <c r="A5">
         <v>53200101</v>
       </c>
@@ -21212,7 +21222,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="40.5">
+    <row r="6" spans="1:28" ht="43.2">
       <c r="A6">
         <v>53200102</v>
       </c>
@@ -21298,7 +21308,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.25">
+    <row r="7" spans="1:28" ht="28.8">
       <c r="A7">
         <v>53200103</v>
       </c>
@@ -21470,7 +21480,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="24">
+    <row r="9" spans="1:28" ht="28.8">
       <c r="A9">
         <v>53200105</v>
       </c>
@@ -21559,50 +21569,50 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21623,7 +21633,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -21672,7 +21682,7 @@
         <v>2.3345235059857505</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
         <v>638</v>
       </c>
@@ -21749,7 +21759,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="874">
   <si>
     <t>慈悲</t>
   </si>
@@ -3410,10 +3410,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.AddBuff(56000001,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.AddBuff(56000004,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3448,313 +3444,326 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>t.OnMagicDamage(s.Damage,6);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000017,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse))im.AddBuff(56000007,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000013,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久提高我方单体{3:0.0}%魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Atk.Source*=(float)(1+s.Help/100);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，单伤,基础</t>
+  </si>
+  <si>
+    <t>未完成，单伤,负状</t>
+  </si>
+  <si>
+    <t>未完成，地形</t>
+  </si>
+  <si>
+    <t>未完成，地形,基础</t>
+  </si>
+  <si>
+    <t>未完成，单治</t>
+  </si>
+  <si>
+    <t>未完成，单负</t>
+  </si>
+  <si>
+    <t>未完成，群伤</t>
+  </si>
+  <si>
+    <t>未完成，手牌</t>
+  </si>
+  <si>
+    <t>未完成，正状，基础</t>
+  </si>
+  <si>
+    <t>未完成，负状</t>
+  </si>
+  <si>
+    <t>未完成，单伤</t>
+  </si>
+  <si>
+    <t>未完成，陷阱</t>
+  </si>
+  <si>
+    <t>未完成，</t>
+  </si>
+  <si>
+    <t>未完成，正状</t>
+  </si>
+  <si>
+    <t>未完成，属性</t>
+  </si>
+  <si>
+    <t>未完成，单伤，负状</t>
+  </si>
+  <si>
+    <t>未完成，群治</t>
+  </si>
+  <si>
+    <t>未完成，群伤，负状</t>
+  </si>
+  <si>
+    <t>未完成，群伤,基础</t>
+  </si>
+  <si>
+    <t>未完成，卡牌</t>
+  </si>
+  <si>
+    <t>未完成，过牌</t>
+  </si>
+  <si>
+    <t>未完成，属性,基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，过牌,基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,7);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000013,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000011,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000003,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000017,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,8);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张使用的怪物卡消耗为0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddSpike(57000006);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.SetTile(1,mouse,10,5);if(MathTool.GetRandom(100)&lt;s.Rate) m.SetTile(3,mouse,10,5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.SetTile(1,mouse,10,6);if(MathTool.GetRandom(100)&lt;s.Rate) m.SetTile(3,mouse,10,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(4,mouse,15,5);else m.SetTile(4,mouse,10,5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(4,mouse,15,6);else m.SetTile(4,mouse,10,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法飞弹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Missile </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse).Top(3))p.AddSpellMissile(im,s,mouse,"purpleline");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内3各随机敌人造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体，控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>t.OnMagicDamage(s.Damage,0);t.AddBuff(56000007,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(s.Damage,6);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000017,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse))im.AddBuff(56000007,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000013,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久提高我方单体{3:0.0}%魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Atk.Source*=(float)(1+s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，单伤,基础</t>
-  </si>
-  <si>
-    <t>未完成，单伤,负状</t>
-  </si>
-  <si>
-    <t>未完成，单状,基础</t>
-  </si>
-  <si>
-    <t>未完成，地形</t>
-  </si>
-  <si>
-    <t>未完成，地形,基础</t>
-  </si>
-  <si>
-    <t>未完成，单治</t>
-  </si>
-  <si>
-    <t>未完成，单负</t>
-  </si>
-  <si>
-    <t>未完成，群伤</t>
-  </si>
-  <si>
-    <t>未完成，手牌</t>
-  </si>
-  <si>
-    <t>未完成，正状，基础</t>
-  </si>
-  <si>
-    <t>未完成，负状</t>
-  </si>
-  <si>
-    <t>未完成，单伤</t>
-  </si>
-  <si>
-    <t>未完成，陷阱</t>
-  </si>
-  <si>
-    <t>未完成，</t>
-  </si>
-  <si>
-    <t>未完成，正状</t>
-  </si>
-  <si>
-    <t>未完成，属性</t>
-  </si>
-  <si>
-    <t>未完成，单伤，负状</t>
-  </si>
-  <si>
-    <t>未完成，群治</t>
-  </si>
-  <si>
-    <t>未完成，群伤，负状</t>
-  </si>
-  <si>
-    <t>未完成，群伤,基础</t>
-  </si>
-  <si>
-    <t>未完成，卡牌</t>
-  </si>
-  <si>
-    <t>未完成，过牌</t>
-  </si>
-  <si>
-    <t>未完成，属性,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，过牌,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaEffect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rocket</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,7);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000013,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000011,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000003,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000017,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,8);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一张使用的怪物卡消耗为0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddSpike(57000006);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.SetTile(1,mouse,10,5);if(MathTool.GetRandom(100)&lt;s.Rate) m.SetTile(3,mouse,10,5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.SetTile(1,mouse,10,6);if(MathTool.GetRandom(100)&lt;s.Rate) m.SetTile(3,mouse,10,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(4,mouse,15,5);else m.SetTile(4,mouse,10,5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(4,mouse,15,6);else m.SetTile(4,mouse,10,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法飞弹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Missile </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse).Top(3))p.AddSpellMissile(im,s,mouse,"purpleline");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对范围内3各随机敌人造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitEffect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>longly</t>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)) im.AddBuff(56000001,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8924,10 +8933,10 @@
   <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8974,7 +8983,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>478</v>
@@ -8998,7 +9007,7 @@
         <v>492</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>475</v>
@@ -9019,7 +9028,7 @@
         <v>632</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>211</v>
@@ -9084,7 +9093,7 @@
         <v>493</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>476</v>
@@ -9105,7 +9114,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -9146,7 +9155,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>480</v>
@@ -9170,28 +9179,28 @@
         <v>494</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>477</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>635</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>458</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -9292,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="28.8">
@@ -9378,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="28.8">
@@ -9464,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="36">
@@ -9528,7 +9537,7 @@
         <v>2000</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>789</v>
+        <v>872</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>631</v>
@@ -9550,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="28.8">
+    <row r="8" spans="1:28" ht="72">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9567,7 +9576,7 @@
         <v>447</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -9577,10 +9586,10 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -9598,31 +9607,31 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="P8" s="43">
         <f t="shared" si="1"/>
-        <v>-58</v>
+        <v>-3</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>6</v>
+        <v>869</v>
       </c>
       <c r="S8" s="1">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="1"/>
       <c r="X8" s="1">
         <v>4</v>
       </c>
@@ -9636,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="27" t="s">
-        <v>802</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="60">
@@ -9722,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="60">
@@ -9808,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="60">
@@ -9894,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="60">
@@ -9980,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="60">
@@ -10044,7 +10053,7 @@
         <v>500</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>579</v>
@@ -10066,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="60">
@@ -10152,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="60">
@@ -10216,7 +10225,7 @@
         <v>500</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>581</v>
@@ -10238,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="72">
@@ -10246,13 +10255,13 @@
         <v>53000014</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>863</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>866</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -10296,19 +10305,19 @@
         <v>30</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="S16" s="1">
         <v>2200</v>
       </c>
       <c r="T16" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>871</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
@@ -10324,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="28.8">
@@ -10410,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="28.8">
@@ -10474,7 +10483,7 @@
         <v>1200</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>496</v>
@@ -10496,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="28.8">
@@ -10560,7 +10569,7 @@
         <v>8000</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>497</v>
@@ -10582,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="48">
@@ -10668,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="60">
@@ -10732,7 +10741,7 @@
         <v>1800</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>642</v>
@@ -10756,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="60">
@@ -10820,7 +10829,7 @@
         <v>2100</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>643</v>
@@ -10844,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="60">
@@ -10908,7 +10917,7 @@
         <v>1875</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>644</v>
@@ -10932,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="28.8">
@@ -11018,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="28.8">
@@ -11104,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="28.8">
@@ -11190,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="48">
@@ -11276,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="28.8">
@@ -11362,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="28.8">
@@ -11446,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="28.8">
@@ -11530,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="28.8">
@@ -11616,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="28.8">
@@ -11702,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="AB32" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="28.8">
@@ -11788,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="48">
@@ -11874,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="48">
@@ -11939,7 +11948,7 @@
         <v>1220</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>655</v>
@@ -11961,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="28.8">
@@ -12045,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="28.8">
@@ -12110,7 +12119,7 @@
       </c>
       <c r="T37" s="12"/>
       <c r="U37" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>61</v>
@@ -12129,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="28.8">
@@ -12215,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="28.8">
@@ -12301,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="28.8">
@@ -12387,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="48">
@@ -12473,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="28.8">
@@ -12559,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="28.8">
@@ -12645,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="72">
@@ -12732,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="60">
@@ -12818,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="60">
@@ -12882,7 +12891,7 @@
         <v>2200</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>517</v>
@@ -12906,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="48">
@@ -12992,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="72">
@@ -13056,7 +13065,7 @@
         <v>2200</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>518</v>
@@ -13080,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="84">
@@ -13166,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="48">
@@ -13252,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="48">
@@ -13338,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="48">
@@ -13424,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="60">
@@ -13488,7 +13497,7 @@
         <v>1670</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U53" s="7" t="s">
         <v>595</v>
@@ -13510,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="27" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="28.8">
@@ -13596,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="48">
@@ -13682,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="36">
@@ -13768,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="28.8">
@@ -13832,7 +13841,7 @@
         <v>1800</v>
       </c>
       <c r="T57" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="U57" s="7" t="s">
         <v>507</v>
@@ -13854,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="36">
@@ -13940,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="48">
@@ -14026,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="60">
@@ -14112,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="28.8">
@@ -14176,7 +14185,7 @@
         <v>3000</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>508</v>
@@ -14198,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="28.8">
@@ -14284,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="28.8">
@@ -14370,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="48">
@@ -14456,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="28.8">
@@ -14542,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="28.8">
@@ -14628,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="27" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="72">
@@ -14692,7 +14701,7 @@
         <v>1200</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="U67" s="7" t="s">
         <v>663</v>
@@ -14716,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="27" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="28.8">
@@ -14780,7 +14789,7 @@
         <v>2000</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U68" s="7" t="s">
         <v>509</v>
@@ -14802,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="28.8">
@@ -14886,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="84">
@@ -14950,7 +14959,7 @@
         <v>2000</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="U70" s="7" t="s">
         <v>471</v>
@@ -14974,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="60">
@@ -15038,7 +15047,7 @@
         <v>4000</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>625</v>
@@ -15060,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="48">
@@ -15124,7 +15133,7 @@
         <v>1900</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="U72" s="7" t="s">
         <v>510</v>
@@ -15146,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="36">
@@ -15232,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="132">
@@ -15296,7 +15305,7 @@
         <v>3600</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U74" s="7" t="s">
         <v>511</v>
@@ -15318,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="72">
@@ -15382,7 +15391,7 @@
         <v>2200</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>664</v>
@@ -15406,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="48">
@@ -15470,7 +15479,7 @@
         <v>1200</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>512</v>
@@ -15492,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="28.8">
@@ -15550,16 +15559,16 @@
         <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="S77" s="1">
         <v>1000</v>
       </c>
       <c r="T77" s="45" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="U77" s="7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>102</v>
@@ -15578,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="48">
@@ -15642,7 +15651,7 @@
         <v>2400</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="U78" s="7" t="s">
         <v>691</v>
@@ -15666,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="72">
@@ -15730,7 +15739,7 @@
         <v>2000</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="U79" s="7" t="s">
         <v>513</v>
@@ -15754,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="60">
@@ -15818,7 +15827,7 @@
         <v>1800</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>519</v>
@@ -15842,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="28.8">
@@ -15906,7 +15915,7 @@
         <v>2400</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>693</v>
@@ -15928,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="AB81" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="28.8">
@@ -15992,7 +16001,7 @@
         <v>1200</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="U82" s="7" t="s">
         <v>692</v>
@@ -16014,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="28.8">
@@ -16078,7 +16087,7 @@
         <v>800</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="U83" s="7" t="s">
         <v>554</v>
@@ -16100,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="84">
@@ -16164,7 +16173,7 @@
         <v>2000</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>520</v>
@@ -16188,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="AB84" s="27" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="28.8">
@@ -16272,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="AB85" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="60">
@@ -16336,7 +16345,7 @@
         <v>1500</v>
       </c>
       <c r="T86" s="12" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="U86" s="7" t="s">
         <v>643</v>
@@ -16360,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="60">
@@ -16424,7 +16433,7 @@
         <v>1750</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>521</v>
@@ -16448,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="27" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="60">
@@ -16512,13 +16521,13 @@
         <v>1800</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>517</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>140</v>
@@ -16536,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="AB88" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="60">
@@ -16600,7 +16609,7 @@
         <v>1650</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>666</v>
@@ -16624,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="AB89" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="36">
@@ -16710,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="AB90" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="60">
@@ -16774,7 +16783,7 @@
         <v>1500</v>
       </c>
       <c r="T91" s="12" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="U91" s="7" t="s">
         <v>523</v>
@@ -16798,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="48">
@@ -16884,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="AB92" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="36">
@@ -16970,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="AB93" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="60">
@@ -17034,7 +17043,7 @@
         <v>1600</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="U94" s="7" t="s">
         <v>556</v>
@@ -17058,7 +17067,7 @@
         <v>0</v>
       </c>
       <c r="AB94" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="28.8">
@@ -17144,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="AB95" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="72">
@@ -17208,7 +17217,7 @@
         <v>900</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="U96" s="7" t="s">
         <v>514</v>
@@ -17232,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="36">
@@ -17318,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="AB97" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="36">
@@ -17404,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="AB98" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="28.8">
@@ -17490,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="27" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="48">
@@ -17576,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="AB100" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="28.8">
@@ -17662,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="AB101" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="72">
@@ -17726,7 +17735,7 @@
         <v>1300</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="U102" s="7" t="s">
         <v>694</v>
@@ -17750,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="AB102" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="28.8">
@@ -17834,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="AB103" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="60">
@@ -17920,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="AB104" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="28.8">
@@ -18006,7 +18015,7 @@
         <v>0</v>
       </c>
       <c r="AB105" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="28.8">
@@ -18092,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="AB106" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="144">
@@ -18156,7 +18165,7 @@
         <v>1700</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U107" s="7" t="s">
         <v>515</v>
@@ -18178,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="AB107" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="28.8">
@@ -18264,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="AB108" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="48">
@@ -18350,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="AB109" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="60">
@@ -18436,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="AB110" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="28.8">
@@ -18522,7 +18531,7 @@
         <v>0</v>
       </c>
       <c r="AB111" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="28.8">
@@ -18608,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="AB112" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="28.8">
@@ -18694,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="AB113" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="36">
@@ -18780,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="AB114" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="60">
@@ -18866,7 +18875,7 @@
         <v>0</v>
       </c>
       <c r="AB115" s="27" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116" spans="1:28" ht="60">
@@ -18952,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="AB116" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="60">
@@ -19038,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="AB117" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="60">
@@ -19124,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="AB118" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="60">
@@ -19210,7 +19219,7 @@
         <v>0</v>
       </c>
       <c r="AB119" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="60">
@@ -19274,7 +19283,7 @@
         <v>500</v>
       </c>
       <c r="T120" s="12" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="U120" s="7" t="s">
         <v>587</v>
@@ -19296,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="AB120" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="60">
@@ -19382,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="AB121" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="60">
@@ -19446,7 +19455,7 @@
         <v>500</v>
       </c>
       <c r="T122" s="12" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="U122" s="7" t="s">
         <v>589</v>
@@ -19468,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="AB122" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="84">
@@ -19532,7 +19541,7 @@
         <v>2200</v>
       </c>
       <c r="T123" s="12" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="U123" s="7" t="s">
         <v>709</v>
@@ -19556,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="AB123" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="60">
@@ -19620,7 +19629,7 @@
         <v>3000</v>
       </c>
       <c r="T124" s="12" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="U124" s="7" t="s">
         <v>557</v>
@@ -19644,7 +19653,7 @@
         <v>1</v>
       </c>
       <c r="AB124" s="27" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="36">
@@ -19730,7 +19739,7 @@
         <v>1</v>
       </c>
       <c r="AB125" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -19929,7 +19938,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>478</v>
@@ -19953,7 +19962,7 @@
         <v>492</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>475</v>
@@ -19974,7 +19983,7 @@
         <v>632</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>211</v>
@@ -20039,7 +20048,7 @@
         <v>479</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>476</v>
@@ -20060,7 +20069,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -20101,7 +20110,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>480</v>
@@ -20125,7 +20134,7 @@
         <v>494</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>477</v>
@@ -20146,7 +20155,7 @@
         <v>482</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -20621,7 +20630,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>615</v>
@@ -20815,7 +20824,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>478</v>
@@ -20839,7 +20848,7 @@
         <v>492</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>475</v>
@@ -20860,7 +20869,7 @@
         <v>632</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>211</v>
@@ -20925,7 +20934,7 @@
         <v>479</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>476</v>
@@ -20946,7 +20955,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -20987,7 +20996,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>480</v>
@@ -21011,7 +21020,7 @@
         <v>494</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>477</v>
@@ -21032,7 +21041,7 @@
         <v>482</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -21111,7 +21120,7 @@
         <v>2300</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>620</v>
@@ -21283,7 +21292,7 @@
         <v>2300</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U6" s="34" t="s">
         <v>718</v>
@@ -21453,7 +21462,7 @@
         <v>1800</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>642</v>
@@ -21541,7 +21550,7 @@
         <v>8000</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>497</v>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -4348,509 +4348,6 @@
   <dxfs count="147">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5469,6 +4966,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5592,6 +5103,99 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6215,6 +5819,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6349,6 +5966,194 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6972,6 +6777,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7106,6 +6924,188 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7283,11 +7283,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="432773040"/>
-        <c:axId val="432773600"/>
+        <c:axId val="47494032"/>
+        <c:axId val="47499632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432773040"/>
+        <c:axId val="47494032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7330,7 +7330,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432773600"/>
+        <c:crossAx val="47499632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7338,7 +7338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432773600"/>
+        <c:axId val="47499632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7389,7 +7389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432773040"/>
+        <c:crossAx val="47494032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8017,129 +8017,129 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AA125" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" tableBorderDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AA125" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122" tableBorderDxfId="121">
   <autoFilter ref="A3:AA125"/>
   <sortState ref="A4:Y128">
     <sortCondition ref="A3:A128"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="143"/>
-    <tableColumn id="2" name="Name" dataDxfId="142"/>
-    <tableColumn id="20" name="Ename" dataDxfId="141"/>
-    <tableColumn id="21" name="Remark" dataDxfId="60"/>
-    <tableColumn id="3" name="Star" dataDxfId="140"/>
-    <tableColumn id="4" name="Type" dataDxfId="139"/>
-    <tableColumn id="5" name="Attr" dataDxfId="138"/>
-    <tableColumn id="8" name="Quality" dataDxfId="137">
+    <tableColumn id="1" name="Id" dataDxfId="120"/>
+    <tableColumn id="2" name="Name" dataDxfId="119"/>
+    <tableColumn id="20" name="Ename" dataDxfId="118"/>
+    <tableColumn id="21" name="Remark" dataDxfId="117"/>
+    <tableColumn id="3" name="Star" dataDxfId="116"/>
+    <tableColumn id="4" name="Type" dataDxfId="115"/>
+    <tableColumn id="5" name="Attr" dataDxfId="114"/>
+    <tableColumn id="8" name="Quality" dataDxfId="113">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="136"/>
-    <tableColumn id="9" name="Damage" dataDxfId="135"/>
-    <tableColumn id="10" name="Cure" dataDxfId="134"/>
-    <tableColumn id="11" name="Time" dataDxfId="133"/>
-    <tableColumn id="13" name="Help" dataDxfId="132"/>
-    <tableColumn id="16" name="Rate" dataDxfId="131"/>
-    <tableColumn id="12" name="Modify" dataDxfId="130"/>
-    <tableColumn id="27" name="Sum" dataDxfId="129">
+    <tableColumn id="7" name="Cost" dataDxfId="112"/>
+    <tableColumn id="9" name="Damage" dataDxfId="111"/>
+    <tableColumn id="10" name="Cure" dataDxfId="110"/>
+    <tableColumn id="11" name="Time" dataDxfId="109"/>
+    <tableColumn id="13" name="Help" dataDxfId="108"/>
+    <tableColumn id="16" name="Rate" dataDxfId="107"/>
+    <tableColumn id="12" name="Modify" dataDxfId="106"/>
+    <tableColumn id="27" name="Sum" dataDxfId="105">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="128"/>
-    <tableColumn id="15" name="Target" dataDxfId="127"/>
-    <tableColumn id="25" name="Mark" dataDxfId="126"/>
-    <tableColumn id="22" name="Effect" dataDxfId="125"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="124"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="123"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="122"/>
-    <tableColumn id="18" name="Res" dataDxfId="121"/>
-    <tableColumn id="19" name="Icon" dataDxfId="120"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="119"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="118"/>
+    <tableColumn id="6" name="Range" dataDxfId="104"/>
+    <tableColumn id="15" name="Target" dataDxfId="103"/>
+    <tableColumn id="25" name="Mark" dataDxfId="102"/>
+    <tableColumn id="22" name="Effect" dataDxfId="101"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="100"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="99"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="98"/>
+    <tableColumn id="18" name="Res" dataDxfId="97"/>
+    <tableColumn id="19" name="Icon" dataDxfId="96"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="95"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="A3:AA9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="114"/>
-    <tableColumn id="2" name="Name" dataDxfId="113"/>
-    <tableColumn id="20" name="Ename" dataDxfId="112"/>
-    <tableColumn id="21" name="Remark" dataDxfId="59"/>
-    <tableColumn id="3" name="Star" dataDxfId="111"/>
-    <tableColumn id="4" name="Type" dataDxfId="110"/>
-    <tableColumn id="5" name="Attr" dataDxfId="109"/>
-    <tableColumn id="8" name="Quality" dataDxfId="108">
+    <tableColumn id="1" name="Id" dataDxfId="67"/>
+    <tableColumn id="2" name="Name" dataDxfId="66"/>
+    <tableColumn id="20" name="Ename" dataDxfId="65"/>
+    <tableColumn id="21" name="Remark" dataDxfId="64"/>
+    <tableColumn id="3" name="Star" dataDxfId="63"/>
+    <tableColumn id="4" name="Type" dataDxfId="62"/>
+    <tableColumn id="5" name="Attr" dataDxfId="61"/>
+    <tableColumn id="8" name="Quality" dataDxfId="60">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="107"/>
-    <tableColumn id="9" name="Damage" dataDxfId="106"/>
-    <tableColumn id="10" name="Cure" dataDxfId="105"/>
-    <tableColumn id="11" name="Time" dataDxfId="104"/>
-    <tableColumn id="13" name="Help" dataDxfId="103"/>
-    <tableColumn id="16" name="Rate" dataDxfId="102"/>
-    <tableColumn id="12" name="Modify" dataDxfId="101"/>
-    <tableColumn id="27" name="Sum" dataDxfId="100">
+    <tableColumn id="7" name="Cost" dataDxfId="59"/>
+    <tableColumn id="9" name="Damage" dataDxfId="58"/>
+    <tableColumn id="10" name="Cure" dataDxfId="57"/>
+    <tableColumn id="11" name="Time" dataDxfId="56"/>
+    <tableColumn id="13" name="Help" dataDxfId="55"/>
+    <tableColumn id="16" name="Rate" dataDxfId="54"/>
+    <tableColumn id="12" name="Modify" dataDxfId="53"/>
+    <tableColumn id="27" name="Sum" dataDxfId="52">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="99"/>
-    <tableColumn id="15" name="Target" dataDxfId="98"/>
-    <tableColumn id="25" name="Mark" dataDxfId="97"/>
-    <tableColumn id="22" name="Effect" dataDxfId="96"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="95"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="94"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="93"/>
-    <tableColumn id="18" name="Res" dataDxfId="92"/>
-    <tableColumn id="19" name="Icon" dataDxfId="91"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="90"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="89"/>
+    <tableColumn id="6" name="Range" dataDxfId="51"/>
+    <tableColumn id="15" name="Target" dataDxfId="50"/>
+    <tableColumn id="25" name="Mark" dataDxfId="49"/>
+    <tableColumn id="22" name="Effect" dataDxfId="48"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="47"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="46"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="45"/>
+    <tableColumn id="18" name="Res" dataDxfId="44"/>
+    <tableColumn id="19" name="Icon" dataDxfId="43"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="42"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="88" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A3:AA9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="86"/>
-    <tableColumn id="2" name="Name" dataDxfId="85"/>
-    <tableColumn id="20" name="Ename" dataDxfId="84"/>
-    <tableColumn id="21" name="Remark" dataDxfId="58"/>
-    <tableColumn id="3" name="Star" dataDxfId="83"/>
-    <tableColumn id="4" name="Type" dataDxfId="82"/>
-    <tableColumn id="5" name="Attr" dataDxfId="81"/>
-    <tableColumn id="8" name="Quality" dataDxfId="80">
+    <tableColumn id="1" name="Id" dataDxfId="26"/>
+    <tableColumn id="2" name="Name" dataDxfId="25"/>
+    <tableColumn id="20" name="Ename" dataDxfId="24"/>
+    <tableColumn id="21" name="Remark" dataDxfId="23"/>
+    <tableColumn id="3" name="Star" dataDxfId="22"/>
+    <tableColumn id="4" name="Type" dataDxfId="21"/>
+    <tableColumn id="5" name="Attr" dataDxfId="20"/>
+    <tableColumn id="8" name="Quality" dataDxfId="19">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="79"/>
-    <tableColumn id="9" name="Damage" dataDxfId="78"/>
-    <tableColumn id="10" name="Cure" dataDxfId="77"/>
-    <tableColumn id="11" name="Time" dataDxfId="76"/>
-    <tableColumn id="13" name="Help" dataDxfId="75"/>
-    <tableColumn id="16" name="Rate" dataDxfId="74"/>
-    <tableColumn id="12" name="Modify" dataDxfId="73"/>
-    <tableColumn id="27" name="Sum" dataDxfId="72">
+    <tableColumn id="7" name="Cost" dataDxfId="18"/>
+    <tableColumn id="9" name="Damage" dataDxfId="17"/>
+    <tableColumn id="10" name="Cure" dataDxfId="16"/>
+    <tableColumn id="11" name="Time" dataDxfId="15"/>
+    <tableColumn id="13" name="Help" dataDxfId="14"/>
+    <tableColumn id="16" name="Rate" dataDxfId="13"/>
+    <tableColumn id="12" name="Modify" dataDxfId="12"/>
+    <tableColumn id="27" name="Sum" dataDxfId="11">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="71"/>
-    <tableColumn id="15" name="Target" dataDxfId="70"/>
-    <tableColumn id="25" name="Mark" dataDxfId="69"/>
-    <tableColumn id="22" name="Effect" dataDxfId="68"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="67"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="66"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="65"/>
-    <tableColumn id="18" name="Res" dataDxfId="64"/>
-    <tableColumn id="19" name="Icon" dataDxfId="63"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="62"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="61"/>
+    <tableColumn id="6" name="Range" dataDxfId="10"/>
+    <tableColumn id="15" name="Target" dataDxfId="9"/>
+    <tableColumn id="25" name="Mark" dataDxfId="8"/>
+    <tableColumn id="22" name="Effect" dataDxfId="7"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="6"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="5"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="4"/>
+    <tableColumn id="18" name="Res" dataDxfId="3"/>
+    <tableColumn id="19" name="Icon" dataDxfId="2"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8434,11 +8434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB1" sqref="AB1:AB1048576"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18874,81 +18874,81 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I70:I114 I38:I68 I120:I124 I4:I15 I17:I35">
-    <cfRule type="cellIs" dxfId="57" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="146" priority="54" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125 J38:P68 J4:O4 J70:P123 J5:P15 J17:P35">
-    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="55" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="144" priority="51" operator="notEqual">
       <formula>$E124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I119">
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="49" operator="notEqual">
       <formula>$E115</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="53" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="142" priority="48" operator="notEqual">
       <formula>$E125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125">
-    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="139" priority="18" operator="notEqual">
       <formula>$E69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:P69">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="16" operator="notEqual">
       <formula>$E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:P36">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="135" priority="14" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15 H17:H125">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="12" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18965,26 +18965,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="notEqual">
       <formula>$E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:P16">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19766,105 +19766,105 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="90" priority="33" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="88" priority="31" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="29" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="27" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="82" priority="25" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="23" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19881,7 +19881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -20660,50 +20660,50 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="748">
   <si>
     <t>慈悲</t>
   </si>
@@ -3349,6 +3349,18 @@
   </si>
   <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)) im.AddBuff(56000001,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{4:0.0}%几率策反目标敌方怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单负</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Rebel();</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7283,11 +7295,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="47494032"/>
-        <c:axId val="47499632"/>
+        <c:axId val="895218240"/>
+        <c:axId val="895212800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47494032"/>
+        <c:axId val="895218240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7330,7 +7342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47499632"/>
+        <c:crossAx val="895212800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7338,7 +7350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47499632"/>
+        <c:axId val="895212800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7389,7 +7401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47494032"/>
+        <c:crossAx val="895218240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8435,29 +8447,29 @@
   <dimension ref="A1:AA125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="24.33203125" customWidth="1"/>
-    <col min="22" max="23" width="7.88671875" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="24.375" customWidth="1"/>
+    <col min="22" max="23" width="7.875" customWidth="1"/>
     <col min="24" max="27" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8710,7 +8722,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="48">
+    <row r="4" spans="1:27" ht="36">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -9125,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60">
+    <row r="9" spans="1:27" ht="48">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9208,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="60">
+    <row r="10" spans="1:27" ht="48">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9291,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="60">
+    <row r="11" spans="1:27" ht="48">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9374,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="60">
+    <row r="12" spans="1:27" ht="48">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9457,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="60">
+    <row r="13" spans="1:27" ht="48">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -9540,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="60">
+    <row r="14" spans="1:27" ht="48">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -9623,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="60">
+    <row r="15" spans="1:27" ht="48">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -9955,18 +9967,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="24">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>53000017</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>675</v>
+        <v>746</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -9979,7 +9991,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
@@ -9997,14 +10009,14 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="42">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -10013,13 +10025,13 @@
         <v>6</v>
       </c>
       <c r="S19" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>653</v>
+        <v>747</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>378</v>
+        <v>745</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>24</v>
@@ -11285,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="48">
+    <row r="35" spans="1:27" ht="36">
       <c r="A35">
         <v>53000036</v>
       </c>
@@ -12029,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="72">
+    <row r="44" spans="1:27" ht="60">
       <c r="A44">
         <v>53000045</v>
       </c>
@@ -12113,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="60">
+    <row r="45" spans="1:27" ht="48">
       <c r="A45">
         <v>53000046</v>
       </c>
@@ -12364,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="72">
+    <row r="48" spans="1:27" ht="60">
       <c r="A48">
         <v>53000049</v>
       </c>
@@ -12449,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="84">
+    <row r="49" spans="1:27" ht="72">
       <c r="A49">
         <v>53000050</v>
       </c>
@@ -12781,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="60">
+    <row r="53" spans="1:27" ht="48">
       <c r="A53">
         <v>53000054</v>
       </c>
@@ -12947,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="48">
+    <row r="55" spans="1:27" ht="36">
       <c r="A55">
         <v>53000056</v>
       </c>
@@ -13030,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="36">
+    <row r="56" spans="1:27" ht="24">
       <c r="A56">
         <v>53000057</v>
       </c>
@@ -13196,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="36">
+    <row r="58" spans="1:27" ht="24">
       <c r="A58">
         <v>53000059</v>
       </c>
@@ -13279,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="48">
+    <row r="59" spans="1:27" ht="36">
       <c r="A59">
         <v>53000060</v>
       </c>
@@ -13362,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="60">
+    <row r="60" spans="1:27" ht="48">
       <c r="A60">
         <v>53000061</v>
       </c>
@@ -13943,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="72">
+    <row r="67" spans="1:27" ht="60">
       <c r="A67">
         <v>53000068</v>
       </c>
@@ -14192,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="84">
+    <row r="70" spans="1:27" ht="72">
       <c r="A70">
         <v>53000071</v>
       </c>
@@ -14277,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="60">
+    <row r="71" spans="1:27" ht="48">
       <c r="A71">
         <v>53000072</v>
       </c>
@@ -14526,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="132">
+    <row r="74" spans="1:27" ht="108">
       <c r="A74">
         <v>53000075</v>
       </c>
@@ -14609,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="72">
+    <row r="75" spans="1:27" ht="60">
       <c r="A75">
         <v>53000076</v>
       </c>
@@ -14945,7 +14957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="72">
+    <row r="79" spans="1:27" ht="60">
       <c r="A79">
         <v>53000080</v>
       </c>
@@ -15364,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="84">
+    <row r="84" spans="1:27" ht="60">
       <c r="A84">
         <v>53000085</v>
       </c>
@@ -16204,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="60">
+    <row r="94" spans="1:27" ht="48">
       <c r="A94">
         <v>53000095</v>
       </c>
@@ -16372,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="72">
+    <row r="96" spans="1:27" ht="60">
       <c r="A96">
         <v>53000097</v>
       </c>
@@ -16457,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="36">
+    <row r="97" spans="1:27" ht="24">
       <c r="A97">
         <v>53000098</v>
       </c>
@@ -16540,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="36">
+    <row r="98" spans="1:27" ht="24">
       <c r="A98">
         <v>53000099</v>
       </c>
@@ -16872,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="72">
+    <row r="102" spans="1:27" ht="60">
       <c r="A102">
         <v>53000103</v>
       </c>
@@ -17038,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="60">
+    <row r="104" spans="1:27" ht="36">
       <c r="A104">
         <v>53000105</v>
       </c>
@@ -17287,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="144">
+    <row r="107" spans="1:27" ht="120">
       <c r="A107">
         <v>53000108</v>
       </c>
@@ -17453,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="48">
+    <row r="109" spans="1:27" ht="36">
       <c r="A109">
         <v>53000110</v>
       </c>
@@ -17536,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="60">
+    <row r="110" spans="1:27" ht="48">
       <c r="A110">
         <v>53000111</v>
       </c>
@@ -17951,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="60">
+    <row r="115" spans="1:27" ht="36">
       <c r="A115">
         <v>53000116</v>
       </c>
@@ -18034,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="60">
+    <row r="116" spans="1:27" ht="48">
       <c r="A116">
         <v>53000117</v>
       </c>
@@ -18117,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="60">
+    <row r="117" spans="1:27" ht="48">
       <c r="A117">
         <v>53000118</v>
       </c>
@@ -18200,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="60">
+    <row r="118" spans="1:27" ht="48">
       <c r="A118">
         <v>53000119</v>
       </c>
@@ -18283,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="60">
+    <row r="119" spans="1:27" ht="48">
       <c r="A119">
         <v>53000120</v>
       </c>
@@ -18366,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="60">
+    <row r="120" spans="1:27" ht="48">
       <c r="A120">
         <v>53000121</v>
       </c>
@@ -18449,7 +18461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="60">
+    <row r="121" spans="1:27" ht="48">
       <c r="A121">
         <v>53000122</v>
       </c>
@@ -18532,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="60">
+    <row r="122" spans="1:27" ht="48">
       <c r="A122">
         <v>53000125</v>
       </c>
@@ -18615,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="84">
+    <row r="123" spans="1:27" ht="72">
       <c r="A123">
         <v>53000126</v>
       </c>
@@ -18700,7 +18712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="60">
+    <row r="124" spans="1:27" ht="48">
       <c r="A124">
         <v>53000127</v>
       </c>
@@ -19020,23 +19032,23 @@
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="23" width="7.88671875" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.125" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="27.25" customWidth="1"/>
+    <col min="22" max="23" width="7.875" customWidth="1"/>
     <col min="24" max="27" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19447,7 +19459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="36">
+    <row r="6" spans="1:27" ht="24">
       <c r="A6">
         <v>53100002</v>
       </c>
@@ -19888,23 +19900,23 @@
       <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="23" width="7.88671875" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="27.25" customWidth="1"/>
+    <col min="22" max="23" width="7.875" customWidth="1"/>
     <col min="24" max="24" width="4" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
     <col min="26" max="27" width="4" customWidth="1"/>
@@ -20325,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="43.2">
+    <row r="6" spans="1:27" ht="40.5">
       <c r="A6">
         <v>53200102</v>
       </c>
@@ -20724,7 +20736,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -20773,7 +20785,7 @@
         <v>2.3345235059857505</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="31" t="s">
         <v>518</v>
       </c>
@@ -20850,7 +20862,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -2426,10 +2426,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.Transform(13002);t.MaxHp=(int)(t.MaxHp*(100-s.Help)/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌方单体造成{0}点魔法伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3361,6 +3357,10 @@
   </si>
   <si>
     <t>t.Rebel();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Transform(13002);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7295,11 +7295,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="895218240"/>
-        <c:axId val="895212800"/>
+        <c:axId val="1984871936"/>
+        <c:axId val="1984877920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="895218240"/>
+        <c:axId val="1984871936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7342,7 +7342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895212800"/>
+        <c:crossAx val="1984877920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7350,7 +7350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="895212800"/>
+        <c:axId val="1984877920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7401,7 +7401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895218240"/>
+        <c:crossAx val="1984871936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8447,10 +8447,10 @@
   <dimension ref="A1:AA125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="T125" sqref="T125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8484,7 +8484,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -8496,7 +8496,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -8520,7 +8520,7 @@
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -8529,7 +8529,7 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>417</v>
@@ -8538,10 +8538,10 @@
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>211</v>
@@ -8603,7 +8603,7 @@
         <v>374</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -8612,10 +8612,10 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>197</v>
@@ -8624,7 +8624,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -8650,7 +8650,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -8662,7 +8662,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -8686,28 +8686,28 @@
         <v>375</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -8733,7 +8733,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8783,7 +8783,7 @@
         <v>1704</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U4" s="32" t="s">
         <v>450</v>
@@ -8816,7 +8816,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -8866,7 +8866,7 @@
         <v>1550</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>416</v>
@@ -8899,7 +8899,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -8949,10 +8949,10 @@
         <v>2000</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>7</v>
@@ -8982,7 +8982,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -9032,10 +9032,10 @@
         <v>2000</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>9</v>
@@ -9065,7 +9065,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -9109,13 +9109,13 @@
         <v>12</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S8" s="1">
         <v>1600</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>415</v>
@@ -9148,7 +9148,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S9" s="1">
         <v>500</v>
@@ -9231,7 +9231,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S10" s="1">
         <v>500</v>
@@ -9314,7 +9314,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S11" s="1">
         <v>500</v>
@@ -9397,7 +9397,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S12" s="1">
         <v>500</v>
@@ -9480,7 +9480,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -9524,13 +9524,13 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S13" s="1">
         <v>500</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>460</v>
@@ -9563,7 +9563,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S14" s="1">
         <v>500</v>
@@ -9646,7 +9646,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -9690,13 +9690,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S15" s="1">
         <v>500</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>462</v>
@@ -9723,13 +9723,13 @@
         <v>53000014</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>732</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>733</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -9773,19 +9773,19 @@
         <v>30</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="S16" s="1">
         <v>2200</v>
       </c>
       <c r="T16" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="U16" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="U16" s="7" t="s">
-        <v>737</v>
-      </c>
       <c r="V16" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
@@ -9812,7 +9812,7 @@
         <v>244</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -9862,7 +9862,7 @@
         <v>1500</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>376</v>
@@ -9895,7 +9895,7 @@
         <v>245</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -9945,7 +9945,7 @@
         <v>1200</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>377</v>
@@ -9978,7 +9978,7 @@
         <v>246</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -10028,10 +10028,10 @@
         <v>2000</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>24</v>
@@ -10061,7 +10061,7 @@
         <v>247</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -10114,7 +10114,7 @@
         <v>422</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>26</v>
@@ -10144,7 +10144,7 @@
         <v>248</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -10194,10 +10194,10 @@
         <v>1800</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>28</v>
@@ -10229,7 +10229,7 @@
         <v>249</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -10279,10 +10279,10 @@
         <v>2100</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>28</v>
@@ -10314,7 +10314,7 @@
         <v>250</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -10364,10 +10364,10 @@
         <v>1875</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>31</v>
@@ -10399,7 +10399,7 @@
         <v>251</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -10449,10 +10449,10 @@
         <v>1500</v>
       </c>
       <c r="T24" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="U24" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>34</v>
@@ -10482,7 +10482,7 @@
         <v>252</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -10532,10 +10532,10 @@
         <v>2400</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>2</v>
@@ -10565,7 +10565,7 @@
         <v>253</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -10615,10 +10615,10 @@
         <v>1900</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>34</v>
@@ -10648,7 +10648,7 @@
         <v>254</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -10731,7 +10731,7 @@
         <v>255</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -10814,7 +10814,7 @@
         <v>256</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="T29" s="11"/>
       <c r="U29" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>44</v>
@@ -10895,7 +10895,7 @@
         <v>257</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="T30" s="11"/>
       <c r="U30" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>46</v>
@@ -10976,7 +10976,7 @@
         <v>258</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -11053,13 +11053,13 @@
         <v>53000030</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="D32" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -11109,10 +11109,10 @@
         <v>1500</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>4</v>
@@ -11136,13 +11136,13 @@
         <v>53000031</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -11192,10 +11192,10 @@
         <v>1500</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11225,7 +11225,7 @@
         <v>259</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -11275,7 +11275,7 @@
         <v>2000</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>382</v>
@@ -11308,7 +11308,7 @@
         <v>260</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -11359,10 +11359,10 @@
         <v>1220</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>57</v>
@@ -11392,7 +11392,7 @@
         <v>261</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -11473,7 +11473,7 @@
         <v>262</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -11524,7 +11524,7 @@
       </c>
       <c r="T37" s="11"/>
       <c r="U37" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>61</v>
@@ -11548,13 +11548,13 @@
         <v>53000039</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="D38" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -11604,10 +11604,10 @@
         <v>1700</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>4</v>
@@ -11631,13 +11631,13 @@
         <v>53000040</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -11687,10 +11687,10 @@
         <v>2000</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -11720,7 +11720,7 @@
         <v>264</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -11773,7 +11773,7 @@
         <v>446</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>63</v>
@@ -11803,7 +11803,7 @@
         <v>265</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -11853,7 +11853,7 @@
         <v>2000</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>383</v>
@@ -11886,7 +11886,7 @@
         <v>266</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>2000</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>441</v>
@@ -11963,13 +11963,13 @@
         <v>53000044</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E43" s="1">
         <v>4</v>
@@ -12019,10 +12019,10 @@
         <v>1900</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>4</v>
@@ -12052,7 +12052,7 @@
         <v>268</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -12103,10 +12103,10 @@
         <v>1220</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>364</v>
@@ -12136,7 +12136,7 @@
         <v>269</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
@@ -12186,7 +12186,7 @@
         <v>2000</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U45" s="7" t="s">
         <v>397</v>
@@ -12219,7 +12219,7 @@
         <v>270</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -12269,7 +12269,7 @@
         <v>2200</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>398</v>
@@ -12304,7 +12304,7 @@
         <v>271</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -12354,7 +12354,7 @@
         <v>2000</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>384</v>
@@ -12387,7 +12387,7 @@
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -12437,7 +12437,7 @@
         <v>2200</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>399</v>
@@ -12472,7 +12472,7 @@
         <v>273</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -12516,16 +12516,16 @@
         <v>0</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S49" s="1">
         <v>1800</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>76</v>
@@ -12555,7 +12555,7 @@
         <v>274</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -12605,7 +12605,7 @@
         <v>2000</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>385</v>
@@ -12638,7 +12638,7 @@
         <v>275</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -12688,7 +12688,7 @@
         <v>2000</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>386</v>
@@ -12721,7 +12721,7 @@
         <v>276</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -12771,7 +12771,7 @@
         <v>2000</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>387</v>
@@ -12804,7 +12804,7 @@
         <v>217</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -12854,7 +12854,7 @@
         <v>1670</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U53" s="7" t="s">
         <v>476</v>
@@ -12887,7 +12887,7 @@
         <v>277</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -12937,10 +12937,10 @@
         <v>3000</v>
       </c>
       <c r="T54" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>2</v>
@@ -12970,7 +12970,7 @@
         <v>278</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -13020,7 +13020,7 @@
         <v>750</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>431</v>
@@ -13053,7 +13053,7 @@
         <v>336</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -13097,16 +13097,16 @@
         <v>3</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S56" s="38">
         <v>1500</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>2</v>
@@ -13136,7 +13136,7 @@
         <v>279</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -13186,7 +13186,7 @@
         <v>1800</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U57" s="7" t="s">
         <v>388</v>
@@ -13219,7 +13219,7 @@
         <v>280</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -13269,7 +13269,7 @@
         <v>560</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>448</v>
@@ -13302,7 +13302,7 @@
         <v>281</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -13352,10 +13352,10 @@
         <v>520</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>92</v>
@@ -13385,7 +13385,7 @@
         <v>282</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -13435,7 +13435,7 @@
         <v>3000</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U60" s="7" t="s">
         <v>439</v>
@@ -13468,7 +13468,7 @@
         <v>283</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -13518,7 +13518,7 @@
         <v>3000</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>389</v>
@@ -13551,7 +13551,7 @@
         <v>284</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -13601,7 +13601,7 @@
         <v>1500</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>440</v>
@@ -13634,7 +13634,7 @@
         <v>285</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -13684,10 +13684,10 @@
         <v>1500</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>101</v>
@@ -13717,7 +13717,7 @@
         <v>219</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
@@ -13767,10 +13767,10 @@
         <v>5000</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>102</v>
@@ -13800,7 +13800,7 @@
         <v>286</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -13850,10 +13850,10 @@
         <v>1700</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>4</v>
@@ -13883,7 +13883,7 @@
         <v>287</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -13933,10 +13933,10 @@
         <v>1800</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>104</v>
@@ -13966,7 +13966,7 @@
         <v>288</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -14016,10 +14016,10 @@
         <v>1200</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>106</v>
@@ -14051,7 +14051,7 @@
         <v>222</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
@@ -14101,7 +14101,7 @@
         <v>2000</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U68" s="7" t="s">
         <v>390</v>
@@ -14134,7 +14134,7 @@
         <v>224</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -14215,7 +14215,7 @@
         <v>221</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
@@ -14265,7 +14265,7 @@
         <v>2000</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U70" s="7" t="s">
         <v>352</v>
@@ -14300,7 +14300,7 @@
         <v>289</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -14350,7 +14350,7 @@
         <v>4000</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>505</v>
@@ -14383,7 +14383,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
@@ -14433,7 +14433,7 @@
         <v>1900</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U72" s="7" t="s">
         <v>391</v>
@@ -14466,7 +14466,7 @@
         <v>335</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
@@ -14549,7 +14549,7 @@
         <v>291</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -14599,7 +14599,7 @@
         <v>3600</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="U74" s="7" t="s">
         <v>392</v>
@@ -14632,7 +14632,7 @@
         <v>292</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E75" s="1">
         <v>3</v>
@@ -14682,10 +14682,10 @@
         <v>2200</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>122</v>
@@ -14717,7 +14717,7 @@
         <v>293</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E76" s="1">
         <v>4</v>
@@ -14767,7 +14767,7 @@
         <v>1200</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>393</v>
@@ -14800,7 +14800,7 @@
         <v>294</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -14844,16 +14844,16 @@
         <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="S77" s="1">
         <v>1000</v>
       </c>
       <c r="T77" s="44" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U77" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>102</v>
@@ -14883,7 +14883,7 @@
         <v>295</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E78" s="1">
         <v>4</v>
@@ -14933,10 +14933,10 @@
         <v>2400</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>126</v>
@@ -14968,7 +14968,7 @@
         <v>296</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
@@ -15018,7 +15018,7 @@
         <v>2000</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U79" s="7" t="s">
         <v>394</v>
@@ -15053,7 +15053,7 @@
         <v>297</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -15103,7 +15103,7 @@
         <v>1800</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>400</v>
@@ -15138,7 +15138,7 @@
         <v>298</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -15188,10 +15188,10 @@
         <v>2400</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U81" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>131</v>
@@ -15215,13 +15215,13 @@
         <v>53000083</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E82" s="1">
         <v>2</v>
@@ -15271,13 +15271,13 @@
         <v>1200</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="W82" s="1"/>
       <c r="X82" s="1">
@@ -15304,7 +15304,7 @@
         <v>223</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -15354,13 +15354,13 @@
         <v>800</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U83" s="7" t="s">
         <v>435</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1">
@@ -15387,7 +15387,7 @@
         <v>225</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -15437,7 +15437,7 @@
         <v>2000</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>401</v>
@@ -15472,7 +15472,7 @@
         <v>226</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="T85" s="11"/>
       <c r="U85" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>2</v>
@@ -15553,7 +15553,7 @@
         <v>227</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
@@ -15603,10 +15603,10 @@
         <v>1500</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U86" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>65</v>
@@ -15638,7 +15638,7 @@
         <v>300</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -15688,7 +15688,7 @@
         <v>1750</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>402</v>
@@ -15723,7 +15723,7 @@
         <v>301</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E88" s="1">
         <v>4</v>
@@ -15773,13 +15773,13 @@
         <v>1800</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>398</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>140</v>
@@ -15808,7 +15808,7 @@
         <v>302</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -15858,10 +15858,10 @@
         <v>1650</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U89" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V89" s="1" t="s">
         <v>26</v>
@@ -15893,7 +15893,7 @@
         <v>303</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E90" s="1">
         <v>2</v>
@@ -15976,7 +15976,7 @@
         <v>304</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
@@ -16026,7 +16026,7 @@
         <v>1500</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U91" s="7" t="s">
         <v>404</v>
@@ -16061,7 +16061,7 @@
         <v>305</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -16144,7 +16144,7 @@
         <v>306</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E93" s="1">
         <v>2</v>
@@ -16194,7 +16194,7 @@
         <v>500</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>506</v>
@@ -16227,7 +16227,7 @@
         <v>307</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -16277,7 +16277,7 @@
         <v>1600</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U94" s="7" t="s">
         <v>437</v>
@@ -16312,7 +16312,7 @@
         <v>308</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -16395,7 +16395,7 @@
         <v>309</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
@@ -16445,7 +16445,7 @@
         <v>900</v>
       </c>
       <c r="T96" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U96" s="7" t="s">
         <v>395</v>
@@ -16480,7 +16480,7 @@
         <v>310</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
@@ -16563,7 +16563,7 @@
         <v>311</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E98" s="1">
         <v>2</v>
@@ -16646,7 +16646,7 @@
         <v>312</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -16729,7 +16729,7 @@
         <v>229</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -16779,7 +16779,7 @@
         <v>1500</v>
       </c>
       <c r="T100" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U100" s="7" t="s">
         <v>447</v>
@@ -16812,7 +16812,7 @@
         <v>313</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -16895,7 +16895,7 @@
         <v>314</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -16945,10 +16945,10 @@
         <v>1300</v>
       </c>
       <c r="T102" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U102" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V102" s="1" t="s">
         <v>160</v>
@@ -16980,7 +16980,7 @@
         <v>315</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E103" s="1">
         <v>2</v>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="T103" s="11"/>
       <c r="U103" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>162</v>
@@ -17061,7 +17061,7 @@
         <v>230</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -17111,7 +17111,7 @@
         <v>500</v>
       </c>
       <c r="T104" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>432</v>
@@ -17144,7 +17144,7 @@
         <v>316</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -17194,10 +17194,10 @@
         <v>1800</v>
       </c>
       <c r="T105" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U105" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V105" s="1" t="s">
         <v>166</v>
@@ -17227,7 +17227,7 @@
         <v>317</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>1800</v>
       </c>
       <c r="T106" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U106" s="7" t="s">
         <v>429</v>
@@ -17310,7 +17310,7 @@
         <v>318</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E107" s="1">
         <v>2</v>
@@ -17360,7 +17360,7 @@
         <v>1700</v>
       </c>
       <c r="T107" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="U107" s="7" t="s">
         <v>396</v>
@@ -17393,7 +17393,7 @@
         <v>319</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
@@ -17476,7 +17476,7 @@
         <v>320</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E109" s="1">
         <v>4</v>
@@ -17526,7 +17526,7 @@
         <v>2100</v>
       </c>
       <c r="T109" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U109" s="7" t="s">
         <v>478</v>
@@ -17559,7 +17559,7 @@
         <v>321</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -17609,7 +17609,7 @@
         <v>1600</v>
       </c>
       <c r="T110" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U110" s="7" t="s">
         <v>410</v>
@@ -17642,7 +17642,7 @@
         <v>322</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
@@ -17725,7 +17725,7 @@
         <v>323</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E112" s="1">
         <v>2</v>
@@ -17775,10 +17775,10 @@
         <v>1400</v>
       </c>
       <c r="T112" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U112" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V112" s="1" t="s">
         <v>179</v>
@@ -17808,7 +17808,7 @@
         <v>324</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
@@ -17891,7 +17891,7 @@
         <v>325</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -17974,7 +17974,7 @@
         <v>326</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -18057,7 +18057,7 @@
         <v>327</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -18140,7 +18140,7 @@
         <v>328</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -18223,7 +18223,7 @@
         <v>329</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -18306,7 +18306,7 @@
         <v>330</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -18389,7 +18389,7 @@
         <v>331</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
@@ -18439,7 +18439,7 @@
         <v>500</v>
       </c>
       <c r="T120" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U120" s="7" t="s">
         <v>468</v>
@@ -18472,7 +18472,7 @@
         <v>231</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -18555,7 +18555,7 @@
         <v>332</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -18605,7 +18605,7 @@
         <v>500</v>
       </c>
       <c r="T122" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U122" s="7" t="s">
         <v>470</v>
@@ -18638,7 +18638,7 @@
         <v>333</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
@@ -18688,16 +18688,16 @@
         <v>2200</v>
       </c>
       <c r="T123" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U123" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="X123" s="1">
         <v>4</v>
@@ -18723,7 +18723,7 @@
         <v>334</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E124" s="1">
         <v>5</v>
@@ -18773,7 +18773,7 @@
         <v>3000</v>
       </c>
       <c r="T124" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U124" s="7" t="s">
         <v>438</v>
@@ -18797,7 +18797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="36">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>53000129</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>493</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E125" s="15">
         <v>3</v>
@@ -18858,7 +18858,7 @@
         <v>1800</v>
       </c>
       <c r="T125" s="11" t="s">
-        <v>509</v>
+        <v>747</v>
       </c>
       <c r="U125" s="7" t="s">
         <v>504</v>
@@ -19063,7 +19063,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -19075,7 +19075,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -19099,7 +19099,7 @@
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -19108,7 +19108,7 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>417</v>
@@ -19117,10 +19117,10 @@
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>211</v>
@@ -19182,7 +19182,7 @@
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -19203,7 +19203,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -19229,7 +19229,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -19241,7 +19241,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -19265,7 +19265,7 @@
         <v>375</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -19274,7 +19274,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -19286,7 +19286,7 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -19595,7 +19595,7 @@
         <v>-1</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>502</v>
@@ -19753,7 +19753,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>495</v>
@@ -19933,7 +19933,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -19945,7 +19945,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -19969,7 +19969,7 @@
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -19978,7 +19978,7 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>417</v>
@@ -19987,10 +19987,10 @@
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>211</v>
@@ -20052,7 +20052,7 @@
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -20073,7 +20073,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -20099,7 +20099,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -20111,7 +20111,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -20135,7 +20135,7 @@
         <v>375</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -20144,7 +20144,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -20156,7 +20156,7 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -20176,13 +20176,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>600</v>
-      </c>
       <c r="D4" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E4" s="15">
         <v>3</v>
@@ -20232,7 +20232,7 @@
         <v>2300</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>500</v>
@@ -20259,13 +20259,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E5" s="15">
         <v>3</v>
@@ -20315,10 +20315,10 @@
         <v>1800</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>49</v>
@@ -20342,13 +20342,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="D6" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E6" s="15">
         <v>3</v>
@@ -20398,10 +20398,10 @@
         <v>2300</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>51</v>
@@ -20425,13 +20425,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E7" s="15">
         <v>3</v>
@@ -20482,7 +20482,7 @@
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>50</v>
@@ -20506,13 +20506,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>607</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>608</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -20562,16 +20562,16 @@
         <v>1800</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="X8" s="1">
         <v>4</v>
@@ -20591,13 +20591,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="26" t="s">
         <v>610</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>611</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
@@ -20647,7 +20647,7 @@
         <v>8000</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>378</v>
@@ -20740,7 +20740,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -20762,7 +20762,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B4">
         <f>SQRT((B3 + 19) / 20)</f>
@@ -20787,7 +20787,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B5">
         <f>SQRT((B4 + 19) / 20)</f>
@@ -20812,7 +20812,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B6">
         <f>SQRT((B3 + 20) / 30)</f>
@@ -20837,15 +20837,15 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" t="s">
         <v>527</v>
-      </c>
-      <c r="B10" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -20866,12 +20866,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!D:D,"*单伤*")</f>
@@ -20880,7 +20880,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!D:D,"*群伤*")</f>
@@ -20889,7 +20889,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!D:D,"*单治*")</f>
@@ -20898,7 +20898,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!D:D,"*群治*")</f>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!D:D,"*正状*")</f>
@@ -20916,7 +20916,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!D:D,"*负状*")</f>
@@ -20925,7 +20925,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!D:D,"*手牌*")</f>
@@ -20934,7 +20934,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!D:D,"*过牌*")</f>
@@ -20943,7 +20943,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!D:D,"*陷阱*")</f>
@@ -20952,7 +20952,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!D:D,"*地形*")</f>
@@ -20961,7 +20961,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!D:D,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="741">
   <si>
     <t>慈悲</t>
   </si>
@@ -1914,10 +1914,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(s.Damage,8);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌我全体风系单位造成{0}点魔法伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2022,10 +2018,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(s.Damage,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>回复我方单体{1}点生命并提升20%生命上限</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2034,10 +2026,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌方单体造成{0}点魔法伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2078,10 +2066,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(s.Damage,3);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(10,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{4:0.0}%几率直接杀死敌方星级低于6的单位</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2090,18 +2074,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(s.Damage,7);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>holy1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(s.Damage,5);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(9,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>永久降低敌方单体{3:0.0}%防御</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2119,10 +2095,6 @@
   </si>
   <si>
     <t>减少双方召唤师{3:0.0}点怒气和魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,5);p.AddCard(s.Id, s.Level);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2837,36 +2809,9 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(2))im.OnMagicDamage(s.Damage,1);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,6);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,3);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,5);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,4);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,2);</t>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetAllMonster(mouse))if(im.Owner.IsLeft==p.IsLeft)im.AddHp(s.Cure);</t>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,7);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,2);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,7);</t>
-  </si>
-  <si>
     <t>p.AddTrap(54000005,lv,s.Rate,0);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2888,10 +2833,6 @@
   </si>
   <si>
     <t>p.AddTrap(54000001,lv,s.Rate,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,4);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2929,10 +2870,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.OnMagicDamage(s.Damage,6);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.AddBuff(56000017,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3078,86 +3015,58 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,7);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000013,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000011,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000003,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000017,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,7);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000013,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000011,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000003,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000017,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,8);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3214,14 +3123,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,0);t.AddBuff(56000007,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)) im.AddBuff(56000001,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3351,6 +3252,90 @@
   </si>
   <si>
     <t>地形,基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);t.AddBuff(56000007,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(10,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(9,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(2))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7285,11 +7270,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="242757360"/>
-        <c:axId val="242757920"/>
+        <c:axId val="490435040"/>
+        <c:axId val="490436720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242757360"/>
+        <c:axId val="490435040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7332,7 +7317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242757920"/>
+        <c:crossAx val="490436720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7340,7 +7325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242757920"/>
+        <c:axId val="490436720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7391,7 +7376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242757360"/>
+        <c:crossAx val="490435040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8437,10 +8422,10 @@
   <dimension ref="A1:AA125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8474,7 +8459,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -8486,7 +8471,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -8501,16 +8486,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -8519,19 +8504,19 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>211</v>
@@ -8540,10 +8525,10 @@
         <v>212</v>
       </c>
       <c r="Z1" s="24" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -8569,7 +8554,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -8581,19 +8566,19 @@
         <v>369</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>374</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -8602,10 +8587,10 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>197</v>
@@ -8614,7 +8599,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -8623,7 +8608,7 @@
         <v>197</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AA2" s="30" t="s">
         <v>360</v>
@@ -8640,7 +8625,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -8652,7 +8637,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -8667,37 +8652,37 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -8706,10 +8691,10 @@
         <v>205</v>
       </c>
       <c r="Z3" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="48">
@@ -8723,7 +8708,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8773,10 +8758,10 @@
         <v>1704</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>2</v>
@@ -8806,7 +8791,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -8856,10 +8841,10 @@
         <v>1550</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>4</v>
@@ -8889,7 +8874,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -8939,10 +8924,10 @@
         <v>2000</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>564</v>
+        <v>720</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>7</v>
@@ -8972,7 +8957,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -9022,10 +9007,10 @@
         <v>2000</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>9</v>
@@ -9055,7 +9040,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -9099,16 +9084,16 @@
         <v>12</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="S8" s="1">
         <v>1600</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
@@ -9138,7 +9123,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -9188,10 +9173,10 @@
         <v>1800</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>2</v>
@@ -9221,7 +9206,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -9271,10 +9256,10 @@
         <v>1800</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
@@ -9304,7 +9289,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -9354,10 +9339,10 @@
         <v>1800</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>2</v>
@@ -9387,7 +9372,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -9437,10 +9422,10 @@
         <v>1800</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>2</v>
@@ -9470,7 +9455,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -9520,10 +9505,10 @@
         <v>1800</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>2</v>
@@ -9553,7 +9538,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -9603,10 +9588,10 @@
         <v>1800</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>2</v>
@@ -9636,7 +9621,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -9686,10 +9671,10 @@
         <v>1800</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>2</v>
@@ -9713,13 +9698,13 @@
         <v>53000014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -9763,19 +9748,19 @@
         <v>30</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="S16" s="1">
         <v>2200</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
@@ -9802,7 +9787,7 @@
         <v>244</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -9852,7 +9837,7 @@
         <v>1500</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>376</v>
@@ -9885,7 +9870,7 @@
         <v>245</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -9935,7 +9920,7 @@
         <v>1200</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>377</v>
@@ -9968,7 +9953,7 @@
         <v>246</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -10018,10 +10003,10 @@
         <v>2000</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>24</v>
@@ -10040,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="48">
+    <row r="20" spans="1:27" ht="60">
       <c r="A20">
         <v>53000018</v>
       </c>
@@ -10051,7 +10036,7 @@
         <v>247</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -10101,10 +10086,10 @@
         <v>2040</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>422</v>
+        <v>722</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>26</v>
@@ -10123,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="60">
+    <row r="21" spans="1:27" ht="72">
       <c r="A21">
         <v>53000019</v>
       </c>
@@ -10134,7 +10119,7 @@
         <v>248</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -10184,10 +10169,10 @@
         <v>1800</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>28</v>
@@ -10219,7 +10204,7 @@
         <v>249</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -10269,10 +10254,10 @@
         <v>2100</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>28</v>
@@ -10304,7 +10289,7 @@
         <v>250</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -10354,10 +10339,10 @@
         <v>1875</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>31</v>
@@ -10389,7 +10374,7 @@
         <v>251</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -10439,10 +10424,10 @@
         <v>1500</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>34</v>
@@ -10472,7 +10457,7 @@
         <v>252</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -10522,10 +10507,10 @@
         <v>2400</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>2</v>
@@ -10555,7 +10540,7 @@
         <v>253</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -10605,10 +10590,10 @@
         <v>1900</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>34</v>
@@ -10627,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="48">
+    <row r="27" spans="1:27" ht="60">
       <c r="A27">
         <v>53000025</v>
       </c>
@@ -10638,7 +10623,7 @@
         <v>254</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -10688,10 +10673,10 @@
         <v>2400</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>427</v>
+        <v>724</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>38</v>
@@ -10721,7 +10706,7 @@
         <v>255</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -10804,7 +10789,7 @@
         <v>256</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -10855,7 +10840,7 @@
       </c>
       <c r="T29" s="11"/>
       <c r="U29" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>44</v>
@@ -10885,7 +10870,7 @@
         <v>257</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -10936,7 +10921,7 @@
       </c>
       <c r="T30" s="11"/>
       <c r="U30" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>46</v>
@@ -10966,7 +10951,7 @@
         <v>258</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -11016,10 +11001,10 @@
         <v>2000</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>381</v>
+        <v>720</v>
       </c>
       <c r="U31" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>48</v>
@@ -11043,13 +11028,13 @@
         <v>53000030</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -11099,10 +11084,10 @@
         <v>1500</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>4</v>
@@ -11126,13 +11111,13 @@
         <v>53000031</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -11182,10 +11167,10 @@
         <v>1500</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11204,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="48">
+    <row r="34" spans="1:27" ht="60">
       <c r="A34">
         <v>53000035</v>
       </c>
@@ -11215,7 +11200,7 @@
         <v>259</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -11265,10 +11250,10 @@
         <v>2000</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>609</v>
+        <v>725</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>54</v>
@@ -11298,7 +11283,7 @@
         <v>260</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -11349,10 +11334,10 @@
         <v>1220</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>57</v>
@@ -11382,7 +11367,7 @@
         <v>261</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -11433,7 +11418,7 @@
       </c>
       <c r="T36" s="11"/>
       <c r="U36" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>59</v>
@@ -11463,7 +11448,7 @@
         <v>262</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -11514,7 +11499,7 @@
       </c>
       <c r="T37" s="11"/>
       <c r="U37" s="7" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>61</v>
@@ -11538,13 +11523,13 @@
         <v>53000039</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -11594,10 +11579,10 @@
         <v>1700</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>4</v>
@@ -11621,13 +11606,13 @@
         <v>53000040</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -11677,10 +11662,10 @@
         <v>2000</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -11710,7 +11695,7 @@
         <v>264</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -11760,10 +11745,10 @@
         <v>2400</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>63</v>
@@ -11782,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="48">
+    <row r="41" spans="1:27" ht="60">
       <c r="A41">
         <v>53000042</v>
       </c>
@@ -11793,7 +11778,7 @@
         <v>265</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -11843,10 +11828,10 @@
         <v>2000</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>610</v>
+        <v>726</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>65</v>
@@ -11876,7 +11861,7 @@
         <v>266</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -11926,10 +11911,10 @@
         <v>2000</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>4</v>
@@ -11953,13 +11938,13 @@
         <v>53000044</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E43" s="1">
         <v>4</v>
@@ -12009,10 +11994,10 @@
         <v>1900</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>4</v>
@@ -12042,7 +12027,7 @@
         <v>268</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -12093,10 +12078,10 @@
         <v>1220</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>364</v>
@@ -12126,7 +12111,7 @@
         <v>269</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
@@ -12176,10 +12161,10 @@
         <v>2000</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>617</v>
+        <v>727</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>69</v>
@@ -12198,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="60">
+    <row r="46" spans="1:27" ht="72">
       <c r="A46">
         <v>53000047</v>
       </c>
@@ -12209,7 +12194,7 @@
         <v>270</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -12259,10 +12244,10 @@
         <v>2200</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>71</v>
@@ -12283,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="48">
+    <row r="47" spans="1:27" ht="60">
       <c r="A47">
         <v>53000048</v>
       </c>
@@ -12294,7 +12279,7 @@
         <v>271</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -12344,10 +12329,10 @@
         <v>2000</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>611</v>
+        <v>728</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>26</v>
@@ -12377,7 +12362,7 @@
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -12427,10 +12412,10 @@
         <v>2200</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>679</v>
+        <v>729</v>
       </c>
       <c r="U48" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>74</v>
@@ -12462,7 +12447,7 @@
         <v>273</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -12506,16 +12491,16 @@
         <v>0</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="S49" s="1">
         <v>1800</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>625</v>
+        <v>730</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>76</v>
@@ -12534,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="48">
+    <row r="50" spans="1:27" ht="60">
       <c r="A50">
         <v>53000051</v>
       </c>
@@ -12545,7 +12530,7 @@
         <v>274</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -12595,10 +12580,10 @@
         <v>2000</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>612</v>
+        <v>731</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>78</v>
@@ -12617,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="48">
+    <row r="51" spans="1:27" ht="60">
       <c r="A51">
         <v>53000052</v>
       </c>
@@ -12628,7 +12613,7 @@
         <v>275</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -12678,10 +12663,10 @@
         <v>2000</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>613</v>
+        <v>732</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>80</v>
@@ -12700,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="48">
+    <row r="52" spans="1:27" ht="60">
       <c r="A52">
         <v>53000053</v>
       </c>
@@ -12711,7 +12696,7 @@
         <v>276</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -12761,10 +12746,10 @@
         <v>2000</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>614</v>
+        <v>733</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>82</v>
@@ -12794,7 +12779,7 @@
         <v>217</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -12844,10 +12829,10 @@
         <v>1670</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>634</v>
+        <v>734</v>
       </c>
       <c r="U53" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>84</v>
@@ -12877,7 +12862,7 @@
         <v>277</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -12927,10 +12912,10 @@
         <v>3000</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>2</v>
@@ -12960,7 +12945,7 @@
         <v>278</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -13010,10 +12995,10 @@
         <v>750</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>87</v>
@@ -13043,7 +13028,7 @@
         <v>336</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -13087,16 +13072,16 @@
         <v>3</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="S56" s="38">
         <v>1500</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>2</v>
@@ -13126,7 +13111,7 @@
         <v>279</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -13176,10 +13161,10 @@
         <v>1800</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>90</v>
@@ -13209,7 +13194,7 @@
         <v>280</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -13259,10 +13244,10 @@
         <v>560</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="U58" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>92</v>
@@ -13292,7 +13277,7 @@
         <v>281</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -13342,10 +13327,10 @@
         <v>520</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>92</v>
@@ -13375,7 +13360,7 @@
         <v>282</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -13425,10 +13410,10 @@
         <v>3000</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="U60" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>20</v>
@@ -13458,7 +13443,7 @@
         <v>283</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -13508,10 +13493,10 @@
         <v>3000</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>97</v>
@@ -13541,7 +13526,7 @@
         <v>284</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -13591,10 +13576,10 @@
         <v>1500</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="U62" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>99</v>
@@ -13624,7 +13609,7 @@
         <v>285</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -13674,10 +13659,10 @@
         <v>1500</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>101</v>
@@ -13696,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="48">
+    <row r="64" spans="1:27" ht="60">
       <c r="A64">
         <v>53000065</v>
       </c>
@@ -13707,7 +13692,7 @@
         <v>219</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
@@ -13757,10 +13742,10 @@
         <v>5000</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>618</v>
+        <v>735</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>102</v>
@@ -13790,7 +13775,7 @@
         <v>286</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -13840,10 +13825,10 @@
         <v>1700</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>4</v>
@@ -13873,7 +13858,7 @@
         <v>287</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -13923,10 +13908,10 @@
         <v>1800</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>104</v>
@@ -13956,7 +13941,7 @@
         <v>288</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -14006,10 +13991,10 @@
         <v>1200</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>106</v>
@@ -14041,7 +14026,7 @@
         <v>222</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
@@ -14091,10 +14076,10 @@
         <v>2000</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>108</v>
@@ -14124,7 +14109,7 @@
         <v>224</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -14175,7 +14160,7 @@
       </c>
       <c r="T69" s="11"/>
       <c r="U69" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>110</v>
@@ -14205,7 +14190,7 @@
         <v>221</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
@@ -14255,7 +14240,7 @@
         <v>2000</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="U70" s="7" t="s">
         <v>352</v>
@@ -14290,7 +14275,7 @@
         <v>289</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -14340,10 +14325,10 @@
         <v>4000</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="V71" s="1" t="s">
         <v>114</v>
@@ -14373,7 +14358,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
@@ -14423,10 +14408,10 @@
         <v>1900</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="U72" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>116</v>
@@ -14456,7 +14441,7 @@
         <v>335</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
@@ -14506,10 +14491,10 @@
         <v>2100</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>118</v>
@@ -14539,7 +14524,7 @@
         <v>291</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -14589,10 +14574,10 @@
         <v>3600</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>120</v>
@@ -14622,7 +14607,7 @@
         <v>292</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E75" s="1">
         <v>3</v>
@@ -14672,10 +14657,10 @@
         <v>2200</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>122</v>
@@ -14707,7 +14692,7 @@
         <v>293</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E76" s="1">
         <v>4</v>
@@ -14757,10 +14742,10 @@
         <v>1200</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="U76" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>9</v>
@@ -14790,7 +14775,7 @@
         <v>294</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -14834,16 +14819,16 @@
         <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="S77" s="1">
         <v>1000</v>
       </c>
       <c r="T77" s="44" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="U77" s="7" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>102</v>
@@ -14873,7 +14858,7 @@
         <v>295</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E78" s="1">
         <v>4</v>
@@ -14923,10 +14908,10 @@
         <v>2400</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>126</v>
@@ -14958,7 +14943,7 @@
         <v>296</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
@@ -15008,10 +14993,10 @@
         <v>2000</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>90</v>
@@ -15032,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="60">
+    <row r="80" spans="1:27" ht="72">
       <c r="A80">
         <v>53000081</v>
       </c>
@@ -15043,7 +15028,7 @@
         <v>297</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -15093,10 +15078,10 @@
         <v>1800</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
       <c r="U80" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>57</v>
@@ -15128,7 +15113,7 @@
         <v>298</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -15178,10 +15163,10 @@
         <v>2400</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="U81" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>131</v>
@@ -15205,13 +15190,13 @@
         <v>53000083</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E82" s="1">
         <v>2</v>
@@ -15261,13 +15246,13 @@
         <v>1200</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="W82" s="1"/>
       <c r="X82" s="1">
@@ -15294,7 +15279,7 @@
         <v>223</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -15344,13 +15329,13 @@
         <v>800</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1">
@@ -15377,7 +15362,7 @@
         <v>225</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -15427,10 +15412,10 @@
         <v>2000</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="U84" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>132</v>
@@ -15462,7 +15447,7 @@
         <v>226</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -15513,7 +15498,7 @@
       </c>
       <c r="T85" s="11"/>
       <c r="U85" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>2</v>
@@ -15532,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="60">
+    <row r="86" spans="1:27" ht="72">
       <c r="A86">
         <v>53000087</v>
       </c>
@@ -15543,7 +15528,7 @@
         <v>227</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
@@ -15593,10 +15578,10 @@
         <v>1500</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>686</v>
+        <v>723</v>
       </c>
       <c r="U86" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>65</v>
@@ -15617,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="60">
+    <row r="87" spans="1:27" ht="72">
       <c r="A87">
         <v>53000088</v>
       </c>
@@ -15628,7 +15613,7 @@
         <v>300</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -15678,10 +15663,10 @@
         <v>1750</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>686</v>
+        <v>723</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>138</v>
@@ -15713,7 +15698,7 @@
         <v>301</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E88" s="1">
         <v>4</v>
@@ -15763,13 +15748,13 @@
         <v>1800</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="U88" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>140</v>
@@ -15787,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="60">
+    <row r="89" spans="1:27" ht="72">
       <c r="A89">
         <v>53000090</v>
       </c>
@@ -15798,7 +15783,7 @@
         <v>302</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -15848,10 +15833,10 @@
         <v>1650</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="U89" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="V89" s="1" t="s">
         <v>26</v>
@@ -15883,7 +15868,7 @@
         <v>303</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E90" s="1">
         <v>2</v>
@@ -15933,10 +15918,10 @@
         <v>2000</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>433</v>
+        <v>736</v>
       </c>
       <c r="U90" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>143</v>
@@ -15955,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="60">
+    <row r="91" spans="1:27" ht="72">
       <c r="A91">
         <v>53000092</v>
       </c>
@@ -15966,7 +15951,7 @@
         <v>304</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
@@ -16016,10 +16001,10 @@
         <v>1500</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="U91" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V91" s="1" t="s">
         <v>31</v>
@@ -16040,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="48">
+    <row r="92" spans="1:27" ht="60">
       <c r="A92">
         <v>53000093</v>
       </c>
@@ -16051,7 +16036,7 @@
         <v>305</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -16101,10 +16086,10 @@
         <v>2500</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>425</v>
+        <v>737</v>
       </c>
       <c r="U92" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V92" s="1" t="s">
         <v>145</v>
@@ -16134,7 +16119,7 @@
         <v>306</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E93" s="1">
         <v>2</v>
@@ -16184,10 +16169,10 @@
         <v>500</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>148</v>
@@ -16217,7 +16202,7 @@
         <v>307</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -16267,10 +16252,10 @@
         <v>1600</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="U94" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>150</v>
@@ -16302,7 +16287,7 @@
         <v>308</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -16352,10 +16337,10 @@
         <v>1000</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="V95" s="1" t="s">
         <v>34</v>
@@ -16385,7 +16370,7 @@
         <v>309</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
@@ -16435,10 +16420,10 @@
         <v>900</v>
       </c>
       <c r="T96" s="11" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="U96" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>90</v>
@@ -16470,7 +16455,7 @@
         <v>310</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
@@ -16520,10 +16505,10 @@
         <v>2200</v>
       </c>
       <c r="T97" s="11" t="s">
-        <v>411</v>
+        <v>738</v>
       </c>
       <c r="U97" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V97" s="1" t="s">
         <v>65</v>
@@ -16553,7 +16538,7 @@
         <v>311</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E98" s="1">
         <v>2</v>
@@ -16603,10 +16588,10 @@
         <v>1900</v>
       </c>
       <c r="T98" s="11" t="s">
-        <v>411</v>
+        <v>738</v>
       </c>
       <c r="U98" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V98" s="1" t="s">
         <v>106</v>
@@ -16636,7 +16621,7 @@
         <v>312</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -16686,10 +16671,10 @@
         <v>1600</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="V99" s="1" t="s">
         <v>156</v>
@@ -16719,7 +16704,7 @@
         <v>229</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -16769,10 +16754,10 @@
         <v>1500</v>
       </c>
       <c r="T100" s="11" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="U100" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="V100" s="1" t="s">
         <v>132</v>
@@ -16802,7 +16787,7 @@
         <v>313</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -16852,10 +16837,10 @@
         <v>2000</v>
       </c>
       <c r="T101" s="11" t="s">
-        <v>408</v>
+        <v>720</v>
       </c>
       <c r="U101" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V101" s="1" t="s">
         <v>82</v>
@@ -16885,7 +16870,7 @@
         <v>314</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -16935,10 +16920,10 @@
         <v>1300</v>
       </c>
       <c r="T102" s="11" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="U102" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="V102" s="1" t="s">
         <v>160</v>
@@ -16970,7 +16955,7 @@
         <v>315</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E103" s="1">
         <v>2</v>
@@ -17021,7 +17006,7 @@
       </c>
       <c r="T103" s="11"/>
       <c r="U103" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>162</v>
@@ -17051,7 +17036,7 @@
         <v>230</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -17101,10 +17086,10 @@
         <v>500</v>
       </c>
       <c r="T104" s="11" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="V104" s="1" t="s">
         <v>164</v>
@@ -17134,7 +17119,7 @@
         <v>316</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -17184,10 +17169,10 @@
         <v>1800</v>
       </c>
       <c r="T105" s="11" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="U105" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="V105" s="1" t="s">
         <v>166</v>
@@ -17217,7 +17202,7 @@
         <v>317</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -17267,10 +17252,10 @@
         <v>1800</v>
       </c>
       <c r="T106" s="11" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="U106" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="V106" s="1" t="s">
         <v>168</v>
@@ -17300,7 +17285,7 @@
         <v>318</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E107" s="1">
         <v>2</v>
@@ -17350,10 +17335,10 @@
         <v>1700</v>
       </c>
       <c r="T107" s="11" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="U107" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V107" s="1" t="s">
         <v>170</v>
@@ -17383,7 +17368,7 @@
         <v>319</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
@@ -17433,10 +17418,10 @@
         <v>1800</v>
       </c>
       <c r="T108" s="11" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="U108" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="V108" s="1" t="s">
         <v>172</v>
@@ -17466,7 +17451,7 @@
         <v>320</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E109" s="1">
         <v>4</v>
@@ -17516,10 +17501,10 @@
         <v>2100</v>
       </c>
       <c r="T109" s="11" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="U109" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="V109" s="1" t="s">
         <v>34</v>
@@ -17549,7 +17534,7 @@
         <v>321</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -17599,10 +17584,10 @@
         <v>1600</v>
       </c>
       <c r="T110" s="11" t="s">
-        <v>616</v>
+        <v>739</v>
       </c>
       <c r="U110" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V110" s="1" t="s">
         <v>175</v>
@@ -17632,7 +17617,7 @@
         <v>322</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
@@ -17682,10 +17667,10 @@
         <v>2400</v>
       </c>
       <c r="T111" s="11" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="V111" s="1" t="s">
         <v>177</v>
@@ -17715,7 +17700,7 @@
         <v>323</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E112" s="1">
         <v>2</v>
@@ -17765,10 +17750,10 @@
         <v>1400</v>
       </c>
       <c r="T112" s="11" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="U112" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="V112" s="1" t="s">
         <v>179</v>
@@ -17798,7 +17783,7 @@
         <v>324</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
@@ -17881,7 +17866,7 @@
         <v>325</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -17964,7 +17949,7 @@
         <v>326</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -18014,10 +17999,10 @@
         <v>1300</v>
       </c>
       <c r="T115" s="11" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="U115" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="V115" s="1" t="s">
         <v>186</v>
@@ -18047,7 +18032,7 @@
         <v>327</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E116" s="1">
         <v>2</v>
@@ -18097,10 +18082,10 @@
         <v>1800</v>
       </c>
       <c r="T116" s="11" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="U116" s="7" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="V116" s="1" t="s">
         <v>2</v>
@@ -18130,7 +18115,7 @@
         <v>328</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E117" s="1">
         <v>2</v>
@@ -18180,10 +18165,10 @@
         <v>1800</v>
       </c>
       <c r="T117" s="11" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
       <c r="U117" s="7" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>2</v>
@@ -18213,7 +18198,7 @@
         <v>329</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E118" s="1">
         <v>2</v>
@@ -18263,10 +18248,10 @@
         <v>1800</v>
       </c>
       <c r="T118" s="11" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="U118" s="7" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>2</v>
@@ -18296,7 +18281,7 @@
         <v>330</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E119" s="1">
         <v>2</v>
@@ -18346,10 +18331,10 @@
         <v>1800</v>
       </c>
       <c r="T119" s="11" t="s">
-        <v>741</v>
+        <v>714</v>
       </c>
       <c r="U119" s="7" t="s">
-        <v>734</v>
+        <v>707</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>2</v>
@@ -18379,7 +18364,7 @@
         <v>331</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E120" s="1">
         <v>2</v>
@@ -18429,10 +18414,10 @@
         <v>1800</v>
       </c>
       <c r="T120" s="11" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="U120" s="7" t="s">
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="V120" s="1" t="s">
         <v>2</v>
@@ -18462,7 +18447,7 @@
         <v>231</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
@@ -18512,10 +18497,10 @@
         <v>1800</v>
       </c>
       <c r="T121" s="11" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="U121" s="7" t="s">
-        <v>736</v>
+        <v>709</v>
       </c>
       <c r="V121" s="1" t="s">
         <v>2</v>
@@ -18545,7 +18530,7 @@
         <v>332</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="E122" s="1">
         <v>2</v>
@@ -18595,10 +18580,10 @@
         <v>1800</v>
       </c>
       <c r="T122" s="11" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="U122" s="7" t="s">
-        <v>737</v>
+        <v>710</v>
       </c>
       <c r="V122" s="1" t="s">
         <v>2</v>
@@ -18617,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="84">
+    <row r="123" spans="1:27" ht="96">
       <c r="A123">
         <v>53000126</v>
       </c>
@@ -18628,7 +18613,7 @@
         <v>333</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="E123" s="1">
         <v>4</v>
@@ -18678,16 +18663,16 @@
         <v>2200</v>
       </c>
       <c r="T123" s="11" t="s">
-        <v>693</v>
+        <v>740</v>
       </c>
       <c r="U123" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="X123" s="1">
         <v>4</v>
@@ -18713,7 +18698,7 @@
         <v>334</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="E124" s="1">
         <v>5</v>
@@ -18763,10 +18748,10 @@
         <v>3000</v>
       </c>
       <c r="T124" s="11" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="U124" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="V124" s="1" t="s">
         <v>41</v>
@@ -18792,13 +18777,13 @@
         <v>53000129</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E125" s="15">
         <v>3</v>
@@ -18842,16 +18827,16 @@
         <v>0</v>
       </c>
       <c r="R125" s="15" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="S125" s="1">
         <v>1800</v>
       </c>
       <c r="T125" s="11" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="U125" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V125" s="1" t="s">
         <v>114</v>
@@ -19053,7 +19038,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -19065,7 +19050,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -19080,16 +19065,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -19098,19 +19083,19 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>211</v>
@@ -19119,10 +19104,10 @@
         <v>212</v>
       </c>
       <c r="Z1" s="24" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -19148,7 +19133,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -19160,19 +19145,19 @@
         <v>360</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -19193,7 +19178,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -19219,7 +19204,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -19231,7 +19216,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -19246,16 +19231,16 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -19264,7 +19249,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -19276,7 +19261,7 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -19285,10 +19270,10 @@
         <v>205</v>
       </c>
       <c r="Z3" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24">
@@ -19296,7 +19281,7 @@
         <v>53100000</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="37"/>
@@ -19348,13 +19333,13 @@
         <v>-1</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15">
@@ -19427,7 +19412,7 @@
         <v>-1</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>376</v>
@@ -19454,7 +19439,7 @@
         <v>53100002</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="37"/>
@@ -19506,13 +19491,13 @@
         <v>-1</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15">
@@ -19533,7 +19518,7 @@
         <v>53100003</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="37"/>
@@ -19585,10 +19570,10 @@
         <v>-1</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>2</v>
@@ -19612,7 +19597,7 @@
         <v>53100004</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="37"/>
@@ -19664,10 +19649,10 @@
         <v>-1</v>
       </c>
       <c r="T8" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>2</v>
@@ -19691,7 +19676,7 @@
         <v>53100005</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="37"/>
@@ -19743,13 +19728,13 @@
         <v>-1</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="W9" s="15"/>
       <c r="X9" s="15">
@@ -19923,7 +19908,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -19935,7 +19920,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -19950,16 +19935,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -19968,19 +19953,19 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>211</v>
@@ -19989,10 +19974,10 @@
         <v>212</v>
       </c>
       <c r="Z1" s="24" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -20018,7 +20003,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -20030,19 +20015,19 @@
         <v>360</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -20063,7 +20048,7 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>196</v>
@@ -20089,7 +20074,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -20101,7 +20086,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -20116,16 +20101,16 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -20134,7 +20119,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -20146,7 +20131,7 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>204</v>
@@ -20155,10 +20140,10 @@
         <v>205</v>
       </c>
       <c r="Z3" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="36">
@@ -20166,13 +20151,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E4" s="15">
         <v>3</v>
@@ -20222,13 +20207,13 @@
         <v>2300</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15">
@@ -20249,13 +20234,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E5" s="15">
         <v>3</v>
@@ -20305,10 +20290,10 @@
         <v>1800</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>49</v>
@@ -20332,13 +20317,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E6" s="15">
         <v>3</v>
@@ -20388,10 +20373,10 @@
         <v>2300</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>51</v>
@@ -20415,13 +20400,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E7" s="15">
         <v>3</v>
@@ -20472,7 +20457,7 @@
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="33" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>50</v>
@@ -20496,13 +20481,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -20552,16 +20537,16 @@
         <v>1800</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="X8" s="1">
         <v>4</v>
@@ -20581,13 +20566,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
@@ -20637,7 +20622,7 @@
         <v>8000</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>378</v>
@@ -20730,7 +20715,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -20752,7 +20737,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B4">
         <f>SQRT((B3 + 19) / 20)</f>
@@ -20777,7 +20762,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="31" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B5">
         <f>SQRT((B4 + 19) / 20)</f>
@@ -20802,7 +20787,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B6">
         <f>SQRT((B3 + 20) / 30)</f>
@@ -20827,15 +20812,15 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B10" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -20856,12 +20841,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!D:D,"*单伤*")</f>
@@ -20870,7 +20855,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!D:D,"*群伤*")</f>
@@ -20879,7 +20864,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!D:D,"*单治*")</f>
@@ -20888,7 +20873,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!D:D,"*群治*")</f>
@@ -20897,7 +20882,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!D:D,"*正状*")</f>
@@ -20906,7 +20891,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!D:D,"*负状*")</f>
@@ -20915,7 +20900,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!D:D,"*手牌*")</f>
@@ -20924,7 +20909,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!D:D,"*过牌*")</f>
@@ -20933,7 +20918,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!D:D,"*陷阱*")</f>
@@ -20942,7 +20927,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!D:D,"*地形*")</f>
@@ -20951,7 +20936,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!D:D,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="744">
   <si>
     <t>慈悲</t>
   </si>
@@ -3336,6 +3336,18 @@
   </si>
   <si>
     <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3608,7 +3620,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3858,6 +3870,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -4151,7 +4181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4287,6 +4317,15 @@
     <xf numFmtId="0" fontId="23" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4332,7 +4371,551 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="150">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5090,99 +5673,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5956,194 +6446,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6912,188 +7214,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7270,11 +7390,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="490435040"/>
-        <c:axId val="490436720"/>
+        <c:axId val="-278593856"/>
+        <c:axId val="-278591136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490435040"/>
+        <c:axId val="-278593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7317,7 +7437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490436720"/>
+        <c:crossAx val="-278591136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7325,7 +7445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490436720"/>
+        <c:axId val="-278591136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7376,7 +7496,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490435040"/>
+        <c:crossAx val="-278593856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8004,129 +8124,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AA125" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122" tableBorderDxfId="121">
-  <autoFilter ref="A3:AA125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148" tableBorderDxfId="147">
+  <autoFilter ref="A3:AB125"/>
   <sortState ref="A4:Y128">
     <sortCondition ref="A3:A128"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="120"/>
-    <tableColumn id="2" name="Name" dataDxfId="119"/>
-    <tableColumn id="20" name="Ename" dataDxfId="118"/>
-    <tableColumn id="21" name="Remark" dataDxfId="117"/>
-    <tableColumn id="3" name="Star" dataDxfId="116"/>
-    <tableColumn id="4" name="Type" dataDxfId="115"/>
-    <tableColumn id="5" name="Attr" dataDxfId="114"/>
-    <tableColumn id="8" name="Quality" dataDxfId="113">
+  <tableColumns count="28">
+    <tableColumn id="1" name="Id" dataDxfId="146"/>
+    <tableColumn id="2" name="Name" dataDxfId="145"/>
+    <tableColumn id="20" name="Ename" dataDxfId="144"/>
+    <tableColumn id="21" name="Remark" dataDxfId="143"/>
+    <tableColumn id="3" name="Star" dataDxfId="142"/>
+    <tableColumn id="4" name="Type" dataDxfId="141"/>
+    <tableColumn id="5" name="Attr" dataDxfId="140"/>
+    <tableColumn id="8" name="Quality" dataDxfId="139">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="112"/>
-    <tableColumn id="9" name="Damage" dataDxfId="111"/>
-    <tableColumn id="10" name="Cure" dataDxfId="110"/>
-    <tableColumn id="11" name="Time" dataDxfId="109"/>
-    <tableColumn id="13" name="Help" dataDxfId="108"/>
-    <tableColumn id="16" name="Rate" dataDxfId="107"/>
-    <tableColumn id="12" name="Modify" dataDxfId="106"/>
-    <tableColumn id="27" name="Sum" dataDxfId="105">
+    <tableColumn id="7" name="Cost" dataDxfId="138"/>
+    <tableColumn id="9" name="Damage" dataDxfId="137"/>
+    <tableColumn id="10" name="Cure" dataDxfId="136"/>
+    <tableColumn id="11" name="Time" dataDxfId="135"/>
+    <tableColumn id="13" name="Help" dataDxfId="134"/>
+    <tableColumn id="16" name="Rate" dataDxfId="133"/>
+    <tableColumn id="12" name="Modify" dataDxfId="132"/>
+    <tableColumn id="27" name="Sum" dataDxfId="131">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="104"/>
-    <tableColumn id="15" name="Target" dataDxfId="103"/>
-    <tableColumn id="25" name="Mark" dataDxfId="102"/>
-    <tableColumn id="22" name="Effect" dataDxfId="101"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="100"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="99"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="98"/>
-    <tableColumn id="18" name="Res" dataDxfId="97"/>
-    <tableColumn id="19" name="Icon" dataDxfId="96"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="95"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="94"/>
+    <tableColumn id="6" name="Range" dataDxfId="130"/>
+    <tableColumn id="15" name="Target" dataDxfId="129"/>
+    <tableColumn id="25" name="Mark" dataDxfId="128"/>
+    <tableColumn id="22" name="Effect" dataDxfId="127"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="126"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="125"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="124"/>
+    <tableColumn id="26" name="JobId" dataDxfId="60"/>
+    <tableColumn id="18" name="Res" dataDxfId="123"/>
+    <tableColumn id="19" name="Icon" dataDxfId="122"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="121"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
-  <autoFilter ref="A3:AA9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117">
+  <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="67"/>
-    <tableColumn id="2" name="Name" dataDxfId="66"/>
-    <tableColumn id="20" name="Ename" dataDxfId="65"/>
-    <tableColumn id="21" name="Remark" dataDxfId="64"/>
-    <tableColumn id="3" name="Star" dataDxfId="63"/>
-    <tableColumn id="4" name="Type" dataDxfId="62"/>
-    <tableColumn id="5" name="Attr" dataDxfId="61"/>
-    <tableColumn id="8" name="Quality" dataDxfId="60">
+  <tableColumns count="28">
+    <tableColumn id="1" name="Id" dataDxfId="116"/>
+    <tableColumn id="2" name="Name" dataDxfId="115"/>
+    <tableColumn id="20" name="Ename" dataDxfId="114"/>
+    <tableColumn id="21" name="Remark" dataDxfId="113"/>
+    <tableColumn id="3" name="Star" dataDxfId="112"/>
+    <tableColumn id="4" name="Type" dataDxfId="111"/>
+    <tableColumn id="5" name="Attr" dataDxfId="110"/>
+    <tableColumn id="8" name="Quality" dataDxfId="109">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="59"/>
-    <tableColumn id="9" name="Damage" dataDxfId="58"/>
-    <tableColumn id="10" name="Cure" dataDxfId="57"/>
-    <tableColumn id="11" name="Time" dataDxfId="56"/>
-    <tableColumn id="13" name="Help" dataDxfId="55"/>
-    <tableColumn id="16" name="Rate" dataDxfId="54"/>
-    <tableColumn id="12" name="Modify" dataDxfId="53"/>
-    <tableColumn id="27" name="Sum" dataDxfId="52">
+    <tableColumn id="7" name="Cost" dataDxfId="108"/>
+    <tableColumn id="9" name="Damage" dataDxfId="107"/>
+    <tableColumn id="10" name="Cure" dataDxfId="106"/>
+    <tableColumn id="11" name="Time" dataDxfId="105"/>
+    <tableColumn id="13" name="Help" dataDxfId="104"/>
+    <tableColumn id="16" name="Rate" dataDxfId="103"/>
+    <tableColumn id="12" name="Modify" dataDxfId="102"/>
+    <tableColumn id="27" name="Sum" dataDxfId="101">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="51"/>
-    <tableColumn id="15" name="Target" dataDxfId="50"/>
-    <tableColumn id="25" name="Mark" dataDxfId="49"/>
-    <tableColumn id="22" name="Effect" dataDxfId="48"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="47"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="46"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="45"/>
-    <tableColumn id="18" name="Res" dataDxfId="44"/>
-    <tableColumn id="19" name="Icon" dataDxfId="43"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="42"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="41"/>
+    <tableColumn id="6" name="Range" dataDxfId="100"/>
+    <tableColumn id="15" name="Target" dataDxfId="99"/>
+    <tableColumn id="25" name="Mark" dataDxfId="98"/>
+    <tableColumn id="22" name="Effect" dataDxfId="97"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="96"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="95"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="94"/>
+    <tableColumn id="26" name="JobId" dataDxfId="59"/>
+    <tableColumn id="18" name="Res" dataDxfId="93"/>
+    <tableColumn id="19" name="Icon" dataDxfId="92"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="91"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AA9" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A3:AA9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
+  <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="1" name="Id" dataDxfId="26"/>
-    <tableColumn id="2" name="Name" dataDxfId="25"/>
-    <tableColumn id="20" name="Ename" dataDxfId="24"/>
-    <tableColumn id="21" name="Remark" dataDxfId="23"/>
-    <tableColumn id="3" name="Star" dataDxfId="22"/>
-    <tableColumn id="4" name="Type" dataDxfId="21"/>
-    <tableColumn id="5" name="Attr" dataDxfId="20"/>
-    <tableColumn id="8" name="Quality" dataDxfId="19">
+  <tableColumns count="28">
+    <tableColumn id="1" name="Id" dataDxfId="87"/>
+    <tableColumn id="2" name="Name" dataDxfId="86"/>
+    <tableColumn id="20" name="Ename" dataDxfId="85"/>
+    <tableColumn id="21" name="Remark" dataDxfId="84"/>
+    <tableColumn id="3" name="Star" dataDxfId="83"/>
+    <tableColumn id="4" name="Type" dataDxfId="82"/>
+    <tableColumn id="5" name="Attr" dataDxfId="81"/>
+    <tableColumn id="8" name="Quality" dataDxfId="80">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="18"/>
-    <tableColumn id="9" name="Damage" dataDxfId="17"/>
-    <tableColumn id="10" name="Cure" dataDxfId="16"/>
-    <tableColumn id="11" name="Time" dataDxfId="15"/>
-    <tableColumn id="13" name="Help" dataDxfId="14"/>
-    <tableColumn id="16" name="Rate" dataDxfId="13"/>
-    <tableColumn id="12" name="Modify" dataDxfId="12"/>
-    <tableColumn id="27" name="Sum" dataDxfId="11">
+    <tableColumn id="7" name="Cost" dataDxfId="79"/>
+    <tableColumn id="9" name="Damage" dataDxfId="78"/>
+    <tableColumn id="10" name="Cure" dataDxfId="77"/>
+    <tableColumn id="11" name="Time" dataDxfId="76"/>
+    <tableColumn id="13" name="Help" dataDxfId="75"/>
+    <tableColumn id="16" name="Rate" dataDxfId="74"/>
+    <tableColumn id="12" name="Modify" dataDxfId="73"/>
+    <tableColumn id="27" name="Sum" dataDxfId="72">
       <calculatedColumnFormula>(S4-2000)/20+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="10"/>
-    <tableColumn id="15" name="Target" dataDxfId="9"/>
-    <tableColumn id="25" name="Mark" dataDxfId="8"/>
-    <tableColumn id="22" name="Effect" dataDxfId="7"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="6"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="5"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="4"/>
-    <tableColumn id="18" name="Res" dataDxfId="3"/>
-    <tableColumn id="19" name="Icon" dataDxfId="2"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="1"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
+    <tableColumn id="6" name="Range" dataDxfId="71"/>
+    <tableColumn id="15" name="Target" dataDxfId="70"/>
+    <tableColumn id="25" name="Mark" dataDxfId="69"/>
+    <tableColumn id="22" name="Effect" dataDxfId="68"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="67"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="66"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="65"/>
+    <tableColumn id="26" name="JobId" dataDxfId="0"/>
+    <tableColumn id="18" name="Res" dataDxfId="64"/>
+    <tableColumn id="19" name="Icon" dataDxfId="63"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="62"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8419,36 +8542,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA125"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="24.33203125" customWidth="1"/>
-    <col min="22" max="23" width="7.88671875" customWidth="1"/>
-    <col min="24" max="27" width="4" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="24.375" customWidth="1"/>
+    <col min="22" max="24" width="7.875" customWidth="1"/>
+    <col min="25" max="28" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="65.25" customHeight="1">
+    <row r="1" spans="1:28" ht="65.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>206</v>
       </c>
@@ -8518,20 +8641,23 @@
       <c r="W1" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AB1" s="29" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>196</v>
       </c>
@@ -8601,20 +8727,23 @@
       <c r="W2" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AA2" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AB2" s="30" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>198</v>
       </c>
@@ -8684,20 +8813,23 @@
       <c r="W3" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="AA3" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AB3" s="27" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="48">
+    <row r="4" spans="1:28" ht="36">
       <c r="A4">
         <v>53000001</v>
       </c>
@@ -8767,20 +8899,21 @@
         <v>2</v>
       </c>
       <c r="W4" s="1"/>
-      <c r="X4" s="1">
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1">
         <v>4</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>1</v>
       </c>
-      <c r="Z4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>53000002</v>
       </c>
@@ -8850,20 +8983,21 @@
         <v>4</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="1">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1">
         <v>4</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>2</v>
       </c>
-      <c r="Z5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="24">
+    <row r="6" spans="1:28" ht="24">
       <c r="A6">
         <v>53000003</v>
       </c>
@@ -8933,20 +9067,21 @@
         <v>7</v>
       </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="1">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
         <v>4</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>3</v>
       </c>
-      <c r="Z6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="26">
+      <c r="AA6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="36">
+    <row r="7" spans="1:28" ht="36">
       <c r="A7">
         <v>53000004</v>
       </c>
@@ -9016,20 +9151,21 @@
         <v>9</v>
       </c>
       <c r="W7" s="1"/>
-      <c r="X7" s="1">
-        <v>4</v>
-      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>4</v>
       </c>
-      <c r="Z7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="26">
+      <c r="Z7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="72">
+    <row r="8" spans="1:28" ht="72">
       <c r="A8">
         <v>53000005</v>
       </c>
@@ -9099,20 +9235,21 @@
       <c r="W8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
         <v>4</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>5</v>
       </c>
-      <c r="Z8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="26">
+      <c r="AA8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="48">
+    <row r="9" spans="1:28" ht="48">
       <c r="A9">
         <v>53000006</v>
       </c>
@@ -9182,20 +9319,21 @@
         <v>2</v>
       </c>
       <c r="W9" s="1"/>
-      <c r="X9" s="1">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1">
         <v>4</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>6</v>
       </c>
-      <c r="Z9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="26">
+      <c r="AA9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="48">
+    <row r="10" spans="1:28" ht="48">
       <c r="A10">
         <v>53000007</v>
       </c>
@@ -9265,20 +9403,21 @@
         <v>2</v>
       </c>
       <c r="W10" s="1"/>
-      <c r="X10" s="1">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1">
         <v>4</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>7</v>
       </c>
-      <c r="Z10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="48">
+    <row r="11" spans="1:28" ht="48">
       <c r="A11">
         <v>53000008</v>
       </c>
@@ -9348,20 +9487,21 @@
         <v>2</v>
       </c>
       <c r="W11" s="1"/>
-      <c r="X11" s="1">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1">
         <v>4</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>8</v>
       </c>
-      <c r="Z11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="26">
+      <c r="AA11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="48">
+    <row r="12" spans="1:28" ht="48">
       <c r="A12">
         <v>53000009</v>
       </c>
@@ -9431,20 +9571,21 @@
         <v>2</v>
       </c>
       <c r="W12" s="1"/>
-      <c r="X12" s="1">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1">
         <v>4</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>9</v>
       </c>
-      <c r="Z12" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="26">
+      <c r="AA12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="48">
+    <row r="13" spans="1:28" ht="48">
       <c r="A13">
         <v>53000010</v>
       </c>
@@ -9514,20 +9655,21 @@
         <v>2</v>
       </c>
       <c r="W13" s="1"/>
-      <c r="X13" s="1">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1">
         <v>4</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>10</v>
       </c>
-      <c r="Z13" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="26">
+      <c r="AA13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="48">
+    <row r="14" spans="1:28" ht="48">
       <c r="A14">
         <v>53000011</v>
       </c>
@@ -9597,20 +9739,21 @@
         <v>2</v>
       </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="1">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
         <v>4</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>11</v>
       </c>
-      <c r="Z14" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="48">
+    <row r="15" spans="1:28" ht="48">
       <c r="A15">
         <v>53000012</v>
       </c>
@@ -9680,20 +9823,21 @@
         <v>2</v>
       </c>
       <c r="W15" s="1"/>
-      <c r="X15" s="1">
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1">
         <v>4</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>12</v>
       </c>
-      <c r="Z15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="26">
+      <c r="AA15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="72">
+    <row r="16" spans="1:28" ht="72">
       <c r="A16">
         <v>53000014</v>
       </c>
@@ -9763,20 +9907,21 @@
         <v>682</v>
       </c>
       <c r="W16" s="1"/>
-      <c r="X16" s="1">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1">
         <v>4</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>14</v>
       </c>
-      <c r="Z16" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="26">
+      <c r="AA16" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>53000015</v>
       </c>
@@ -9846,20 +9991,21 @@
         <v>20</v>
       </c>
       <c r="W17" s="1"/>
-      <c r="X17" s="1">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1">
         <v>4</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>15</v>
       </c>
-      <c r="Z17" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="26">
+      <c r="AA17" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="24">
+    <row r="18" spans="1:28" ht="24">
       <c r="A18">
         <v>53000016</v>
       </c>
@@ -9929,20 +10075,21 @@
         <v>22</v>
       </c>
       <c r="W18" s="1"/>
-      <c r="X18" s="1">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1">
         <v>4</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>16</v>
       </c>
-      <c r="Z18" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="26">
+      <c r="AA18" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>53000017</v>
       </c>
@@ -10012,20 +10159,21 @@
         <v>24</v>
       </c>
       <c r="W19" s="1"/>
-      <c r="X19" s="1">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1">
         <v>4</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>17</v>
       </c>
-      <c r="Z19" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="26">
+      <c r="AA19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="60">
+    <row r="20" spans="1:28" ht="48">
       <c r="A20">
         <v>53000018</v>
       </c>
@@ -10095,20 +10243,21 @@
         <v>26</v>
       </c>
       <c r="W20" s="1"/>
-      <c r="X20" s="1">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1">
         <v>4</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>18</v>
       </c>
-      <c r="Z20" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="26">
+      <c r="AA20" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="72">
+    <row r="21" spans="1:28" ht="60">
       <c r="A21">
         <v>53000019</v>
       </c>
@@ -10180,20 +10329,21 @@
       <c r="W21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
         <v>4</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>19</v>
       </c>
-      <c r="Z21" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="26">
+      <c r="AA21" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="60">
+    <row r="22" spans="1:28" ht="60">
       <c r="A22">
         <v>53000020</v>
       </c>
@@ -10265,20 +10415,21 @@
       <c r="W22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>4</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>20</v>
       </c>
-      <c r="Z22" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="26">
+      <c r="AA22" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="60">
+    <row r="23" spans="1:28" ht="60">
       <c r="A23">
         <v>53000021</v>
       </c>
@@ -10350,20 +10501,21 @@
       <c r="W23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>4</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>21</v>
       </c>
-      <c r="Z23" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="26">
+      <c r="AA23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="24">
+    <row r="24" spans="1:28" ht="24">
       <c r="A24">
         <v>53000022</v>
       </c>
@@ -10433,20 +10585,21 @@
         <v>34</v>
       </c>
       <c r="W24" s="1"/>
-      <c r="X24" s="1">
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>4</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>22</v>
       </c>
-      <c r="Z24" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="26">
+      <c r="AA24" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="24">
+    <row r="25" spans="1:28" ht="24">
       <c r="A25">
         <v>53000023</v>
       </c>
@@ -10516,20 +10669,21 @@
         <v>2</v>
       </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="1">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>4</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>23</v>
       </c>
-      <c r="Z25" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="26">
+      <c r="AA25" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="24">
+    <row r="26" spans="1:28" ht="24">
       <c r="A26">
         <v>53000024</v>
       </c>
@@ -10599,20 +10753,21 @@
         <v>34</v>
       </c>
       <c r="W26" s="1"/>
-      <c r="X26" s="1">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>4</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>24</v>
       </c>
-      <c r="Z26" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="26">
+      <c r="AA26" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="60">
+    <row r="27" spans="1:28" ht="48">
       <c r="A27">
         <v>53000025</v>
       </c>
@@ -10682,20 +10837,21 @@
         <v>38</v>
       </c>
       <c r="W27" s="1"/>
-      <c r="X27" s="1">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>4</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>25</v>
       </c>
-      <c r="Z27" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="26">
+      <c r="AA27" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="24">
+    <row r="28" spans="1:28" ht="24">
       <c r="A28">
         <v>53000026</v>
       </c>
@@ -10765,20 +10921,21 @@
         <v>41</v>
       </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="1">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>4</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>26</v>
       </c>
-      <c r="Z28" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="26">
+      <c r="AA28" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>53000027</v>
       </c>
@@ -10846,20 +11003,21 @@
         <v>44</v>
       </c>
       <c r="W29" s="1"/>
-      <c r="X29" s="1">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>4</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>27</v>
       </c>
-      <c r="Z29" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="26">
+      <c r="AA29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>53000028</v>
       </c>
@@ -10927,20 +11085,21 @@
         <v>46</v>
       </c>
       <c r="W30" s="1"/>
-      <c r="X30" s="1">
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>4</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>28</v>
       </c>
-      <c r="Z30" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="26">
+      <c r="AA30" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="24">
+    <row r="31" spans="1:28" ht="24">
       <c r="A31">
         <v>53000029</v>
       </c>
@@ -11010,20 +11169,21 @@
         <v>48</v>
       </c>
       <c r="W31" s="1"/>
-      <c r="X31" s="1">
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>4</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>29</v>
       </c>
-      <c r="Z31" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="26">
+      <c r="AA31" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="24">
+    <row r="32" spans="1:28" ht="24">
       <c r="A32">
         <v>53000030</v>
       </c>
@@ -11093,20 +11253,21 @@
         <v>4</v>
       </c>
       <c r="W32" s="1"/>
-      <c r="X32" s="1">
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>4</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z32" s="1">
         <v>30</v>
       </c>
-      <c r="Z32" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="26">
+      <c r="AA32" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="24">
+    <row r="33" spans="1:28" ht="24">
       <c r="A33">
         <v>53000031</v>
       </c>
@@ -11176,20 +11337,21 @@
         <v>4</v>
       </c>
       <c r="W33" s="1"/>
-      <c r="X33" s="1">
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>4</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Z33" s="1">
         <v>31</v>
       </c>
-      <c r="Z33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="26">
+      <c r="AA33" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="60">
+    <row r="34" spans="1:28" ht="48">
       <c r="A34">
         <v>53000035</v>
       </c>
@@ -11259,20 +11421,21 @@
         <v>54</v>
       </c>
       <c r="W34" s="1"/>
-      <c r="X34" s="1">
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>4</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Z34" s="1">
         <v>35</v>
       </c>
-      <c r="Z34" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="26">
+      <c r="AA34" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="48">
+    <row r="35" spans="1:28" ht="36">
       <c r="A35">
         <v>53000036</v>
       </c>
@@ -11343,20 +11506,21 @@
         <v>57</v>
       </c>
       <c r="W35" s="1"/>
-      <c r="X35" s="1">
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>4</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Z35" s="1">
         <v>36</v>
       </c>
-      <c r="Z35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="26">
+      <c r="AA35" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>53000037</v>
       </c>
@@ -11424,20 +11588,21 @@
         <v>59</v>
       </c>
       <c r="W36" s="1"/>
-      <c r="X36" s="1">
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>4</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Z36" s="1">
         <v>37</v>
       </c>
-      <c r="Z36" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="26">
+      <c r="AA36" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>53000038</v>
       </c>
@@ -11505,20 +11670,21 @@
         <v>61</v>
       </c>
       <c r="W37" s="1"/>
-      <c r="X37" s="1">
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>4</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Z37" s="1">
         <v>38</v>
       </c>
-      <c r="Z37" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="26">
+      <c r="AA37" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="24">
+    <row r="38" spans="1:28" ht="24">
       <c r="A38">
         <v>53000039</v>
       </c>
@@ -11588,20 +11754,21 @@
         <v>4</v>
       </c>
       <c r="W38" s="1"/>
-      <c r="X38" s="1">
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1">
         <v>4</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Z38" s="1">
         <v>39</v>
       </c>
-      <c r="Z38" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="26">
+      <c r="AA38" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="24">
+    <row r="39" spans="1:28" ht="24">
       <c r="A39">
         <v>53000040</v>
       </c>
@@ -11671,20 +11838,21 @@
         <v>4</v>
       </c>
       <c r="W39" s="1"/>
-      <c r="X39" s="1">
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>4</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Z39" s="1">
         <v>40</v>
       </c>
-      <c r="Z39" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="26">
+      <c r="AA39" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="24">
+    <row r="40" spans="1:28" ht="24">
       <c r="A40">
         <v>53000041</v>
       </c>
@@ -11754,20 +11922,21 @@
         <v>63</v>
       </c>
       <c r="W40" s="1"/>
-      <c r="X40" s="1">
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1">
         <v>4</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Z40" s="1">
         <v>41</v>
       </c>
-      <c r="Z40" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="26">
+      <c r="AA40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="60">
+    <row r="41" spans="1:28" ht="48">
       <c r="A41">
         <v>53000042</v>
       </c>
@@ -11837,20 +12006,21 @@
         <v>65</v>
       </c>
       <c r="W41" s="1"/>
-      <c r="X41" s="1">
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1">
         <v>4</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Z41" s="1">
         <v>42</v>
       </c>
-      <c r="Z41" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="26">
+      <c r="AA41" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="24">
+    <row r="42" spans="1:28" ht="24">
       <c r="A42">
         <v>53000043</v>
       </c>
@@ -11920,20 +12090,21 @@
         <v>4</v>
       </c>
       <c r="W42" s="1"/>
-      <c r="X42" s="1">
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1">
         <v>4</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Z42" s="1">
         <v>43</v>
       </c>
-      <c r="Z42" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="26">
+      <c r="AA42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="24">
+    <row r="43" spans="1:28" ht="24">
       <c r="A43">
         <v>53000044</v>
       </c>
@@ -12003,20 +12174,21 @@
         <v>4</v>
       </c>
       <c r="W43" s="1"/>
-      <c r="X43" s="1">
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1">
         <v>4</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Z43" s="1">
         <v>44</v>
       </c>
-      <c r="Z43" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="26">
+      <c r="AA43" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="72">
+    <row r="44" spans="1:28" ht="60">
       <c r="A44">
         <v>53000045</v>
       </c>
@@ -12087,20 +12259,21 @@
         <v>364</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="X44" s="1">
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1">
         <v>4</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Z44" s="1">
         <v>45</v>
       </c>
-      <c r="Z44" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="26">
+      <c r="AA44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="60">
+    <row r="45" spans="1:28" ht="48">
       <c r="A45">
         <v>53000046</v>
       </c>
@@ -12170,20 +12343,21 @@
         <v>69</v>
       </c>
       <c r="W45" s="1"/>
-      <c r="X45" s="1">
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1">
         <v>4</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Z45" s="1">
         <v>46</v>
       </c>
-      <c r="Z45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="26">
+      <c r="AA45" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="72">
+    <row r="46" spans="1:28" ht="60">
       <c r="A46">
         <v>53000047</v>
       </c>
@@ -12255,20 +12429,21 @@
       <c r="W46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1">
         <v>4</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Z46" s="1">
         <v>47</v>
       </c>
-      <c r="Z46" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="26">
+      <c r="AA46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="60">
+    <row r="47" spans="1:28" ht="48">
       <c r="A47">
         <v>53000048</v>
       </c>
@@ -12338,20 +12513,21 @@
         <v>26</v>
       </c>
       <c r="W47" s="1"/>
-      <c r="X47" s="1">
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1">
         <v>4</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Z47" s="1">
         <v>48</v>
       </c>
-      <c r="Z47" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="26">
+      <c r="AA47" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="72">
+    <row r="48" spans="1:28" ht="72">
       <c r="A48">
         <v>53000049</v>
       </c>
@@ -12423,20 +12599,21 @@
       <c r="W48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1">
         <v>4</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Z48" s="1">
         <v>49</v>
       </c>
-      <c r="Z48" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="26">
+      <c r="AA48" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="84">
+    <row r="49" spans="1:28" ht="72">
       <c r="A49">
         <v>53000050</v>
       </c>
@@ -12506,20 +12683,21 @@
         <v>76</v>
       </c>
       <c r="W49" s="1"/>
-      <c r="X49" s="1">
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1">
         <v>4</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Z49" s="1">
         <v>50</v>
       </c>
-      <c r="Z49" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="26">
+      <c r="AA49" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="60">
+    <row r="50" spans="1:28" ht="48">
       <c r="A50">
         <v>53000051</v>
       </c>
@@ -12589,20 +12767,21 @@
         <v>78</v>
       </c>
       <c r="W50" s="1"/>
-      <c r="X50" s="1">
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1">
         <v>4</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Z50" s="1">
         <v>51</v>
       </c>
-      <c r="Z50" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="26">
+      <c r="AA50" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="60">
+    <row r="51" spans="1:28" ht="48">
       <c r="A51">
         <v>53000052</v>
       </c>
@@ -12672,20 +12851,21 @@
         <v>80</v>
       </c>
       <c r="W51" s="1"/>
-      <c r="X51" s="1">
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1">
         <v>4</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Z51" s="1">
         <v>52</v>
       </c>
-      <c r="Z51" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="26">
+      <c r="AA51" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="60">
+    <row r="52" spans="1:28" ht="48">
       <c r="A52">
         <v>53000053</v>
       </c>
@@ -12755,20 +12935,21 @@
         <v>82</v>
       </c>
       <c r="W52" s="1"/>
-      <c r="X52" s="1">
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1">
         <v>4</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Z52" s="1">
         <v>53</v>
       </c>
-      <c r="Z52" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="26">
+      <c r="AA52" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="60">
+    <row r="53" spans="1:28" ht="48">
       <c r="A53">
         <v>53000054</v>
       </c>
@@ -12838,20 +13019,21 @@
         <v>84</v>
       </c>
       <c r="W53" s="1"/>
-      <c r="X53" s="1">
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1">
         <v>4</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Z53" s="1">
         <v>54</v>
       </c>
-      <c r="Z53" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="26">
+      <c r="AA53" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="24">
+    <row r="54" spans="1:28" ht="24">
       <c r="A54">
         <v>53000055</v>
       </c>
@@ -12921,20 +13103,21 @@
         <v>2</v>
       </c>
       <c r="W54" s="1"/>
-      <c r="X54" s="1">
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1">
         <v>4</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Z54" s="1">
         <v>55</v>
       </c>
-      <c r="Z54" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="26">
+      <c r="AA54" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="48">
+    <row r="55" spans="1:28" ht="36">
       <c r="A55">
         <v>53000056</v>
       </c>
@@ -13004,20 +13187,21 @@
         <v>87</v>
       </c>
       <c r="W55" s="1"/>
-      <c r="X55" s="1">
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1">
         <v>4</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Z55" s="1">
         <v>56</v>
       </c>
-      <c r="Z55" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="26">
+      <c r="AA55" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="36">
+    <row r="56" spans="1:28" ht="24">
       <c r="A56">
         <v>53000057</v>
       </c>
@@ -13087,20 +13271,21 @@
         <v>2</v>
       </c>
       <c r="W56" s="1"/>
-      <c r="X56" s="1">
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1">
         <v>4</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Z56" s="1">
         <v>57</v>
       </c>
-      <c r="Z56" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="26">
+      <c r="AA56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="24">
+    <row r="57" spans="1:28" ht="24">
       <c r="A57">
         <v>53000058</v>
       </c>
@@ -13170,20 +13355,21 @@
         <v>90</v>
       </c>
       <c r="W57" s="1"/>
-      <c r="X57" s="1">
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1">
         <v>4</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Z57" s="1">
         <v>58</v>
       </c>
-      <c r="Z57" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="26">
+      <c r="AA57" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="36">
+    <row r="58" spans="1:28" ht="24">
       <c r="A58">
         <v>53000059</v>
       </c>
@@ -13253,20 +13439,21 @@
         <v>92</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="X58" s="1">
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1">
         <v>4</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="Z58" s="1">
         <v>59</v>
       </c>
-      <c r="Z58" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="26">
+      <c r="AA58" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="48">
+    <row r="59" spans="1:28" ht="36">
       <c r="A59">
         <v>53000060</v>
       </c>
@@ -13336,20 +13523,21 @@
         <v>92</v>
       </c>
       <c r="W59" s="1"/>
-      <c r="X59" s="1">
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1">
         <v>4</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Z59" s="1">
         <v>60</v>
       </c>
-      <c r="Z59" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="26">
+      <c r="AA59" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="60">
+    <row r="60" spans="1:28" ht="48">
       <c r="A60">
         <v>53000061</v>
       </c>
@@ -13419,20 +13607,21 @@
         <v>20</v>
       </c>
       <c r="W60" s="1"/>
-      <c r="X60" s="1">
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1">
         <v>4</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="Z60" s="1">
         <v>61</v>
       </c>
-      <c r="Z60" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="26">
+      <c r="AA60" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="24">
+    <row r="61" spans="1:28" ht="24">
       <c r="A61">
         <v>53000062</v>
       </c>
@@ -13502,20 +13691,21 @@
         <v>97</v>
       </c>
       <c r="W61" s="1"/>
-      <c r="X61" s="1">
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1">
         <v>4</v>
       </c>
-      <c r="Y61" s="1">
+      <c r="Z61" s="1">
         <v>62</v>
       </c>
-      <c r="Z61" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="26">
+      <c r="AA61" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>53000063</v>
       </c>
@@ -13585,20 +13775,21 @@
         <v>99</v>
       </c>
       <c r="W62" s="1"/>
-      <c r="X62" s="1">
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1">
         <v>4</v>
       </c>
-      <c r="Y62" s="1">
+      <c r="Z62" s="1">
         <v>63</v>
       </c>
-      <c r="Z62" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="26">
+      <c r="AA62" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="24">
+    <row r="63" spans="1:28" ht="24">
       <c r="A63">
         <v>53000064</v>
       </c>
@@ -13668,20 +13859,21 @@
         <v>101</v>
       </c>
       <c r="W63" s="1"/>
-      <c r="X63" s="1">
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1">
         <v>4</v>
       </c>
-      <c r="Y63" s="1">
+      <c r="Z63" s="1">
         <v>64</v>
       </c>
-      <c r="Z63" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="26">
+      <c r="AA63" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="60">
+    <row r="64" spans="1:28" ht="48">
       <c r="A64">
         <v>53000065</v>
       </c>
@@ -13751,20 +13943,21 @@
         <v>102</v>
       </c>
       <c r="W64" s="1"/>
-      <c r="X64" s="1">
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1">
         <v>4</v>
       </c>
-      <c r="Y64" s="1">
+      <c r="Z64" s="1">
         <v>65</v>
       </c>
-      <c r="Z64" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="26">
+      <c r="AA64" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="24">
+    <row r="65" spans="1:28" ht="24">
       <c r="A65">
         <v>53000066</v>
       </c>
@@ -13834,20 +14027,21 @@
         <v>4</v>
       </c>
       <c r="W65" s="1"/>
-      <c r="X65" s="1">
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1">
         <v>4</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="Z65" s="1">
         <v>66</v>
       </c>
-      <c r="Z65" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="26">
+      <c r="AA65" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>53000067</v>
       </c>
@@ -13917,20 +14111,21 @@
         <v>104</v>
       </c>
       <c r="W66" s="1"/>
-      <c r="X66" s="1">
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1">
         <v>4</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Z66" s="1">
         <v>67</v>
       </c>
-      <c r="Z66" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="26">
+      <c r="AA66" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="72">
+    <row r="67" spans="1:28" ht="60">
       <c r="A67">
         <v>53000068</v>
       </c>
@@ -14002,20 +14197,21 @@
       <c r="W67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X67" s="1">
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1">
         <v>4</v>
       </c>
-      <c r="Y67" s="1">
+      <c r="Z67" s="1">
         <v>68</v>
       </c>
-      <c r="Z67" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="26">
+      <c r="AA67" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="24">
+    <row r="68" spans="1:28" ht="24">
       <c r="A68">
         <v>53000069</v>
       </c>
@@ -14085,20 +14281,21 @@
         <v>108</v>
       </c>
       <c r="W68" s="1"/>
-      <c r="X68" s="1">
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1">
         <v>4</v>
       </c>
-      <c r="Y68" s="1">
+      <c r="Z68" s="1">
         <v>69</v>
       </c>
-      <c r="Z68" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="26">
+      <c r="AA68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>53000070</v>
       </c>
@@ -14166,20 +14363,21 @@
         <v>110</v>
       </c>
       <c r="W69" s="1"/>
-      <c r="X69" s="1">
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1">
         <v>4</v>
       </c>
-      <c r="Y69" s="1">
+      <c r="Z69" s="1">
         <v>70</v>
       </c>
-      <c r="Z69" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="26">
+      <c r="AA69" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="84">
+    <row r="70" spans="1:28" ht="72">
       <c r="A70">
         <v>53000071</v>
       </c>
@@ -14251,20 +14449,21 @@
       <c r="W70" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="X70" s="1">
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1">
         <v>4</v>
       </c>
-      <c r="Y70" s="1">
+      <c r="Z70" s="1">
         <v>71</v>
       </c>
-      <c r="Z70" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="26">
+      <c r="AA70" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="60">
+    <row r="71" spans="1:28" ht="48">
       <c r="A71">
         <v>53000072</v>
       </c>
@@ -14334,20 +14533,21 @@
         <v>114</v>
       </c>
       <c r="W71" s="1"/>
-      <c r="X71" s="1">
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1">
         <v>4</v>
       </c>
-      <c r="Y71" s="1">
+      <c r="Z71" s="1">
         <v>72</v>
       </c>
-      <c r="Z71" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="26">
+      <c r="AA71" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="48">
+    <row r="72" spans="1:28" ht="48">
       <c r="A72">
         <v>53000073</v>
       </c>
@@ -14417,20 +14617,21 @@
         <v>116</v>
       </c>
       <c r="W72" s="1"/>
-      <c r="X72" s="1">
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1">
         <v>4</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="Z72" s="1">
         <v>73</v>
       </c>
-      <c r="Z72" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="26">
+      <c r="AA72" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="36">
+    <row r="73" spans="1:28" ht="36">
       <c r="A73">
         <v>53000074</v>
       </c>
@@ -14500,20 +14701,21 @@
         <v>118</v>
       </c>
       <c r="W73" s="1"/>
-      <c r="X73" s="1">
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1">
         <v>4</v>
       </c>
-      <c r="Y73" s="1">
+      <c r="Z73" s="1">
         <v>74</v>
       </c>
-      <c r="Z73" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="26">
+      <c r="AA73" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="132">
+    <row r="74" spans="1:28" ht="108">
       <c r="A74">
         <v>53000075</v>
       </c>
@@ -14583,20 +14785,21 @@
         <v>120</v>
       </c>
       <c r="W74" s="1"/>
-      <c r="X74" s="1">
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1">
         <v>4</v>
       </c>
-      <c r="Y74" s="1">
+      <c r="Z74" s="1">
         <v>75</v>
       </c>
-      <c r="Z74" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="26">
+      <c r="AA74" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="72">
+    <row r="75" spans="1:28" ht="60">
       <c r="A75">
         <v>53000076</v>
       </c>
@@ -14668,20 +14871,21 @@
       <c r="W75" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="X75" s="1">
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1">
         <v>4</v>
       </c>
-      <c r="Y75" s="1">
+      <c r="Z75" s="1">
         <v>76</v>
       </c>
-      <c r="Z75" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="26">
+      <c r="AA75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="48">
+    <row r="76" spans="1:28" ht="48">
       <c r="A76">
         <v>53000077</v>
       </c>
@@ -14751,20 +14955,21 @@
         <v>9</v>
       </c>
       <c r="W76" s="1"/>
-      <c r="X76" s="1">
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1">
         <v>4</v>
       </c>
-      <c r="Y76" s="1">
+      <c r="Z76" s="1">
         <v>77</v>
       </c>
-      <c r="Z76" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="26">
+      <c r="AA76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>53000078</v>
       </c>
@@ -14834,20 +15039,21 @@
         <v>102</v>
       </c>
       <c r="W77" s="1"/>
-      <c r="X77" s="1">
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1">
         <v>4</v>
       </c>
-      <c r="Y77" s="1">
+      <c r="Z77" s="1">
         <v>78</v>
       </c>
-      <c r="Z77" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="26">
+      <c r="AA77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="48">
+    <row r="78" spans="1:28" ht="48">
       <c r="A78">
         <v>53000079</v>
       </c>
@@ -14919,20 +15125,21 @@
       <c r="W78" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="X78" s="1">
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1">
         <v>4</v>
       </c>
-      <c r="Y78" s="1">
+      <c r="Z78" s="1">
         <v>79</v>
       </c>
-      <c r="Z78" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="26">
+      <c r="AA78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="72">
+    <row r="79" spans="1:28" ht="60">
       <c r="A79">
         <v>53000080</v>
       </c>
@@ -15004,20 +15211,21 @@
       <c r="W79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X79" s="1">
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1">
         <v>4</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Z79" s="1">
         <v>80</v>
       </c>
-      <c r="Z79" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="26">
+      <c r="AA79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="72">
+    <row r="80" spans="1:28" ht="60">
       <c r="A80">
         <v>53000081</v>
       </c>
@@ -15089,20 +15297,21 @@
       <c r="W80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X80" s="1">
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1">
         <v>4</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Z80" s="1">
         <v>81</v>
       </c>
-      <c r="Z80" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="26">
+      <c r="AA80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="24">
+    <row r="81" spans="1:28" ht="24">
       <c r="A81">
         <v>53000082</v>
       </c>
@@ -15172,20 +15381,21 @@
         <v>131</v>
       </c>
       <c r="W81" s="1"/>
-      <c r="X81" s="1">
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1">
         <v>4</v>
       </c>
-      <c r="Y81" s="1">
+      <c r="Z81" s="1">
         <v>82</v>
       </c>
-      <c r="Z81" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="26">
+      <c r="AA81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="24">
+    <row r="82" spans="1:28" ht="24">
       <c r="A82" s="43">
         <v>53000083</v>
       </c>
@@ -15255,20 +15465,21 @@
         <v>599</v>
       </c>
       <c r="W82" s="1"/>
-      <c r="X82" s="1">
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1">
         <v>4</v>
       </c>
-      <c r="Y82" s="1">
+      <c r="Z82" s="1">
         <v>83</v>
       </c>
-      <c r="Z82" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="26">
+      <c r="AA82" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="24">
+    <row r="83" spans="1:28" ht="24">
       <c r="A83">
         <v>53000084</v>
       </c>
@@ -15338,20 +15549,21 @@
         <v>600</v>
       </c>
       <c r="W83" s="1"/>
-      <c r="X83" s="1">
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1">
         <v>4</v>
       </c>
-      <c r="Y83" s="1">
+      <c r="Z83" s="1">
         <v>84</v>
       </c>
-      <c r="Z83" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="26">
+      <c r="AA83" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="84">
+    <row r="84" spans="1:28" ht="60">
       <c r="A84">
         <v>53000085</v>
       </c>
@@ -15423,20 +15635,21 @@
       <c r="W84" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X84" s="1">
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1">
         <v>4</v>
       </c>
-      <c r="Y84" s="1">
+      <c r="Z84" s="1">
         <v>85</v>
       </c>
-      <c r="Z84" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="26">
+      <c r="AA84" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>53000086</v>
       </c>
@@ -15504,20 +15717,21 @@
         <v>2</v>
       </c>
       <c r="W85" s="1"/>
-      <c r="X85" s="1">
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1">
         <v>4</v>
       </c>
-      <c r="Y85" s="1">
+      <c r="Z85" s="1">
         <v>86</v>
       </c>
-      <c r="Z85" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="26">
+      <c r="AA85" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="72">
+    <row r="86" spans="1:28" ht="60">
       <c r="A86">
         <v>53000087</v>
       </c>
@@ -15589,20 +15803,21 @@
       <c r="W86" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X86" s="1">
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1">
         <v>4</v>
       </c>
-      <c r="Y86" s="1">
+      <c r="Z86" s="1">
         <v>87</v>
       </c>
-      <c r="Z86" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="26">
+      <c r="AA86" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="72">
+    <row r="87" spans="1:28" ht="60">
       <c r="A87">
         <v>53000088</v>
       </c>
@@ -15674,20 +15889,21 @@
       <c r="W87" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X87" s="1">
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1">
         <v>4</v>
       </c>
-      <c r="Y87" s="1">
+      <c r="Z87" s="1">
         <v>88</v>
       </c>
-      <c r="Z87" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="26">
+      <c r="AA87" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="60">
+    <row r="88" spans="1:28" ht="60">
       <c r="A88">
         <v>53000089</v>
       </c>
@@ -15759,20 +15975,21 @@
       <c r="W88" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="X88" s="1">
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1">
         <v>4</v>
       </c>
-      <c r="Y88" s="1">
+      <c r="Z88" s="1">
         <v>89</v>
       </c>
-      <c r="Z88" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="26">
+      <c r="AA88" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="72">
+    <row r="89" spans="1:28" ht="60">
       <c r="A89">
         <v>53000090</v>
       </c>
@@ -15844,20 +16061,21 @@
       <c r="W89" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X89" s="1">
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1">
         <v>4</v>
       </c>
-      <c r="Y89" s="1">
+      <c r="Z89" s="1">
         <v>90</v>
       </c>
-      <c r="Z89" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="26">
+      <c r="AA89" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="36">
+    <row r="90" spans="1:28" ht="36">
       <c r="A90">
         <v>53000091</v>
       </c>
@@ -15927,20 +16145,21 @@
         <v>143</v>
       </c>
       <c r="W90" s="1"/>
-      <c r="X90" s="1">
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1">
         <v>4</v>
       </c>
-      <c r="Y90" s="1">
+      <c r="Z90" s="1">
         <v>91</v>
       </c>
-      <c r="Z90" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="26">
+      <c r="AA90" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="72">
+    <row r="91" spans="1:28" ht="60">
       <c r="A91">
         <v>53000092</v>
       </c>
@@ -16012,20 +16231,21 @@
       <c r="W91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X91" s="1">
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1">
         <v>4</v>
       </c>
-      <c r="Y91" s="1">
+      <c r="Z91" s="1">
         <v>92</v>
       </c>
-      <c r="Z91" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="26">
+      <c r="AA91" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="60">
+    <row r="92" spans="1:28" ht="48">
       <c r="A92">
         <v>53000093</v>
       </c>
@@ -16095,20 +16315,21 @@
         <v>145</v>
       </c>
       <c r="W92" s="1"/>
-      <c r="X92" s="1">
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1">
         <v>4</v>
       </c>
-      <c r="Y92" s="1">
+      <c r="Z92" s="1">
         <v>93</v>
       </c>
-      <c r="Z92" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="26">
+      <c r="AA92" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="36">
+    <row r="93" spans="1:28" ht="36">
       <c r="A93">
         <v>53000094</v>
       </c>
@@ -16178,20 +16399,21 @@
         <v>148</v>
       </c>
       <c r="W93" s="1"/>
-      <c r="X93" s="1">
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1">
         <v>4</v>
       </c>
-      <c r="Y93" s="1">
+      <c r="Z93" s="1">
         <v>94</v>
       </c>
-      <c r="Z93" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="26">
+      <c r="AA93" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="60">
+    <row r="94" spans="1:28" ht="48">
       <c r="A94">
         <v>53000095</v>
       </c>
@@ -16263,20 +16485,21 @@
       <c r="W94" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="X94" s="1">
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1">
         <v>4</v>
       </c>
-      <c r="Y94" s="1">
+      <c r="Z94" s="1">
         <v>95</v>
       </c>
-      <c r="Z94" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="26">
+      <c r="AA94" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="24">
+    <row r="95" spans="1:28" ht="24">
       <c r="A95">
         <v>53000096</v>
       </c>
@@ -16346,20 +16569,21 @@
         <v>34</v>
       </c>
       <c r="W95" s="1"/>
-      <c r="X95" s="1">
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1">
         <v>4</v>
       </c>
-      <c r="Y95" s="1">
+      <c r="Z95" s="1">
         <v>96</v>
       </c>
-      <c r="Z95" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="26">
+      <c r="AA95" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="72">
+    <row r="96" spans="1:28" ht="60">
       <c r="A96">
         <v>53000097</v>
       </c>
@@ -16431,20 +16655,21 @@
       <c r="W96" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X96" s="1">
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1">
         <v>4</v>
       </c>
-      <c r="Y96" s="1">
+      <c r="Z96" s="1">
         <v>97</v>
       </c>
-      <c r="Z96" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="26">
+      <c r="AA96" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="36">
+    <row r="97" spans="1:28" ht="36">
       <c r="A97">
         <v>53000098</v>
       </c>
@@ -16514,20 +16739,21 @@
         <v>65</v>
       </c>
       <c r="W97" s="1"/>
-      <c r="X97" s="1">
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1">
         <v>4</v>
       </c>
-      <c r="Y97" s="1">
+      <c r="Z97" s="1">
         <v>98</v>
       </c>
-      <c r="Z97" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="26">
+      <c r="AA97" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="36">
+    <row r="98" spans="1:28" ht="36">
       <c r="A98">
         <v>53000099</v>
       </c>
@@ -16597,20 +16823,21 @@
         <v>106</v>
       </c>
       <c r="W98" s="1"/>
-      <c r="X98" s="1">
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1">
         <v>4</v>
       </c>
-      <c r="Y98" s="1">
+      <c r="Z98" s="1">
         <v>99</v>
       </c>
-      <c r="Z98" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="26">
+      <c r="AA98" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="24">
+    <row r="99" spans="1:28" ht="24">
       <c r="A99">
         <v>53000100</v>
       </c>
@@ -16680,20 +16907,21 @@
         <v>156</v>
       </c>
       <c r="W99" s="1"/>
-      <c r="X99" s="1">
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1">
         <v>4</v>
       </c>
-      <c r="Y99" s="1">
+      <c r="Z99" s="1">
         <v>100</v>
       </c>
-      <c r="Z99" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="26">
+      <c r="AA99" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="48">
+    <row r="100" spans="1:28" ht="48">
       <c r="A100">
         <v>53000101</v>
       </c>
@@ -16763,20 +16991,21 @@
         <v>132</v>
       </c>
       <c r="W100" s="1"/>
-      <c r="X100" s="1">
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1">
         <v>4</v>
       </c>
-      <c r="Y100" s="1">
+      <c r="Z100" s="1">
         <v>101</v>
       </c>
-      <c r="Z100" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="26">
+      <c r="AA100" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="24">
+    <row r="101" spans="1:28" ht="24">
       <c r="A101">
         <v>53000102</v>
       </c>
@@ -16846,20 +17075,21 @@
         <v>82</v>
       </c>
       <c r="W101" s="1"/>
-      <c r="X101" s="1">
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1">
         <v>4</v>
       </c>
-      <c r="Y101" s="1">
+      <c r="Z101" s="1">
         <v>102</v>
       </c>
-      <c r="Z101" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="26">
+      <c r="AA101" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="72">
+    <row r="102" spans="1:28" ht="60">
       <c r="A102">
         <v>53000103</v>
       </c>
@@ -16931,20 +17161,21 @@
       <c r="W102" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="X102" s="1">
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1">
         <v>4</v>
       </c>
-      <c r="Y102" s="1">
+      <c r="Z102" s="1">
         <v>103</v>
       </c>
-      <c r="Z102" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="26">
+      <c r="AA102" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:28">
       <c r="A103">
         <v>53000104</v>
       </c>
@@ -17012,20 +17243,21 @@
         <v>162</v>
       </c>
       <c r="W103" s="1"/>
-      <c r="X103" s="1">
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1">
         <v>4</v>
       </c>
-      <c r="Y103" s="1">
+      <c r="Z103" s="1">
         <v>104</v>
       </c>
-      <c r="Z103" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="26">
+      <c r="AA103" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="60">
+    <row r="104" spans="1:28" ht="36">
       <c r="A104">
         <v>53000105</v>
       </c>
@@ -17095,20 +17327,21 @@
         <v>164</v>
       </c>
       <c r="W104" s="1"/>
-      <c r="X104" s="1">
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1">
         <v>4</v>
       </c>
-      <c r="Y104" s="1">
+      <c r="Z104" s="1">
         <v>105</v>
       </c>
-      <c r="Z104" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="26">
+      <c r="AA104" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="24">
+    <row r="105" spans="1:28" ht="24">
       <c r="A105">
         <v>53000106</v>
       </c>
@@ -17178,20 +17411,21 @@
         <v>166</v>
       </c>
       <c r="W105" s="1"/>
-      <c r="X105" s="1">
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1">
         <v>4</v>
       </c>
-      <c r="Y105" s="1">
+      <c r="Z105" s="1">
         <v>106</v>
       </c>
-      <c r="Z105" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="26">
+      <c r="AA105" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="24">
+    <row r="106" spans="1:28" ht="24">
       <c r="A106">
         <v>53000107</v>
       </c>
@@ -17261,20 +17495,21 @@
         <v>168</v>
       </c>
       <c r="W106" s="1"/>
-      <c r="X106" s="1">
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1">
         <v>4</v>
       </c>
-      <c r="Y106" s="1">
+      <c r="Z106" s="1">
         <v>107</v>
       </c>
-      <c r="Z106" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="26">
+      <c r="AA106" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="144">
+    <row r="107" spans="1:28" ht="120">
       <c r="A107">
         <v>53000108</v>
       </c>
@@ -17344,20 +17579,21 @@
         <v>170</v>
       </c>
       <c r="W107" s="1"/>
-      <c r="X107" s="1">
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1">
         <v>4</v>
       </c>
-      <c r="Y107" s="1">
+      <c r="Z107" s="1">
         <v>108</v>
       </c>
-      <c r="Z107" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="26">
+      <c r="AA107" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="24">
+    <row r="108" spans="1:28" ht="24">
       <c r="A108">
         <v>53000109</v>
       </c>
@@ -17427,20 +17663,21 @@
         <v>172</v>
       </c>
       <c r="W108" s="1"/>
-      <c r="X108" s="1">
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1">
         <v>4</v>
       </c>
-      <c r="Y108" s="1">
+      <c r="Z108" s="1">
         <v>109</v>
       </c>
-      <c r="Z108" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="26">
+      <c r="AA108" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="48">
+    <row r="109" spans="1:28" ht="36">
       <c r="A109">
         <v>53000110</v>
       </c>
@@ -17510,20 +17747,21 @@
         <v>34</v>
       </c>
       <c r="W109" s="1"/>
-      <c r="X109" s="1">
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1">
         <v>4</v>
       </c>
-      <c r="Y109" s="1">
+      <c r="Z109" s="1">
         <v>110</v>
       </c>
-      <c r="Z109" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="26">
+      <c r="AA109" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="60">
+    <row r="110" spans="1:28" ht="48">
       <c r="A110">
         <v>53000111</v>
       </c>
@@ -17593,20 +17831,21 @@
         <v>175</v>
       </c>
       <c r="W110" s="1"/>
-      <c r="X110" s="1">
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1">
         <v>4</v>
       </c>
-      <c r="Y110" s="1">
+      <c r="Z110" s="1">
         <v>111</v>
       </c>
-      <c r="Z110" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="26">
+      <c r="AA110" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="24">
+    <row r="111" spans="1:28" ht="24">
       <c r="A111">
         <v>53000112</v>
       </c>
@@ -17676,20 +17915,21 @@
         <v>177</v>
       </c>
       <c r="W111" s="1"/>
-      <c r="X111" s="1">
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1">
         <v>4</v>
       </c>
-      <c r="Y111" s="1">
+      <c r="Z111" s="1">
         <v>112</v>
       </c>
-      <c r="Z111" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="26">
+      <c r="AA111" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="24">
+    <row r="112" spans="1:28" ht="24">
       <c r="A112">
         <v>53000113</v>
       </c>
@@ -17759,20 +17999,21 @@
         <v>179</v>
       </c>
       <c r="W112" s="1"/>
-      <c r="X112" s="1">
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1">
         <v>4</v>
       </c>
-      <c r="Y112" s="1">
+      <c r="Z112" s="1">
         <v>113</v>
       </c>
-      <c r="Z112" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="26">
+      <c r="AA112" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="24">
+    <row r="113" spans="1:28" ht="24">
       <c r="A113">
         <v>53000114</v>
       </c>
@@ -17842,20 +18083,21 @@
         <v>182</v>
       </c>
       <c r="W113" s="1"/>
-      <c r="X113" s="1">
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1">
         <v>4</v>
       </c>
-      <c r="Y113" s="1">
+      <c r="Z113" s="1">
         <v>114</v>
       </c>
-      <c r="Z113" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="26">
+      <c r="AA113" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="36">
+    <row r="114" spans="1:28" ht="36">
       <c r="A114">
         <v>53000115</v>
       </c>
@@ -17925,20 +18167,21 @@
         <v>182</v>
       </c>
       <c r="W114" s="1"/>
-      <c r="X114" s="1">
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1">
         <v>4</v>
       </c>
-      <c r="Y114" s="1">
+      <c r="Z114" s="1">
         <v>115</v>
       </c>
-      <c r="Z114" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="26">
+      <c r="AA114" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="60">
+    <row r="115" spans="1:28" ht="36">
       <c r="A115">
         <v>53000116</v>
       </c>
@@ -18008,20 +18251,21 @@
         <v>186</v>
       </c>
       <c r="W115" s="1"/>
-      <c r="X115" s="1">
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1">
         <v>4</v>
       </c>
-      <c r="Y115" s="1">
+      <c r="Z115" s="1">
         <v>116</v>
       </c>
-      <c r="Z115" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="26">
+      <c r="AA115" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="48">
+    <row r="116" spans="1:28" ht="48">
       <c r="A116">
         <v>53000117</v>
       </c>
@@ -18091,20 +18335,21 @@
         <v>2</v>
       </c>
       <c r="W116" s="1"/>
-      <c r="X116" s="1">
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1">
         <v>4</v>
       </c>
-      <c r="Y116" s="1">
+      <c r="Z116" s="1">
         <v>117</v>
       </c>
-      <c r="Z116" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA116" s="26">
+      <c r="AA116" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="48">
+    <row r="117" spans="1:28" ht="48">
       <c r="A117">
         <v>53000118</v>
       </c>
@@ -18174,20 +18419,21 @@
         <v>2</v>
       </c>
       <c r="W117" s="1"/>
-      <c r="X117" s="1">
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1">
         <v>4</v>
       </c>
-      <c r="Y117" s="1">
+      <c r="Z117" s="1">
         <v>118</v>
       </c>
-      <c r="Z117" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="26">
+      <c r="AA117" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="48">
+    <row r="118" spans="1:28" ht="48">
       <c r="A118">
         <v>53000119</v>
       </c>
@@ -18257,20 +18503,21 @@
         <v>2</v>
       </c>
       <c r="W118" s="1"/>
-      <c r="X118" s="1">
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1">
         <v>4</v>
       </c>
-      <c r="Y118" s="1">
+      <c r="Z118" s="1">
         <v>119</v>
       </c>
-      <c r="Z118" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="26">
+      <c r="AA118" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="48">
+    <row r="119" spans="1:28" ht="48">
       <c r="A119">
         <v>53000120</v>
       </c>
@@ -18340,20 +18587,21 @@
         <v>2</v>
       </c>
       <c r="W119" s="1"/>
-      <c r="X119" s="1">
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1">
         <v>4</v>
       </c>
-      <c r="Y119" s="1">
+      <c r="Z119" s="1">
         <v>120</v>
       </c>
-      <c r="Z119" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA119" s="26">
+      <c r="AA119" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="48">
+    <row r="120" spans="1:28" ht="48">
       <c r="A120">
         <v>53000121</v>
       </c>
@@ -18423,20 +18671,21 @@
         <v>2</v>
       </c>
       <c r="W120" s="1"/>
-      <c r="X120" s="1">
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1">
         <v>4</v>
       </c>
-      <c r="Y120" s="1">
+      <c r="Z120" s="1">
         <v>121</v>
       </c>
-      <c r="Z120" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA120" s="26">
+      <c r="AA120" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="48">
+    <row r="121" spans="1:28" ht="48">
       <c r="A121">
         <v>53000122</v>
       </c>
@@ -18506,20 +18755,21 @@
         <v>2</v>
       </c>
       <c r="W121" s="1"/>
-      <c r="X121" s="1">
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1">
         <v>4</v>
       </c>
-      <c r="Y121" s="1">
+      <c r="Z121" s="1">
         <v>122</v>
       </c>
-      <c r="Z121" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA121" s="26">
+      <c r="AA121" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="48">
+    <row r="122" spans="1:28" ht="48">
       <c r="A122">
         <v>53000125</v>
       </c>
@@ -18589,20 +18839,21 @@
         <v>2</v>
       </c>
       <c r="W122" s="1"/>
-      <c r="X122" s="1">
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1">
         <v>4</v>
       </c>
-      <c r="Y122" s="1">
+      <c r="Z122" s="1">
         <v>125</v>
       </c>
-      <c r="Z122" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA122" s="26">
+      <c r="AA122" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="96">
+    <row r="123" spans="1:28" ht="72">
       <c r="A123">
         <v>53000126</v>
       </c>
@@ -18674,20 +18925,21 @@
       <c r="W123" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="X123" s="1">
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1">
         <v>4</v>
       </c>
-      <c r="Y123" s="1">
+      <c r="Z123" s="1">
         <v>126</v>
       </c>
-      <c r="Z123" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA123" s="26">
+      <c r="AA123" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="60">
+    <row r="124" spans="1:28" ht="48">
       <c r="A124">
         <v>53000127</v>
       </c>
@@ -18759,20 +19011,21 @@
       <c r="W124" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X124" s="1">
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1">
         <v>4</v>
       </c>
-      <c r="Y124" s="1">
+      <c r="Z124" s="1">
         <v>127</v>
       </c>
-      <c r="Z124" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA124" s="26">
+      <c r="AA124" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:28">
       <c r="A125">
         <v>53000129</v>
       </c>
@@ -18842,16 +19095,17 @@
         <v>114</v>
       </c>
       <c r="W125" s="1"/>
-      <c r="X125" s="15">
+      <c r="X125" s="1"/>
+      <c r="Y125" s="15">
         <v>4</v>
       </c>
-      <c r="Y125" s="15">
+      <c r="Z125" s="15">
         <v>129</v>
       </c>
-      <c r="Z125" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="15">
+      <c r="AA125" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="15">
         <v>1</v>
       </c>
     </row>
@@ -18861,81 +19115,81 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I70:I114 I38:I68 I120:I124 I17:I35 I4:I15">
-    <cfRule type="cellIs" dxfId="146" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125 J38:P68 J4:O4 J17:P35 J5:P15 J70:P123">
-    <cfRule type="cellIs" dxfId="145" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="144" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="notEqual">
       <formula>$E124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I122">
-    <cfRule type="cellIs" dxfId="143" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="notEqual">
       <formula>$E115</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="142" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="notEqual">
       <formula>$E125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125">
-    <cfRule type="cellIs" dxfId="141" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124">
-    <cfRule type="cellIs" dxfId="140" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="139" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="notEqual">
       <formula>$E69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:P69">
-    <cfRule type="cellIs" dxfId="138" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="137" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="16" operator="notEqual">
       <formula>$E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:P36">
-    <cfRule type="cellIs" dxfId="136" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="135" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="14" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15 H17:H125">
-    <cfRule type="cellIs" dxfId="133" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18952,26 +19206,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="129" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="notEqual">
       <formula>$E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:P16">
-    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18998,36 +19252,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="23" width="7.88671875" customWidth="1"/>
-    <col min="24" max="27" width="4" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.125" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="27.25" customWidth="1"/>
+    <col min="22" max="24" width="7.875" customWidth="1"/>
+    <col min="25" max="28" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="65.25" customHeight="1">
+    <row r="1" spans="1:28" ht="65.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>206</v>
       </c>
@@ -19097,20 +19351,23 @@
       <c r="W1" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AB1" s="29" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>196</v>
       </c>
@@ -19180,20 +19437,23 @@
       <c r="W2" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AA2" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AB2" s="30" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>198</v>
       </c>
@@ -19263,20 +19523,23 @@
       <c r="W3" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="AA3" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AB3" s="27" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="24">
+    <row r="4" spans="1:28" ht="24">
       <c r="A4">
         <v>53100000</v>
       </c>
@@ -19342,20 +19605,21 @@
         <v>454</v>
       </c>
       <c r="W4" s="15"/>
-      <c r="X4" s="15">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15">
         <v>4</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Z4" s="15">
         <v>1</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="AA4" s="28">
         <v>1</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AB4" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>53100001</v>
       </c>
@@ -19421,20 +19685,21 @@
         <v>20</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="15">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="15">
         <v>4</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Z5" s="15">
         <v>1</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="AA5" s="28">
         <v>1</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AB5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="36">
+    <row r="6" spans="1:28" ht="24">
       <c r="A6">
         <v>53100002</v>
       </c>
@@ -19500,20 +19765,21 @@
         <v>455</v>
       </c>
       <c r="W6" s="15"/>
-      <c r="X6" s="15">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15">
         <v>4</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Z6" s="15">
         <v>1</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="AA6" s="28">
         <v>1</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AB6" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>53100003</v>
       </c>
@@ -19579,20 +19845,21 @@
         <v>2</v>
       </c>
       <c r="W7" s="15"/>
-      <c r="X7" s="15">
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15">
         <v>4</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Z7" s="15">
         <v>1</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="AA7" s="28">
         <v>1</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AB7" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="36">
+    <row r="8" spans="1:28" ht="36">
       <c r="A8">
         <v>53100004</v>
       </c>
@@ -19658,20 +19925,21 @@
         <v>2</v>
       </c>
       <c r="W8" s="15"/>
-      <c r="X8" s="15">
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15">
         <v>4</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Z8" s="15">
         <v>1</v>
       </c>
-      <c r="Z8" s="28">
+      <c r="AA8" s="28">
         <v>1</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AB8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="24">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9">
         <v>53100005</v>
       </c>
@@ -19737,121 +20005,122 @@
         <v>460</v>
       </c>
       <c r="W9" s="15"/>
-      <c r="X9" s="15">
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15">
         <v>4</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Z9" s="15">
         <v>1</v>
       </c>
-      <c r="Z9" s="28">
+      <c r="AA9" s="28">
         <v>1</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AB9" s="26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="92" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="91" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="90" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="89" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="88" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="87" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="86" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="85" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="84" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="83" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="82" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="81" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="80" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="79" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19866,38 +20135,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="3" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
+    <col min="7" max="9" width="3.125" customWidth="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="15" width="3.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="23" width="7.88671875" customWidth="1"/>
-    <col min="24" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="5" customWidth="1"/>
-    <col min="26" max="27" width="4" customWidth="1"/>
+    <col min="12" max="15" width="3.125" customWidth="1"/>
+    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="5.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
+    <col min="21" max="21" width="27.25" customWidth="1"/>
+    <col min="22" max="24" width="7.875" customWidth="1"/>
+    <col min="25" max="25" width="4" customWidth="1"/>
+    <col min="26" max="26" width="5" customWidth="1"/>
+    <col min="27" max="28" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="65.25" customHeight="1">
+    <row r="1" spans="1:28" ht="65.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>206</v>
       </c>
@@ -19967,20 +20236,23 @@
       <c r="W1" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AB1" s="29" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>196</v>
       </c>
@@ -20050,20 +20322,23 @@
       <c r="W2" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AA2" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AB2" s="30" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>198</v>
       </c>
@@ -20133,20 +20408,23 @@
       <c r="W3" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="AA3" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AB3" s="27" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="36">
+    <row r="4" spans="1:28" ht="36">
       <c r="A4">
         <v>53200100</v>
       </c>
@@ -20216,20 +20494,21 @@
         <v>421</v>
       </c>
       <c r="W4" s="15"/>
-      <c r="X4" s="15">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15">
         <v>4</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Z4" s="15">
         <v>2100</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="AA4" s="28">
         <v>1</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AB4" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="24">
+    <row r="5" spans="1:28" ht="24">
       <c r="A5">
         <v>53200101</v>
       </c>
@@ -20299,20 +20578,21 @@
         <v>49</v>
       </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="1">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1">
         <v>4</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>2101</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="AA5" s="28">
         <v>1</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AB5" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="43.2">
+    <row r="6" spans="1:28" ht="40.5">
       <c r="A6">
         <v>53200102</v>
       </c>
@@ -20382,20 +20662,21 @@
         <v>51</v>
       </c>
       <c r="W6" s="1"/>
-      <c r="X6" s="1">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
         <v>4</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Z6" s="15">
         <v>2102</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="AA6" s="28">
         <v>1</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AB6" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>53200103</v>
       </c>
@@ -20463,20 +20744,21 @@
         <v>50</v>
       </c>
       <c r="W7" s="1"/>
-      <c r="X7" s="1">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
         <v>4</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>2103</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="AA7" s="28">
         <v>1</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AB7" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="60">
+    <row r="8" spans="1:28" ht="60">
       <c r="A8">
         <v>53200104</v>
       </c>
@@ -20548,20 +20830,21 @@
       <c r="W8" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
         <v>4</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Z8" s="15">
         <v>2104</v>
       </c>
-      <c r="Z8" s="28">
+      <c r="AA8" s="28">
         <v>1</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AB8" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="24">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9">
         <v>53200105</v>
       </c>
@@ -20631,66 +20914,67 @@
         <v>24</v>
       </c>
       <c r="W9" s="1"/>
-      <c r="X9" s="1">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1">
         <v>4</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>2105</v>
       </c>
-      <c r="Z9" s="28">
+      <c r="AA9" s="28">
         <v>1</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AB9" s="26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20711,7 +20995,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -20760,7 +21044,7 @@
         <v>2.3345235059857505</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="31" t="s">
         <v>486</v>
       </c>
@@ -20837,7 +21121,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="754">
   <si>
     <t>慈悲</t>
   </si>
@@ -1894,10 +1894,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>使敌我所有单位进入混乱状态{2:0.0}回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>使敌方单体随机获得恐惧，削弱，麻痹，混乱，中毒中两种状态{2:0.0}回合</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2626,10 +2622,6 @@
   </si>
   <si>
     <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2756,15 +2748,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.AddBuff(56000004,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.AddBuff(56000022,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000021,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2858,9 +2842,6 @@
     <t>未完成，群伤，负状</t>
   </si>
   <si>
-    <t>未完成，群伤,基础</t>
-  </si>
-  <si>
     <t>未完成，卡牌</t>
   </si>
   <si>
@@ -2955,43 +2936,383 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张使用的怪物卡消耗为0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddSpike(57000006);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法飞弹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Missile </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体，控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)) im.AddBuff(56000001,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单负</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Rebel();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,3);else m.SetTile(mouse,20,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,9);else m.SetTile(mouse,20,9);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,1);else m.SetTile(mouse,20,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,5);else m.SetTile(mouse,20,5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,4);else m.SetTile(mouse,20,4);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,6);else m.SetTile(mouse,20,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,3);else m.SetTile(mouse,30,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,2);else m.SetTile(mouse,30,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,9);else m.SetTile(mouse,30,9);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,1);else m.SetTile(mouse,30,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,5);else m.SetTile(mouse,30,5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,4);else m.SetTile(mouse,30,4);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,6);else m.SetTile(mouse,30,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形</t>
+  </si>
+  <si>
+    <t>地形,基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);t.AddBuff(56000007,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(10,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(2))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性,基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤,负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤,基础</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,2);else m.SetTile(mouse,20,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内3个随机敌人造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单治</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单负</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000009,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱：冰冻召唤的怪物5回合。触发几率{4:0.0}%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.ReviveUnit(mouse,s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制一张己方场上怪物到手牌，并提升{3:0}级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱：使对方使用的下张卡牌无效。触发几率{4:0.0}%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddTrap(54000001,lv,s.Rate,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000019,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌我所有单位进入混乱状态{2:0.0}回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一张使用的怪物卡消耗为0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddSpike(57000006);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法飞弹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Missile </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
+    <t>t.AddBuff(56000021,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2999,263 +3320,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>UnitEffect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>longly</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体，控制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)) im.AddBuff(56000001,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单负</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Rebel();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Transform(13002);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,3);else m.SetTile(mouse,20,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,9);else m.SetTile(mouse,20,9);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,1);else m.SetTile(mouse,20,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,5);else m.SetTile(mouse,20,5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,4);else m.SetTile(mouse,20,4);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,6);else m.SetTile(mouse,20,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,3);else m.SetTile(mouse,30,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,2);else m.SetTile(mouse,30,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,9);else m.SetTile(mouse,30,9);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,1);else m.SetTile(mouse,30,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,5);else m.SetTile(mouse,30,5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,4);else m.SetTile(mouse,30,4);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,6);else m.SetTile(mouse,30,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形</t>
-  </si>
-  <si>
-    <t>地形,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);t.AddBuff(56000007,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(10,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(2))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JobId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,2);else m.SetTile(mouse,20,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对范围内3个随机敌人造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治</t>
+    <t>t.AddBuff(56000004,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Transform(51013002);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddMp(1);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3263,75 +3336,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>单负</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000009,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱：冰冻召唤的怪物5回合。触发几率{4:0.0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>把敌方单体变为羊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.ReviveUnit(mouse,s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制一张己方场上怪物到手牌，并提升{3:0}级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱：使对方使用的下张卡牌无效。触发几率{4:0.0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddTrap(54000001,lv,s.Rate,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000019,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
+    <t>把敌方单体变为羊，{4:0.0}%回复一点魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4352,7 +4361,35 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="173">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4360,6 +4397,332 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7023,188 +7386,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8116,132 +8297,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171" tableBorderDxfId="170">
   <autoFilter ref="A3:AB125"/>
   <sortState ref="A4:AB125">
     <sortCondition ref="A3:A125"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="124"/>
-    <tableColumn id="2" name="Name" dataDxfId="123"/>
-    <tableColumn id="20" name="Ename" dataDxfId="122"/>
-    <tableColumn id="21" name="Remark" dataDxfId="121"/>
-    <tableColumn id="3" name="Star" dataDxfId="120"/>
-    <tableColumn id="4" name="Type" dataDxfId="119"/>
-    <tableColumn id="5" name="Attr" dataDxfId="118"/>
-    <tableColumn id="8" name="Quality" dataDxfId="117">
+    <tableColumn id="1" name="Id" dataDxfId="169"/>
+    <tableColumn id="2" name="Name" dataDxfId="168"/>
+    <tableColumn id="20" name="Ename" dataDxfId="167"/>
+    <tableColumn id="21" name="Remark" dataDxfId="166"/>
+    <tableColumn id="3" name="Star" dataDxfId="165"/>
+    <tableColumn id="4" name="Type" dataDxfId="164"/>
+    <tableColumn id="5" name="Attr" dataDxfId="163"/>
+    <tableColumn id="8" name="Quality" dataDxfId="162">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="116"/>
-    <tableColumn id="9" name="Damage" dataDxfId="115"/>
-    <tableColumn id="10" name="Cure" dataDxfId="114"/>
-    <tableColumn id="11" name="Time" dataDxfId="113"/>
-    <tableColumn id="13" name="Help" dataDxfId="112"/>
-    <tableColumn id="16" name="Rate" dataDxfId="111"/>
-    <tableColumn id="12" name="Modify" dataDxfId="110"/>
-    <tableColumn id="27" name="Sum" dataDxfId="3">
+    <tableColumn id="7" name="Cost" dataDxfId="161"/>
+    <tableColumn id="9" name="Damage" dataDxfId="160"/>
+    <tableColumn id="10" name="Cure" dataDxfId="159"/>
+    <tableColumn id="11" name="Time" dataDxfId="158"/>
+    <tableColumn id="13" name="Help" dataDxfId="157"/>
+    <tableColumn id="16" name="Rate" dataDxfId="156"/>
+    <tableColumn id="12" name="Modify" dataDxfId="155"/>
+    <tableColumn id="27" name="Sum" dataDxfId="48">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="109"/>
-    <tableColumn id="15" name="Target" dataDxfId="108"/>
-    <tableColumn id="25" name="Mark" dataDxfId="107"/>
-    <tableColumn id="22" name="Effect" dataDxfId="106"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="105"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="104"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="103"/>
-    <tableColumn id="26" name="JobId" dataDxfId="102"/>
-    <tableColumn id="18" name="Res" dataDxfId="101"/>
-    <tableColumn id="19" name="Icon" dataDxfId="100"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="99"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="98"/>
+    <tableColumn id="6" name="Range" dataDxfId="154"/>
+    <tableColumn id="15" name="Target" dataDxfId="153"/>
+    <tableColumn id="25" name="Mark" dataDxfId="152"/>
+    <tableColumn id="22" name="Effect" dataDxfId="151"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="150"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="149"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="148"/>
+    <tableColumn id="26" name="JobId" dataDxfId="147"/>
+    <tableColumn id="18" name="Res" dataDxfId="146"/>
+    <tableColumn id="19" name="Icon" dataDxfId="145"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="144"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="71"/>
-    <tableColumn id="2" name="Name" dataDxfId="70"/>
-    <tableColumn id="20" name="Ename" dataDxfId="69"/>
-    <tableColumn id="21" name="Remark" dataDxfId="68"/>
-    <tableColumn id="3" name="Star" dataDxfId="67"/>
-    <tableColumn id="4" name="Type" dataDxfId="66"/>
-    <tableColumn id="5" name="Attr" dataDxfId="65"/>
-    <tableColumn id="8" name="Quality" dataDxfId="64">
+    <tableColumn id="1" name="Id" dataDxfId="116"/>
+    <tableColumn id="2" name="Name" dataDxfId="115"/>
+    <tableColumn id="20" name="Ename" dataDxfId="114"/>
+    <tableColumn id="21" name="Remark" dataDxfId="113"/>
+    <tableColumn id="3" name="Star" dataDxfId="112"/>
+    <tableColumn id="4" name="Type" dataDxfId="111"/>
+    <tableColumn id="5" name="Attr" dataDxfId="110"/>
+    <tableColumn id="8" name="Quality" dataDxfId="109">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="63"/>
-    <tableColumn id="9" name="Damage" dataDxfId="62"/>
-    <tableColumn id="10" name="Cure" dataDxfId="61"/>
-    <tableColumn id="11" name="Time" dataDxfId="60"/>
-    <tableColumn id="13" name="Help" dataDxfId="59"/>
-    <tableColumn id="16" name="Rate" dataDxfId="58"/>
-    <tableColumn id="12" name="Modify" dataDxfId="57"/>
-    <tableColumn id="27" name="Sum" dataDxfId="2">
+    <tableColumn id="7" name="Cost" dataDxfId="108"/>
+    <tableColumn id="9" name="Damage" dataDxfId="107"/>
+    <tableColumn id="10" name="Cure" dataDxfId="106"/>
+    <tableColumn id="11" name="Time" dataDxfId="105"/>
+    <tableColumn id="13" name="Help" dataDxfId="104"/>
+    <tableColumn id="16" name="Rate" dataDxfId="103"/>
+    <tableColumn id="12" name="Modify" dataDxfId="102"/>
+    <tableColumn id="27" name="Sum" dataDxfId="47">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="56"/>
-    <tableColumn id="15" name="Target" dataDxfId="55"/>
-    <tableColumn id="25" name="Mark" dataDxfId="54"/>
-    <tableColumn id="22" name="Effect" dataDxfId="53"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="52"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="51"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="50"/>
-    <tableColumn id="26" name="JobId" dataDxfId="49"/>
-    <tableColumn id="18" name="Res" dataDxfId="48"/>
-    <tableColumn id="19" name="Icon" dataDxfId="47"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="46"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="45"/>
+    <tableColumn id="6" name="Range" dataDxfId="101"/>
+    <tableColumn id="15" name="Target" dataDxfId="100"/>
+    <tableColumn id="25" name="Mark" dataDxfId="99"/>
+    <tableColumn id="22" name="Effect" dataDxfId="98"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="97"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="96"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="95"/>
+    <tableColumn id="26" name="JobId" dataDxfId="94"/>
+    <tableColumn id="18" name="Res" dataDxfId="93"/>
+    <tableColumn id="19" name="Icon" dataDxfId="92"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="91"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="30"/>
-    <tableColumn id="2" name="Name" dataDxfId="29"/>
-    <tableColumn id="20" name="Ename" dataDxfId="28"/>
-    <tableColumn id="21" name="Remark" dataDxfId="27"/>
-    <tableColumn id="3" name="Star" dataDxfId="26"/>
-    <tableColumn id="4" name="Type" dataDxfId="25"/>
-    <tableColumn id="5" name="Attr" dataDxfId="24"/>
-    <tableColumn id="8" name="Quality" dataDxfId="23">
+    <tableColumn id="1" name="Id" dataDxfId="75"/>
+    <tableColumn id="2" name="Name" dataDxfId="74"/>
+    <tableColumn id="20" name="Ename" dataDxfId="73"/>
+    <tableColumn id="21" name="Remark" dataDxfId="72"/>
+    <tableColumn id="3" name="Star" dataDxfId="71"/>
+    <tableColumn id="4" name="Type" dataDxfId="70"/>
+    <tableColumn id="5" name="Attr" dataDxfId="69"/>
+    <tableColumn id="8" name="Quality" dataDxfId="68">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="22"/>
-    <tableColumn id="9" name="Damage" dataDxfId="21"/>
-    <tableColumn id="10" name="Cure" dataDxfId="20"/>
-    <tableColumn id="11" name="Time" dataDxfId="19"/>
-    <tableColumn id="13" name="Help" dataDxfId="18"/>
-    <tableColumn id="16" name="Rate" dataDxfId="17"/>
-    <tableColumn id="12" name="Modify" dataDxfId="16"/>
-    <tableColumn id="27" name="Sum" dataDxfId="1">
+    <tableColumn id="7" name="Cost" dataDxfId="67"/>
+    <tableColumn id="9" name="Damage" dataDxfId="66"/>
+    <tableColumn id="10" name="Cure" dataDxfId="65"/>
+    <tableColumn id="11" name="Time" dataDxfId="64"/>
+    <tableColumn id="13" name="Help" dataDxfId="63"/>
+    <tableColumn id="16" name="Rate" dataDxfId="62"/>
+    <tableColumn id="12" name="Modify" dataDxfId="61"/>
+    <tableColumn id="27" name="Sum" dataDxfId="46">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="15"/>
-    <tableColumn id="15" name="Target" dataDxfId="14"/>
-    <tableColumn id="25" name="Mark" dataDxfId="13"/>
-    <tableColumn id="22" name="Effect" dataDxfId="12"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="11"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="10"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="9"/>
-    <tableColumn id="26" name="JobId" dataDxfId="8"/>
-    <tableColumn id="18" name="Res" dataDxfId="7"/>
-    <tableColumn id="19" name="Icon" dataDxfId="6"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="5"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="4"/>
+    <tableColumn id="6" name="Range" dataDxfId="60"/>
+    <tableColumn id="15" name="Target" dataDxfId="59"/>
+    <tableColumn id="25" name="Mark" dataDxfId="58"/>
+    <tableColumn id="22" name="Effect" dataDxfId="57"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="56"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="55"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="54"/>
+    <tableColumn id="26" name="JobId" dataDxfId="53"/>
+    <tableColumn id="18" name="Res" dataDxfId="52"/>
+    <tableColumn id="19" name="Icon" dataDxfId="51"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="50"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8536,11 +8717,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8575,7 +8756,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -8587,7 +8768,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -8602,16 +8783,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -8620,22 +8801,22 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -8644,10 +8825,10 @@
         <v>212</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -8673,7 +8854,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -8685,19 +8866,19 @@
         <v>369</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>374</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -8706,10 +8887,10 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>197</v>
@@ -8718,10 +8899,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -8730,7 +8911,7 @@
         <v>197</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB2" s="30" t="s">
         <v>360</v>
@@ -8747,7 +8928,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -8759,7 +8940,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -8774,40 +8955,40 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -8816,10 +8997,10 @@
         <v>205</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="36">
@@ -8833,7 +9014,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8883,10 +9064,10 @@
         <v>85.2</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>575</v>
+        <v>749</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>2</v>
@@ -8917,7 +9098,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -8967,10 +9148,10 @@
         <v>80</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>4</v>
@@ -9001,7 +9182,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -9051,10 +9232,10 @@
         <v>100</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>7</v>
@@ -9085,7 +9266,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -9135,10 +9316,10 @@
         <v>100</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>9</v>
@@ -9171,7 +9352,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -9215,16 +9396,16 @@
         <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="S8">
         <v>100</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
@@ -9257,7 +9438,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -9307,10 +9488,10 @@
         <v>90</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>2</v>
@@ -9341,7 +9522,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -9391,10 +9572,10 @@
         <v>90</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
@@ -9425,7 +9606,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -9475,10 +9656,10 @@
         <v>90</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>2</v>
@@ -9509,7 +9690,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -9559,10 +9740,10 @@
         <v>90</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>2</v>
@@ -9593,7 +9774,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -9643,10 +9824,10 @@
         <v>90</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>2</v>
@@ -9677,7 +9858,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -9727,10 +9908,10 @@
         <v>90</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>2</v>
@@ -9761,7 +9942,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -9811,10 +9992,10 @@
         <v>90</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>2</v>
@@ -9834,21 +10015,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="72">
+    <row r="16" spans="1:28" ht="36">
       <c r="A16">
         <v>53000013</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>461</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>622</v>
+        <v>753</v>
       </c>
       <c r="E16" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -9858,10 +10039,10 @@
       </c>
       <c r="H16" s="1">
         <f>IF(AND(P16&gt;=13,P16&lt;=16),5,IF(AND(P16&gt;=9,P16&lt;=12),4,IF(AND(P16&gt;=5,P16&lt;=8),3,IF(AND(P16&gt;=1,P16&lt;=4),2,IF(AND(P16&gt;=-3,P16&lt;=0),1,IF(AND(P16&gt;=-5,P16&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -9873,32 +10054,32 @@
         <v>0</v>
       </c>
       <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
         <v>20</v>
-      </c>
-      <c r="N16" s="15">
-        <v>0</v>
       </c>
       <c r="O16" s="15">
         <v>3</v>
       </c>
       <c r="P16" s="41">
         <f>S16-100+O16</f>
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="15">
         <v>0</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S16">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>114</v>
@@ -9920,18 +10101,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="72">
       <c r="A17">
         <v>53000014</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -9975,19 +10156,19 @@
         <v>30</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="S17">
         <v>100</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1">
@@ -10017,7 +10198,7 @@
         <v>244</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -10067,7 +10248,7 @@
         <v>75</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>376</v>
@@ -10092,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="24">
       <c r="A19">
         <v>53000016</v>
       </c>
@@ -10103,7 +10284,7 @@
         <v>245</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -10153,7 +10334,7 @@
         <v>75</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>602</v>
+        <v>748</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>377</v>
@@ -10178,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="48">
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>53000017</v>
       </c>
@@ -10189,7 +10370,7 @@
         <v>246</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -10239,10 +10420,10 @@
         <v>100</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>24</v>
@@ -10275,7 +10456,7 @@
         <v>247</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -10325,10 +10506,10 @@
         <v>102</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>26</v>
@@ -10361,7 +10542,7 @@
         <v>248</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
@@ -10411,10 +10592,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>28</v>
@@ -10449,7 +10630,7 @@
         <v>249</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -10499,10 +10680,10 @@
         <v>105</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>28</v>
@@ -10535,7 +10716,7 @@
         <v>250</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -10585,10 +10766,10 @@
         <v>93.75</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>31</v>
@@ -10621,7 +10802,7 @@
         <v>251</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -10671,10 +10852,10 @@
         <v>75</v>
       </c>
       <c r="T25" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="U25" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>34</v>
@@ -10705,7 +10886,7 @@
         <v>252</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -10755,10 +10936,10 @@
         <v>100</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>2</v>
@@ -10789,7 +10970,7 @@
         <v>253</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -10839,10 +11020,10 @@
         <v>90</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>34</v>
@@ -10875,7 +11056,7 @@
         <v>254</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -10925,10 +11106,10 @@
         <v>100</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>38</v>
@@ -10961,7 +11142,7 @@
         <v>255</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -11011,7 +11192,7 @@
         <v>75</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>379</v>
@@ -11045,7 +11226,7 @@
         <v>256</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -11096,7 +11277,7 @@
       </c>
       <c r="T30" s="11"/>
       <c r="U30" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>44</v>
@@ -11127,7 +11308,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -11178,7 +11359,7 @@
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>46</v>
@@ -11209,7 +11390,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -11259,10 +11440,10 @@
         <v>100</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="U32" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>48</v>
@@ -11287,13 +11468,13 @@
         <v>53000030</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -11343,10 +11524,10 @@
         <v>100</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11373,13 +11554,13 @@
         <v>53000031</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11429,10 +11610,10 @@
         <v>100</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>4</v>
@@ -11465,7 +11646,7 @@
         <v>259</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -11515,7 +11696,7 @@
         <v>100</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>380</v>
@@ -11549,7 +11730,7 @@
         <v>260</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -11600,10 +11781,10 @@
         <v>61</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>57</v>
@@ -11634,7 +11815,7 @@
         <v>261</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -11685,7 +11866,7 @@
       </c>
       <c r="T37" s="11"/>
       <c r="U37" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>59</v>
@@ -11716,7 +11897,7 @@
         <v>262</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -11767,7 +11948,7 @@
       </c>
       <c r="T38" s="11"/>
       <c r="U38" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>61</v>
@@ -11792,13 +11973,13 @@
         <v>53000039</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -11848,10 +12029,10 @@
         <v>85</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -11878,13 +12059,13 @@
         <v>53000040</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -11934,10 +12115,10 @@
         <v>100</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>4</v>
@@ -11970,7 +12151,7 @@
         <v>264</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -12020,10 +12201,10 @@
         <v>120</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>63</v>
@@ -12054,7 +12235,7 @@
         <v>265</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -12104,7 +12285,7 @@
         <v>100</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>381</v>
@@ -12138,7 +12319,7 @@
         <v>266</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -12188,10 +12369,10 @@
         <v>100</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>4</v>
@@ -12216,13 +12397,13 @@
         <v>53000044</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -12272,10 +12453,10 @@
         <v>95</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>4</v>
@@ -12308,7 +12489,7 @@
         <v>268</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
@@ -12359,10 +12540,10 @@
         <v>61</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>364</v>
@@ -12393,7 +12574,7 @@
         <v>269</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -12443,10 +12624,10 @@
         <v>100</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>69</v>
@@ -12477,7 +12658,7 @@
         <v>270</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
@@ -12527,10 +12708,10 @@
         <v>110</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>71</v>
@@ -12563,7 +12744,7 @@
         <v>271</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -12613,7 +12794,7 @@
         <v>100</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>382</v>
@@ -12647,7 +12828,7 @@
         <v>272</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -12697,10 +12878,10 @@
         <v>110</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>74</v>
@@ -12733,7 +12914,7 @@
         <v>273</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E50" s="1">
         <v>4</v>
@@ -12777,16 +12958,16 @@
         <v>0</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S50">
         <v>90</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>76</v>
@@ -12817,7 +12998,7 @@
         <v>274</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -12867,7 +13048,7 @@
         <v>100</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>383</v>
@@ -12901,7 +13082,7 @@
         <v>275</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -12951,7 +13132,7 @@
         <v>100</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>384</v>
@@ -12985,7 +13166,7 @@
         <v>276</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -13035,7 +13216,7 @@
         <v>100</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>385</v>
@@ -13069,7 +13250,7 @@
         <v>217</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -13119,10 +13300,10 @@
         <v>83.5</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="U54" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>84</v>
@@ -13153,7 +13334,7 @@
         <v>277</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -13203,10 +13384,10 @@
         <v>80</v>
       </c>
       <c r="T55" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>2</v>
@@ -13237,7 +13418,7 @@
         <v>278</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -13287,10 +13468,10 @@
         <v>37.5</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>87</v>
@@ -13321,7 +13502,7 @@
         <v>336</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -13365,16 +13546,16 @@
         <v>3</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S57">
         <v>75</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>2</v>
@@ -13405,7 +13586,7 @@
         <v>279</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -13455,7 +13636,7 @@
         <v>90</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>386</v>
@@ -13489,7 +13670,7 @@
         <v>280</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -13539,10 +13720,10 @@
         <v>28</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>92</v>
@@ -13573,7 +13754,7 @@
         <v>281</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -13623,10 +13804,10 @@
         <v>26</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>92</v>
@@ -13657,7 +13838,7 @@
         <v>282</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -13707,10 +13888,10 @@
         <v>150</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>20</v>
@@ -13741,7 +13922,7 @@
         <v>283</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -13791,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>387</v>
@@ -13825,7 +14006,7 @@
         <v>284</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -13875,10 +14056,10 @@
         <v>75</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>99</v>
@@ -13909,7 +14090,7 @@
         <v>285</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -13959,10 +14140,10 @@
         <v>75</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>101</v>
@@ -13993,7 +14174,7 @@
         <v>219</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
@@ -14043,10 +14224,10 @@
         <v>250</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>102</v>
@@ -14077,7 +14258,7 @@
         <v>286</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -14127,10 +14308,10 @@
         <v>85</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>4</v>
@@ -14163,7 +14344,7 @@
         <v>287</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -14213,10 +14394,10 @@
         <v>90</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>104</v>
@@ -14247,7 +14428,7 @@
         <v>288</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -14297,10 +14478,10 @@
         <v>60</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>106</v>
@@ -14322,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" ht="24">
       <c r="A69">
         <v>53000069</v>
       </c>
@@ -14333,7 +14514,7 @@
         <v>222</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -14383,7 +14564,7 @@
         <v>100</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>604</v>
+        <v>746</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>388</v>
@@ -14417,7 +14598,7 @@
         <v>224</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -14468,7 +14649,7 @@
       </c>
       <c r="T70" s="11"/>
       <c r="U70" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>110</v>
@@ -14499,7 +14680,7 @@
         <v>221</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
@@ -14549,7 +14730,7 @@
         <v>100</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>352</v>
@@ -14585,7 +14766,7 @@
         <v>289</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -14635,10 +14816,10 @@
         <v>200</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>114</v>
@@ -14669,7 +14850,7 @@
         <v>290</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E73" s="1">
         <v>3</v>
@@ -14719,10 +14900,10 @@
         <v>95</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>389</v>
+        <v>741</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>116</v>
@@ -14753,7 +14934,7 @@
         <v>335</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -14803,10 +14984,10 @@
         <v>105</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>118</v>
@@ -14837,7 +15018,7 @@
         <v>291</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E75" s="1">
         <v>4</v>
@@ -14887,10 +15068,10 @@
         <v>180</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>120</v>
@@ -14921,7 +15102,7 @@
         <v>292</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -14971,10 +15152,10 @@
         <v>110</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="U76" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>122</v>
@@ -15007,7 +15188,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E77" s="1">
         <v>4</v>
@@ -15057,10 +15238,10 @@
         <v>60</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="U77" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>9</v>
@@ -15091,7 +15272,7 @@
         <v>294</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -15135,16 +15316,16 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="S78">
         <v>50</v>
       </c>
       <c r="T78" s="43" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>102</v>
@@ -15175,7 +15356,7 @@
         <v>295</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -15225,10 +15406,10 @@
         <v>120</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>126</v>
@@ -15261,7 +15442,7 @@
         <v>296</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E80" s="1">
         <v>2</v>
@@ -15311,10 +15492,10 @@
         <v>100</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="U80" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>90</v>
@@ -15347,7 +15528,7 @@
         <v>297</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -15397,10 +15578,10 @@
         <v>90</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="U81" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>57</v>
@@ -15433,7 +15614,7 @@
         <v>298</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -15483,10 +15664,10 @@
         <v>120</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>131</v>
@@ -15511,13 +15692,13 @@
         <v>53000083</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E83" s="1">
         <v>2</v>
@@ -15567,13 +15748,13 @@
         <v>60</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
@@ -15601,7 +15782,7 @@
         <v>223</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -15651,13 +15832,13 @@
         <v>40</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="U84" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
@@ -15674,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" ht="60">
       <c r="A85">
         <v>53000085</v>
       </c>
@@ -15685,7 +15866,7 @@
         <v>225</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -15735,10 +15916,10 @@
         <v>100</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="U85" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>132</v>
@@ -15771,7 +15952,7 @@
         <v>226</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -15822,7 +16003,7 @@
       </c>
       <c r="T86" s="11"/>
       <c r="U86" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>2</v>
@@ -15853,7 +16034,7 @@
         <v>227</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -15903,10 +16084,10 @@
         <v>75</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>65</v>
@@ -15939,7 +16120,7 @@
         <v>300</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -15952,13 +16133,13 @@
       </c>
       <c r="H88" s="1">
         <f>IF(AND(P88&gt;=13,P88&lt;=16),5,IF(AND(P88&gt;=9,P88&lt;=12),4,IF(AND(P88&gt;=5,P88&lt;=8),3,IF(AND(P88&gt;=1,P88&lt;=4),2,IF(AND(P88&gt;=-3,P88&lt;=0),1,IF(AND(P88&gt;=-5,P88&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I88" s="1">
         <v>3</v>
       </c>
       <c r="J88" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
@@ -15977,7 +16158,7 @@
       </c>
       <c r="P88" s="41">
         <f>S88-100+O88</f>
-        <v>-10.5</v>
+        <v>2</v>
       </c>
       <c r="Q88" s="1">
         <v>20</v>
@@ -15986,13 +16167,13 @@
         <v>347</v>
       </c>
       <c r="S88">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="U88" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V88" s="1" t="s">
         <v>138</v>
@@ -16000,7 +16181,9 @@
       <c r="W88" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X88" s="1"/>
+      <c r="X88" s="1">
+        <v>11000004</v>
+      </c>
       <c r="Y88" s="1">
         <v>4</v>
       </c>
@@ -16025,7 +16208,7 @@
         <v>301</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -16075,13 +16258,13 @@
         <v>90</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="U89" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>140</v>
@@ -16111,7 +16294,7 @@
         <v>302</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E90" s="1">
         <v>4</v>
@@ -16161,10 +16344,10 @@
         <v>82.5</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="U90" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>26</v>
@@ -16197,7 +16380,7 @@
         <v>303</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
@@ -16247,10 +16430,10 @@
         <v>100</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="U91" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V91" s="1" t="s">
         <v>143</v>
@@ -16281,7 +16464,7 @@
         <v>304</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -16331,10 +16514,10 @@
         <v>75</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="U92" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V92" s="1" t="s">
         <v>31</v>
@@ -16367,7 +16550,7 @@
         <v>305</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -16417,10 +16600,10 @@
         <v>125</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="U93" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>145</v>
@@ -16451,7 +16634,7 @@
         <v>306</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -16501,10 +16684,10 @@
         <v>25</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>148</v>
@@ -16535,7 +16718,7 @@
         <v>307</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -16585,10 +16768,10 @@
         <v>80</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="U95" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V95" s="1" t="s">
         <v>150</v>
@@ -16621,7 +16804,7 @@
         <v>308</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>624</v>
+        <v>743</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
@@ -16671,10 +16854,10 @@
         <v>50</v>
       </c>
       <c r="T96" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>34</v>
@@ -16705,7 +16888,7 @@
         <v>309</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E97" s="1">
         <v>2</v>
@@ -16755,10 +16938,10 @@
         <v>45</v>
       </c>
       <c r="T97" s="11" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="U97" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V97" s="1" t="s">
         <v>90</v>
@@ -16791,7 +16974,7 @@
         <v>310</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
@@ -16841,10 +17024,10 @@
         <v>110</v>
       </c>
       <c r="T98" s="11" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="U98" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V98" s="1" t="s">
         <v>65</v>
@@ -16875,7 +17058,7 @@
         <v>311</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -16925,10 +17108,10 @@
         <v>95</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="U99" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V99" s="1" t="s">
         <v>106</v>
@@ -16959,7 +17142,7 @@
         <v>312</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -17009,10 +17192,10 @@
         <v>80</v>
       </c>
       <c r="T100" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V100" s="1" t="s">
         <v>156</v>
@@ -17043,7 +17226,7 @@
         <v>229</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -17093,10 +17276,10 @@
         <v>75</v>
       </c>
       <c r="T101" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U101" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V101" s="1" t="s">
         <v>132</v>
@@ -17127,7 +17310,7 @@
         <v>313</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -17177,10 +17360,10 @@
         <v>100</v>
       </c>
       <c r="T102" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="U102" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V102" s="1" t="s">
         <v>82</v>
@@ -17200,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" ht="60">
       <c r="A103">
         <v>53000103</v>
       </c>
@@ -17211,7 +17394,7 @@
         <v>314</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -17261,10 +17444,10 @@
         <v>65</v>
       </c>
       <c r="T103" s="11" t="s">
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>160</v>
@@ -17297,7 +17480,7 @@
         <v>315</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E104" s="1">
         <v>2</v>
@@ -17348,7 +17531,7 @@
       </c>
       <c r="T104" s="11"/>
       <c r="U104" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V104" s="1" t="s">
         <v>162</v>
@@ -17379,7 +17562,7 @@
         <v>230</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -17429,10 +17612,10 @@
         <v>25</v>
       </c>
       <c r="T105" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V105" s="1" t="s">
         <v>164</v>
@@ -17463,7 +17646,7 @@
         <v>316</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -17513,10 +17696,10 @@
         <v>90</v>
       </c>
       <c r="T106" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="U106" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V106" s="1" t="s">
         <v>166</v>
@@ -17547,7 +17730,7 @@
         <v>317</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -17597,10 +17780,10 @@
         <v>90</v>
       </c>
       <c r="T107" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="U107" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V107" s="1" t="s">
         <v>168</v>
@@ -17631,7 +17814,7 @@
         <v>318</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
@@ -17681,10 +17864,10 @@
         <v>85</v>
       </c>
       <c r="T108" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="U108" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V108" s="1" t="s">
         <v>170</v>
@@ -17715,7 +17898,7 @@
         <v>319</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -17765,10 +17948,10 @@
         <v>90</v>
       </c>
       <c r="T109" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U109" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V109" s="1" t="s">
         <v>172</v>
@@ -17799,7 +17982,7 @@
         <v>320</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E110" s="1">
         <v>4</v>
@@ -17849,10 +18032,10 @@
         <v>105</v>
       </c>
       <c r="T110" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U110" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V110" s="1" t="s">
         <v>34</v>
@@ -17883,7 +18066,7 @@
         <v>321</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
@@ -17933,10 +18116,10 @@
         <v>80</v>
       </c>
       <c r="T111" s="11" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="U111" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V111" s="1" t="s">
         <v>175</v>
@@ -17967,7 +18150,7 @@
         <v>322</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
@@ -18017,10 +18200,10 @@
         <v>120</v>
       </c>
       <c r="T112" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V112" s="1" t="s">
         <v>177</v>
@@ -18051,7 +18234,7 @@
         <v>323</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
@@ -18101,10 +18284,10 @@
         <v>70</v>
       </c>
       <c r="T113" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U113" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="V113" s="1" t="s">
         <v>179</v>
@@ -18135,7 +18318,7 @@
         <v>324</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -18219,7 +18402,7 @@
         <v>325</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E115" s="1">
         <v>2</v>
@@ -18303,7 +18486,7 @@
         <v>326</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -18353,10 +18536,10 @@
         <v>65</v>
       </c>
       <c r="T116" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U116" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V116" s="1" t="s">
         <v>186</v>
@@ -18387,7 +18570,7 @@
         <v>327</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E117" s="1">
         <v>2</v>
@@ -18437,10 +18620,10 @@
         <v>90</v>
       </c>
       <c r="T117" s="11" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="U117" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>2</v>
@@ -18471,7 +18654,7 @@
         <v>328</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E118" s="1">
         <v>2</v>
@@ -18521,10 +18704,10 @@
         <v>90</v>
       </c>
       <c r="T118" s="11" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="U118" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>2</v>
@@ -18555,7 +18738,7 @@
         <v>329</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E119" s="1">
         <v>2</v>
@@ -18605,10 +18788,10 @@
         <v>90</v>
       </c>
       <c r="T119" s="11" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="U119" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>2</v>
@@ -18639,7 +18822,7 @@
         <v>330</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E120" s="1">
         <v>2</v>
@@ -18689,10 +18872,10 @@
         <v>90</v>
       </c>
       <c r="T120" s="11" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="U120" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="V120" s="1" t="s">
         <v>2</v>
@@ -18723,7 +18906,7 @@
         <v>331</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
@@ -18773,10 +18956,10 @@
         <v>90</v>
       </c>
       <c r="T121" s="11" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="U121" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="V121" s="1" t="s">
         <v>2</v>
@@ -18807,7 +18990,7 @@
         <v>231</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E122" s="1">
         <v>2</v>
@@ -18857,10 +19040,10 @@
         <v>90</v>
       </c>
       <c r="T122" s="11" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="U122" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="V122" s="1" t="s">
         <v>2</v>
@@ -18891,7 +19074,7 @@
         <v>332</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
@@ -18941,10 +19124,10 @@
         <v>90</v>
       </c>
       <c r="T123" s="11" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="U123" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="V123" s="1" t="s">
         <v>2</v>
@@ -18975,7 +19158,7 @@
         <v>333</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
@@ -19025,16 +19208,16 @@
         <v>110</v>
       </c>
       <c r="T124" s="11" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="U124" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="W124" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="X124" s="1"/>
       <c r="Y124" s="1">
@@ -19050,7 +19233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" ht="48">
       <c r="A125">
         <v>53000127</v>
       </c>
@@ -19061,7 +19244,7 @@
         <v>334</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E125" s="1">
         <v>5</v>
@@ -19111,10 +19294,10 @@
         <v>150</v>
       </c>
       <c r="T125" s="11" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="U125" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V125" s="1" t="s">
         <v>41</v>
@@ -19142,130 +19325,106 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I70:I114 I38:I68 I120:I124 I17:I35 I4:I15">
-    <cfRule type="cellIs" dxfId="150" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125 J4:O4 J17:P35 J70:P123 J5:P15 J38:P68">
-    <cfRule type="cellIs" dxfId="149" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="148" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="notEqual">
       <formula>$E124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I122">
-    <cfRule type="cellIs" dxfId="147" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="notEqual">
       <formula>$E115</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="146" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="notEqual">
       <formula>$E125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125">
-    <cfRule type="cellIs" dxfId="145" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124">
-    <cfRule type="cellIs" dxfId="144" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="143" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="notEqual">
       <formula>$E69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:P69">
-    <cfRule type="cellIs" dxfId="142" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="141" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="notEqual">
       <formula>$E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:P36">
-    <cfRule type="cellIs" dxfId="140" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="139" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="138" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15 H17:H125">
-    <cfRule type="cellIs" dxfId="137" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P15 P17:P125">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="notEqual">
       <formula>$E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:P16">
-    <cfRule type="cellIs" dxfId="132" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19319,7 +19478,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -19331,7 +19490,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -19346,16 +19505,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -19364,22 +19523,22 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -19388,10 +19547,10 @@
         <v>212</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -19417,7 +19576,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -19429,19 +19588,19 @@
         <v>360</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -19450,7 +19609,7 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>362</v>
@@ -19462,10 +19621,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -19491,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -19503,7 +19662,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -19518,16 +19677,16 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -19536,7 +19695,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -19548,10 +19707,10 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -19560,10 +19719,10 @@
         <v>205</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="24">
@@ -19571,7 +19730,7 @@
         <v>53100000</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="37"/>
@@ -19623,13 +19782,13 @@
         <v>-1</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -19703,7 +19862,7 @@
         <v>-1</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>376</v>
@@ -19731,7 +19890,7 @@
         <v>53100002</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="37"/>
@@ -19783,13 +19942,13 @@
         <v>-1</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -19811,7 +19970,7 @@
         <v>53100003</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="37"/>
@@ -19863,10 +20022,10 @@
         <v>-1</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>2</v>
@@ -19891,7 +20050,7 @@
         <v>53100004</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="37"/>
@@ -19943,10 +20102,10 @@
         <v>-1</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>2</v>
@@ -19971,7 +20130,7 @@
         <v>53100005</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="37"/>
@@ -20023,13 +20182,13 @@
         <v>-1</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
@@ -20049,105 +20208,105 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="97" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="96" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="95" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="94" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="139" priority="33" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="93" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="92" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="31" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="91" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="90" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="135" priority="29" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="89" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="88" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="133" priority="27" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="87" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="86" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="131" priority="25" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="85" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="84" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="129" priority="23" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="83" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20204,7 +20363,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -20216,7 +20375,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -20231,16 +20390,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -20249,22 +20408,22 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -20273,10 +20432,10 @@
         <v>212</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -20302,7 +20461,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -20314,19 +20473,19 @@
         <v>360</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -20335,7 +20494,7 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>362</v>
@@ -20347,10 +20506,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -20376,7 +20535,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -20388,7 +20547,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -20403,16 +20562,16 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -20421,7 +20580,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -20433,10 +20592,10 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -20445,10 +20604,10 @@
         <v>205</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="36">
@@ -20456,13 +20615,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>563</v>
-      </c>
       <c r="D4" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E4" s="15">
         <v>3</v>
@@ -20512,13 +20671,13 @@
         <v>115</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -20540,13 +20699,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E5" s="15">
         <v>3</v>
@@ -20596,10 +20755,10 @@
         <v>90</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>49</v>
@@ -20624,13 +20783,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="D6" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E6" s="15">
         <v>3</v>
@@ -20680,10 +20839,10 @@
         <v>115</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>51</v>
@@ -20708,13 +20867,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E7" s="15">
         <v>3</v>
@@ -20765,7 +20924,7 @@
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>50</v>
@@ -20790,13 +20949,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>570</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>571</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -20846,16 +21005,16 @@
         <v>90</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
@@ -20876,13 +21035,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="26" t="s">
         <v>573</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>574</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
@@ -20932,7 +21091,7 @@
         <v>400</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>378</v>
@@ -20958,50 +21117,50 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="12" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21018,15 +21177,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -21063,150 +21222,150 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B4">
-        <f>SQRT((B3 + 9) / 10)</f>
+        <f>SQRT((B3 + 5) / 6)</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:K5" si="0">SQRT((C3 + 9) / 10)</f>
-        <v>1.0488088481701516</v>
+        <f t="shared" ref="C4:K4" si="0">SQRT((C3 + 5) / 6)</f>
+        <v>1.0801234497346435</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.0954451150103321</v>
+        <v>1.1547005383792515</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.1401754250991381</v>
+        <v>1.2247448713915889</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1.1832159566199232</v>
+        <v>1.2909944487358056</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.2247448713915889</v>
+        <v>1.35400640077266</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.2649110640673518</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1.3038404810405297</v>
+        <v>1.4719601443879744</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1.3416407864998738</v>
+        <v>1.5275252316519468</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1.3784048752090221</v>
+        <v>1.5811388300841898</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5">
-        <f>SQRT((B3 + 9) / 10)</f>
+        <f>SQRT((B3 + 5) / 6)</f>
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SQRT((C3 + 9) / 10)</f>
-        <v>1.0488088481701516</v>
+        <f t="shared" ref="C5:K5" si="1">SQRT((C3 + 5) / 6)</f>
+        <v>1.0801234497346435</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:K5" si="1">SQRT((D3 + 9) / 10)</f>
-        <v>1.0954451150103321</v>
+        <f t="shared" si="1"/>
+        <v>1.1547005383792515</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>1.1401754250991381</v>
+        <v>1.2247448713915889</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1.1832159566199232</v>
+        <v>1.2909944487358056</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.2247448713915889</v>
+        <v>1.35400640077266</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>1.2649110640673518</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>1.3038404810405297</v>
+        <v>1.4719601443879744</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>1.3416407864998738</v>
+        <v>1.5275252316519468</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>1.3784048752090221</v>
+        <v>1.5811388300841898</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B6">
-        <f>SQRT((B3 + 14) / 15)</f>
+        <f>SQRT((B3 + 7) / 8)</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:K6" si="2">SQRT((C3 + 14) / 15)</f>
-        <v>1.0327955589886444</v>
+        <f t="shared" ref="C6:K6" si="2">SQRT((C3 + 7) / 8)</f>
+        <v>1.0606601717798212</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>1.0645812948447542</v>
+        <v>1.1180339887498949</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>1.0954451150103321</v>
+        <v>1.1726039399558574</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>1.1254628677422756</v>
+        <v>1.2247448713915889</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>1.1547005383792515</v>
+        <v>1.2747548783981961</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>1.1832159566199232</v>
+        <v>1.3228756555322954</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>1.2110601416389966</v>
+        <v>1.3693063937629153</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>1.2382783747337807</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>1.2649110640673518</v>
+        <v>1.4577379737113252</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B10" t="s">
         <v>492</v>
-      </c>
-      <c r="B10" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -21227,12 +21386,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!D:D,"*单伤*")</f>
@@ -21241,7 +21400,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!D:D,"*群伤*")</f>
@@ -21250,7 +21409,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!D:D,"*单治*")</f>
@@ -21259,7 +21418,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!D:D,"*群治*")</f>
@@ -21268,7 +21427,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!D:D,"*正状*")</f>
@@ -21277,7 +21436,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!D:D,"*负状*")</f>
@@ -21286,7 +21445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!D:D,"*手牌*")</f>
@@ -21295,7 +21454,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!D:D,"*过牌*")</f>
@@ -21304,7 +21463,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!D:D,"*陷阱*")</f>
@@ -21313,7 +21472,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!D:D,"*地形*")</f>
@@ -21322,7 +21481,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!D:D,"*属性*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="762">
   <si>
     <t>慈悲</t>
   </si>
@@ -1854,10 +1854,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>复活己方指定单位，并回复其{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌我全体风系单位造成{0}点魔法伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2026,10 +2022,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>永久提高我方单体{3:0.0}%防御</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>2/3机率使对方召唤师魔法减少{3:0.0}，否则自身魔法减少{3:0.0}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2066,10 +2058,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>夺取对方召唤师{3:0.0}点魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>r.CardLevelUp(-(int)s.Help,2);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2114,10 +2102,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>对敌方单体造成{0}点魔法伤害，并有{4:0.0}%几率冰冻目标{2:0.0}回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>随机拷贝手上2张卡片，并有{4:0.0}%几率不消耗魔法</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2325,10 +2309,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>消除目标单体所有负面状态，使用后{4:0.0}%返回手牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2337,18 +2317,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>将目前单位传送到随机相邻行，使用后{4:0.0}%返回手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.ClearDebuff();if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.SetRowUnitPosition(mouse.Y,p.IsLeft,"siden");if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>NAA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2453,14 +2425,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>使目标加速{3:0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使目标减速{3:0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>使1.5卡片距离内我方单位永久提高{3:0.0}%命中和回避</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2502,10 +2466,6 @@
   </si>
   <si>
     <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>过牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2736,10 +2696,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>p.AddTrap(54000004,lv,s.Rate,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>p.AddTrap(54000002,lv,s.Rate,0);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2782,10 +2738,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>永久提高我方单体{3:0.0}%魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m.UpdateCellOwner(mouse,0);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2815,9 +2767,6 @@
     <t>未完成，手牌</t>
   </si>
   <si>
-    <t>未完成，正状，基础</t>
-  </si>
-  <si>
     <t>未完成，负状</t>
   </si>
   <si>
@@ -2845,13 +2794,6 @@
     <t>未完成，卡牌</t>
   </si>
   <si>
-    <t>未完成，过牌</t>
-  </si>
-  <si>
-    <t>未完成，过牌,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>品质</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3100,10 +3042,6 @@
     <t>地形</t>
   </si>
   <si>
-    <t>地形,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>t.OnMagicDamage(s.Damage,s.Attr);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3124,223 +3062,316 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤,负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,2);else m.SetTile(mouse,20,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内3个随机敌人造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单治</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单负</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000009,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱：冰冻召唤的怪物5回合。触发几率{4:0.0}%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.ReviveUnit(mouse,s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制一张己方场上怪物到手牌，并提升{3:0}级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱：使对方使用的下张卡牌无效。触发几率{4:0.0}%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddTrap(54000001,lv,s.Rate,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000019,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌我所有单位进入混乱状态{2:0.0}回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000021,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse).Top(3))p.AddSpellMissile(im,s,mouse,"purpleline");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000004,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Transform(51013002);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddMp(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{4:0.0}%几率策反目标敌方怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>把敌方单体变为羊，{4:0.0}%回复一点魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性,基本</t>
+  </si>
+  <si>
+    <t>单伤,基本</t>
+  </si>
+  <si>
+    <t>地形,基本</t>
+  </si>
+  <si>
+    <t>复活己方指定单位，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddTrap(54000004,lv,s.Rate,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Def+=s.Help;t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000202,lv,s.Time);t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方单体造成{0}点魔法伤害，并有{4:0.0}%几率冰冻目标{2:0.0}回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久提高我方单体{3:0.0}点防御，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使我方单体获得圣盾{2:0.0}回合，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状，单治，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单治，正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JobId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,基础</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,2);else m.SetTile(mouse,20,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对范围内3个随机敌人造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单负</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000009,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱：冰冻召唤的怪物5回合。触发几率{4:0.0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.ReviveUnit(mouse,s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制一张己方场上怪物到手牌，并提升{3:0}级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱：使对方使用的下张卡牌无效。触发几率{4:0.0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddTrap(54000001,lv,s.Rate,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000019,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌我所有单位进入混乱状态{2:0.0}回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000021,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse).Top(3))p.AddSpellMissile(im,s,mouse,"purpleline");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000004,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Transform(51013002);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddMp(1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{4:0.0}%几率策反目标敌方怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>把敌方单体变为羊，{4:0.0}%回复一点魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
+    <t>对1行敌方单位造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Spd+=s.Help;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Spd-=s.Help;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高目标速度{3:0}点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低目标速度{3:0}点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺取对方召唤师{3:0.0}点魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目前单位传送到随机相邻行，使用后{4:0.0}%返回手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.SetRowUnitPosition(mouse.Y,p.IsLeft,"siden");if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，手牌,基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，手牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4361,7 +4392,35 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="151">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4401,11 +4460,59 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4497,16 +4604,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -4514,9 +4611,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4541,6 +4641,43 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5569,99 +5706,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6428,194 +6472,6 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7477,9 +7333,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'~类型统计'!$A$2:$A$11</c:f>
+              <c:f>'~类型统计'!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>单伤</c:v>
                 </c:pt>
@@ -7502,23 +7358,26 @@
                   <c:v>手牌</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>过牌</c:v>
+                  <c:v>陷阱</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>陷阱</c:v>
+                  <c:v>地形</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>地形</c:v>
+                  <c:v>属性</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>位移</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'~类型统计'!$B$2:$B$11</c:f>
+              <c:f>'~类型统计'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -7526,7 +7385,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -7538,16 +7397,19 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8273,7 +8135,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8297,132 +8159,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171" tableBorderDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149" tableBorderDxfId="148">
   <autoFilter ref="A3:AB125"/>
   <sortState ref="A4:AB125">
     <sortCondition ref="A3:A125"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="169"/>
-    <tableColumn id="2" name="Name" dataDxfId="168"/>
-    <tableColumn id="20" name="Ename" dataDxfId="167"/>
-    <tableColumn id="21" name="Remark" dataDxfId="166"/>
-    <tableColumn id="3" name="Star" dataDxfId="165"/>
-    <tableColumn id="4" name="Type" dataDxfId="164"/>
-    <tableColumn id="5" name="Attr" dataDxfId="163"/>
-    <tableColumn id="8" name="Quality" dataDxfId="162">
+    <tableColumn id="1" name="Id" dataDxfId="147"/>
+    <tableColumn id="2" name="Name" dataDxfId="146"/>
+    <tableColumn id="20" name="Ename" dataDxfId="145"/>
+    <tableColumn id="21" name="Remark" dataDxfId="144"/>
+    <tableColumn id="3" name="Star" dataDxfId="143"/>
+    <tableColumn id="4" name="Type" dataDxfId="142"/>
+    <tableColumn id="5" name="Attr" dataDxfId="141"/>
+    <tableColumn id="8" name="Quality" dataDxfId="140">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="161"/>
-    <tableColumn id="9" name="Damage" dataDxfId="160"/>
-    <tableColumn id="10" name="Cure" dataDxfId="159"/>
-    <tableColumn id="11" name="Time" dataDxfId="158"/>
-    <tableColumn id="13" name="Help" dataDxfId="157"/>
-    <tableColumn id="16" name="Rate" dataDxfId="156"/>
-    <tableColumn id="12" name="Modify" dataDxfId="155"/>
-    <tableColumn id="27" name="Sum" dataDxfId="48">
+    <tableColumn id="7" name="Cost" dataDxfId="139"/>
+    <tableColumn id="9" name="Damage" dataDxfId="138"/>
+    <tableColumn id="10" name="Cure" dataDxfId="137"/>
+    <tableColumn id="11" name="Time" dataDxfId="136"/>
+    <tableColumn id="13" name="Help" dataDxfId="135"/>
+    <tableColumn id="16" name="Rate" dataDxfId="134"/>
+    <tableColumn id="12" name="Modify" dataDxfId="133"/>
+    <tableColumn id="27" name="Sum" dataDxfId="61">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="154"/>
-    <tableColumn id="15" name="Target" dataDxfId="153"/>
-    <tableColumn id="25" name="Mark" dataDxfId="152"/>
-    <tableColumn id="22" name="Effect" dataDxfId="151"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="150"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="149"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="148"/>
-    <tableColumn id="26" name="JobId" dataDxfId="147"/>
-    <tableColumn id="18" name="Res" dataDxfId="146"/>
-    <tableColumn id="19" name="Icon" dataDxfId="145"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="144"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="143"/>
+    <tableColumn id="6" name="Range" dataDxfId="132"/>
+    <tableColumn id="15" name="Target" dataDxfId="131"/>
+    <tableColumn id="25" name="Mark" dataDxfId="130"/>
+    <tableColumn id="22" name="Effect" dataDxfId="129"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="128"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="127"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="126"/>
+    <tableColumn id="26" name="JobId" dataDxfId="125"/>
+    <tableColumn id="18" name="Res" dataDxfId="124"/>
+    <tableColumn id="19" name="Icon" dataDxfId="123"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="122"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119" tableBorderDxfId="118">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="116"/>
-    <tableColumn id="2" name="Name" dataDxfId="115"/>
-    <tableColumn id="20" name="Ename" dataDxfId="114"/>
-    <tableColumn id="21" name="Remark" dataDxfId="113"/>
-    <tableColumn id="3" name="Star" dataDxfId="112"/>
-    <tableColumn id="4" name="Type" dataDxfId="111"/>
-    <tableColumn id="5" name="Attr" dataDxfId="110"/>
-    <tableColumn id="8" name="Quality" dataDxfId="109">
+    <tableColumn id="1" name="Id" dataDxfId="117"/>
+    <tableColumn id="2" name="Name" dataDxfId="116"/>
+    <tableColumn id="20" name="Ename" dataDxfId="115"/>
+    <tableColumn id="21" name="Remark" dataDxfId="114"/>
+    <tableColumn id="3" name="Star" dataDxfId="113"/>
+    <tableColumn id="4" name="Type" dataDxfId="112"/>
+    <tableColumn id="5" name="Attr" dataDxfId="111"/>
+    <tableColumn id="8" name="Quality" dataDxfId="110">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="108"/>
-    <tableColumn id="9" name="Damage" dataDxfId="107"/>
-    <tableColumn id="10" name="Cure" dataDxfId="106"/>
-    <tableColumn id="11" name="Time" dataDxfId="105"/>
-    <tableColumn id="13" name="Help" dataDxfId="104"/>
-    <tableColumn id="16" name="Rate" dataDxfId="103"/>
-    <tableColumn id="12" name="Modify" dataDxfId="102"/>
-    <tableColumn id="27" name="Sum" dataDxfId="47">
+    <tableColumn id="7" name="Cost" dataDxfId="109"/>
+    <tableColumn id="9" name="Damage" dataDxfId="108"/>
+    <tableColumn id="10" name="Cure" dataDxfId="107"/>
+    <tableColumn id="11" name="Time" dataDxfId="106"/>
+    <tableColumn id="13" name="Help" dataDxfId="105"/>
+    <tableColumn id="16" name="Rate" dataDxfId="104"/>
+    <tableColumn id="12" name="Modify" dataDxfId="103"/>
+    <tableColumn id="27" name="Sum" dataDxfId="60">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="101"/>
-    <tableColumn id="15" name="Target" dataDxfId="100"/>
-    <tableColumn id="25" name="Mark" dataDxfId="99"/>
-    <tableColumn id="22" name="Effect" dataDxfId="98"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="97"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="96"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="95"/>
-    <tableColumn id="26" name="JobId" dataDxfId="94"/>
-    <tableColumn id="18" name="Res" dataDxfId="93"/>
-    <tableColumn id="19" name="Icon" dataDxfId="92"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="91"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="90"/>
+    <tableColumn id="6" name="Range" dataDxfId="102"/>
+    <tableColumn id="15" name="Target" dataDxfId="101"/>
+    <tableColumn id="25" name="Mark" dataDxfId="100"/>
+    <tableColumn id="22" name="Effect" dataDxfId="99"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="98"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="97"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="96"/>
+    <tableColumn id="26" name="JobId" dataDxfId="95"/>
+    <tableColumn id="18" name="Res" dataDxfId="94"/>
+    <tableColumn id="19" name="Icon" dataDxfId="93"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="92"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="90" tableBorderDxfId="89">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="75"/>
-    <tableColumn id="2" name="Name" dataDxfId="74"/>
-    <tableColumn id="20" name="Ename" dataDxfId="73"/>
-    <tableColumn id="21" name="Remark" dataDxfId="72"/>
-    <tableColumn id="3" name="Star" dataDxfId="71"/>
-    <tableColumn id="4" name="Type" dataDxfId="70"/>
-    <tableColumn id="5" name="Attr" dataDxfId="69"/>
-    <tableColumn id="8" name="Quality" dataDxfId="68">
+    <tableColumn id="1" name="Id" dataDxfId="88"/>
+    <tableColumn id="2" name="Name" dataDxfId="87"/>
+    <tableColumn id="20" name="Ename" dataDxfId="86"/>
+    <tableColumn id="21" name="Remark" dataDxfId="85"/>
+    <tableColumn id="3" name="Star" dataDxfId="84"/>
+    <tableColumn id="4" name="Type" dataDxfId="83"/>
+    <tableColumn id="5" name="Attr" dataDxfId="82"/>
+    <tableColumn id="8" name="Quality" dataDxfId="81">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="67"/>
-    <tableColumn id="9" name="Damage" dataDxfId="66"/>
-    <tableColumn id="10" name="Cure" dataDxfId="65"/>
-    <tableColumn id="11" name="Time" dataDxfId="64"/>
-    <tableColumn id="13" name="Help" dataDxfId="63"/>
-    <tableColumn id="16" name="Rate" dataDxfId="62"/>
-    <tableColumn id="12" name="Modify" dataDxfId="61"/>
-    <tableColumn id="27" name="Sum" dataDxfId="46">
+    <tableColumn id="7" name="Cost" dataDxfId="80"/>
+    <tableColumn id="9" name="Damage" dataDxfId="79"/>
+    <tableColumn id="10" name="Cure" dataDxfId="78"/>
+    <tableColumn id="11" name="Time" dataDxfId="77"/>
+    <tableColumn id="13" name="Help" dataDxfId="76"/>
+    <tableColumn id="16" name="Rate" dataDxfId="75"/>
+    <tableColumn id="12" name="Modify" dataDxfId="74"/>
+    <tableColumn id="27" name="Sum" dataDxfId="59">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="60"/>
-    <tableColumn id="15" name="Target" dataDxfId="59"/>
-    <tableColumn id="25" name="Mark" dataDxfId="58"/>
-    <tableColumn id="22" name="Effect" dataDxfId="57"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="56"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="55"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="54"/>
-    <tableColumn id="26" name="JobId" dataDxfId="53"/>
-    <tableColumn id="18" name="Res" dataDxfId="52"/>
-    <tableColumn id="19" name="Icon" dataDxfId="51"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="50"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="49"/>
+    <tableColumn id="6" name="Range" dataDxfId="73"/>
+    <tableColumn id="15" name="Target" dataDxfId="72"/>
+    <tableColumn id="25" name="Mark" dataDxfId="71"/>
+    <tableColumn id="22" name="Effect" dataDxfId="70"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="69"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="68"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="67"/>
+    <tableColumn id="26" name="JobId" dataDxfId="66"/>
+    <tableColumn id="18" name="Res" dataDxfId="65"/>
+    <tableColumn id="19" name="Icon" dataDxfId="64"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="63"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8718,16 +8580,17 @@
   <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="3.125" customWidth="1"/>
     <col min="6" max="6" width="3.625" customWidth="1"/>
     <col min="7" max="9" width="3.125" customWidth="1"/>
@@ -8756,7 +8619,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -8768,7 +8631,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -8783,16 +8646,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -8801,22 +8664,22 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -8825,10 +8688,10 @@
         <v>212</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -8854,7 +8717,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -8866,19 +8729,19 @@
         <v>369</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>374</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -8887,10 +8750,10 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>197</v>
@@ -8899,10 +8762,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -8911,7 +8774,7 @@
         <v>197</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AB2" s="30" t="s">
         <v>360</v>
@@ -8928,7 +8791,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -8940,7 +8803,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -8955,40 +8818,40 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -8997,10 +8860,10 @@
         <v>205</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="36">
@@ -9014,7 +8877,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>628</v>
+        <v>760</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -9064,10 +8927,10 @@
         <v>85.2</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>2</v>
@@ -9098,7 +8961,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -9148,10 +9011,10 @@
         <v>80</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>4</v>
@@ -9182,7 +9045,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -9232,10 +9095,10 @@
         <v>100</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>7</v>
@@ -9266,7 +9129,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -9316,10 +9179,10 @@
         <v>100</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>9</v>
@@ -9352,7 +9215,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -9396,16 +9259,16 @@
         <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="S8">
         <v>100</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
@@ -9438,7 +9301,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -9488,10 +9351,10 @@
         <v>90</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>2</v>
@@ -9522,7 +9385,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -9572,10 +9435,10 @@
         <v>90</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
@@ -9606,7 +9469,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -9656,10 +9519,10 @@
         <v>90</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>2</v>
@@ -9690,7 +9553,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -9740,10 +9603,10 @@
         <v>90</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>2</v>
@@ -9774,7 +9637,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -9824,10 +9687,10 @@
         <v>90</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>2</v>
@@ -9858,7 +9721,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -9908,10 +9771,10 @@
         <v>90</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>2</v>
@@ -9942,7 +9805,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -9992,10 +9855,10 @@
         <v>90</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>2</v>
@@ -10020,13 +9883,13 @@
         <v>53000013</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="E16" s="15">
         <v>4</v>
@@ -10070,16 +9933,16 @@
         <v>0</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="S16">
         <v>100</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>114</v>
@@ -10106,13 +9969,13 @@
         <v>53000014</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -10156,19 +10019,19 @@
         <v>30</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="S17">
         <v>100</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1">
@@ -10187,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="24">
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>53000015</v>
       </c>
@@ -10198,7 +10061,7 @@
         <v>244</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -10248,7 +10111,7 @@
         <v>75</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>497</v>
+        <v>740</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>376</v>
@@ -10284,7 +10147,7 @@
         <v>245</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -10334,7 +10197,7 @@
         <v>75</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>377</v>
@@ -10370,7 +10233,7 @@
         <v>246</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -10420,10 +10283,10 @@
         <v>100</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>24</v>
@@ -10456,7 +10319,7 @@
         <v>247</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -10506,10 +10369,10 @@
         <v>102</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>26</v>
@@ -10542,7 +10405,7 @@
         <v>248</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
@@ -10592,10 +10455,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>28</v>
@@ -10630,7 +10493,7 @@
         <v>249</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -10680,10 +10543,10 @@
         <v>105</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>28</v>
@@ -10716,7 +10579,7 @@
         <v>250</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -10766,10 +10629,10 @@
         <v>93.75</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>31</v>
@@ -10802,7 +10665,7 @@
         <v>251</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -10852,10 +10715,10 @@
         <v>75</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>34</v>
@@ -10886,7 +10749,7 @@
         <v>252</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -10936,10 +10799,10 @@
         <v>100</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>2</v>
@@ -10970,7 +10833,7 @@
         <v>253</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -11020,10 +10883,10 @@
         <v>90</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>34</v>
@@ -11056,7 +10919,7 @@
         <v>254</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -11106,10 +10969,10 @@
         <v>100</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>444</v>
+        <v>743</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>38</v>
@@ -11142,7 +11005,7 @@
         <v>255</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -11192,10 +11055,10 @@
         <v>75</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>379</v>
+        <v>737</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>41</v>
@@ -11226,7 +11089,7 @@
         <v>256</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>617</v>
+        <v>754</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -11239,7 +11102,7 @@
       </c>
       <c r="H30" s="1">
         <f>IF(AND(P30&gt;=13,P30&lt;=16),5,IF(AND(P30&gt;=9,P30&lt;=12),4,IF(AND(P30&gt;=5,P30&lt;=8),3,IF(AND(P30&gt;=1,P30&lt;=4),2,IF(AND(P30&gt;=-3,P30&lt;=0),1,IF(AND(P30&gt;=-5,P30&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -11254,17 +11117,17 @@
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="41">
         <f>S30-100+O30</f>
-        <v>-73</v>
+        <v>-4</v>
       </c>
       <c r="Q30" s="1">
         <v>10</v>
@@ -11273,11 +11136,13 @@
         <v>43</v>
       </c>
       <c r="S30">
-        <v>30</v>
-      </c>
-      <c r="T30" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>750</v>
+      </c>
       <c r="U30" s="7" t="s">
-        <v>531</v>
+        <v>752</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>44</v>
@@ -11297,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="24">
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>53000028</v>
       </c>
@@ -11308,7 +11173,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>618</v>
+        <v>755</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -11321,7 +11186,7 @@
       </c>
       <c r="H31" s="1">
         <f>IF(AND(P31&gt;=13,P31&lt;=16),5,IF(AND(P31&gt;=9,P31&lt;=12),4,IF(AND(P31&gt;=5,P31&lt;=8),3,IF(AND(P31&gt;=1,P31&lt;=4),2,IF(AND(P31&gt;=-3,P31&lt;=0),1,IF(AND(P31&gt;=-5,P31&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -11336,17 +11201,17 @@
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P31" s="41">
         <f>S31-100+O31</f>
-        <v>-73</v>
+        <v>-4</v>
       </c>
       <c r="Q31" s="1">
         <v>10</v>
@@ -11355,11 +11220,13 @@
         <v>43</v>
       </c>
       <c r="S31">
-        <v>30</v>
-      </c>
-      <c r="T31" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>751</v>
+      </c>
       <c r="U31" s="7" t="s">
-        <v>532</v>
+        <v>753</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>46</v>
@@ -11390,7 +11257,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -11403,7 +11270,7 @@
       </c>
       <c r="H32" s="1">
         <f>IF(AND(P32&gt;=13,P32&lt;=16),5,IF(AND(P32&gt;=9,P32&lt;=12),4,IF(AND(P32&gt;=5,P32&lt;=8),3,IF(AND(P32&gt;=1,P32&lt;=4),2,IF(AND(P32&gt;=-3,P32&lt;=0),1,IF(AND(P32&gt;=-5,P32&lt;=-4),0,6))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>
@@ -11424,11 +11291,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P32" s="41">
         <f>S32-100+O32</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="1">
         <v>10</v>
@@ -11440,10 +11307,10 @@
         <v>100</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="U32" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>48</v>
@@ -11468,13 +11335,13 @@
         <v>53000030</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -11524,10 +11391,10 @@
         <v>100</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11554,13 +11421,13 @@
         <v>53000031</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11610,10 +11477,10 @@
         <v>100</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>4</v>
@@ -11646,7 +11513,7 @@
         <v>259</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -11696,10 +11563,10 @@
         <v>100</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>54</v>
@@ -11730,7 +11597,7 @@
         <v>260</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -11781,10 +11648,10 @@
         <v>61</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>57</v>
@@ -11804,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" ht="24">
       <c r="A37">
         <v>53000037</v>
       </c>
@@ -11815,7 +11682,7 @@
         <v>261</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>617</v>
+        <v>746</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -11828,7 +11695,7 @@
       </c>
       <c r="H37" s="1">
         <f>IF(AND(P37&gt;=13,P37&lt;=16),5,IF(AND(P37&gt;=9,P37&lt;=12),4,IF(AND(P37&gt;=5,P37&lt;=8),3,IF(AND(P37&gt;=1,P37&lt;=4),2,IF(AND(P37&gt;=-3,P37&lt;=0),1,IF(AND(P37&gt;=-5,P37&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -11837,23 +11704,23 @@
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
       </c>
       <c r="M37" s="1">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="41">
         <f>S37-100+O37</f>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
         <v>12</v>
@@ -11862,11 +11729,13 @@
         <v>19</v>
       </c>
       <c r="S37">
-        <v>90</v>
-      </c>
-      <c r="T37" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>741</v>
+      </c>
       <c r="U37" s="7" t="s">
-        <v>422</v>
+        <v>744</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>59</v>
@@ -11897,7 +11766,7 @@
         <v>262</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>621</v>
+        <v>747</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -11910,7 +11779,7 @@
       </c>
       <c r="H38" s="1">
         <f>IF(AND(P38&gt;=13,P38&lt;=16),5,IF(AND(P38&gt;=9,P38&lt;=12),4,IF(AND(P38&gt;=5,P38&lt;=8),3,IF(AND(P38&gt;=1,P38&lt;=4),2,IF(AND(P38&gt;=-3,P38&lt;=0),1,IF(AND(P38&gt;=-5,P38&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1">
         <v>2</v>
@@ -11919,23 +11788,23 @@
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M38" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P38" s="41">
         <f>S38-100+O38</f>
-        <v>-41</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="1">
         <v>12</v>
@@ -11944,17 +11813,21 @@
         <v>19</v>
       </c>
       <c r="S38">
-        <v>60</v>
-      </c>
-      <c r="T38" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>742</v>
+      </c>
       <c r="U38" s="7" t="s">
-        <v>608</v>
+        <v>745</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
+      <c r="X38" s="1">
+        <v>11000002</v>
+      </c>
       <c r="Y38" s="1">
         <v>4</v>
       </c>
@@ -11973,13 +11846,13 @@
         <v>53000039</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -12029,10 +11902,10 @@
         <v>85</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>597</v>
+        <v>739</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -12059,13 +11932,13 @@
         <v>53000040</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -12115,10 +11988,10 @@
         <v>100</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>4</v>
@@ -12151,7 +12024,7 @@
         <v>264</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -12201,10 +12074,10 @@
         <v>120</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>63</v>
@@ -12224,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="24">
+    <row r="42" spans="1:28" ht="48">
       <c r="A42">
         <v>53000042</v>
       </c>
@@ -12235,7 +12108,7 @@
         <v>265</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -12285,10 +12158,10 @@
         <v>100</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>65</v>
@@ -12319,7 +12192,7 @@
         <v>266</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -12369,10 +12242,10 @@
         <v>100</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>432</v>
+        <v>756</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>4</v>
@@ -12397,13 +12270,13 @@
         <v>53000044</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -12453,10 +12326,10 @@
         <v>95</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>4</v>
@@ -12478,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="48">
+    <row r="45" spans="1:28" ht="60">
       <c r="A45">
         <v>53000045</v>
       </c>
@@ -12489,10 +12362,10 @@
         <v>268</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>201</v>
@@ -12502,10 +12375,10 @@
       </c>
       <c r="H45" s="1">
         <f>IF(AND(P45&gt;=13,P45&lt;=16),5,IF(AND(P45&gt;=9,P45&lt;=12),4,IF(AND(P45&gt;=5,P45&lt;=8),3,IF(AND(P45&gt;=1,P45&lt;=4),2,IF(AND(P45&gt;=-3,P45&lt;=0),1,IF(AND(P45&gt;=-5,P45&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -12527,7 +12400,7 @@
       </c>
       <c r="P45" s="41">
         <f>S45-100+O45</f>
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="1">
         <v>10</v>
@@ -12536,20 +12409,21 @@
         <v>342</v>
       </c>
       <c r="S45">
-        <f>(720+500)/20</f>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>502</v>
+        <v>759</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>500</v>
+        <v>757</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>364</v>
       </c>
       <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
+      <c r="X45" s="1">
+        <v>11000005</v>
+      </c>
       <c r="Y45" s="1">
         <v>4</v>
       </c>
@@ -12574,7 +12448,7 @@
         <v>269</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -12624,10 +12498,10 @@
         <v>100</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>69</v>
@@ -12658,7 +12532,7 @@
         <v>270</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
@@ -12708,10 +12582,10 @@
         <v>110</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>71</v>
@@ -12744,7 +12618,7 @@
         <v>271</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -12794,10 +12668,10 @@
         <v>100</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>26</v>
@@ -12828,7 +12702,7 @@
         <v>272</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -12878,10 +12752,10 @@
         <v>110</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>74</v>
@@ -12914,7 +12788,7 @@
         <v>273</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E50" s="1">
         <v>4</v>
@@ -12958,16 +12832,16 @@
         <v>0</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="S50">
         <v>90</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>76</v>
@@ -12998,7 +12872,7 @@
         <v>274</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -13048,10 +12922,10 @@
         <v>100</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>78</v>
@@ -13082,7 +12956,7 @@
         <v>275</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -13132,10 +13006,10 @@
         <v>100</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>80</v>
@@ -13166,7 +13040,7 @@
         <v>276</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -13216,10 +13090,10 @@
         <v>100</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>82</v>
@@ -13239,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="24">
+    <row r="54" spans="1:28" ht="48">
       <c r="A54">
         <v>53000054</v>
       </c>
@@ -13250,7 +13124,7 @@
         <v>217</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -13300,10 +13174,10 @@
         <v>83.5</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="U54" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>84</v>
@@ -13334,7 +13208,7 @@
         <v>277</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -13384,10 +13258,10 @@
         <v>80</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>2</v>
@@ -13418,7 +13292,7 @@
         <v>278</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -13468,10 +13342,10 @@
         <v>37.5</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>87</v>
@@ -13502,7 +13376,7 @@
         <v>336</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -13546,16 +13420,16 @@
         <v>3</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="S57">
         <v>75</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>2</v>
@@ -13586,7 +13460,7 @@
         <v>279</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -13636,10 +13510,10 @@
         <v>90</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="U58" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>90</v>
@@ -13670,7 +13544,7 @@
         <v>280</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -13720,10 +13594,10 @@
         <v>28</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>92</v>
@@ -13754,7 +13628,7 @@
         <v>281</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -13804,10 +13678,10 @@
         <v>26</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>92</v>
@@ -13838,7 +13712,7 @@
         <v>282</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -13888,10 +13762,10 @@
         <v>150</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>20</v>
@@ -13922,7 +13796,7 @@
         <v>283</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -13972,10 +13846,10 @@
         <v>150</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="U62" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>97</v>
@@ -14006,7 +13880,7 @@
         <v>284</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -14056,10 +13930,10 @@
         <v>75</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>99</v>
@@ -14090,7 +13964,7 @@
         <v>285</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -14140,10 +14014,10 @@
         <v>75</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>101</v>
@@ -14174,7 +14048,7 @@
         <v>219</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
@@ -14224,10 +14098,10 @@
         <v>250</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>102</v>
@@ -14258,7 +14132,7 @@
         <v>286</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -14308,10 +14182,10 @@
         <v>85</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>4</v>
@@ -14344,7 +14218,7 @@
         <v>287</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -14394,10 +14268,10 @@
         <v>90</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>104</v>
@@ -14428,7 +14302,7 @@
         <v>288</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -14478,10 +14352,10 @@
         <v>60</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>106</v>
@@ -14514,7 +14388,7 @@
         <v>222</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -14564,10 +14438,10 @@
         <v>100</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="U69" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>108</v>
@@ -14598,7 +14472,7 @@
         <v>224</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -14649,7 +14523,7 @@
       </c>
       <c r="T70" s="11"/>
       <c r="U70" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>110</v>
@@ -14680,7 +14554,7 @@
         <v>221</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
@@ -14730,7 +14604,7 @@
         <v>100</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>352</v>
@@ -14766,7 +14640,7 @@
         <v>289</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -14816,10 +14690,10 @@
         <v>200</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>114</v>
@@ -14850,7 +14724,7 @@
         <v>290</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E73" s="1">
         <v>3</v>
@@ -14900,10 +14774,10 @@
         <v>95</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>116</v>
@@ -14934,7 +14808,7 @@
         <v>335</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -14984,10 +14858,10 @@
         <v>105</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>118</v>
@@ -15018,7 +14892,7 @@
         <v>291</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E75" s="1">
         <v>4</v>
@@ -15068,10 +14942,10 @@
         <v>180</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>120</v>
@@ -15102,7 +14976,7 @@
         <v>292</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -15152,10 +15026,10 @@
         <v>110</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="U76" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>122</v>
@@ -15188,7 +15062,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E77" s="1">
         <v>4</v>
@@ -15238,10 +15112,10 @@
         <v>60</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="U77" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>9</v>
@@ -15272,7 +15146,7 @@
         <v>294</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -15316,16 +15190,16 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="S78">
         <v>50</v>
       </c>
       <c r="T78" s="43" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>102</v>
@@ -15356,7 +15230,7 @@
         <v>295</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -15406,10 +15280,10 @@
         <v>120</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>126</v>
@@ -15442,7 +15316,7 @@
         <v>296</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E80" s="1">
         <v>2</v>
@@ -15492,10 +15366,10 @@
         <v>100</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="U80" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>90</v>
@@ -15528,7 +15402,7 @@
         <v>297</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -15578,10 +15452,10 @@
         <v>90</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="U81" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>57</v>
@@ -15614,7 +15488,7 @@
         <v>298</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -15664,10 +15538,10 @@
         <v>120</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>131</v>
@@ -15692,13 +15566,13 @@
         <v>53000083</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E83" s="1">
         <v>2</v>
@@ -15748,13 +15622,13 @@
         <v>60</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
@@ -15782,7 +15656,7 @@
         <v>223</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -15832,13 +15706,13 @@
         <v>40</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="U84" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
@@ -15866,7 +15740,7 @@
         <v>225</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -15916,10 +15790,10 @@
         <v>100</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="U85" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>132</v>
@@ -15952,7 +15826,7 @@
         <v>226</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -16003,7 +15877,7 @@
       </c>
       <c r="T86" s="11"/>
       <c r="U86" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>2</v>
@@ -16034,7 +15908,7 @@
         <v>227</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -16084,10 +15958,10 @@
         <v>75</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>487</v>
+        <v>749</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>65</v>
@@ -16120,7 +15994,7 @@
         <v>300</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -16170,10 +16044,10 @@
         <v>100</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="U88" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V88" s="1" t="s">
         <v>138</v>
@@ -16208,7 +16082,7 @@
         <v>301</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -16258,13 +16132,13 @@
         <v>90</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="U89" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>140</v>
@@ -16294,7 +16168,7 @@
         <v>302</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E90" s="1">
         <v>4</v>
@@ -16344,10 +16218,10 @@
         <v>82.5</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="U90" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>26</v>
@@ -16380,7 +16254,7 @@
         <v>303</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
@@ -16430,10 +16304,10 @@
         <v>100</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="U91" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V91" s="1" t="s">
         <v>143</v>
@@ -16464,7 +16338,7 @@
         <v>304</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -16514,10 +16388,10 @@
         <v>75</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="U92" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V92" s="1" t="s">
         <v>31</v>
@@ -16550,7 +16424,7 @@
         <v>305</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -16600,10 +16474,10 @@
         <v>125</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="U93" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>145</v>
@@ -16634,7 +16508,7 @@
         <v>306</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -16684,10 +16558,10 @@
         <v>25</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>148</v>
@@ -16718,7 +16592,7 @@
         <v>307</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -16768,10 +16642,10 @@
         <v>80</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="U95" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="V95" s="1" t="s">
         <v>150</v>
@@ -16804,7 +16678,7 @@
         <v>308</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
@@ -16854,10 +16728,10 @@
         <v>50</v>
       </c>
       <c r="T96" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>34</v>
@@ -16888,7 +16762,7 @@
         <v>309</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E97" s="1">
         <v>2</v>
@@ -16938,10 +16812,10 @@
         <v>45</v>
       </c>
       <c r="T97" s="11" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="U97" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V97" s="1" t="s">
         <v>90</v>
@@ -16974,7 +16848,7 @@
         <v>310</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
@@ -17024,10 +16898,10 @@
         <v>110</v>
       </c>
       <c r="T98" s="11" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="U98" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V98" s="1" t="s">
         <v>65</v>
@@ -17058,7 +16932,7 @@
         <v>311</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -17108,10 +16982,10 @@
         <v>95</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="U99" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V99" s="1" t="s">
         <v>106</v>
@@ -17142,7 +17016,7 @@
         <v>312</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -17192,10 +17066,10 @@
         <v>80</v>
       </c>
       <c r="T100" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V100" s="1" t="s">
         <v>156</v>
@@ -17226,7 +17100,7 @@
         <v>229</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -17276,10 +17150,10 @@
         <v>75</v>
       </c>
       <c r="T101" s="11" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="U101" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="V101" s="1" t="s">
         <v>132</v>
@@ -17310,7 +17184,7 @@
         <v>313</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -17360,10 +17234,10 @@
         <v>100</v>
       </c>
       <c r="T102" s="11" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="U102" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V102" s="1" t="s">
         <v>82</v>
@@ -17394,7 +17268,7 @@
         <v>314</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -17444,10 +17318,10 @@
         <v>65</v>
       </c>
       <c r="T103" s="11" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>160</v>
@@ -17480,7 +17354,7 @@
         <v>315</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E104" s="1">
         <v>2</v>
@@ -17531,7 +17405,7 @@
       </c>
       <c r="T104" s="11"/>
       <c r="U104" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="V104" s="1" t="s">
         <v>162</v>
@@ -17562,7 +17436,7 @@
         <v>230</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -17612,10 +17486,10 @@
         <v>25</v>
       </c>
       <c r="T105" s="11" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="V105" s="1" t="s">
         <v>164</v>
@@ -17646,7 +17520,7 @@
         <v>316</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -17696,10 +17570,10 @@
         <v>90</v>
       </c>
       <c r="T106" s="11" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="U106" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="V106" s="1" t="s">
         <v>166</v>
@@ -17730,7 +17604,7 @@
         <v>317</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -17780,10 +17654,10 @@
         <v>90</v>
       </c>
       <c r="T107" s="11" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="U107" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V107" s="1" t="s">
         <v>168</v>
@@ -17814,7 +17688,7 @@
         <v>318</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
@@ -17864,10 +17738,10 @@
         <v>85</v>
       </c>
       <c r="T108" s="11" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="U108" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V108" s="1" t="s">
         <v>170</v>
@@ -17898,7 +17772,7 @@
         <v>319</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -17948,10 +17822,10 @@
         <v>90</v>
       </c>
       <c r="T109" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U109" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V109" s="1" t="s">
         <v>172</v>
@@ -17982,7 +17856,7 @@
         <v>320</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E110" s="1">
         <v>4</v>
@@ -18032,10 +17906,10 @@
         <v>105</v>
       </c>
       <c r="T110" s="11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="U110" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="V110" s="1" t="s">
         <v>34</v>
@@ -18066,7 +17940,7 @@
         <v>321</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
@@ -18116,10 +17990,10 @@
         <v>80</v>
       </c>
       <c r="T111" s="11" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="U111" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V111" s="1" t="s">
         <v>175</v>
@@ -18150,7 +18024,7 @@
         <v>322</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
@@ -18200,10 +18074,10 @@
         <v>120</v>
       </c>
       <c r="T112" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="V112" s="1" t="s">
         <v>177</v>
@@ -18234,7 +18108,7 @@
         <v>323</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
@@ -18284,10 +18158,10 @@
         <v>70</v>
       </c>
       <c r="T113" s="11" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="U113" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="V113" s="1" t="s">
         <v>179</v>
@@ -18318,7 +18192,7 @@
         <v>324</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -18402,7 +18276,7 @@
         <v>325</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E115" s="1">
         <v>2</v>
@@ -18486,7 +18360,7 @@
         <v>326</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>627</v>
+        <v>761</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -18536,10 +18410,10 @@
         <v>65</v>
       </c>
       <c r="T116" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="U116" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="V116" s="1" t="s">
         <v>186</v>
@@ -18570,7 +18444,7 @@
         <v>327</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E117" s="1">
         <v>2</v>
@@ -18620,10 +18494,10 @@
         <v>90</v>
       </c>
       <c r="T117" s="11" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="U117" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>2</v>
@@ -18654,7 +18528,7 @@
         <v>328</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E118" s="1">
         <v>2</v>
@@ -18704,10 +18578,10 @@
         <v>90</v>
       </c>
       <c r="T118" s="11" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="U118" s="7" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>2</v>
@@ -18738,7 +18612,7 @@
         <v>329</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E119" s="1">
         <v>2</v>
@@ -18788,10 +18662,10 @@
         <v>90</v>
       </c>
       <c r="T119" s="11" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="U119" s="7" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>2</v>
@@ -18822,7 +18696,7 @@
         <v>330</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E120" s="1">
         <v>2</v>
@@ -18872,10 +18746,10 @@
         <v>90</v>
       </c>
       <c r="T120" s="11" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="U120" s="7" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="V120" s="1" t="s">
         <v>2</v>
@@ -18906,7 +18780,7 @@
         <v>331</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
@@ -18956,10 +18830,10 @@
         <v>90</v>
       </c>
       <c r="T121" s="11" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="U121" s="7" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="V121" s="1" t="s">
         <v>2</v>
@@ -18990,7 +18864,7 @@
         <v>231</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E122" s="1">
         <v>2</v>
@@ -19040,10 +18914,10 @@
         <v>90</v>
       </c>
       <c r="T122" s="11" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="U122" s="7" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="V122" s="1" t="s">
         <v>2</v>
@@ -19074,7 +18948,7 @@
         <v>332</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
@@ -19124,10 +18998,10 @@
         <v>90</v>
       </c>
       <c r="T123" s="11" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="U123" s="7" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="V123" s="1" t="s">
         <v>2</v>
@@ -19158,7 +19032,7 @@
         <v>333</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
@@ -19208,16 +19082,16 @@
         <v>110</v>
       </c>
       <c r="T124" s="11" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="U124" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="W124" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="X124" s="1"/>
       <c r="Y124" s="1">
@@ -19244,7 +19118,7 @@
         <v>334</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E125" s="1">
         <v>5</v>
@@ -19294,10 +19168,10 @@
         <v>150</v>
       </c>
       <c r="T125" s="11" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="U125" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="V125" s="1" t="s">
         <v>41</v>
@@ -19325,106 +19199,111 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I70:I114 I38:I68 I120:I124 I17:I35 I4:I15">
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="55" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125 J4:O4 J17:P35 J70:P123 J5:P15 J38:P68">
-    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="43" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="notEqual">
       <formula>$E124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I122">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="notEqual">
       <formula>$E115</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="notEqual">
       <formula>$E125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="notEqual">
       <formula>$E69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:P69">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="notEqual">
       <formula>$E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:P36">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15 H17:H125">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="notEqual">
       <formula>$E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:P16">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThanOrEqual">
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19478,7 +19357,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -19490,7 +19369,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -19505,16 +19384,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -19523,22 +19402,22 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -19547,10 +19426,10 @@
         <v>212</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -19576,7 +19455,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -19588,19 +19467,19 @@
         <v>360</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -19609,7 +19488,7 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>362</v>
@@ -19621,10 +19500,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -19650,7 +19529,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -19662,7 +19541,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -19677,16 +19556,16 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -19695,7 +19574,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -19707,10 +19586,10 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -19719,10 +19598,10 @@
         <v>205</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="24">
@@ -19730,7 +19609,7 @@
         <v>53100000</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="37"/>
@@ -19782,13 +19661,13 @@
         <v>-1</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -19862,7 +19741,7 @@
         <v>-1</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>376</v>
@@ -19890,7 +19769,7 @@
         <v>53100002</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="37"/>
@@ -19942,13 +19821,13 @@
         <v>-1</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
@@ -19970,7 +19849,7 @@
         <v>53100003</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="37"/>
@@ -20022,10 +19901,10 @@
         <v>-1</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>2</v>
@@ -20050,7 +19929,7 @@
         <v>53100004</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="37"/>
@@ -20102,10 +19981,10 @@
         <v>-1</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>2</v>
@@ -20130,7 +20009,7 @@
         <v>53100005</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="37"/>
@@ -20182,13 +20061,13 @@
         <v>-1</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
@@ -20208,105 +20087,105 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="142" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="139" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="138" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="137" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="136" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="135" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="134" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="133" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="132" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="131" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="130" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="129" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="128" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20363,7 +20242,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -20375,7 +20254,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -20390,16 +20269,16 @@
         <v>371</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -20408,22 +20287,22 @@
         <v>355</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>338</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -20432,10 +20311,10 @@
         <v>212</v>
       </c>
       <c r="AA1" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -20461,7 +20340,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>360</v>
@@ -20473,19 +20352,19 @@
         <v>360</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -20494,7 +20373,7 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>362</v>
@@ -20506,10 +20385,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -20535,7 +20414,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -20547,7 +20426,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -20562,16 +20441,16 @@
         <v>372</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -20580,7 +20459,7 @@
         <v>203</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>337</v>
@@ -20592,10 +20471,10 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -20604,10 +20483,10 @@
         <v>205</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="36">
@@ -20615,13 +20494,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E4" s="15">
         <v>3</v>
@@ -20671,13 +20550,13 @@
         <v>115</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
@@ -20699,13 +20578,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E5" s="15">
         <v>3</v>
@@ -20755,10 +20634,10 @@
         <v>90</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>49</v>
@@ -20783,13 +20662,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E6" s="15">
         <v>3</v>
@@ -20839,10 +20718,10 @@
         <v>115</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>51</v>
@@ -20867,13 +20746,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E7" s="15">
         <v>3</v>
@@ -20924,7 +20803,7 @@
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="33" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>50</v>
@@ -20949,13 +20828,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -21005,16 +20884,16 @@
         <v>90</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
@@ -21035,13 +20914,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
@@ -21091,7 +20970,7 @@
         <v>400</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>378</v>
@@ -21117,50 +20996,50 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="89" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21177,7 +21056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -21185,7 +21064,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -21222,7 +21101,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B4">
         <f>SQRT((B3 + 5) / 6)</f>
@@ -21267,7 +21146,7 @@
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="31" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B5">
         <f>SQRT((B3 + 5) / 6)</f>
@@ -21312,7 +21191,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B6">
         <f>SQRT((B3 + 7) / 8)</f>
@@ -21357,15 +21236,15 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -21378,20 +21257,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!D:D,"*单伤*")</f>
@@ -21400,7 +21279,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!D:D,"*群伤*")</f>
@@ -21409,16 +21288,16 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!D:D,"*单治*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!D:D,"*群治*")</f>
@@ -21427,7 +21306,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!D:D,"*正状*")</f>
@@ -21436,7 +21315,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!D:D,"*负状*")</f>
@@ -21445,47 +21324,47 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!D:D,"*手牌*")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(标准!D:D,"*过牌*")</f>
-        <v>2</v>
+        <f>COUNTIF(标准!D:D,"*陷阱*")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(标准!D:D,"*陷阱*")</f>
-        <v>6</v>
+        <f>COUNTIF(标准!D:D,"*地形*")</f>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(标准!D:D,"*地形*")</f>
-        <v>14</v>
+        <f>COUNTIF(标准!D:D,"*属性*")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>547</v>
+        <v>758</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(标准!D:D,"*属性*")</f>
-        <v>10</v>
+        <f>COUNTIF(标准!D:D,"*位移*")</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="770">
   <si>
     <t>慈悲</t>
   </si>
@@ -2418,10 +2418,6 @@
   </si>
   <si>
     <t>对敌方单体造成{0}点魔法伤害，并使其遗忘所有技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.ForgetSkill();</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2669,10 +2665,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.Atk.Source*=(1-s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>farsummon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2730,431 +2722,680 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>t.AddBuff(56000013,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Atk.Source*=(float)(1+s.Help/100);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.OnMagicDamage(s.Damage,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，单治</t>
+  </si>
+  <si>
+    <t>未完成，群伤</t>
+  </si>
+  <si>
+    <t>未完成，手牌</t>
+  </si>
+  <si>
+    <t>未完成，负状</t>
+  </si>
+  <si>
+    <t>未完成，单伤</t>
+  </si>
+  <si>
+    <t>未完成，</t>
+  </si>
+  <si>
+    <t>未完成，正状</t>
+  </si>
+  <si>
+    <t>未完成，属性</t>
+  </si>
+  <si>
+    <t>未完成，单伤，负状</t>
+  </si>
+  <si>
+    <t>未完成，群治</t>
+  </si>
+  <si>
+    <t>未完成，群伤，负状</t>
+  </si>
+  <si>
+    <t>未完成，卡牌</t>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,7);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000013,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000011,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000003,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000017,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张使用的怪物卡消耗为0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法飞弹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Missile </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体，控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)) im.AddBuff(56000001,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单负</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Rebel();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将2卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,3);else m.SetTile(mouse,20,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,9);else m.SetTile(mouse,20,9);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,1);else m.SetTile(mouse,20,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,5);else m.SetTile(mouse,20,5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,4);else m.SetTile(mouse,20,4);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,6);else m.SetTile(mouse,20,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>将3卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,3);else m.SetTile(mouse,30,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,2);else m.SetTile(mouse,30,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,9);else m.SetTile(mouse,30,9);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,1);else m.SetTile(mouse,30,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,5);else m.SetTile(mouse,30,5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,4);else m.SetTile(mouse,30,4);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,6);else m.SetTile(mouse,30,6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形</t>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);t.AddBuff(56000007,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(10,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(2))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤,负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,2);else m.SetTile(mouse,20,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内3个随机敌人造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单治</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单负</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000009,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱：冰冻召唤的怪物5回合。触发几率{4:0.0}%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.ReviveUnit(mouse,s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制一张己方场上怪物到手牌，并提升{3:0}级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱：使对方使用的下张卡牌无效。触发几率{4:0.0}%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddTrap(54000001,lv,s.Rate,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000019,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌我所有单位进入混乱状态{2:0.0}回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000021,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse).Top(3))p.AddSpellMissile(im,s,mouse,"purpleline");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000004,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Transform(51013002);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddMp(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{4:0.0}%几率策反目标敌方怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>把敌方单体变为羊，{4:0.0}%回复一点魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性,基本</t>
+  </si>
+  <si>
+    <t>单伤,基本</t>
+  </si>
+  <si>
+    <t>地形,基本</t>
+  </si>
+  <si>
+    <t>复活己方指定单位，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddTrap(54000004,lv,s.Rate,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Def+=s.Help;t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000202,lv,s.Time);t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方单体造成{0}点魔法伤害，并有{4:0.0}%几率冰冻目标{2:0.0}回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久提高我方单体{3:0.0}点防御，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使我方单体获得圣盾{2:0.0}回合，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状，单治，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单治，正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1行敌方单位造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Spd+=s.Help;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Spd-=s.Help;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高目标速度{3:0}点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低目标速度{3:0}点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺取对方召唤师{3:0.0}点魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目前单位传送到随机相邻行，使用后{4:0.0}%返回手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.SetRowUnitPosition(mouse.Y,p.IsLeft,"siden");if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，手牌,基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群治</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，属性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);t.ForgetSkill();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤，负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster im in m.GetAllMonster(mouse))im.AddBuff(56000007,lv,s.Time);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.AddBuff(56000013,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Atk.Source*=(float)(1+s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.OnMagicDamage(s.Damage,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，单治</t>
-  </si>
-  <si>
-    <t>未完成，群伤</t>
-  </si>
-  <si>
-    <t>未完成，手牌</t>
-  </si>
-  <si>
-    <t>未完成，负状</t>
-  </si>
-  <si>
-    <t>未完成，单伤</t>
-  </si>
-  <si>
-    <t>未完成，</t>
-  </si>
-  <si>
-    <t>未完成，正状</t>
-  </si>
-  <si>
-    <t>未完成，属性</t>
-  </si>
-  <si>
-    <t>未完成，单伤，负状</t>
-  </si>
-  <si>
-    <t>未完成，群治</t>
-  </si>
-  <si>
-    <t>未完成，群伤，负状</t>
-  </si>
-  <si>
-    <t>未完成，卡牌</t>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaEffect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rocket</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,7);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000013,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(MathTool.GetRandom(100)&lt;s.Rate&amp;&amp;im.Star&lt;5)im.Transform(10229);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000011,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000003,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddBuff(56000017,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一张使用的怪物卡消耗为0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>p.AddSpike(57000006);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>NFN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法飞弹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Missile </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitEffect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>longly</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体，控制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)) im.AddBuff(56000001,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单负</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Rebel();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将2卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到2.5卡牌范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,3);else m.SetTile(mouse,20,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,9);else m.SetTile(mouse,20,9);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,1);else m.SetTile(mouse,20,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,5);else m.SetTile(mouse,20,5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,4);else m.SetTile(mouse,20,4);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,6);else m.SetTile(mouse,20,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为风属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为火属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为无属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为水属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为光属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为地属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>将3卡片范围地形变换为暗属性，{4:0.0}%几率扩大效果到3.5卡牌范围</t>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,3);else m.SetTile(mouse,30,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,2);else m.SetTile(mouse,30,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,9);else m.SetTile(mouse,30,9);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,1);else m.SetTile(mouse,30,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,5);else m.SetTile(mouse,30,5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,4);else m.SetTile(mouse,30,4);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,35,6);else m.SetTile(mouse,30,6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形</t>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);t.AddBuff(56000007,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(10,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(2))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,4))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(1))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))if(im.HpRate&lt;1)im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))if(im.HasSkill(55010018)||im.HasSkill(55010019))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(3))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(5))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(6))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(t.Star&lt;6&amp;&amp;MathTool.GetRandom(100)&lt;s.Rate)t.SuddenDeath();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(t.IsHero?s.Damage*3/2:s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterStar(1,2))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.UpdateCellOwner(mouse,0);foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>JobId</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤,负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate)m.SetTile(mouse,25,2);else m.SetTile(mouse,20,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对范围内3个随机敌人造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单负</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000009,lv,s.Time);</t>
+    <t>t.Atk.Source*=(1-s.Help/100);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3162,216 +3403,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱：冰冻召唤的怪物5回合。触发几率{4:0.0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.ReviveUnit(mouse,s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制一张己方场上怪物到手牌，并提升{3:0}级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱：使对方使用的下张卡牌无效。触发几率{4:0.0}%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddTrap(54000001,lv,s.Rate,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000019,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌我所有单位进入混乱状态{2:0.0}回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse))im.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse)){im.Atk.Source*=(1+s.Help/100);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000021,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse).Top(3))p.AddSpellMissile(im,s,mouse,"purpleline");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000004,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Transform(51013002);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddMp(1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{4:0.0}%几率策反目标敌方怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>把敌方单体变为羊，{4:0.0}%回复一点魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性,基本</t>
-  </si>
-  <si>
-    <t>单伤,基本</t>
-  </si>
-  <si>
-    <t>地形,基本</t>
-  </si>
-  <si>
-    <t>复活己方指定单位，并回复其{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddTrap(54000004,lv,s.Rate,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Def+=s.Help;t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000202,lv,s.Time);t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方单体造成{0}点魔法伤害，并有{4:0.0}%几率冰冻目标{2:0.0}回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久提高我方单体{3:0.0}点防御，并回复其{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使我方单体获得圣盾{2:0.0}回合，并回复其{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状，单治，基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治，正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对1行敌方单位造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Spd+=s.Help;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Spd-=s.Help;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高目标速度{3:0}点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低目标速度{3:0}点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状，基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状，基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺取对方召唤师{3:0.0}点魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将目前单位传送到随机相邻行，使用后{4:0.0}%返回手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.SetRowUnitPosition(mouse.Y,p.IsLeft,"siden");if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，手牌,基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，手牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8579,18 +8611,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="X116" sqref="X116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="3.125" customWidth="1"/>
     <col min="6" max="6" width="3.625" customWidth="1"/>
     <col min="7" max="9" width="3.125" customWidth="1"/>
@@ -8631,7 +8663,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -8655,7 +8687,7 @@
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -8676,10 +8708,10 @@
         <v>473</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -8741,7 +8773,7 @@
         <v>374</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -8750,10 +8782,10 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>197</v>
@@ -8762,10 +8794,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -8803,7 +8835,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -8827,31 +8859,31 @@
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>475</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -8877,7 +8909,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8927,7 +8959,7 @@
         <v>85.2</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="U4" s="32" t="s">
         <v>438</v>
@@ -8961,7 +8993,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -9045,7 +9077,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -9095,7 +9127,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>471</v>
@@ -9129,7 +9161,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -9179,7 +9211,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>472</v>
@@ -9215,7 +9247,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -9259,13 +9291,13 @@
         <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="S8">
         <v>100</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>409</v>
@@ -9301,7 +9333,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -9351,10 +9383,10 @@
         <v>90</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>2</v>
@@ -9385,7 +9417,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -9435,10 +9467,10 @@
         <v>90</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
@@ -9469,7 +9501,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -9519,10 +9551,10 @@
         <v>90</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>2</v>
@@ -9553,7 +9585,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -9603,10 +9635,10 @@
         <v>90</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>2</v>
@@ -9637,7 +9669,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -9687,10 +9719,10 @@
         <v>90</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>2</v>
@@ -9721,7 +9753,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -9771,10 +9803,10 @@
         <v>90</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>2</v>
@@ -9805,7 +9837,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -9855,10 +9887,10 @@
         <v>90</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>2</v>
@@ -9889,7 +9921,7 @@
         <v>456</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E16" s="15">
         <v>4</v>
@@ -9939,10 +9971,10 @@
         <v>100</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>114</v>
@@ -9969,13 +10001,13 @@
         <v>53000014</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -10019,19 +10051,19 @@
         <v>30</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="S17">
         <v>100</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1">
@@ -10061,7 +10093,7 @@
         <v>244</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -10111,7 +10143,7 @@
         <v>75</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>376</v>
@@ -10147,7 +10179,7 @@
         <v>245</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -10197,7 +10229,7 @@
         <v>75</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>377</v>
@@ -10233,7 +10265,7 @@
         <v>246</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -10283,10 +10315,10 @@
         <v>100</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>24</v>
@@ -10319,7 +10351,7 @@
         <v>247</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -10369,7 +10401,7 @@
         <v>102</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>481</v>
@@ -10405,7 +10437,7 @@
         <v>248</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
@@ -10455,7 +10487,7 @@
         <v>100</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>482</v>
@@ -10493,7 +10525,7 @@
         <v>249</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -10543,7 +10575,7 @@
         <v>105</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>483</v>
@@ -10579,7 +10611,7 @@
         <v>250</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -10629,7 +10661,7 @@
         <v>93.75</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>484</v>
@@ -10665,7 +10697,7 @@
         <v>251</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -10749,7 +10781,7 @@
         <v>252</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -10833,7 +10865,7 @@
         <v>253</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -10919,7 +10951,7 @@
         <v>254</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -10969,10 +11001,10 @@
         <v>100</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>38</v>
@@ -11005,7 +11037,7 @@
         <v>255</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -11055,10 +11087,10 @@
         <v>75</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>41</v>
@@ -11089,7 +11121,7 @@
         <v>256</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -11139,10 +11171,10 @@
         <v>96</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>44</v>
@@ -11173,7 +11205,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -11223,10 +11255,10 @@
         <v>96</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>46</v>
@@ -11257,7 +11289,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -11307,7 +11339,7 @@
         <v>100</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="U32" s="22" t="s">
         <v>406</v>
@@ -11335,13 +11367,13 @@
         <v>53000030</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -11391,10 +11423,10 @@
         <v>100</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11421,13 +11453,13 @@
         <v>53000031</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="D34" s="26" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11477,10 +11509,10 @@
         <v>100</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>4</v>
@@ -11513,7 +11545,7 @@
         <v>259</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -11563,7 +11595,7 @@
         <v>100</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>379</v>
@@ -11597,7 +11629,7 @@
         <v>260</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -11648,7 +11680,7 @@
         <v>61</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>494</v>
@@ -11682,7 +11714,7 @@
         <v>261</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -11732,10 +11764,10 @@
         <v>100</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>59</v>
@@ -11766,7 +11798,7 @@
         <v>262</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -11816,10 +11848,10 @@
         <v>100</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>61</v>
@@ -11846,13 +11878,13 @@
         <v>53000039</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="D39" s="26" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -11902,10 +11934,10 @@
         <v>85</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -11932,13 +11964,13 @@
         <v>53000040</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -11988,10 +12020,10 @@
         <v>100</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>4</v>
@@ -12024,7 +12056,7 @@
         <v>264</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -12077,7 +12109,7 @@
         <v>434</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>63</v>
@@ -12108,7 +12140,7 @@
         <v>265</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -12158,7 +12190,7 @@
         <v>100</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>380</v>
@@ -12192,7 +12224,7 @@
         <v>266</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -12245,7 +12277,7 @@
         <v>504</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>4</v>
@@ -12270,13 +12302,13 @@
         <v>53000044</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -12326,10 +12358,10 @@
         <v>95</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>4</v>
@@ -12362,7 +12394,7 @@
         <v>268</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -12412,10 +12444,10 @@
         <v>100</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>364</v>
@@ -12448,7 +12480,7 @@
         <v>269</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -12498,7 +12530,7 @@
         <v>100</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>393</v>
@@ -12532,7 +12564,7 @@
         <v>270</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
@@ -12582,7 +12614,7 @@
         <v>110</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>394</v>
@@ -12618,7 +12650,7 @@
         <v>271</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -12668,7 +12700,7 @@
         <v>100</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>381</v>
@@ -12702,7 +12734,7 @@
         <v>272</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -12752,7 +12784,7 @@
         <v>110</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>395</v>
@@ -12788,7 +12820,7 @@
         <v>273</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E50" s="1">
         <v>4</v>
@@ -12838,7 +12870,7 @@
         <v>90</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="U50" s="7" t="s">
         <v>497</v>
@@ -12872,7 +12904,7 @@
         <v>274</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -12922,7 +12954,7 @@
         <v>100</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>382</v>
@@ -12956,7 +12988,7 @@
         <v>275</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -13006,7 +13038,7 @@
         <v>100</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>383</v>
@@ -13040,7 +13072,7 @@
         <v>276</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -13090,7 +13122,7 @@
         <v>100</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>384</v>
@@ -13124,7 +13156,7 @@
         <v>217</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -13174,7 +13206,7 @@
         <v>83.5</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>440</v>
@@ -13208,7 +13240,7 @@
         <v>277</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -13292,7 +13324,7 @@
         <v>278</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -13376,7 +13408,7 @@
         <v>336</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -13460,7 +13492,7 @@
         <v>279</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -13510,7 +13542,7 @@
         <v>90</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>385</v>
@@ -13544,7 +13576,7 @@
         <v>280</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>608</v>
+        <v>761</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -13557,7 +13589,7 @@
       </c>
       <c r="H59" s="1">
         <f>IF(AND(P59&gt;=13,P59&lt;=16),5,IF(AND(P59&gt;=9,P59&lt;=12),4,IF(AND(P59&gt;=5,P59&lt;=8),3,IF(AND(P59&gt;=1,P59&lt;=4),2,IF(AND(P59&gt;=-3,P59&lt;=0),1,IF(AND(P59&gt;=-5,P59&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I59" s="1">
         <v>2</v>
@@ -13572,17 +13604,17 @@
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N59" s="1">
         <v>0</v>
       </c>
       <c r="O59" s="1">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="P59" s="41">
         <f>S59-100+O59</f>
-        <v>-74</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="1">
         <v>3</v>
@@ -13591,10 +13623,10 @@
         <v>340</v>
       </c>
       <c r="S59">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>436</v>
@@ -13603,7 +13635,9 @@
         <v>92</v>
       </c>
       <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
+      <c r="X59" s="1">
+        <v>11000005</v>
+      </c>
       <c r="Y59" s="1">
         <v>4</v>
       </c>
@@ -13628,7 +13662,7 @@
         <v>281</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>608</v>
+        <v>760</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -13641,7 +13675,7 @@
       </c>
       <c r="H60" s="1">
         <f>IF(AND(P60&gt;=13,P60&lt;=16),5,IF(AND(P60&gt;=9,P60&lt;=12),4,IF(AND(P60&gt;=5,P60&lt;=8),3,IF(AND(P60&gt;=1,P60&lt;=4),2,IF(AND(P60&gt;=-3,P60&lt;=0),1,IF(AND(P60&gt;=-5,P60&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -13666,7 +13700,7 @@
       </c>
       <c r="P60" s="41">
         <f>S60-100+O60</f>
-        <v>-77</v>
+        <v>-3</v>
       </c>
       <c r="Q60" s="1">
         <v>3</v>
@@ -13675,7 +13709,7 @@
         <v>19</v>
       </c>
       <c r="S60">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="T60" s="11" t="s">
         <v>495</v>
@@ -13687,7 +13721,9 @@
         <v>92</v>
       </c>
       <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
+      <c r="X60" s="1">
+        <v>11000007</v>
+      </c>
       <c r="Y60" s="1">
         <v>4</v>
       </c>
@@ -13712,10 +13748,10 @@
         <v>282</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="E61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61">
         <v>201</v>
@@ -13725,32 +13761,32 @@
       </c>
       <c r="H61" s="1">
         <f>IF(AND(P61&gt;=13,P61&lt;=16),5,IF(AND(P61&gt;=9,P61&lt;=12),4,IF(AND(P61&gt;=5,P61&lt;=8),3,IF(AND(P61&gt;=1,P61&lt;=4),2,IF(AND(P61&gt;=-3,P61&lt;=0),1,IF(AND(P61&gt;=-5,P61&lt;=-4),0,6))))))</f>
+        <v>3</v>
+      </c>
+      <c r="I61" s="1">
+        <v>4</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>30</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
         <v>6</v>
-      </c>
-      <c r="I61" s="1">
-        <v>3</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <v>50</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-      <c r="N61" s="1">
-        <v>0</v>
-      </c>
-      <c r="O61" s="1">
-        <v>-3</v>
       </c>
       <c r="P61" s="41">
         <f>S61-100+O61</f>
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="Q61" s="1">
         <v>0</v>
@@ -13759,10 +13795,10 @@
         <v>95</v>
       </c>
       <c r="S61">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>428</v>
@@ -13771,7 +13807,9 @@
         <v>20</v>
       </c>
       <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
+      <c r="X61" s="1">
+        <v>11000007</v>
+      </c>
       <c r="Y61" s="1">
         <v>4</v>
       </c>
@@ -13796,7 +13834,7 @@
         <v>283</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>605</v>
+        <v>759</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -13809,7 +13847,7 @@
       </c>
       <c r="H62" s="1">
         <f>IF(AND(P62&gt;=13,P62&lt;=16),5,IF(AND(P62&gt;=9,P62&lt;=12),4,IF(AND(P62&gt;=5,P62&lt;=8),3,IF(AND(P62&gt;=1,P62&lt;=4),2,IF(AND(P62&gt;=-3,P62&lt;=0),1,IF(AND(P62&gt;=-5,P62&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -13821,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -13834,7 +13872,7 @@
       </c>
       <c r="P62" s="41">
         <f>S62-100+O62</f>
-        <v>47</v>
+        <v>-3</v>
       </c>
       <c r="Q62" s="1">
         <v>0</v>
@@ -13843,10 +13881,10 @@
         <v>6</v>
       </c>
       <c r="S62">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>386</v>
@@ -13855,7 +13893,9 @@
         <v>97</v>
       </c>
       <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
+      <c r="X62" s="1">
+        <v>11000003</v>
+      </c>
       <c r="Y62" s="1">
         <v>4</v>
       </c>
@@ -13880,7 +13920,7 @@
         <v>284</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>609</v>
+        <v>758</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -13964,7 +14004,7 @@
         <v>285</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -14014,7 +14054,7 @@
         <v>75</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>498</v>
@@ -14037,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="24">
+    <row r="65" spans="1:28" ht="48">
       <c r="A65">
         <v>53000065</v>
       </c>
@@ -14048,7 +14088,7 @@
         <v>219</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>603</v>
+        <v>757</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
@@ -14061,13 +14101,13 @@
       </c>
       <c r="H65" s="1">
         <f>IF(AND(P65&gt;=13,P65&lt;=16),5,IF(AND(P65&gt;=9,P65&lt;=12),4,IF(AND(P65&gt;=5,P65&lt;=8),3,IF(AND(P65&gt;=1,P65&lt;=4),2,IF(AND(P65&gt;=-3,P65&lt;=0),1,IF(AND(P65&gt;=-5,P65&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I65" s="1">
         <v>6</v>
       </c>
       <c r="J65" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K65" s="1">
         <v>0</v>
@@ -14082,11 +14122,11 @@
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P65" s="41">
         <f>S65-100+O65</f>
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="Q65" s="1">
         <v>0</v>
@@ -14095,10 +14135,10 @@
         <v>53</v>
       </c>
       <c r="S65">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>690</v>
+        <v>762</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>521</v>
@@ -14107,7 +14147,9 @@
         <v>102</v>
       </c>
       <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
+      <c r="X65" s="1">
+        <v>11000007</v>
+      </c>
       <c r="Y65" s="1">
         <v>4</v>
       </c>
@@ -14132,7 +14174,7 @@
         <v>286</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -14182,10 +14224,10 @@
         <v>85</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>4</v>
@@ -14207,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="60">
+    <row r="67" spans="1:28" ht="24">
       <c r="A67">
         <v>53000067</v>
       </c>
@@ -14218,7 +14260,7 @@
         <v>287</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>610</v>
+        <v>764</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -14231,7 +14273,7 @@
       </c>
       <c r="H67" s="1">
         <f>IF(AND(P67&gt;=13,P67&lt;=16),5,IF(AND(P67&gt;=9,P67&lt;=12),4,IF(AND(P67&gt;=5,P67&lt;=8),3,IF(AND(P67&gt;=1,P67&lt;=4),2,IF(AND(P67&gt;=-3,P67&lt;=0),1,IF(AND(P67&gt;=-5,P67&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I67" s="1">
         <v>3</v>
@@ -14243,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M67" s="1">
         <v>0</v>
@@ -14256,7 +14298,7 @@
       </c>
       <c r="P67" s="41">
         <f>S67-100+O67</f>
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
         <v>0</v>
@@ -14265,10 +14307,10 @@
         <v>6</v>
       </c>
       <c r="S67">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>523</v>
+        <v>763</v>
       </c>
       <c r="U67" s="7" t="s">
         <v>522</v>
@@ -14277,7 +14319,9 @@
         <v>104</v>
       </c>
       <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
+      <c r="X67" s="1">
+        <v>11000007</v>
+      </c>
       <c r="Y67" s="1">
         <v>4</v>
       </c>
@@ -14302,7 +14346,7 @@
         <v>288</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -14352,7 +14396,7 @@
         <v>60</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="U68" s="7" t="s">
         <v>499</v>
@@ -14388,7 +14432,7 @@
         <v>222</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -14438,7 +14482,7 @@
         <v>100</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>387</v>
@@ -14472,7 +14516,7 @@
         <v>224</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -14554,7 +14598,7 @@
         <v>221</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
@@ -14604,7 +14648,7 @@
         <v>100</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>352</v>
@@ -14640,7 +14684,7 @@
         <v>289</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -14690,7 +14734,7 @@
         <v>200</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>467</v>
@@ -14724,7 +14768,7 @@
         <v>290</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E73" s="1">
         <v>3</v>
@@ -14774,10 +14818,10 @@
         <v>95</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>116</v>
@@ -14808,7 +14852,7 @@
         <v>335</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -14892,7 +14936,7 @@
         <v>291</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E75" s="1">
         <v>4</v>
@@ -14942,7 +14986,7 @@
         <v>180</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>388</v>
@@ -14976,7 +15020,7 @@
         <v>292</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -15026,7 +15070,7 @@
         <v>110</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>500</v>
@@ -15051,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" ht="48">
       <c r="A77">
         <v>53000077</v>
       </c>
@@ -15062,7 +15106,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E77" s="1">
         <v>4</v>
@@ -15112,7 +15156,7 @@
         <v>60</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>595</v>
+        <v>765</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>389</v>
@@ -15135,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="48">
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>53000078</v>
       </c>
@@ -15146,7 +15190,7 @@
         <v>294</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -15190,16 +15234,16 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="S78">
         <v>50</v>
       </c>
       <c r="T78" s="43" t="s">
-        <v>637</v>
+        <v>766</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>102</v>
@@ -15230,7 +15274,7 @@
         <v>295</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -15280,10 +15324,10 @@
         <v>120</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>126</v>
@@ -15316,7 +15360,7 @@
         <v>296</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E80" s="1">
         <v>2</v>
@@ -15366,7 +15410,7 @@
         <v>100</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>390</v>
@@ -15402,7 +15446,7 @@
         <v>297</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -15452,7 +15496,7 @@
         <v>90</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>396</v>
@@ -15488,7 +15532,7 @@
         <v>298</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -15538,10 +15582,10 @@
         <v>120</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>131</v>
@@ -15566,13 +15610,13 @@
         <v>53000083</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E83" s="1">
         <v>2</v>
@@ -15622,13 +15666,13 @@
         <v>60</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
@@ -15656,7 +15700,7 @@
         <v>223</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -15706,13 +15750,13 @@
         <v>40</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>424</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
@@ -15740,7 +15784,7 @@
         <v>225</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -15790,7 +15834,7 @@
         <v>100</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>397</v>
@@ -15826,7 +15870,7 @@
         <v>226</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -15908,7 +15952,7 @@
         <v>227</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -15958,10 +16002,10 @@
         <v>75</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>65</v>
@@ -15994,7 +16038,7 @@
         <v>300</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -16044,7 +16088,7 @@
         <v>100</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>398</v>
@@ -16082,7 +16126,7 @@
         <v>301</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -16132,13 +16176,13 @@
         <v>90</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>394</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>140</v>
@@ -16168,7 +16212,7 @@
         <v>302</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E90" s="1">
         <v>4</v>
@@ -16218,7 +16262,7 @@
         <v>82.5</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U90" s="7" t="s">
         <v>501</v>
@@ -16254,7 +16298,7 @@
         <v>303</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
@@ -16304,7 +16348,7 @@
         <v>100</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="U91" s="7" t="s">
         <v>399</v>
@@ -16338,7 +16382,7 @@
         <v>304</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -16388,7 +16432,7 @@
         <v>75</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>400</v>
@@ -16424,7 +16468,7 @@
         <v>305</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -16474,7 +16518,7 @@
         <v>125</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="U93" s="7" t="s">
         <v>417</v>
@@ -16508,7 +16552,7 @@
         <v>306</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -16592,7 +16636,7 @@
         <v>307</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -16642,7 +16686,7 @@
         <v>80</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="U95" s="7" t="s">
         <v>426</v>
@@ -16678,7 +16722,7 @@
         <v>308</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
@@ -16762,7 +16806,7 @@
         <v>309</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E97" s="1">
         <v>2</v>
@@ -16812,7 +16856,7 @@
         <v>45</v>
       </c>
       <c r="T97" s="11" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="U97" s="7" t="s">
         <v>391</v>
@@ -16848,7 +16892,7 @@
         <v>310</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
@@ -16898,7 +16942,7 @@
         <v>110</v>
       </c>
       <c r="T98" s="11" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="U98" s="7" t="s">
         <v>402</v>
@@ -16932,7 +16976,7 @@
         <v>311</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -16982,7 +17026,7 @@
         <v>95</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="U99" s="7" t="s">
         <v>401</v>
@@ -17016,7 +17060,7 @@
         <v>312</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -17100,7 +17144,7 @@
         <v>229</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -17184,7 +17228,7 @@
         <v>313</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -17234,7 +17278,7 @@
         <v>100</v>
       </c>
       <c r="T102" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="U102" s="7" t="s">
         <v>403</v>
@@ -17268,7 +17312,7 @@
         <v>314</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -17318,10 +17362,10 @@
         <v>65</v>
       </c>
       <c r="T103" s="11" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V103" s="1" t="s">
         <v>160</v>
@@ -17343,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="36">
+    <row r="104" spans="1:28">
       <c r="A104">
         <v>53000104</v>
       </c>
@@ -17354,7 +17398,7 @@
         <v>315</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E104" s="1">
         <v>2</v>
@@ -17436,7 +17480,7 @@
         <v>230</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -17520,7 +17564,7 @@
         <v>316</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -17570,7 +17614,7 @@
         <v>90</v>
       </c>
       <c r="T106" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="U106" s="7" t="s">
         <v>512</v>
@@ -17593,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="120">
+    <row r="107" spans="1:28" ht="24">
       <c r="A107">
         <v>53000107</v>
       </c>
@@ -17604,7 +17648,7 @@
         <v>317</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -17654,7 +17698,7 @@
         <v>90</v>
       </c>
       <c r="T107" s="11" t="s">
-        <v>580</v>
+        <v>767</v>
       </c>
       <c r="U107" s="7" t="s">
         <v>420</v>
@@ -17688,7 +17732,7 @@
         <v>318</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
@@ -17738,7 +17782,7 @@
         <v>85</v>
       </c>
       <c r="T108" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="U108" s="7" t="s">
         <v>392</v>
@@ -17772,7 +17816,7 @@
         <v>319</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -17856,7 +17900,7 @@
         <v>320</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E110" s="1">
         <v>4</v>
@@ -17940,7 +17984,7 @@
         <v>321</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
@@ -17990,7 +18034,7 @@
         <v>80</v>
       </c>
       <c r="T111" s="11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="U111" s="7" t="s">
         <v>405</v>
@@ -18024,7 +18068,7 @@
         <v>322</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
@@ -18108,7 +18152,7 @@
         <v>323</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
@@ -18158,7 +18202,7 @@
         <v>70</v>
       </c>
       <c r="T113" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U113" s="7" t="s">
         <v>520</v>
@@ -18192,7 +18236,7 @@
         <v>324</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>607</v>
+        <v>769</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -18276,7 +18320,7 @@
         <v>325</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>607</v>
+        <v>769</v>
       </c>
       <c r="E115" s="1">
         <v>2</v>
@@ -18360,7 +18404,7 @@
         <v>326</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -18373,7 +18417,7 @@
       </c>
       <c r="H116" s="1">
         <f>IF(AND(P116&gt;=13,P116&lt;=16),5,IF(AND(P116&gt;=9,P116&lt;=12),4,IF(AND(P116&gt;=5,P116&lt;=8),3,IF(AND(P116&gt;=1,P116&lt;=4),2,IF(AND(P116&gt;=-3,P116&lt;=0),1,IF(AND(P116&gt;=-5,P116&lt;=-4),0,6))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I116" s="1">
         <v>1</v>
@@ -18391,14 +18435,14 @@
         <v>0</v>
       </c>
       <c r="N116" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P116" s="41">
         <f>S116-100+O116</f>
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="Q116" s="1">
         <v>0</v>
@@ -18407,7 +18451,7 @@
         <v>1</v>
       </c>
       <c r="S116">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="T116" s="11" t="s">
         <v>437</v>
@@ -18419,7 +18463,9 @@
         <v>186</v>
       </c>
       <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
+      <c r="X116" s="1">
+        <v>11000004</v>
+      </c>
       <c r="Y116" s="1">
         <v>4</v>
       </c>
@@ -18444,7 +18490,7 @@
         <v>327</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E117" s="1">
         <v>2</v>
@@ -18494,10 +18540,10 @@
         <v>90</v>
       </c>
       <c r="T117" s="11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="U117" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>2</v>
@@ -18528,7 +18574,7 @@
         <v>328</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E118" s="1">
         <v>2</v>
@@ -18578,10 +18624,10 @@
         <v>90</v>
       </c>
       <c r="T118" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="U118" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>2</v>
@@ -18612,7 +18658,7 @@
         <v>329</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E119" s="1">
         <v>2</v>
@@ -18662,10 +18708,10 @@
         <v>90</v>
       </c>
       <c r="T119" s="11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="U119" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>2</v>
@@ -18696,7 +18742,7 @@
         <v>330</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E120" s="1">
         <v>2</v>
@@ -18746,10 +18792,10 @@
         <v>90</v>
       </c>
       <c r="T120" s="11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="U120" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="V120" s="1" t="s">
         <v>2</v>
@@ -18780,7 +18826,7 @@
         <v>331</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
@@ -18830,10 +18876,10 @@
         <v>90</v>
       </c>
       <c r="T121" s="11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="U121" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="V121" s="1" t="s">
         <v>2</v>
@@ -18864,7 +18910,7 @@
         <v>231</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E122" s="1">
         <v>2</v>
@@ -18914,10 +18960,10 @@
         <v>90</v>
       </c>
       <c r="T122" s="11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="U122" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="V122" s="1" t="s">
         <v>2</v>
@@ -18948,7 +18994,7 @@
         <v>332</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
@@ -18998,10 +19044,10 @@
         <v>90</v>
       </c>
       <c r="T123" s="11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="U123" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V123" s="1" t="s">
         <v>2</v>
@@ -19032,7 +19078,7 @@
         <v>333</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E124" s="1">
         <v>4</v>
@@ -19082,16 +19128,16 @@
         <v>110</v>
       </c>
       <c r="T124" s="11" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="U124" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="W124" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X124" s="1"/>
       <c r="Y124" s="1">
@@ -19118,7 +19164,7 @@
         <v>334</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E125" s="1">
         <v>5</v>
@@ -19168,7 +19214,7 @@
         <v>150</v>
       </c>
       <c r="T125" s="11" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="U125" s="7" t="s">
         <v>427</v>
@@ -19320,7 +19366,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
@@ -19369,7 +19415,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -19393,7 +19439,7 @@
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -19414,10 +19460,10 @@
         <v>473</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -19479,7 +19525,7 @@
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -19488,7 +19534,7 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>362</v>
@@ -19500,10 +19546,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -19541,7 +19587,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -19565,7 +19611,7 @@
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -19586,10 +19632,10 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -20061,7 +20107,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>458</v>
@@ -20254,7 +20300,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -20278,7 +20324,7 @@
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -20299,10 +20345,10 @@
         <v>473</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -20364,7 +20410,7 @@
         <v>360</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -20373,7 +20419,7 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>362</v>
@@ -20385,10 +20431,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -20426,7 +20472,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -20450,7 +20496,7 @@
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
@@ -20471,10 +20517,10 @@
         <v>363</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -20494,13 +20540,13 @@
         <v>53200100</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>552</v>
-      </c>
       <c r="D4" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E4" s="15">
         <v>3</v>
@@ -20550,7 +20596,7 @@
         <v>115</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>463</v>
@@ -20578,13 +20624,13 @@
         <v>53200101</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="D5" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E5" s="15">
         <v>3</v>
@@ -20634,7 +20680,7 @@
         <v>90</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>471</v>
@@ -20662,13 +20708,13 @@
         <v>53200102</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="D6" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E6" s="15">
         <v>3</v>
@@ -20718,10 +20764,10 @@
         <v>115</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>51</v>
@@ -20746,13 +20792,13 @@
         <v>53200103</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E7" s="15">
         <v>3</v>
@@ -20803,7 +20849,7 @@
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>50</v>
@@ -20828,13 +20874,13 @@
         <v>53200104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>559</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>560</v>
       </c>
       <c r="E8" s="15">
         <v>3</v>
@@ -20884,16 +20930,16 @@
         <v>90</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>482</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
@@ -20914,13 +20960,13 @@
         <v>53200105</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="26" t="s">
         <v>562</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>563</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
@@ -20970,7 +21016,7 @@
         <v>400</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>378</v>
@@ -21257,7 +21303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -21265,12 +21311,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B2">
         <f>COUNTIF(标准!D:D,"*单伤*")</f>
@@ -21279,7 +21325,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B3">
         <f>COUNTIF(标准!D:D,"*群伤*")</f>
@@ -21288,7 +21334,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B4">
         <f>COUNTIF(标准!D:D,"*单治*")</f>
@@ -21297,7 +21343,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B5">
         <f>COUNTIF(标准!D:D,"*群治*")</f>
@@ -21306,7 +21352,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6">
         <f>COUNTIF(标准!D:D,"*正状*")</f>
@@ -21315,7 +21361,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7">
         <f>COUNTIF(标准!D:D,"*负状*")</f>
@@ -21324,7 +21370,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8">
         <f>COUNTIF(标准!D:D,"*手牌*")</f>
@@ -21333,7 +21379,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B9">
         <f>COUNTIF(标准!D:D,"*陷阱*")</f>
@@ -21342,7 +21388,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B10">
         <f>COUNTIF(标准!D:D,"*地形*")</f>
@@ -21351,7 +21397,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B11">
         <f>COUNTIF(标准!D:D,"*属性*")</f>
@@ -21360,7 +21406,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!D:D,"*位移*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="771">
   <si>
     <t>慈悲</t>
   </si>
@@ -3214,196 +3214,200 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>t.AddBuff(56000004,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Transform(51013002);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddMp(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{4:0.0}%几率策反目标敌方怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>把敌方单体变为羊，{4:0.0}%回复一点魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性,基本</t>
+  </si>
+  <si>
+    <t>单伤,基本</t>
+  </si>
+  <si>
+    <t>地形,基本</t>
+  </si>
+  <si>
+    <t>复活己方指定单位，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddTrap(54000004,lv,s.Rate,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Def+=s.Help;t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.AddBuff(56000202,lv,s.Time);t.AddHp(s.Cure);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方单体造成{0}点魔法伤害，并有{4:0.0}%几率冰冻目标{2:0.0}回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久提高我方单体{3:0.0}点防御，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使我方单体获得圣盾{2:0.0}回合，并回复其{1}点生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状，单治，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单治，正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1行敌方单位造成{0}点魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Spd+=s.Help;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Spd-=s.Help;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高目标速度{3:0}点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低目标速度{3:0}点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状，基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺取对方召唤师{3:0.0}点魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目前单位传送到随机相邻行，使用后{4:0.0}%返回手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.SetRowUnitPosition(mouse.Y,p.IsLeft,"siden");if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，手牌,基本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群治</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成，属性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.OnMagicDamage(s.Damage,s.Attr);t.ForgetSkill();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单伤，负状</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster im in m.GetAllMonster(mouse))im.AddBuff(56000007,lv,s.Time);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddSpike(57000006);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.Atk.Source*=(1-s.Help/100);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster im in m.GetRangeMonster(p.IsLeft,s.Target,s.Shape,s.Range,mouse).Top(3))p.AddSpellMissile(im,s,mouse,"purpleline");</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>t.AddBuff(56000004,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.GetNextNCard(2);if(MathTool.GetRandom(100)&lt;s.Rate) p.GetNextNCard(1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Transform(51013002);if(MathTool.GetRandom(100)&lt;s.Rate) p.AddMp(1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{4:0.0}%几率策反目标敌方怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>把敌方单体变为羊，{4:0.0}%回复一点魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性,基本</t>
-  </si>
-  <si>
-    <t>单伤,基本</t>
-  </si>
-  <si>
-    <t>地形,基本</t>
-  </si>
-  <si>
-    <t>复活己方指定单位，并回复其{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);if(MathTool.GetRandom(100)&lt;s.Rate)t.AddBuff(56000002,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddTrap(54000004,lv,s.Rate,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Def+=s.Help;t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.AddBuff(56000202,lv,s.Time);t.AddHp(s.Cure);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方单体造成{0}点魔法伤害，并有{4:0.0}%几率冰冻目标{2:0.0}回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久提高我方单体{3:0.0}点防御，并回复其{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使我方单体获得圣盾{2:0.0}回合，并回复其{1}点生命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状，单治，基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单治，正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(4))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对1行敌方单位造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Spd+=s.Help;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Spd-=s.Help;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高目标速度{3:0}点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低目标速度{3:0}点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状，基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状，基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺取对方召唤师{3:0.0}点魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>将目前单位传送到随机相邻行，使用后{4:0.0}%返回手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.SetRowUnitPosition(mouse.Y,p.IsLeft,"siden");if(MathTool.GetRandom(100)&lt;s.Rate) p.AddCard(s.Id, s.Level);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，手牌,基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群治</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>群伤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成，属性</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>正状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse).FilterType(0))im.OnMagicDamage(s.Damage,s.Attr);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.OnMagicDamage(s.Damage,s.Attr);t.ForgetSkill();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>单伤，负状</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster im in m.GetAllMonster(mouse))im.AddBuff(56000007,lv,s.Time);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>p.AddSpike(57000006);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.Atk.Source*=(1-s.Help/100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
+    <t>p.AddSpellRowMissile(s,5,mouse,"purpleline");</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4427,560 +4431,6 @@
   <dxfs count="151">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9148C8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5287,6 +4737,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5738,6 +5216,99 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6048,6 +5619,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -6507,6 +6106,194 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6817,6 +6604,34 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7274,6 +7089,195 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9148C8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7302,7 +7306,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7457,11 +7460,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1925400512"/>
-        <c:axId val="1925404320"/>
+        <c:axId val="1826463904"/>
+        <c:axId val="1826464992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1925400512"/>
+        <c:axId val="1826463904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7504,7 +7507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925404320"/>
+        <c:crossAx val="1826464992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7512,7 +7515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1925404320"/>
+        <c:axId val="1826464992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7563,7 +7566,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1925400512"/>
+        <c:crossAx val="1826463904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8191,132 +8194,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149" tableBorderDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB125" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <autoFilter ref="A3:AB125"/>
   <sortState ref="A4:AB125">
     <sortCondition ref="A3:A125"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="147"/>
-    <tableColumn id="2" name="Name" dataDxfId="146"/>
-    <tableColumn id="20" name="Ename" dataDxfId="145"/>
-    <tableColumn id="21" name="Remark" dataDxfId="144"/>
-    <tableColumn id="3" name="Star" dataDxfId="143"/>
-    <tableColumn id="4" name="Type" dataDxfId="142"/>
-    <tableColumn id="5" name="Attr" dataDxfId="141"/>
-    <tableColumn id="8" name="Quality" dataDxfId="140">
+    <tableColumn id="1" name="Id" dataDxfId="123"/>
+    <tableColumn id="2" name="Name" dataDxfId="122"/>
+    <tableColumn id="20" name="Ename" dataDxfId="121"/>
+    <tableColumn id="21" name="Remark" dataDxfId="120"/>
+    <tableColumn id="3" name="Star" dataDxfId="119"/>
+    <tableColumn id="4" name="Type" dataDxfId="118"/>
+    <tableColumn id="5" name="Attr" dataDxfId="117"/>
+    <tableColumn id="8" name="Quality" dataDxfId="116">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="139"/>
-    <tableColumn id="9" name="Damage" dataDxfId="138"/>
-    <tableColumn id="10" name="Cure" dataDxfId="137"/>
-    <tableColumn id="11" name="Time" dataDxfId="136"/>
-    <tableColumn id="13" name="Help" dataDxfId="135"/>
-    <tableColumn id="16" name="Rate" dataDxfId="134"/>
-    <tableColumn id="12" name="Modify" dataDxfId="133"/>
-    <tableColumn id="27" name="Sum" dataDxfId="61">
+    <tableColumn id="7" name="Cost" dataDxfId="115"/>
+    <tableColumn id="9" name="Damage" dataDxfId="114"/>
+    <tableColumn id="10" name="Cure" dataDxfId="113"/>
+    <tableColumn id="11" name="Time" dataDxfId="112"/>
+    <tableColumn id="13" name="Help" dataDxfId="111"/>
+    <tableColumn id="16" name="Rate" dataDxfId="110"/>
+    <tableColumn id="12" name="Modify" dataDxfId="109"/>
+    <tableColumn id="27" name="Sum" dataDxfId="108">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="132"/>
-    <tableColumn id="15" name="Target" dataDxfId="131"/>
-    <tableColumn id="25" name="Mark" dataDxfId="130"/>
-    <tableColumn id="22" name="Effect" dataDxfId="129"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="128"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="127"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="126"/>
-    <tableColumn id="26" name="JobId" dataDxfId="125"/>
-    <tableColumn id="18" name="Res" dataDxfId="124"/>
-    <tableColumn id="19" name="Icon" dataDxfId="123"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="122"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="121"/>
+    <tableColumn id="6" name="Range" dataDxfId="107"/>
+    <tableColumn id="15" name="Target" dataDxfId="106"/>
+    <tableColumn id="25" name="Mark" dataDxfId="105"/>
+    <tableColumn id="22" name="Effect" dataDxfId="104"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="103"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="102"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="101"/>
+    <tableColumn id="26" name="JobId" dataDxfId="100"/>
+    <tableColumn id="18" name="Res" dataDxfId="99"/>
+    <tableColumn id="19" name="Icon" dataDxfId="98"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="97"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="117"/>
-    <tableColumn id="2" name="Name" dataDxfId="116"/>
-    <tableColumn id="20" name="Ename" dataDxfId="115"/>
-    <tableColumn id="21" name="Remark" dataDxfId="114"/>
-    <tableColumn id="3" name="Star" dataDxfId="113"/>
-    <tableColumn id="4" name="Type" dataDxfId="112"/>
-    <tableColumn id="5" name="Attr" dataDxfId="111"/>
-    <tableColumn id="8" name="Quality" dataDxfId="110">
+    <tableColumn id="1" name="Id" dataDxfId="69"/>
+    <tableColumn id="2" name="Name" dataDxfId="68"/>
+    <tableColumn id="20" name="Ename" dataDxfId="67"/>
+    <tableColumn id="21" name="Remark" dataDxfId="66"/>
+    <tableColumn id="3" name="Star" dataDxfId="65"/>
+    <tableColumn id="4" name="Type" dataDxfId="64"/>
+    <tableColumn id="5" name="Attr" dataDxfId="63"/>
+    <tableColumn id="8" name="Quality" dataDxfId="62">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="109"/>
-    <tableColumn id="9" name="Damage" dataDxfId="108"/>
-    <tableColumn id="10" name="Cure" dataDxfId="107"/>
-    <tableColumn id="11" name="Time" dataDxfId="106"/>
-    <tableColumn id="13" name="Help" dataDxfId="105"/>
-    <tableColumn id="16" name="Rate" dataDxfId="104"/>
-    <tableColumn id="12" name="Modify" dataDxfId="103"/>
-    <tableColumn id="27" name="Sum" dataDxfId="60">
+    <tableColumn id="7" name="Cost" dataDxfId="61"/>
+    <tableColumn id="9" name="Damage" dataDxfId="60"/>
+    <tableColumn id="10" name="Cure" dataDxfId="59"/>
+    <tableColumn id="11" name="Time" dataDxfId="58"/>
+    <tableColumn id="13" name="Help" dataDxfId="57"/>
+    <tableColumn id="16" name="Rate" dataDxfId="56"/>
+    <tableColumn id="12" name="Modify" dataDxfId="55"/>
+    <tableColumn id="27" name="Sum" dataDxfId="54">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="102"/>
-    <tableColumn id="15" name="Target" dataDxfId="101"/>
-    <tableColumn id="25" name="Mark" dataDxfId="100"/>
-    <tableColumn id="22" name="Effect" dataDxfId="99"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="98"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="97"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="96"/>
-    <tableColumn id="26" name="JobId" dataDxfId="95"/>
-    <tableColumn id="18" name="Res" dataDxfId="94"/>
-    <tableColumn id="19" name="Icon" dataDxfId="93"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="92"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="91"/>
+    <tableColumn id="6" name="Range" dataDxfId="53"/>
+    <tableColumn id="15" name="Target" dataDxfId="52"/>
+    <tableColumn id="25" name="Mark" dataDxfId="51"/>
+    <tableColumn id="22" name="Effect" dataDxfId="50"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="49"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="48"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="47"/>
+    <tableColumn id="26" name="JobId" dataDxfId="46"/>
+    <tableColumn id="18" name="Res" dataDxfId="45"/>
+    <tableColumn id="19" name="Icon" dataDxfId="44"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="43"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="90" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_35" displayName="表1_35" ref="A3:AB9" totalsRowShown="0" headerRowDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A3:AB9"/>
   <sortState ref="A4:X138">
     <sortCondition ref="A3:A138"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="Id" dataDxfId="88"/>
-    <tableColumn id="2" name="Name" dataDxfId="87"/>
-    <tableColumn id="20" name="Ename" dataDxfId="86"/>
-    <tableColumn id="21" name="Remark" dataDxfId="85"/>
-    <tableColumn id="3" name="Star" dataDxfId="84"/>
-    <tableColumn id="4" name="Type" dataDxfId="83"/>
-    <tableColumn id="5" name="Attr" dataDxfId="82"/>
-    <tableColumn id="8" name="Quality" dataDxfId="81">
+    <tableColumn id="1" name="Id" dataDxfId="27"/>
+    <tableColumn id="2" name="Name" dataDxfId="26"/>
+    <tableColumn id="20" name="Ename" dataDxfId="25"/>
+    <tableColumn id="21" name="Remark" dataDxfId="24"/>
+    <tableColumn id="3" name="Star" dataDxfId="23"/>
+    <tableColumn id="4" name="Type" dataDxfId="22"/>
+    <tableColumn id="5" name="Attr" dataDxfId="21"/>
+    <tableColumn id="8" name="Quality" dataDxfId="20">
       <calculatedColumnFormula>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost" dataDxfId="80"/>
-    <tableColumn id="9" name="Damage" dataDxfId="79"/>
-    <tableColumn id="10" name="Cure" dataDxfId="78"/>
-    <tableColumn id="11" name="Time" dataDxfId="77"/>
-    <tableColumn id="13" name="Help" dataDxfId="76"/>
-    <tableColumn id="16" name="Rate" dataDxfId="75"/>
-    <tableColumn id="12" name="Modify" dataDxfId="74"/>
-    <tableColumn id="27" name="Sum" dataDxfId="59">
+    <tableColumn id="7" name="Cost" dataDxfId="19"/>
+    <tableColumn id="9" name="Damage" dataDxfId="18"/>
+    <tableColumn id="10" name="Cure" dataDxfId="17"/>
+    <tableColumn id="11" name="Time" dataDxfId="16"/>
+    <tableColumn id="13" name="Help" dataDxfId="15"/>
+    <tableColumn id="16" name="Rate" dataDxfId="14"/>
+    <tableColumn id="12" name="Modify" dataDxfId="13"/>
+    <tableColumn id="27" name="Sum" dataDxfId="12">
       <calculatedColumnFormula>S4-100+O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Range" dataDxfId="73"/>
-    <tableColumn id="15" name="Target" dataDxfId="72"/>
-    <tableColumn id="25" name="Mark" dataDxfId="71"/>
-    <tableColumn id="22" name="Effect" dataDxfId="70"/>
-    <tableColumn id="24" name="GetDescript" dataDxfId="69"/>
-    <tableColumn id="17" name="UnitEffect" dataDxfId="68"/>
-    <tableColumn id="28" name="AreaEffect" dataDxfId="67"/>
-    <tableColumn id="26" name="JobId" dataDxfId="66"/>
-    <tableColumn id="18" name="Res" dataDxfId="65"/>
-    <tableColumn id="19" name="Icon" dataDxfId="64"/>
-    <tableColumn id="14" name="IsSpecial" dataDxfId="63"/>
-    <tableColumn id="23" name="IsNew" dataDxfId="62"/>
+    <tableColumn id="6" name="Range" dataDxfId="11"/>
+    <tableColumn id="15" name="Target" dataDxfId="10"/>
+    <tableColumn id="25" name="Mark" dataDxfId="9"/>
+    <tableColumn id="22" name="Effect" dataDxfId="8"/>
+    <tableColumn id="24" name="GetDescript" dataDxfId="7"/>
+    <tableColumn id="17" name="UnitEffect" dataDxfId="6"/>
+    <tableColumn id="28" name="AreaEffect" dataDxfId="5"/>
+    <tableColumn id="26" name="JobId" dataDxfId="4"/>
+    <tableColumn id="18" name="Res" dataDxfId="3"/>
+    <tableColumn id="19" name="Icon" dataDxfId="2"/>
+    <tableColumn id="14" name="IsSpecial" dataDxfId="1"/>
+    <tableColumn id="23" name="IsNew" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8612,10 +8615,10 @@
   <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X116" sqref="X116"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8909,7 +8912,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8921,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H4:H35" si="0">IF(AND(P4&gt;=13,P4&lt;=16),5,IF(AND(P4&gt;=9,P4&lt;=12),4,IF(AND(P4&gt;=5,P4&lt;=8),3,IF(AND(P4&gt;=1,P4&lt;=4),2,IF(AND(P4&gt;=-3,P4&lt;=0),1,IF(AND(P4&gt;=-5,P4&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I4" s="1">
@@ -8946,7 +8949,7 @@
         <v>-3</v>
       </c>
       <c r="P4" s="41">
-        <f>S4-100+O4</f>
+        <f t="shared" ref="P4:P35" si="1">S4-100+O4</f>
         <v>-17.799999999999997</v>
       </c>
       <c r="Q4" s="1">
@@ -8959,7 +8962,7 @@
         <v>85.2</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U4" s="32" t="s">
         <v>438</v>
@@ -8993,7 +8996,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -9005,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>IF(AND(P5&gt;=13,P5&lt;=16),5,IF(AND(P5&gt;=9,P5&lt;=12),4,IF(AND(P5&gt;=5,P5&lt;=8),3,IF(AND(P5&gt;=1,P5&lt;=4),2,IF(AND(P5&gt;=-3,P5&lt;=0),1,IF(AND(P5&gt;=-5,P5&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -9030,7 +9033,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="41">
-        <f>S5-100+O5</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q5" s="1">
@@ -9077,7 +9080,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -9089,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>IF(AND(P6&gt;=13,P6&lt;=16),5,IF(AND(P6&gt;=9,P6&lt;=12),4,IF(AND(P6&gt;=5,P6&lt;=8),3,IF(AND(P6&gt;=1,P6&lt;=4),2,IF(AND(P6&gt;=-3,P6&lt;=0),1,IF(AND(P6&gt;=-5,P6&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -9114,7 +9117,7 @@
         <v>-4</v>
       </c>
       <c r="P6" s="41">
-        <f>S6-100+O6</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q6" s="1">
@@ -9173,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(AND(P7&gt;=13,P7&lt;=16),5,IF(AND(P7&gt;=9,P7&lt;=12),4,IF(AND(P7&gt;=5,P7&lt;=8),3,IF(AND(P7&gt;=1,P7&lt;=4),2,IF(AND(P7&gt;=-3,P7&lt;=0),1,IF(AND(P7&gt;=-5,P7&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="1">
@@ -9198,7 +9201,7 @@
         <v>-2</v>
       </c>
       <c r="P7" s="41">
-        <f>S7-100+O7</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="Q7" s="1">
@@ -9259,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(AND(P8&gt;=13,P8&lt;=16),5,IF(AND(P8&gt;=9,P8&lt;=12),4,IF(AND(P8&gt;=5,P8&lt;=8),3,IF(AND(P8&gt;=1,P8&lt;=4),2,IF(AND(P8&gt;=-3,P8&lt;=0),1,IF(AND(P8&gt;=-5,P8&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I8" s="1">
@@ -9284,7 +9287,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="41">
-        <f>S8-100+O8</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q8" s="1">
@@ -9333,7 +9336,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -9345,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(AND(P9&gt;=13,P9&lt;=16),5,IF(AND(P9&gt;=9,P9&lt;=12),4,IF(AND(P9&gt;=5,P9&lt;=8),3,IF(AND(P9&gt;=1,P9&lt;=4),2,IF(AND(P9&gt;=-3,P9&lt;=0),1,IF(AND(P9&gt;=-5,P9&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -9370,7 +9373,7 @@
         <v>6</v>
       </c>
       <c r="P9" s="41">
-        <f>S9-100+O9</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q9" s="1">
@@ -9417,7 +9420,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -9429,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(AND(P10&gt;=13,P10&lt;=16),5,IF(AND(P10&gt;=9,P10&lt;=12),4,IF(AND(P10&gt;=5,P10&lt;=8),3,IF(AND(P10&gt;=1,P10&lt;=4),2,IF(AND(P10&gt;=-3,P10&lt;=0),1,IF(AND(P10&gt;=-5,P10&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -9454,7 +9457,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="41">
-        <f>S10-100+O10</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q10" s="1">
@@ -9501,7 +9504,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -9513,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(AND(P11&gt;=13,P11&lt;=16),5,IF(AND(P11&gt;=9,P11&lt;=12),4,IF(AND(P11&gt;=5,P11&lt;=8),3,IF(AND(P11&gt;=1,P11&lt;=4),2,IF(AND(P11&gt;=-3,P11&lt;=0),1,IF(AND(P11&gt;=-5,P11&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -9538,7 +9541,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="41">
-        <f>S11-100+O11</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q11" s="1">
@@ -9585,7 +9588,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -9597,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(AND(P12&gt;=13,P12&lt;=16),5,IF(AND(P12&gt;=9,P12&lt;=12),4,IF(AND(P12&gt;=5,P12&lt;=8),3,IF(AND(P12&gt;=1,P12&lt;=4),2,IF(AND(P12&gt;=-3,P12&lt;=0),1,IF(AND(P12&gt;=-5,P12&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
@@ -9622,7 +9625,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="41">
-        <f>S12-100+O12</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q12" s="1">
@@ -9669,7 +9672,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -9681,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(AND(P13&gt;=13,P13&lt;=16),5,IF(AND(P13&gt;=9,P13&lt;=12),4,IF(AND(P13&gt;=5,P13&lt;=8),3,IF(AND(P13&gt;=1,P13&lt;=4),2,IF(AND(P13&gt;=-3,P13&lt;=0),1,IF(AND(P13&gt;=-5,P13&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
@@ -9706,7 +9709,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="41">
-        <f>S13-100+O13</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q13" s="1">
@@ -9753,7 +9756,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -9765,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f>IF(AND(P14&gt;=13,P14&lt;=16),5,IF(AND(P14&gt;=9,P14&lt;=12),4,IF(AND(P14&gt;=5,P14&lt;=8),3,IF(AND(P14&gt;=1,P14&lt;=4),2,IF(AND(P14&gt;=-3,P14&lt;=0),1,IF(AND(P14&gt;=-5,P14&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
@@ -9790,7 +9793,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="41">
-        <f>S14-100+O14</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q14" s="1">
@@ -9837,7 +9840,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -9849,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f>IF(AND(P15&gt;=13,P15&lt;=16),5,IF(AND(P15&gt;=9,P15&lt;=12),4,IF(AND(P15&gt;=5,P15&lt;=8),3,IF(AND(P15&gt;=1,P15&lt;=4),2,IF(AND(P15&gt;=-3,P15&lt;=0),1,IF(AND(P15&gt;=-5,P15&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
@@ -9874,7 +9877,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="41">
-        <f>S15-100+O15</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q15" s="1">
@@ -9921,7 +9924,7 @@
         <v>456</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E16" s="15">
         <v>4</v>
@@ -9933,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f>IF(AND(P16&gt;=13,P16&lt;=16),5,IF(AND(P16&gt;=9,P16&lt;=12),4,IF(AND(P16&gt;=5,P16&lt;=8),3,IF(AND(P16&gt;=1,P16&lt;=4),2,IF(AND(P16&gt;=-3,P16&lt;=0),1,IF(AND(P16&gt;=-5,P16&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I16" s="15">
@@ -9958,7 +9961,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="41">
-        <f>S16-100+O16</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q16" s="15">
@@ -9971,10 +9974,10 @@
         <v>100</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>114</v>
@@ -10019,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f>IF(AND(P17&gt;=13,P17&lt;=16),5,IF(AND(P17&gt;=9,P17&lt;=12),4,IF(AND(P17&gt;=5,P17&lt;=8),3,IF(AND(P17&gt;=1,P17&lt;=4),2,IF(AND(P17&gt;=-3,P17&lt;=0),1,IF(AND(P17&gt;=-5,P17&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I17" s="1">
@@ -10044,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="41">
-        <f>S17-100+O17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17" s="1">
@@ -10057,7 +10060,7 @@
         <v>100</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>697</v>
@@ -10105,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f>IF(AND(P18&gt;=13,P18&lt;=16),5,IF(AND(P18&gt;=9,P18&lt;=12),4,IF(AND(P18&gt;=5,P18&lt;=8),3,IF(AND(P18&gt;=1,P18&lt;=4),2,IF(AND(P18&gt;=-3,P18&lt;=0),1,IF(AND(P18&gt;=-5,P18&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I18" s="1">
@@ -10130,7 +10133,7 @@
         <v>25</v>
       </c>
       <c r="P18" s="41">
-        <f>S18-100+O18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="1">
@@ -10143,7 +10146,7 @@
         <v>75</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>376</v>
@@ -10191,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>IF(AND(P19&gt;=13,P19&lt;=16),5,IF(AND(P19&gt;=9,P19&lt;=12),4,IF(AND(P19&gt;=5,P19&lt;=8),3,IF(AND(P19&gt;=1,P19&lt;=4),2,IF(AND(P19&gt;=-3,P19&lt;=0),1,IF(AND(P19&gt;=-5,P19&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I19" s="1">
@@ -10216,7 +10219,7 @@
         <v>25</v>
       </c>
       <c r="P19" s="41">
-        <f>S19-100+O19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
@@ -10229,7 +10232,7 @@
         <v>75</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>377</v>
@@ -10277,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>IF(AND(P20&gt;=13,P20&lt;=16),5,IF(AND(P20&gt;=9,P20&lt;=12),4,IF(AND(P20&gt;=5,P20&lt;=8),3,IF(AND(P20&gt;=1,P20&lt;=4),2,IF(AND(P20&gt;=-3,P20&lt;=0),1,IF(AND(P20&gt;=-5,P20&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I20" s="1">
@@ -10302,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="41">
-        <f>S20-100+O20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="1">
@@ -10318,7 +10321,7 @@
         <v>645</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>24</v>
@@ -10340,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="60">
+    <row r="21" spans="1:28" ht="48">
       <c r="A21">
         <v>53000018</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="1">
-        <f>IF(AND(P21&gt;=13,P21&lt;=16),5,IF(AND(P21&gt;=9,P21&lt;=12),4,IF(AND(P21&gt;=5,P21&lt;=8),3,IF(AND(P21&gt;=1,P21&lt;=4),2,IF(AND(P21&gt;=-3,P21&lt;=0),1,IF(AND(P21&gt;=-5,P21&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I21" s="1">
@@ -10388,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="41">
-        <f>S21-100+O21</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q21" s="1">
@@ -10449,7 +10452,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="1">
-        <f>IF(AND(P22&gt;=13,P22&lt;=16),5,IF(AND(P22&gt;=9,P22&lt;=12),4,IF(AND(P22&gt;=5,P22&lt;=8),3,IF(AND(P22&gt;=1,P22&lt;=4),2,IF(AND(P22&gt;=-3,P22&lt;=0),1,IF(AND(P22&gt;=-5,P22&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I22" s="1">
@@ -10474,7 +10477,7 @@
         <v>5</v>
       </c>
       <c r="P22" s="41">
-        <f>S22-100+O22</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q22" s="1">
@@ -10514,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="60">
+    <row r="23" spans="1:28" ht="24">
       <c r="A23">
         <v>53000020</v>
       </c>
@@ -10537,7 +10540,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="1">
-        <f>IF(AND(P23&gt;=13,P23&lt;=16),5,IF(AND(P23&gt;=9,P23&lt;=12),4,IF(AND(P23&gt;=5,P23&lt;=8),3,IF(AND(P23&gt;=1,P23&lt;=4),2,IF(AND(P23&gt;=-3,P23&lt;=0),1,IF(AND(P23&gt;=-5,P23&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I23" s="1">
@@ -10562,11 +10565,11 @@
         <v>-1</v>
       </c>
       <c r="P23" s="41">
-        <f>S23-100+O23</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>345</v>
@@ -10575,7 +10578,7 @@
         <v>105</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>622</v>
+        <v>770</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>483</v>
@@ -10600,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="24">
+    <row r="24" spans="1:28" ht="60">
       <c r="A24">
         <v>53000021</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <f>IF(AND(P24&gt;=13,P24&lt;=16),5,IF(AND(P24&gt;=9,P24&lt;=12),4,IF(AND(P24&gt;=5,P24&lt;=8),3,IF(AND(P24&gt;=1,P24&lt;=4),2,IF(AND(P24&gt;=-3,P24&lt;=0),1,IF(AND(P24&gt;=-5,P24&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I24" s="1">
@@ -10648,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="41">
-        <f>S24-100+O24</f>
+        <f t="shared" si="1"/>
         <v>-6.25</v>
       </c>
       <c r="Q24" s="1">
@@ -10709,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f>IF(AND(P25&gt;=13,P25&lt;=16),5,IF(AND(P25&gt;=9,P25&lt;=12),4,IF(AND(P25&gt;=5,P25&lt;=8),3,IF(AND(P25&gt;=1,P25&lt;=4),2,IF(AND(P25&gt;=-3,P25&lt;=0),1,IF(AND(P25&gt;=-5,P25&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I25" s="1">
@@ -10734,7 +10737,7 @@
         <v>-3</v>
       </c>
       <c r="P25" s="41">
-        <f>S25-100+O25</f>
+        <f t="shared" si="1"/>
         <v>-28</v>
       </c>
       <c r="Q25" s="1">
@@ -10793,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f>IF(AND(P26&gt;=13,P26&lt;=16),5,IF(AND(P26&gt;=9,P26&lt;=12),4,IF(AND(P26&gt;=5,P26&lt;=8),3,IF(AND(P26&gt;=1,P26&lt;=4),2,IF(AND(P26&gt;=-3,P26&lt;=0),1,IF(AND(P26&gt;=-5,P26&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I26" s="1">
@@ -10818,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="41">
-        <f>S26-100+O26</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q26" s="1">
@@ -10854,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="48">
+    <row r="27" spans="1:28" ht="24">
       <c r="A27">
         <v>53000024</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f>IF(AND(P27&gt;=13,P27&lt;=16),5,IF(AND(P27&gt;=9,P27&lt;=12),4,IF(AND(P27&gt;=5,P27&lt;=8),3,IF(AND(P27&gt;=1,P27&lt;=4),2,IF(AND(P27&gt;=-3,P27&lt;=0),1,IF(AND(P27&gt;=-5,P27&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I27" s="1">
@@ -10902,7 +10905,7 @@
         <v>8</v>
       </c>
       <c r="P27" s="41">
-        <f>S27-100+O27</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="Q27" s="1">
@@ -10940,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="24">
+    <row r="28" spans="1:28" ht="48">
       <c r="A28">
         <v>53000025</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f>IF(AND(P28&gt;=13,P28&lt;=16),5,IF(AND(P28&gt;=9,P28&lt;=12),4,IF(AND(P28&gt;=5,P28&lt;=8),3,IF(AND(P28&gt;=1,P28&lt;=4),2,IF(AND(P28&gt;=-3,P28&lt;=0),1,IF(AND(P28&gt;=-5,P28&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I28" s="1">
@@ -10988,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="41">
-        <f>S28-100+O28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="1">
@@ -11004,7 +11007,7 @@
         <v>701</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>38</v>
@@ -11049,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>IF(AND(P29&gt;=13,P29&lt;=16),5,IF(AND(P29&gt;=9,P29&lt;=12),4,IF(AND(P29&gt;=5,P29&lt;=8),3,IF(AND(P29&gt;=1,P29&lt;=4),2,IF(AND(P29&gt;=-3,P29&lt;=0),1,IF(AND(P29&gt;=-5,P29&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I29" s="1">
@@ -11074,7 +11077,7 @@
         <v>3</v>
       </c>
       <c r="P29" s="41">
-        <f>S29-100+O29</f>
+        <f t="shared" si="1"/>
         <v>-22</v>
       </c>
       <c r="Q29" s="1">
@@ -11090,7 +11093,7 @@
         <v>707</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>41</v>
@@ -11121,7 +11124,7 @@
         <v>256</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -11133,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>IF(AND(P30&gt;=13,P30&lt;=16),5,IF(AND(P30&gt;=9,P30&lt;=12),4,IF(AND(P30&gt;=5,P30&lt;=8),3,IF(AND(P30&gt;=1,P30&lt;=4),2,IF(AND(P30&gt;=-3,P30&lt;=0),1,IF(AND(P30&gt;=-5,P30&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="1">
@@ -11158,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="41">
-        <f>S30-100+O30</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q30" s="1">
@@ -11171,10 +11174,10 @@
         <v>96</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>44</v>
@@ -11205,7 +11208,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -11217,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f>IF(AND(P31&gt;=13,P31&lt;=16),5,IF(AND(P31&gt;=9,P31&lt;=12),4,IF(AND(P31&gt;=5,P31&lt;=8),3,IF(AND(P31&gt;=1,P31&lt;=4),2,IF(AND(P31&gt;=-3,P31&lt;=0),1,IF(AND(P31&gt;=-5,P31&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="1">
@@ -11242,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="41">
-        <f>S31-100+O31</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="Q31" s="1">
@@ -11255,10 +11258,10 @@
         <v>96</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>46</v>
@@ -11289,7 +11292,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -11301,7 +11304,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="1">
-        <f>IF(AND(P32&gt;=13,P32&lt;=16),5,IF(AND(P32&gt;=9,P32&lt;=12),4,IF(AND(P32&gt;=5,P32&lt;=8),3,IF(AND(P32&gt;=1,P32&lt;=4),2,IF(AND(P32&gt;=-3,P32&lt;=0),1,IF(AND(P32&gt;=-5,P32&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I32" s="1">
@@ -11326,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="41">
-        <f>S32-100+O32</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q32" s="1">
@@ -11385,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f>IF(AND(P33&gt;=13,P33&lt;=16),5,IF(AND(P33&gt;=9,P33&lt;=12),4,IF(AND(P33&gt;=5,P33&lt;=8),3,IF(AND(P33&gt;=1,P33&lt;=4),2,IF(AND(P33&gt;=-3,P33&lt;=0),1,IF(AND(P33&gt;=-5,P33&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I33" s="1">
@@ -11410,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="41">
-        <f>S33-100+O33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="1">
@@ -11448,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="48">
+    <row r="34" spans="1:28" ht="24">
       <c r="A34">
         <v>53000031</v>
       </c>
@@ -11471,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <f>IF(AND(P34&gt;=13,P34&lt;=16),5,IF(AND(P34&gt;=9,P34&lt;=12),4,IF(AND(P34&gt;=5,P34&lt;=8),3,IF(AND(P34&gt;=1,P34&lt;=4),2,IF(AND(P34&gt;=-3,P34&lt;=0),1,IF(AND(P34&gt;=-5,P34&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I34" s="1">
@@ -11496,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="41">
-        <f>S34-100+O34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="1">
@@ -11534,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="36">
+    <row r="35" spans="1:28" ht="48">
       <c r="A35">
         <v>53000035</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <f>IF(AND(P35&gt;=13,P35&lt;=16),5,IF(AND(P35&gt;=9,P35&lt;=12),4,IF(AND(P35&gt;=5,P35&lt;=8),3,IF(AND(P35&gt;=1,P35&lt;=4),2,IF(AND(P35&gt;=-3,P35&lt;=0),1,IF(AND(P35&gt;=-5,P35&lt;=-4),0,6))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I35" s="1">
@@ -11582,7 +11585,7 @@
         <v>-3</v>
       </c>
       <c r="P35" s="41">
-        <f>S35-100+O35</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="Q35" s="1">
@@ -11641,7 +11644,7 @@
         <v>6</v>
       </c>
       <c r="H36" s="1">
-        <f>IF(AND(P36&gt;=13,P36&lt;=16),5,IF(AND(P36&gt;=9,P36&lt;=12),4,IF(AND(P36&gt;=5,P36&lt;=8),3,IF(AND(P36&gt;=1,P36&lt;=4),2,IF(AND(P36&gt;=-3,P36&lt;=0),1,IF(AND(P36&gt;=-5,P36&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H36:H67" si="2">IF(AND(P36&gt;=13,P36&lt;=16),5,IF(AND(P36&gt;=9,P36&lt;=12),4,IF(AND(P36&gt;=5,P36&lt;=8),3,IF(AND(P36&gt;=1,P36&lt;=4),2,IF(AND(P36&gt;=-3,P36&lt;=0),1,IF(AND(P36&gt;=-5,P36&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I36" s="1">
@@ -11666,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="41">
-        <f>S36-100+O36</f>
+        <f t="shared" ref="P36:P67" si="3">S36-100+O36</f>
         <v>-39</v>
       </c>
       <c r="Q36" s="1">
@@ -11714,7 +11717,7 @@
         <v>261</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -11726,7 +11729,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="1">
-        <f>IF(AND(P37&gt;=13,P37&lt;=16),5,IF(AND(P37&gt;=9,P37&lt;=12),4,IF(AND(P37&gt;=5,P37&lt;=8),3,IF(AND(P37&gt;=1,P37&lt;=4),2,IF(AND(P37&gt;=-3,P37&lt;=0),1,IF(AND(P37&gt;=-5,P37&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I37" s="1">
@@ -11751,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="41">
-        <f>S37-100+O37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q37" s="1">
@@ -11764,10 +11767,10 @@
         <v>100</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>59</v>
@@ -11798,7 +11801,7 @@
         <v>262</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -11810,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f>IF(AND(P38&gt;=13,P38&lt;=16),5,IF(AND(P38&gt;=9,P38&lt;=12),4,IF(AND(P38&gt;=5,P38&lt;=8),3,IF(AND(P38&gt;=1,P38&lt;=4),2,IF(AND(P38&gt;=-3,P38&lt;=0),1,IF(AND(P38&gt;=-5,P38&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I38" s="1">
@@ -11835,7 +11838,7 @@
         <v>3</v>
       </c>
       <c r="P38" s="41">
-        <f>S38-100+O38</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q38" s="1">
@@ -11848,10 +11851,10 @@
         <v>100</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>61</v>
@@ -11896,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f>IF(AND(P39&gt;=13,P39&lt;=16),5,IF(AND(P39&gt;=9,P39&lt;=12),4,IF(AND(P39&gt;=5,P39&lt;=8),3,IF(AND(P39&gt;=1,P39&lt;=4),2,IF(AND(P39&gt;=-3,P39&lt;=0),1,IF(AND(P39&gt;=-5,P39&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I39" s="1">
@@ -11921,7 +11924,7 @@
         <v>15</v>
       </c>
       <c r="P39" s="41">
-        <f>S39-100+O39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q39" s="1">
@@ -11934,7 +11937,7 @@
         <v>85</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>569</v>
@@ -11982,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f>IF(AND(P40&gt;=13,P40&lt;=16),5,IF(AND(P40&gt;=9,P40&lt;=12),4,IF(AND(P40&gt;=5,P40&lt;=8),3,IF(AND(P40&gt;=1,P40&lt;=4),2,IF(AND(P40&gt;=-3,P40&lt;=0),1,IF(AND(P40&gt;=-5,P40&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I40" s="1">
@@ -12007,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="41">
-        <f>S40-100+O40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
@@ -12045,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="48">
+    <row r="41" spans="1:28" ht="24">
       <c r="A41">
         <v>53000041</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f>IF(AND(P41&gt;=13,P41&lt;=16),5,IF(AND(P41&gt;=9,P41&lt;=12),4,IF(AND(P41&gt;=5,P41&lt;=8),3,IF(AND(P41&gt;=1,P41&lt;=4),2,IF(AND(P41&gt;=-3,P41&lt;=0),1,IF(AND(P41&gt;=-5,P41&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I41" s="1">
@@ -12093,7 +12096,7 @@
         <v>-2</v>
       </c>
       <c r="P41" s="41">
-        <f>S41-100+O41</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="Q41" s="1">
@@ -12152,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f>IF(AND(P42&gt;=13,P42&lt;=16),5,IF(AND(P42&gt;=9,P42&lt;=12),4,IF(AND(P42&gt;=5,P42&lt;=8),3,IF(AND(P42&gt;=1,P42&lt;=4),2,IF(AND(P42&gt;=-3,P42&lt;=0),1,IF(AND(P42&gt;=-5,P42&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I42" s="1">
@@ -12177,7 +12180,7 @@
         <v>-3</v>
       </c>
       <c r="P42" s="41">
-        <f>S42-100+O42</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q42" s="1">
@@ -12190,7 +12193,7 @@
         <v>100</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>380</v>
@@ -12236,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f>IF(AND(P43&gt;=13,P43&lt;=16),5,IF(AND(P43&gt;=9,P43&lt;=12),4,IF(AND(P43&gt;=5,P43&lt;=8),3,IF(AND(P43&gt;=1,P43&lt;=4),2,IF(AND(P43&gt;=-3,P43&lt;=0),1,IF(AND(P43&gt;=-5,P43&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I43" s="1">
@@ -12261,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="41">
-        <f>S43-100+O43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q43" s="1">
@@ -12277,7 +12280,7 @@
         <v>504</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>4</v>
@@ -12297,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="60">
+    <row r="44" spans="1:28" ht="24">
       <c r="A44">
         <v>53000044</v>
       </c>
@@ -12320,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f>IF(AND(P44&gt;=13,P44&lt;=16),5,IF(AND(P44&gt;=9,P44&lt;=12),4,IF(AND(P44&gt;=5,P44&lt;=8),3,IF(AND(P44&gt;=1,P44&lt;=4),2,IF(AND(P44&gt;=-3,P44&lt;=0),1,IF(AND(P44&gt;=-5,P44&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I44" s="1">
@@ -12345,7 +12348,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="41">
-        <f>S44-100+O44</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q44" s="1">
@@ -12394,7 +12397,7 @@
         <v>268</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -12406,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f>IF(AND(P45&gt;=13,P45&lt;=16),5,IF(AND(P45&gt;=9,P45&lt;=12),4,IF(AND(P45&gt;=5,P45&lt;=8),3,IF(AND(P45&gt;=1,P45&lt;=4),2,IF(AND(P45&gt;=-3,P45&lt;=0),1,IF(AND(P45&gt;=-5,P45&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I45" s="1">
@@ -12431,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="41">
-        <f>S45-100+O45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q45" s="1">
@@ -12444,10 +12447,10 @@
         <v>100</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>364</v>
@@ -12469,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="60">
+    <row r="46" spans="1:28" ht="48">
       <c r="A46">
         <v>53000046</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="1">
-        <f>IF(AND(P46&gt;=13,P46&lt;=16),5,IF(AND(P46&gt;=9,P46&lt;=12),4,IF(AND(P46&gt;=5,P46&lt;=8),3,IF(AND(P46&gt;=1,P46&lt;=4),2,IF(AND(P46&gt;=-3,P46&lt;=0),1,IF(AND(P46&gt;=-5,P46&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I46" s="1">
@@ -12517,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="41">
-        <f>S46-100+O46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q46" s="1">
@@ -12553,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="48">
+    <row r="47" spans="1:28" ht="60">
       <c r="A47">
         <v>53000047</v>
       </c>
@@ -12576,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="1">
-        <f>IF(AND(P47&gt;=13,P47&lt;=16),5,IF(AND(P47&gt;=9,P47&lt;=12),4,IF(AND(P47&gt;=5,P47&lt;=8),3,IF(AND(P47&gt;=1,P47&lt;=4),2,IF(AND(P47&gt;=-3,P47&lt;=0),1,IF(AND(P47&gt;=-5,P47&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I47" s="1">
@@ -12601,7 +12604,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="41">
-        <f>S47-100+O47</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Q47" s="1">
@@ -12639,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="72">
+    <row r="48" spans="1:28" ht="48">
       <c r="A48">
         <v>53000048</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="1">
-        <f>IF(AND(P48&gt;=13,P48&lt;=16),5,IF(AND(P48&gt;=9,P48&lt;=12),4,IF(AND(P48&gt;=5,P48&lt;=8),3,IF(AND(P48&gt;=1,P48&lt;=4),2,IF(AND(P48&gt;=-3,P48&lt;=0),1,IF(AND(P48&gt;=-5,P48&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I48" s="1">
@@ -12687,7 +12690,7 @@
         <v>-3</v>
       </c>
       <c r="P48" s="41">
-        <f>S48-100+O48</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q48" s="1">
@@ -12746,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f>IF(AND(P49&gt;=13,P49&lt;=16),5,IF(AND(P49&gt;=9,P49&lt;=12),4,IF(AND(P49&gt;=5,P49&lt;=8),3,IF(AND(P49&gt;=1,P49&lt;=4),2,IF(AND(P49&gt;=-3,P49&lt;=0),1,IF(AND(P49&gt;=-5,P49&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I49" s="1">
@@ -12771,7 +12774,7 @@
         <v>-1</v>
       </c>
       <c r="P49" s="41">
-        <f>S49-100+O49</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q49" s="1">
@@ -12809,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="48">
+    <row r="50" spans="1:28" ht="72">
       <c r="A50">
         <v>53000050</v>
       </c>
@@ -12832,7 +12835,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="1">
-        <f>IF(AND(P50&gt;=13,P50&lt;=16),5,IF(AND(P50&gt;=9,P50&lt;=12),4,IF(AND(P50&gt;=5,P50&lt;=8),3,IF(AND(P50&gt;=1,P50&lt;=4),2,IF(AND(P50&gt;=-3,P50&lt;=0),1,IF(AND(P50&gt;=-5,P50&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I50" s="1">
@@ -12857,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="41">
-        <f>S50-100+O50</f>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="Q50" s="1">
@@ -12916,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f>IF(AND(P51&gt;=13,P51&lt;=16),5,IF(AND(P51&gt;=9,P51&lt;=12),4,IF(AND(P51&gt;=5,P51&lt;=8),3,IF(AND(P51&gt;=1,P51&lt;=4),2,IF(AND(P51&gt;=-3,P51&lt;=0),1,IF(AND(P51&gt;=-5,P51&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I51" s="1">
@@ -12941,7 +12944,7 @@
         <v>-3</v>
       </c>
       <c r="P51" s="41">
-        <f>S51-100+O51</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q51" s="1">
@@ -13000,7 +13003,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="1">
-        <f>IF(AND(P52&gt;=13,P52&lt;=16),5,IF(AND(P52&gt;=9,P52&lt;=12),4,IF(AND(P52&gt;=5,P52&lt;=8),3,IF(AND(P52&gt;=1,P52&lt;=4),2,IF(AND(P52&gt;=-3,P52&lt;=0),1,IF(AND(P52&gt;=-5,P52&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I52" s="1">
@@ -13025,7 +13028,7 @@
         <v>-3</v>
       </c>
       <c r="P52" s="41">
-        <f>S52-100+O52</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q52" s="1">
@@ -13084,7 +13087,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="1">
-        <f>IF(AND(P53&gt;=13,P53&lt;=16),5,IF(AND(P53&gt;=9,P53&lt;=12),4,IF(AND(P53&gt;=5,P53&lt;=8),3,IF(AND(P53&gt;=1,P53&lt;=4),2,IF(AND(P53&gt;=-3,P53&lt;=0),1,IF(AND(P53&gt;=-5,P53&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I53" s="1">
@@ -13109,7 +13112,7 @@
         <v>-3</v>
       </c>
       <c r="P53" s="41">
-        <f>S53-100+O53</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q53" s="1">
@@ -13168,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f>IF(AND(P54&gt;=13,P54&lt;=16),5,IF(AND(P54&gt;=9,P54&lt;=12),4,IF(AND(P54&gt;=5,P54&lt;=8),3,IF(AND(P54&gt;=1,P54&lt;=4),2,IF(AND(P54&gt;=-3,P54&lt;=0),1,IF(AND(P54&gt;=-5,P54&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I54" s="1">
@@ -13193,7 +13196,7 @@
         <v>2</v>
       </c>
       <c r="P54" s="41">
-        <f>S54-100+O54</f>
+        <f t="shared" si="3"/>
         <v>-14.5</v>
       </c>
       <c r="Q54" s="1">
@@ -13206,7 +13209,7 @@
         <v>83.5</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>440</v>
@@ -13229,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="36">
+    <row r="55" spans="1:28" ht="24">
       <c r="A55">
         <v>53000055</v>
       </c>
@@ -13252,7 +13255,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="1">
-        <f>IF(AND(P55&gt;=13,P55&lt;=16),5,IF(AND(P55&gt;=9,P55&lt;=12),4,IF(AND(P55&gt;=5,P55&lt;=8),3,IF(AND(P55&gt;=1,P55&lt;=4),2,IF(AND(P55&gt;=-3,P55&lt;=0),1,IF(AND(P55&gt;=-5,P55&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I55" s="1">
@@ -13277,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="P55" s="41">
-        <f>S55-100+O55</f>
+        <f t="shared" si="3"/>
         <v>-19</v>
       </c>
       <c r="Q55" s="1">
@@ -13313,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="24">
+    <row r="56" spans="1:28" ht="36">
       <c r="A56">
         <v>53000056</v>
       </c>
@@ -13336,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f>IF(AND(P56&gt;=13,P56&lt;=16),5,IF(AND(P56&gt;=9,P56&lt;=12),4,IF(AND(P56&gt;=5,P56&lt;=8),3,IF(AND(P56&gt;=1,P56&lt;=4),2,IF(AND(P56&gt;=-3,P56&lt;=0),1,IF(AND(P56&gt;=-5,P56&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I56" s="1">
@@ -13361,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="41">
-        <f>S56-100+O56</f>
+        <f t="shared" si="3"/>
         <v>-62.5</v>
       </c>
       <c r="Q56" s="1">
@@ -13420,7 +13423,7 @@
         <v>6</v>
       </c>
       <c r="H57" s="1">
-        <f>IF(AND(P57&gt;=13,P57&lt;=16),5,IF(AND(P57&gt;=9,P57&lt;=12),4,IF(AND(P57&gt;=5,P57&lt;=8),3,IF(AND(P57&gt;=1,P57&lt;=4),2,IF(AND(P57&gt;=-3,P57&lt;=0),1,IF(AND(P57&gt;=-5,P57&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I57" s="1">
@@ -13445,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="41">
-        <f>S57-100+O57</f>
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
       <c r="Q57" s="1">
@@ -13504,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f>IF(AND(P58&gt;=13,P58&lt;=16),5,IF(AND(P58&gt;=9,P58&lt;=12),4,IF(AND(P58&gt;=5,P58&lt;=8),3,IF(AND(P58&gt;=1,P58&lt;=4),2,IF(AND(P58&gt;=-3,P58&lt;=0),1,IF(AND(P58&gt;=-5,P58&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I58" s="1">
@@ -13529,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="41">
-        <f>S58-100+O58</f>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="Q58" s="1">
@@ -13565,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="36">
+    <row r="59" spans="1:28" ht="24">
       <c r="A59">
         <v>53000059</v>
       </c>
@@ -13576,7 +13579,7 @@
         <v>280</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -13588,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f>IF(AND(P59&gt;=13,P59&lt;=16),5,IF(AND(P59&gt;=9,P59&lt;=12),4,IF(AND(P59&gt;=5,P59&lt;=8),3,IF(AND(P59&gt;=1,P59&lt;=4),2,IF(AND(P59&gt;=-3,P59&lt;=0),1,IF(AND(P59&gt;=-5,P59&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I59" s="1">
@@ -13613,7 +13616,7 @@
         <v>3</v>
       </c>
       <c r="P59" s="41">
-        <f>S59-100+O59</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q59" s="1">
@@ -13651,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="48">
+    <row r="60" spans="1:28" ht="36">
       <c r="A60">
         <v>53000060</v>
       </c>
@@ -13662,7 +13665,7 @@
         <v>281</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -13674,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f>IF(AND(P60&gt;=13,P60&lt;=16),5,IF(AND(P60&gt;=9,P60&lt;=12),4,IF(AND(P60&gt;=5,P60&lt;=8),3,IF(AND(P60&gt;=1,P60&lt;=4),2,IF(AND(P60&gt;=-3,P60&lt;=0),1,IF(AND(P60&gt;=-5,P60&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I60" s="1">
@@ -13699,7 +13702,7 @@
         <v>-3</v>
       </c>
       <c r="P60" s="41">
-        <f>S60-100+O60</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q60" s="1">
@@ -13737,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="24">
+    <row r="61" spans="1:28" ht="48">
       <c r="A61">
         <v>53000061</v>
       </c>
@@ -13748,7 +13751,7 @@
         <v>282</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
@@ -13760,7 +13763,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1">
-        <f>IF(AND(P61&gt;=13,P61&lt;=16),5,IF(AND(P61&gt;=9,P61&lt;=12),4,IF(AND(P61&gt;=5,P61&lt;=8),3,IF(AND(P61&gt;=1,P61&lt;=4),2,IF(AND(P61&gt;=-3,P61&lt;=0),1,IF(AND(P61&gt;=-5,P61&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I61" s="1">
@@ -13785,7 +13788,7 @@
         <v>6</v>
       </c>
       <c r="P61" s="41">
-        <f>S61-100+O61</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q61" s="1">
@@ -13834,7 +13837,7 @@
         <v>283</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -13846,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f>IF(AND(P62&gt;=13,P62&lt;=16),5,IF(AND(P62&gt;=9,P62&lt;=12),4,IF(AND(P62&gt;=5,P62&lt;=8),3,IF(AND(P62&gt;=1,P62&lt;=4),2,IF(AND(P62&gt;=-3,P62&lt;=0),1,IF(AND(P62&gt;=-5,P62&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I62" s="1">
@@ -13871,7 +13874,7 @@
         <v>-3</v>
       </c>
       <c r="P62" s="41">
-        <f>S62-100+O62</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="Q62" s="1">
@@ -13909,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="24">
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>53000063</v>
       </c>
@@ -13920,7 +13923,7 @@
         <v>284</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -13932,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f>IF(AND(P63&gt;=13,P63&lt;=16),5,IF(AND(P63&gt;=9,P63&lt;=12),4,IF(AND(P63&gt;=5,P63&lt;=8),3,IF(AND(P63&gt;=1,P63&lt;=4),2,IF(AND(P63&gt;=-3,P63&lt;=0),1,IF(AND(P63&gt;=-5,P63&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I63" s="1">
@@ -13957,7 +13960,7 @@
         <v>3</v>
       </c>
       <c r="P63" s="41">
-        <f>S63-100+O63</f>
+        <f t="shared" si="3"/>
         <v>-22</v>
       </c>
       <c r="Q63" s="1">
@@ -13993,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="48">
+    <row r="64" spans="1:28" ht="24">
       <c r="A64">
         <v>53000064</v>
       </c>
@@ -14016,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f>IF(AND(P64&gt;=13,P64&lt;=16),5,IF(AND(P64&gt;=9,P64&lt;=12),4,IF(AND(P64&gt;=5,P64&lt;=8),3,IF(AND(P64&gt;=1,P64&lt;=4),2,IF(AND(P64&gt;=-3,P64&lt;=0),1,IF(AND(P64&gt;=-5,P64&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I64" s="1">
@@ -14041,7 +14044,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="41">
-        <f>S64-100+O64</f>
+        <f t="shared" si="3"/>
         <v>-23</v>
       </c>
       <c r="Q64" s="1">
@@ -14088,7 +14091,7 @@
         <v>219</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
@@ -14100,7 +14103,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="1">
-        <f>IF(AND(P65&gt;=13,P65&lt;=16),5,IF(AND(P65&gt;=9,P65&lt;=12),4,IF(AND(P65&gt;=5,P65&lt;=8),3,IF(AND(P65&gt;=1,P65&lt;=4),2,IF(AND(P65&gt;=-3,P65&lt;=0),1,IF(AND(P65&gt;=-5,P65&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I65" s="1">
@@ -14125,7 +14128,7 @@
         <v>9</v>
       </c>
       <c r="P65" s="41">
-        <f>S65-100+O65</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q65" s="1">
@@ -14138,7 +14141,7 @@
         <v>100</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>521</v>
@@ -14186,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f>IF(AND(P66&gt;=13,P66&lt;=16),5,IF(AND(P66&gt;=9,P66&lt;=12),4,IF(AND(P66&gt;=5,P66&lt;=8),3,IF(AND(P66&gt;=1,P66&lt;=4),2,IF(AND(P66&gt;=-3,P66&lt;=0),1,IF(AND(P66&gt;=-5,P66&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I66" s="1">
@@ -14211,7 +14214,7 @@
         <v>15</v>
       </c>
       <c r="P66" s="41">
-        <f>S66-100+O66</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q66" s="1">
@@ -14260,7 +14263,7 @@
         <v>287</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -14272,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f>IF(AND(P67&gt;=13,P67&lt;=16),5,IF(AND(P67&gt;=9,P67&lt;=12),4,IF(AND(P67&gt;=5,P67&lt;=8),3,IF(AND(P67&gt;=1,P67&lt;=4),2,IF(AND(P67&gt;=-3,P67&lt;=0),1,IF(AND(P67&gt;=-5,P67&lt;=-4),0,6))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I67" s="1">
@@ -14297,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="P67" s="41">
-        <f>S67-100+O67</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q67" s="1">
@@ -14310,7 +14313,7 @@
         <v>100</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="U67" s="7" t="s">
         <v>522</v>
@@ -14335,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="24">
+    <row r="68" spans="1:28" ht="60">
       <c r="A68">
         <v>53000068</v>
       </c>
@@ -14358,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f>IF(AND(P68&gt;=13,P68&lt;=16),5,IF(AND(P68&gt;=9,P68&lt;=12),4,IF(AND(P68&gt;=5,P68&lt;=8),3,IF(AND(P68&gt;=1,P68&lt;=4),2,IF(AND(P68&gt;=-3,P68&lt;=0),1,IF(AND(P68&gt;=-5,P68&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H68:H99" si="4">IF(AND(P68&gt;=13,P68&lt;=16),5,IF(AND(P68&gt;=9,P68&lt;=12),4,IF(AND(P68&gt;=5,P68&lt;=8),3,IF(AND(P68&gt;=1,P68&lt;=4),2,IF(AND(P68&gt;=-3,P68&lt;=0),1,IF(AND(P68&gt;=-5,P68&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I68" s="1">
@@ -14383,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="41">
-        <f>S68-100+O68</f>
+        <f t="shared" ref="P68:P99" si="5">S68-100+O68</f>
         <v>-40</v>
       </c>
       <c r="Q68" s="1">
@@ -14444,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f>IF(AND(P69&gt;=13,P69&lt;=16),5,IF(AND(P69&gt;=9,P69&lt;=12),4,IF(AND(P69&gt;=5,P69&lt;=8),3,IF(AND(P69&gt;=1,P69&lt;=4),2,IF(AND(P69&gt;=-3,P69&lt;=0),1,IF(AND(P69&gt;=-5,P69&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I69" s="1">
@@ -14469,7 +14472,7 @@
         <v>3</v>
       </c>
       <c r="P69" s="41">
-        <f>S69-100+O69</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q69" s="1">
@@ -14505,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="72">
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>53000070</v>
       </c>
@@ -14528,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f>IF(AND(P70&gt;=13,P70&lt;=16),5,IF(AND(P70&gt;=9,P70&lt;=12),4,IF(AND(P70&gt;=5,P70&lt;=8),3,IF(AND(P70&gt;=1,P70&lt;=4),2,IF(AND(P70&gt;=-3,P70&lt;=0),1,IF(AND(P70&gt;=-5,P70&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I70" s="1">
@@ -14553,7 +14556,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="41">
-        <f>S70-100+O70</f>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="Q70" s="1">
@@ -14587,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="48">
+    <row r="71" spans="1:28" ht="72">
       <c r="A71">
         <v>53000071</v>
       </c>
@@ -14610,7 +14613,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="1">
-        <f>IF(AND(P71&gt;=13,P71&lt;=16),5,IF(AND(P71&gt;=9,P71&lt;=12),4,IF(AND(P71&gt;=5,P71&lt;=8),3,IF(AND(P71&gt;=1,P71&lt;=4),2,IF(AND(P71&gt;=-3,P71&lt;=0),1,IF(AND(P71&gt;=-5,P71&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I71" s="1">
@@ -14635,7 +14638,7 @@
         <v>2</v>
       </c>
       <c r="P71" s="41">
-        <f>S71-100+O71</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q71" s="1">
@@ -14696,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f>IF(AND(P72&gt;=13,P72&lt;=16),5,IF(AND(P72&gt;=9,P72&lt;=12),4,IF(AND(P72&gt;=5,P72&lt;=8),3,IF(AND(P72&gt;=1,P72&lt;=4),2,IF(AND(P72&gt;=-3,P72&lt;=0),1,IF(AND(P72&gt;=-5,P72&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I72" s="1">
@@ -14721,7 +14724,7 @@
         <v>2</v>
       </c>
       <c r="P72" s="41">
-        <f>S72-100+O72</f>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="Q72" s="1">
@@ -14757,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="36">
+    <row r="73" spans="1:28" ht="48">
       <c r="A73">
         <v>53000073</v>
       </c>
@@ -14780,7 +14783,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="1">
-        <f>IF(AND(P73&gt;=13,P73&lt;=16),5,IF(AND(P73&gt;=9,P73&lt;=12),4,IF(AND(P73&gt;=5,P73&lt;=8),3,IF(AND(P73&gt;=1,P73&lt;=4),2,IF(AND(P73&gt;=-3,P73&lt;=0),1,IF(AND(P73&gt;=-5,P73&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73" s="1">
@@ -14805,7 +14808,7 @@
         <v>3</v>
       </c>
       <c r="P73" s="41">
-        <f>S73-100+O73</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="Q73" s="1">
@@ -14841,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="108">
+    <row r="74" spans="1:28" ht="36">
       <c r="A74">
         <v>53000074</v>
       </c>
@@ -14864,7 +14867,7 @@
         <v>6</v>
       </c>
       <c r="H74" s="1">
-        <f>IF(AND(P74&gt;=13,P74&lt;=16),5,IF(AND(P74&gt;=9,P74&lt;=12),4,IF(AND(P74&gt;=5,P74&lt;=8),3,IF(AND(P74&gt;=1,P74&lt;=4),2,IF(AND(P74&gt;=-3,P74&lt;=0),1,IF(AND(P74&gt;=-5,P74&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I74" s="1">
@@ -14889,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="41">
-        <f>S74-100+O74</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q74" s="1">
@@ -14925,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="60">
+    <row r="75" spans="1:28" ht="108">
       <c r="A75">
         <v>53000075</v>
       </c>
@@ -14948,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f>IF(AND(P75&gt;=13,P75&lt;=16),5,IF(AND(P75&gt;=9,P75&lt;=12),4,IF(AND(P75&gt;=5,P75&lt;=8),3,IF(AND(P75&gt;=1,P75&lt;=4),2,IF(AND(P75&gt;=-3,P75&lt;=0),1,IF(AND(P75&gt;=-5,P75&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I75" s="1">
@@ -14973,7 +14976,7 @@
         <v>-3</v>
       </c>
       <c r="P75" s="41">
-        <f>S75-100+O75</f>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="Q75" s="1">
@@ -15009,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="48">
+    <row r="76" spans="1:28" ht="60">
       <c r="A76">
         <v>53000076</v>
       </c>
@@ -15032,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <f>IF(AND(P76&gt;=13,P76&lt;=16),5,IF(AND(P76&gt;=9,P76&lt;=12),4,IF(AND(P76&gt;=5,P76&lt;=8),3,IF(AND(P76&gt;=1,P76&lt;=4),2,IF(AND(P76&gt;=-3,P76&lt;=0),1,IF(AND(P76&gt;=-5,P76&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I76" s="1">
@@ -15057,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="41">
-        <f>S76-100+O76</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q76" s="1">
@@ -15118,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f>IF(AND(P77&gt;=13,P77&lt;=16),5,IF(AND(P77&gt;=9,P77&lt;=12),4,IF(AND(P77&gt;=5,P77&lt;=8),3,IF(AND(P77&gt;=1,P77&lt;=4),2,IF(AND(P77&gt;=-3,P77&lt;=0),1,IF(AND(P77&gt;=-5,P77&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I77" s="1">
@@ -15143,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="41">
-        <f>S77-100+O77</f>
+        <f t="shared" si="5"/>
         <v>-40</v>
       </c>
       <c r="Q77" s="1">
@@ -15156,7 +15159,7 @@
         <v>60</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>389</v>
@@ -15202,7 +15205,7 @@
         <v>5</v>
       </c>
       <c r="H78" s="1">
-        <f>IF(AND(P78&gt;=13,P78&lt;=16),5,IF(AND(P78&gt;=9,P78&lt;=12),4,IF(AND(P78&gt;=5,P78&lt;=8),3,IF(AND(P78&gt;=1,P78&lt;=4),2,IF(AND(P78&gt;=-3,P78&lt;=0),1,IF(AND(P78&gt;=-5,P78&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I78" s="1">
@@ -15227,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="41">
-        <f>S78-100+O78</f>
+        <f t="shared" si="5"/>
         <v>-50</v>
       </c>
       <c r="Q78" s="1">
@@ -15240,7 +15243,7 @@
         <v>50</v>
       </c>
       <c r="T78" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U78" s="7" t="s">
         <v>633</v>
@@ -15263,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="60">
+    <row r="79" spans="1:28" ht="48">
       <c r="A79">
         <v>53000079</v>
       </c>
@@ -15286,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f>IF(AND(P79&gt;=13,P79&lt;=16),5,IF(AND(P79&gt;=9,P79&lt;=12),4,IF(AND(P79&gt;=5,P79&lt;=8),3,IF(AND(P79&gt;=1,P79&lt;=4),2,IF(AND(P79&gt;=-3,P79&lt;=0),1,IF(AND(P79&gt;=-5,P79&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I79" s="1">
@@ -15311,7 +15314,7 @@
         <v>-2</v>
       </c>
       <c r="P79" s="41">
-        <f>S79-100+O79</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="Q79" s="1">
@@ -15372,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f>IF(AND(P80&gt;=13,P80&lt;=16),5,IF(AND(P80&gt;=9,P80&lt;=12),4,IF(AND(P80&gt;=5,P80&lt;=8),3,IF(AND(P80&gt;=1,P80&lt;=4),2,IF(AND(P80&gt;=-3,P80&lt;=0),1,IF(AND(P80&gt;=-5,P80&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I80" s="1">
@@ -15397,7 +15400,7 @@
         <v>-1</v>
       </c>
       <c r="P80" s="41">
-        <f>S80-100+O80</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q80" s="1">
@@ -15435,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="24">
+    <row r="81" spans="1:28" ht="60">
       <c r="A81">
         <v>53000081</v>
       </c>
@@ -15458,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f>IF(AND(P81&gt;=13,P81&lt;=16),5,IF(AND(P81&gt;=9,P81&lt;=12),4,IF(AND(P81&gt;=5,P81&lt;=8),3,IF(AND(P81&gt;=1,P81&lt;=4),2,IF(AND(P81&gt;=-3,P81&lt;=0),1,IF(AND(P81&gt;=-5,P81&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I81" s="1">
@@ -15483,7 +15486,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="41">
-        <f>S81-100+O81</f>
+        <f t="shared" si="5"/>
         <v>-11</v>
       </c>
       <c r="Q81" s="1">
@@ -15544,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f>IF(AND(P82&gt;=13,P82&lt;=16),5,IF(AND(P82&gt;=9,P82&lt;=12),4,IF(AND(P82&gt;=5,P82&lt;=8),3,IF(AND(P82&gt;=1,P82&lt;=4),2,IF(AND(P82&gt;=-3,P82&lt;=0),1,IF(AND(P82&gt;=-5,P82&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I82" s="1">
@@ -15569,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="41">
-        <f>S82-100+O82</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="Q82" s="1">
@@ -15628,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f>IF(AND(P83&gt;=13,P83&lt;=16),5,IF(AND(P83&gt;=9,P83&lt;=12),4,IF(AND(P83&gt;=5,P83&lt;=8),3,IF(AND(P83&gt;=1,P83&lt;=4),2,IF(AND(P83&gt;=-3,P83&lt;=0),1,IF(AND(P83&gt;=-5,P83&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I83" s="1">
@@ -15653,7 +15656,7 @@
         <v>3</v>
       </c>
       <c r="P83" s="41">
-        <f>S83-100+O83</f>
+        <f t="shared" si="5"/>
         <v>-37</v>
       </c>
       <c r="Q83" s="1">
@@ -15689,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="60">
+    <row r="84" spans="1:28" ht="24">
       <c r="A84">
         <v>53000084</v>
       </c>
@@ -15712,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <f>IF(AND(P84&gt;=13,P84&lt;=16),5,IF(AND(P84&gt;=9,P84&lt;=12),4,IF(AND(P84&gt;=5,P84&lt;=8),3,IF(AND(P84&gt;=1,P84&lt;=4),2,IF(AND(P84&gt;=-3,P84&lt;=0),1,IF(AND(P84&gt;=-5,P84&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I84" s="1">
@@ -15737,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="P84" s="41">
-        <f>S84-100+O84</f>
+        <f t="shared" si="5"/>
         <v>-57</v>
       </c>
       <c r="Q84" s="1">
@@ -15796,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f>IF(AND(P85&gt;=13,P85&lt;=16),5,IF(AND(P85&gt;=9,P85&lt;=12),4,IF(AND(P85&gt;=5,P85&lt;=8),3,IF(AND(P85&gt;=1,P85&lt;=4),2,IF(AND(P85&gt;=-3,P85&lt;=0),1,IF(AND(P85&gt;=-5,P85&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I85" s="1">
@@ -15821,7 +15824,7 @@
         <v>1</v>
       </c>
       <c r="P85" s="41">
-        <f>S85-100+O85</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q85" s="1">
@@ -15859,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="60">
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>53000086</v>
       </c>
@@ -15882,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>IF(AND(P86&gt;=13,P86&lt;=16),5,IF(AND(P86&gt;=9,P86&lt;=12),4,IF(AND(P86&gt;=5,P86&lt;=8),3,IF(AND(P86&gt;=1,P86&lt;=4),2,IF(AND(P86&gt;=-3,P86&lt;=0),1,IF(AND(P86&gt;=-5,P86&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I86" s="1">
@@ -15907,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="41">
-        <f>S86-100+O86</f>
+        <f t="shared" si="5"/>
         <v>-70</v>
       </c>
       <c r="Q86" s="1">
@@ -15964,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f>IF(AND(P87&gt;=13,P87&lt;=16),5,IF(AND(P87&gt;=9,P87&lt;=12),4,IF(AND(P87&gt;=5,P87&lt;=8),3,IF(AND(P87&gt;=1,P87&lt;=4),2,IF(AND(P87&gt;=-3,P87&lt;=0),1,IF(AND(P87&gt;=-5,P87&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I87" s="1">
@@ -15989,7 +15992,7 @@
         <v>3</v>
       </c>
       <c r="P87" s="41">
-        <f>S87-100+O87</f>
+        <f t="shared" si="5"/>
         <v>-22</v>
       </c>
       <c r="Q87" s="1">
@@ -16005,7 +16008,7 @@
         <v>677</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>65</v>
@@ -16050,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f>IF(AND(P88&gt;=13,P88&lt;=16),5,IF(AND(P88&gt;=9,P88&lt;=12),4,IF(AND(P88&gt;=5,P88&lt;=8),3,IF(AND(P88&gt;=1,P88&lt;=4),2,IF(AND(P88&gt;=-3,P88&lt;=0),1,IF(AND(P88&gt;=-5,P88&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I88" s="1">
@@ -16075,7 +16078,7 @@
         <v>2</v>
       </c>
       <c r="P88" s="41">
-        <f>S88-100+O88</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q88" s="1">
@@ -16138,7 +16141,7 @@
         <v>5</v>
       </c>
       <c r="H89" s="1">
-        <f>IF(AND(P89&gt;=13,P89&lt;=16),5,IF(AND(P89&gt;=9,P89&lt;=12),4,IF(AND(P89&gt;=5,P89&lt;=8),3,IF(AND(P89&gt;=1,P89&lt;=4),2,IF(AND(P89&gt;=-3,P89&lt;=0),1,IF(AND(P89&gt;=-5,P89&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I89" s="1">
@@ -16163,7 +16166,7 @@
         <v>3</v>
       </c>
       <c r="P89" s="41">
-        <f>S89-100+O89</f>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="Q89" s="1">
@@ -16201,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="36">
+    <row r="90" spans="1:28" ht="60">
       <c r="A90">
         <v>53000090</v>
       </c>
@@ -16224,7 +16227,7 @@
         <v>3</v>
       </c>
       <c r="H90" s="1">
-        <f>IF(AND(P90&gt;=13,P90&lt;=16),5,IF(AND(P90&gt;=9,P90&lt;=12),4,IF(AND(P90&gt;=5,P90&lt;=8),3,IF(AND(P90&gt;=1,P90&lt;=4),2,IF(AND(P90&gt;=-3,P90&lt;=0),1,IF(AND(P90&gt;=-5,P90&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I90" s="1">
@@ -16249,7 +16252,7 @@
         <v>3</v>
       </c>
       <c r="P90" s="41">
-        <f>S90-100+O90</f>
+        <f t="shared" si="5"/>
         <v>-14.5</v>
       </c>
       <c r="Q90" s="1">
@@ -16287,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="60">
+    <row r="91" spans="1:28" ht="36">
       <c r="A91">
         <v>53000091</v>
       </c>
@@ -16310,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <f>IF(AND(P91&gt;=13,P91&lt;=16),5,IF(AND(P91&gt;=9,P91&lt;=12),4,IF(AND(P91&gt;=5,P91&lt;=8),3,IF(AND(P91&gt;=1,P91&lt;=4),2,IF(AND(P91&gt;=-3,P91&lt;=0),1,IF(AND(P91&gt;=-5,P91&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I91" s="1">
@@ -16335,7 +16338,7 @@
         <v>-2</v>
       </c>
       <c r="P91" s="41">
-        <f>S91-100+O91</f>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="Q91" s="1">
@@ -16371,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="48">
+    <row r="92" spans="1:28" ht="60">
       <c r="A92">
         <v>53000092</v>
       </c>
@@ -16394,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="1">
-        <f>IF(AND(P92&gt;=13,P92&lt;=16),5,IF(AND(P92&gt;=9,P92&lt;=12),4,IF(AND(P92&gt;=5,P92&lt;=8),3,IF(AND(P92&gt;=1,P92&lt;=4),2,IF(AND(P92&gt;=-3,P92&lt;=0),1,IF(AND(P92&gt;=-5,P92&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I92" s="1">
@@ -16419,7 +16422,7 @@
         <v>2</v>
       </c>
       <c r="P92" s="41">
-        <f>S92-100+O92</f>
+        <f t="shared" si="5"/>
         <v>-23</v>
       </c>
       <c r="Q92" s="1">
@@ -16457,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="36">
+    <row r="93" spans="1:28" ht="48">
       <c r="A93">
         <v>53000093</v>
       </c>
@@ -16480,7 +16483,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="1">
-        <f>IF(AND(P93&gt;=13,P93&lt;=16),5,IF(AND(P93&gt;=9,P93&lt;=12),4,IF(AND(P93&gt;=5,P93&lt;=8),3,IF(AND(P93&gt;=1,P93&lt;=4),2,IF(AND(P93&gt;=-3,P93&lt;=0),1,IF(AND(P93&gt;=-5,P93&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I93" s="1">
@@ -16505,7 +16508,7 @@
         <v>-2</v>
       </c>
       <c r="P93" s="41">
-        <f>S93-100+O93</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="Q93" s="1">
@@ -16541,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="48">
+    <row r="94" spans="1:28" ht="36">
       <c r="A94">
         <v>53000094</v>
       </c>
@@ -16564,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="1">
-        <f>IF(AND(P94&gt;=13,P94&lt;=16),5,IF(AND(P94&gt;=9,P94&lt;=12),4,IF(AND(P94&gt;=5,P94&lt;=8),3,IF(AND(P94&gt;=1,P94&lt;=4),2,IF(AND(P94&gt;=-3,P94&lt;=0),1,IF(AND(P94&gt;=-5,P94&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I94" s="1">
@@ -16589,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="41">
-        <f>S94-100+O94</f>
+        <f t="shared" si="5"/>
         <v>-75</v>
       </c>
       <c r="Q94" s="1">
@@ -16625,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="24">
+    <row r="95" spans="1:28" ht="48">
       <c r="A95">
         <v>53000095</v>
       </c>
@@ -16648,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f>IF(AND(P95&gt;=13,P95&lt;=16),5,IF(AND(P95&gt;=9,P95&lt;=12),4,IF(AND(P95&gt;=5,P95&lt;=8),3,IF(AND(P95&gt;=1,P95&lt;=4),2,IF(AND(P95&gt;=-3,P95&lt;=0),1,IF(AND(P95&gt;=-5,P95&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I95" s="1">
@@ -16673,7 +16676,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="41">
-        <f>S95-100+O95</f>
+        <f t="shared" si="5"/>
         <v>-17</v>
       </c>
       <c r="Q95" s="1">
@@ -16711,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="60">
+    <row r="96" spans="1:28" ht="24">
       <c r="A96">
         <v>53000096</v>
       </c>
@@ -16734,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <f>IF(AND(P96&gt;=13,P96&lt;=16),5,IF(AND(P96&gt;=9,P96&lt;=12),4,IF(AND(P96&gt;=5,P96&lt;=8),3,IF(AND(P96&gt;=1,P96&lt;=4),2,IF(AND(P96&gt;=-3,P96&lt;=0),1,IF(AND(P96&gt;=-5,P96&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I96" s="1">
@@ -16759,7 +16762,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="41">
-        <f>S96-100+O96</f>
+        <f t="shared" si="5"/>
         <v>-51</v>
       </c>
       <c r="Q96" s="1">
@@ -16795,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="36">
+    <row r="97" spans="1:28" ht="60">
       <c r="A97">
         <v>53000097</v>
       </c>
@@ -16818,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="1">
-        <f>IF(AND(P97&gt;=13,P97&lt;=16),5,IF(AND(P97&gt;=9,P97&lt;=12),4,IF(AND(P97&gt;=5,P97&lt;=8),3,IF(AND(P97&gt;=1,P97&lt;=4),2,IF(AND(P97&gt;=-3,P97&lt;=0),1,IF(AND(P97&gt;=-5,P97&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I97" s="1">
@@ -16843,7 +16846,7 @@
         <v>3</v>
       </c>
       <c r="P97" s="41">
-        <f>S97-100+O97</f>
+        <f t="shared" si="5"/>
         <v>-52</v>
       </c>
       <c r="Q97" s="1">
@@ -16904,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <f>IF(AND(P98&gt;=13,P98&lt;=16),5,IF(AND(P98&gt;=9,P98&lt;=12),4,IF(AND(P98&gt;=5,P98&lt;=8),3,IF(AND(P98&gt;=1,P98&lt;=4),2,IF(AND(P98&gt;=-3,P98&lt;=0),1,IF(AND(P98&gt;=-5,P98&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I98" s="1">
@@ -16929,7 +16932,7 @@
         <v>1</v>
       </c>
       <c r="P98" s="41">
-        <f>S98-100+O98</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q98" s="1">
@@ -16965,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="24">
+    <row r="99" spans="1:28" ht="36">
       <c r="A99">
         <v>53000099</v>
       </c>
@@ -16988,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <f>IF(AND(P99&gt;=13,P99&lt;=16),5,IF(AND(P99&gt;=9,P99&lt;=12),4,IF(AND(P99&gt;=5,P99&lt;=8),3,IF(AND(P99&gt;=1,P99&lt;=4),2,IF(AND(P99&gt;=-3,P99&lt;=0),1,IF(AND(P99&gt;=-5,P99&lt;=-4),0,6))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I99" s="1">
@@ -17013,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="41">
-        <f>S99-100+O99</f>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="Q99" s="1">
@@ -17049,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="48">
+    <row r="100" spans="1:28" ht="24">
       <c r="A100">
         <v>53000100</v>
       </c>
@@ -17072,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f>IF(AND(P100&gt;=13,P100&lt;=16),5,IF(AND(P100&gt;=9,P100&lt;=12),4,IF(AND(P100&gt;=5,P100&lt;=8),3,IF(AND(P100&gt;=1,P100&lt;=4),2,IF(AND(P100&gt;=-3,P100&lt;=0),1,IF(AND(P100&gt;=-5,P100&lt;=-4),0,6))))))</f>
+        <f t="shared" ref="H100:H125" si="6">IF(AND(P100&gt;=13,P100&lt;=16),5,IF(AND(P100&gt;=9,P100&lt;=12),4,IF(AND(P100&gt;=5,P100&lt;=8),3,IF(AND(P100&gt;=1,P100&lt;=4),2,IF(AND(P100&gt;=-3,P100&lt;=0),1,IF(AND(P100&gt;=-5,P100&lt;=-4),0,6))))))</f>
         <v>6</v>
       </c>
       <c r="I100" s="1">
@@ -17097,7 +17100,7 @@
         <v>3</v>
       </c>
       <c r="P100" s="41">
-        <f>S100-100+O100</f>
+        <f t="shared" ref="P100:P131" si="7">S100-100+O100</f>
         <v>-17</v>
       </c>
       <c r="Q100" s="1">
@@ -17133,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="24">
+    <row r="101" spans="1:28" ht="48">
       <c r="A101">
         <v>53000101</v>
       </c>
@@ -17156,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <f>IF(AND(P101&gt;=13,P101&lt;=16),5,IF(AND(P101&gt;=9,P101&lt;=12),4,IF(AND(P101&gt;=5,P101&lt;=8),3,IF(AND(P101&gt;=1,P101&lt;=4),2,IF(AND(P101&gt;=-3,P101&lt;=0),1,IF(AND(P101&gt;=-5,P101&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I101" s="1">
@@ -17181,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="41">
-        <f>S101-100+O101</f>
+        <f t="shared" si="7"/>
         <v>-25</v>
       </c>
       <c r="Q101" s="1">
@@ -17217,7 +17220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="60">
+    <row r="102" spans="1:28" ht="24">
       <c r="A102">
         <v>53000102</v>
       </c>
@@ -17240,7 +17243,7 @@
         <v>2</v>
       </c>
       <c r="H102" s="1">
-        <f>IF(AND(P102&gt;=13,P102&lt;=16),5,IF(AND(P102&gt;=9,P102&lt;=12),4,IF(AND(P102&gt;=5,P102&lt;=8),3,IF(AND(P102&gt;=1,P102&lt;=4),2,IF(AND(P102&gt;=-3,P102&lt;=0),1,IF(AND(P102&gt;=-5,P102&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I102" s="1">
@@ -17265,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="41">
-        <f>S102-100+O102</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q102" s="1">
@@ -17324,7 +17327,7 @@
         <v>6</v>
       </c>
       <c r="H103" s="1">
-        <f>IF(AND(P103&gt;=13,P103&lt;=16),5,IF(AND(P103&gt;=9,P103&lt;=12),4,IF(AND(P103&gt;=5,P103&lt;=8),3,IF(AND(P103&gt;=1,P103&lt;=4),2,IF(AND(P103&gt;=-3,P103&lt;=0),1,IF(AND(P103&gt;=-5,P103&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I103" s="1">
@@ -17349,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="41">
-        <f>S103-100+O103</f>
+        <f t="shared" si="7"/>
         <v>-35</v>
       </c>
       <c r="Q103" s="1">
@@ -17410,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <f>IF(AND(P104&gt;=13,P104&lt;=16),5,IF(AND(P104&gt;=9,P104&lt;=12),4,IF(AND(P104&gt;=5,P104&lt;=8),3,IF(AND(P104&gt;=1,P104&lt;=4),2,IF(AND(P104&gt;=-3,P104&lt;=0),1,IF(AND(P104&gt;=-5,P104&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I104" s="1">
@@ -17435,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="P104" s="41">
-        <f>S104-100+O104</f>
+        <f t="shared" si="7"/>
         <v>-75</v>
       </c>
       <c r="Q104" s="1">
@@ -17469,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="24">
+    <row r="105" spans="1:28" ht="36">
       <c r="A105">
         <v>53000105</v>
       </c>
@@ -17492,7 +17495,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <f>IF(AND(P105&gt;=13,P105&lt;=16),5,IF(AND(P105&gt;=9,P105&lt;=12),4,IF(AND(P105&gt;=5,P105&lt;=8),3,IF(AND(P105&gt;=1,P105&lt;=4),2,IF(AND(P105&gt;=-3,P105&lt;=0),1,IF(AND(P105&gt;=-5,P105&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I105" s="1">
@@ -17517,7 +17520,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="41">
-        <f>S105-100+O105</f>
+        <f t="shared" si="7"/>
         <v>-75</v>
       </c>
       <c r="Q105" s="1">
@@ -17576,7 +17579,7 @@
         <v>3</v>
       </c>
       <c r="H106" s="1">
-        <f>IF(AND(P106&gt;=13,P106&lt;=16),5,IF(AND(P106&gt;=9,P106&lt;=12),4,IF(AND(P106&gt;=5,P106&lt;=8),3,IF(AND(P106&gt;=1,P106&lt;=4),2,IF(AND(P106&gt;=-3,P106&lt;=0),1,IF(AND(P106&gt;=-5,P106&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I106" s="1">
@@ -17601,7 +17604,7 @@
         <v>-1</v>
       </c>
       <c r="P106" s="41">
-        <f>S106-100+O106</f>
+        <f t="shared" si="7"/>
         <v>-11</v>
       </c>
       <c r="Q106" s="1">
@@ -17660,7 +17663,7 @@
         <v>6</v>
       </c>
       <c r="H107" s="1">
-        <f>IF(AND(P107&gt;=13,P107&lt;=16),5,IF(AND(P107&gt;=9,P107&lt;=12),4,IF(AND(P107&gt;=5,P107&lt;=8),3,IF(AND(P107&gt;=1,P107&lt;=4),2,IF(AND(P107&gt;=-3,P107&lt;=0),1,IF(AND(P107&gt;=-5,P107&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I107" s="1">
@@ -17685,7 +17688,7 @@
         <v>-1</v>
       </c>
       <c r="P107" s="41">
-        <f>S107-100+O107</f>
+        <f t="shared" si="7"/>
         <v>-11</v>
       </c>
       <c r="Q107" s="1">
@@ -17698,7 +17701,7 @@
         <v>90</v>
       </c>
       <c r="T107" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="U107" s="7" t="s">
         <v>420</v>
@@ -17721,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="24">
+    <row r="108" spans="1:28" ht="120">
       <c r="A108">
         <v>53000108</v>
       </c>
@@ -17744,7 +17747,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <f>IF(AND(P108&gt;=13,P108&lt;=16),5,IF(AND(P108&gt;=9,P108&lt;=12),4,IF(AND(P108&gt;=5,P108&lt;=8),3,IF(AND(P108&gt;=1,P108&lt;=4),2,IF(AND(P108&gt;=-3,P108&lt;=0),1,IF(AND(P108&gt;=-5,P108&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I108" s="1">
@@ -17769,7 +17772,7 @@
         <v>3</v>
       </c>
       <c r="P108" s="41">
-        <f>S108-100+O108</f>
+        <f t="shared" si="7"/>
         <v>-12</v>
       </c>
       <c r="Q108" s="1">
@@ -17805,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="36">
+    <row r="109" spans="1:28" ht="24">
       <c r="A109">
         <v>53000109</v>
       </c>
@@ -17828,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <f>IF(AND(P109&gt;=13,P109&lt;=16),5,IF(AND(P109&gt;=9,P109&lt;=12),4,IF(AND(P109&gt;=5,P109&lt;=8),3,IF(AND(P109&gt;=1,P109&lt;=4),2,IF(AND(P109&gt;=-3,P109&lt;=0),1,IF(AND(P109&gt;=-5,P109&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I109" s="1">
@@ -17853,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="41">
-        <f>S109-100+O109</f>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
       <c r="Q109" s="1">
@@ -17889,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="48">
+    <row r="110" spans="1:28" ht="36">
       <c r="A110">
         <v>53000110</v>
       </c>
@@ -17912,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="1">
-        <f>IF(AND(P110&gt;=13,P110&lt;=16),5,IF(AND(P110&gt;=9,P110&lt;=12),4,IF(AND(P110&gt;=5,P110&lt;=8),3,IF(AND(P110&gt;=1,P110&lt;=4),2,IF(AND(P110&gt;=-3,P110&lt;=0),1,IF(AND(P110&gt;=-5,P110&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I110" s="1">
@@ -17937,7 +17940,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="41">
-        <f>S110-100+O110</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q110" s="1">
@@ -17973,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="24">
+    <row r="111" spans="1:28" ht="48">
       <c r="A111">
         <v>53000111</v>
       </c>
@@ -17996,7 +17999,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="1">
-        <f>IF(AND(P111&gt;=13,P111&lt;=16),5,IF(AND(P111&gt;=9,P111&lt;=12),4,IF(AND(P111&gt;=5,P111&lt;=8),3,IF(AND(P111&gt;=1,P111&lt;=4),2,IF(AND(P111&gt;=-3,P111&lt;=0),1,IF(AND(P111&gt;=-5,P111&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I111" s="1">
@@ -18021,7 +18024,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="41">
-        <f>S111-100+O111</f>
+        <f t="shared" si="7"/>
         <v>-17</v>
       </c>
       <c r="Q111" s="1">
@@ -18080,7 +18083,7 @@
         <v>6</v>
       </c>
       <c r="H112" s="1">
-        <f>IF(AND(P112&gt;=13,P112&lt;=16),5,IF(AND(P112&gt;=9,P112&lt;=12),4,IF(AND(P112&gt;=5,P112&lt;=8),3,IF(AND(P112&gt;=1,P112&lt;=4),2,IF(AND(P112&gt;=-3,P112&lt;=0),1,IF(AND(P112&gt;=-5,P112&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I112" s="1">
@@ -18105,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="41">
-        <f>S112-100+O112</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Q112" s="1">
@@ -18164,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <f>IF(AND(P113&gt;=13,P113&lt;=16),5,IF(AND(P113&gt;=9,P113&lt;=12),4,IF(AND(P113&gt;=5,P113&lt;=8),3,IF(AND(P113&gt;=1,P113&lt;=4),2,IF(AND(P113&gt;=-3,P113&lt;=0),1,IF(AND(P113&gt;=-5,P113&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I113" s="1">
@@ -18189,7 +18192,7 @@
         <v>2</v>
       </c>
       <c r="P113" s="41">
-        <f>S113-100+O113</f>
+        <f t="shared" si="7"/>
         <v>-28</v>
       </c>
       <c r="Q113" s="1">
@@ -18225,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="36">
+    <row r="114" spans="1:28" ht="24">
       <c r="A114">
         <v>53000114</v>
       </c>
@@ -18236,7 +18239,7 @@
         <v>324</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -18248,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <f>IF(AND(P114&gt;=13,P114&lt;=16),5,IF(AND(P114&gt;=9,P114&lt;=12),4,IF(AND(P114&gt;=5,P114&lt;=8),3,IF(AND(P114&gt;=1,P114&lt;=4),2,IF(AND(P114&gt;=-3,P114&lt;=0),1,IF(AND(P114&gt;=-5,P114&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I114" s="1">
@@ -18273,7 +18276,7 @@
         <v>-1</v>
       </c>
       <c r="P114" s="41">
-        <f>S114-100+O114</f>
+        <f t="shared" si="7"/>
         <v>-86</v>
       </c>
       <c r="Q114" s="1">
@@ -18320,7 +18323,7 @@
         <v>325</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E115" s="1">
         <v>2</v>
@@ -18332,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <f>IF(AND(P115&gt;=13,P115&lt;=16),5,IF(AND(P115&gt;=9,P115&lt;=12),4,IF(AND(P115&gt;=5,P115&lt;=8),3,IF(AND(P115&gt;=1,P115&lt;=4),2,IF(AND(P115&gt;=-3,P115&lt;=0),1,IF(AND(P115&gt;=-5,P115&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I115" s="1">
@@ -18357,7 +18360,7 @@
         <v>-1</v>
       </c>
       <c r="P115" s="41">
-        <f>S115-100+O115</f>
+        <f t="shared" si="7"/>
         <v>-86</v>
       </c>
       <c r="Q115" s="1">
@@ -18393,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="48">
+    <row r="116" spans="1:28" ht="36">
       <c r="A116">
         <v>53000116</v>
       </c>
@@ -18404,7 +18407,7 @@
         <v>326</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -18416,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <f>IF(AND(P116&gt;=13,P116&lt;=16),5,IF(AND(P116&gt;=9,P116&lt;=12),4,IF(AND(P116&gt;=5,P116&lt;=8),3,IF(AND(P116&gt;=1,P116&lt;=4),2,IF(AND(P116&gt;=-3,P116&lt;=0),1,IF(AND(P116&gt;=-5,P116&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I116" s="1">
@@ -18441,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="41">
-        <f>S116-100+O116</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q116" s="1">
@@ -18502,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="1">
-        <f>IF(AND(P117&gt;=13,P117&lt;=16),5,IF(AND(P117&gt;=9,P117&lt;=12),4,IF(AND(P117&gt;=5,P117&lt;=8),3,IF(AND(P117&gt;=1,P117&lt;=4),2,IF(AND(P117&gt;=-3,P117&lt;=0),1,IF(AND(P117&gt;=-5,P117&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I117" s="1">
@@ -18527,7 +18530,7 @@
         <v>10</v>
       </c>
       <c r="P117" s="41">
-        <f>S117-100+O117</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q117" s="1">
@@ -18586,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="1">
-        <f>IF(AND(P118&gt;=13,P118&lt;=16),5,IF(AND(P118&gt;=9,P118&lt;=12),4,IF(AND(P118&gt;=5,P118&lt;=8),3,IF(AND(P118&gt;=1,P118&lt;=4),2,IF(AND(P118&gt;=-3,P118&lt;=0),1,IF(AND(P118&gt;=-5,P118&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I118" s="1">
@@ -18611,7 +18614,7 @@
         <v>10</v>
       </c>
       <c r="P118" s="41">
-        <f>S118-100+O118</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q118" s="1">
@@ -18670,7 +18673,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="1">
-        <f>IF(AND(P119&gt;=13,P119&lt;=16),5,IF(AND(P119&gt;=9,P119&lt;=12),4,IF(AND(P119&gt;=5,P119&lt;=8),3,IF(AND(P119&gt;=1,P119&lt;=4),2,IF(AND(P119&gt;=-3,P119&lt;=0),1,IF(AND(P119&gt;=-5,P119&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I119" s="1">
@@ -18695,7 +18698,7 @@
         <v>10</v>
       </c>
       <c r="P119" s="41">
-        <f>S119-100+O119</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q119" s="1">
@@ -18754,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="1">
-        <f>IF(AND(P120&gt;=13,P120&lt;=16),5,IF(AND(P120&gt;=9,P120&lt;=12),4,IF(AND(P120&gt;=5,P120&lt;=8),3,IF(AND(P120&gt;=1,P120&lt;=4),2,IF(AND(P120&gt;=-3,P120&lt;=0),1,IF(AND(P120&gt;=-5,P120&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I120" s="1">
@@ -18779,7 +18782,7 @@
         <v>10</v>
       </c>
       <c r="P120" s="41">
-        <f>S120-100+O120</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q120" s="1">
@@ -18838,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="1">
-        <f>IF(AND(P121&gt;=13,P121&lt;=16),5,IF(AND(P121&gt;=9,P121&lt;=12),4,IF(AND(P121&gt;=5,P121&lt;=8),3,IF(AND(P121&gt;=1,P121&lt;=4),2,IF(AND(P121&gt;=-3,P121&lt;=0),1,IF(AND(P121&gt;=-5,P121&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I121" s="1">
@@ -18863,7 +18866,7 @@
         <v>10</v>
       </c>
       <c r="P121" s="41">
-        <f>S121-100+O121</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q121" s="1">
@@ -18922,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="1">
-        <f>IF(AND(P122&gt;=13,P122&lt;=16),5,IF(AND(P122&gt;=9,P122&lt;=12),4,IF(AND(P122&gt;=5,P122&lt;=8),3,IF(AND(P122&gt;=1,P122&lt;=4),2,IF(AND(P122&gt;=-3,P122&lt;=0),1,IF(AND(P122&gt;=-5,P122&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I122" s="1">
@@ -18947,7 +18950,7 @@
         <v>10</v>
       </c>
       <c r="P122" s="41">
-        <f>S122-100+O122</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q122" s="1">
@@ -18983,7 +18986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="72">
+    <row r="123" spans="1:28" ht="48">
       <c r="A123">
         <v>53000125</v>
       </c>
@@ -19006,7 +19009,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="1">
-        <f>IF(AND(P123&gt;=13,P123&lt;=16),5,IF(AND(P123&gt;=9,P123&lt;=12),4,IF(AND(P123&gt;=5,P123&lt;=8),3,IF(AND(P123&gt;=1,P123&lt;=4),2,IF(AND(P123&gt;=-3,P123&lt;=0),1,IF(AND(P123&gt;=-5,P123&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I123" s="1">
@@ -19031,7 +19034,7 @@
         <v>10</v>
       </c>
       <c r="P123" s="41">
-        <f>S123-100+O123</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q123" s="1">
@@ -19067,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="48">
+    <row r="124" spans="1:28" ht="72">
       <c r="A124">
         <v>53000126</v>
       </c>
@@ -19090,7 +19093,7 @@
         <v>6</v>
       </c>
       <c r="H124" s="1">
-        <f>IF(AND(P124&gt;=13,P124&lt;=16),5,IF(AND(P124&gt;=9,P124&lt;=12),4,IF(AND(P124&gt;=5,P124&lt;=8),3,IF(AND(P124&gt;=1,P124&lt;=4),2,IF(AND(P124&gt;=-3,P124&lt;=0),1,IF(AND(P124&gt;=-5,P124&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I124" s="1">
@@ -19115,7 +19118,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="41">
-        <f>S124-100+O124</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="Q124" s="1">
@@ -19176,7 +19179,7 @@
         <v>5</v>
       </c>
       <c r="H125" s="1">
-        <f>IF(AND(P125&gt;=13,P125&lt;=16),5,IF(AND(P125&gt;=9,P125&lt;=12),4,IF(AND(P125&gt;=5,P125&lt;=8),3,IF(AND(P125&gt;=1,P125&lt;=4),2,IF(AND(P125&gt;=-3,P125&lt;=0),1,IF(AND(P125&gt;=-5,P125&lt;=-4),0,6))))))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I125" s="1">
@@ -19201,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="41">
-        <f>S125-100+O125</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q125" s="1">
@@ -19245,110 +19248,110 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I70:I114 I38:I68 I120:I124 I17:I35 I4:I15">
-    <cfRule type="cellIs" dxfId="58" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="150" priority="55" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125 J4:O4 J17:P35 J70:P123 J5:P15 J38:P68">
-    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="148" priority="52" operator="notEqual">
       <formula>$E124</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115:I122">
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="147" priority="50" operator="notEqual">
       <formula>$E115</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="146" priority="49" operator="notEqual">
       <formula>$E125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:P125">
-    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:P124">
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="19" operator="notEqual">
       <formula>$E69</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:P69">
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="141" priority="17" operator="notEqual">
       <formula>$E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:P36">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="139" priority="15" operator="notEqual">
       <formula>$E37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H15 H17:H125">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="134" priority="13" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="133" priority="7" operator="notEqual">
       <formula>$E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:P16">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="127" priority="1" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20133,105 +20136,105 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J4:P9">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P8">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="33" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P4">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="90" priority="31" operator="notEqual">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:P5">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="88" priority="29" operator="notEqual">
       <formula>$E6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:P6">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="27" operator="notEqual">
       <formula>$E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:P7">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="25" operator="notEqual">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="82" priority="23" operator="notEqual">
       <formula>$E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21042,50 +21045,50 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="I4:I9">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="notEqual">
       <formula>$E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:P7">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:P9">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H9">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21406,7 +21409,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B12">
         <f>COUNTIF(标准!D:D,"*位移*")</f>

--- a/ConfigData/Xlsx/Spell.xlsx
+++ b/ConfigData/Xlsx/Spell.xlsx
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="775">
   <si>
     <t>慈悲</t>
   </si>
@@ -2266,10 +2266,6 @@
   </si>
   <si>
     <t>对1列敌方单位造成{0}点魔法伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对1行敌方单位造成{0}点魔法伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3407,7 +3403,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>p.AddSpellRowMissile(s,5,mouse,"purpleline");</t>
+    <t>召唤3个具有{0}点魔法伤害的光波</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddSpellRowMissile(s,5,mouse,"firewall");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.AddSpellRowMissile(s,3,mouse,"laser");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤5个具有{0}点魔法伤害的火浪</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7460,11 +7476,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1826463904"/>
-        <c:axId val="1826464992"/>
+        <c:axId val="1119333392"/>
+        <c:axId val="1119336656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1826463904"/>
+        <c:axId val="1119333392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7507,7 +7523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826464992"/>
+        <c:crossAx val="1119336656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7515,7 +7531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1826464992"/>
+        <c:axId val="1119336656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826463904"/>
+        <c:crossAx val="1119333392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8615,10 +8631,10 @@
   <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8654,7 +8670,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>208</v>
@@ -8666,7 +8682,7 @@
         <v>210</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>359</v>
@@ -8690,7 +8706,7 @@
         <v>373</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>356</v>
@@ -8711,10 +8727,10 @@
         <v>473</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>211</v>
@@ -8776,7 +8792,7 @@
         <v>374</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>357</v>
@@ -8785,10 +8801,10 @@
         <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>197</v>
@@ -8797,10 +8813,10 @@
         <v>197</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>196</v>
@@ -8826,7 +8842,7 @@
         <v>214</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>200</v>
@@ -8838,7 +8854,7 @@
         <v>202</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>361</v>
@@ -8862,31 +8878,31 @@
         <v>375</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>358</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>475</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>204</v>
@@ -8912,7 +8928,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8962,7 +8978,7 @@
         <v>85.2</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U4" s="32" t="s">
         <v>438</v>
@@ -8996,7 +9012,7 @@
         <v>233</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -9046,7 +9062,7 @@
         <v>80</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>410</v>
@@ -9080,7 +9096,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -9130,7 +9146,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>471</v>
@@ -9164,7 +9180,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -9214,7 +9230,7 @@
         <v>100</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>472</v>
@@ -9250,7 +9266,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -9294,13 +9310,13 @@
         <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S8">
         <v>100</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>409</v>
@@ -9336,7 +9352,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -9386,10 +9402,10 @@
         <v>90</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>2</v>
@@ -9420,7 +9436,7 @@
         <v>238</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -9470,10 +9486,10 @@
         <v>90</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>2</v>
@@ -9504,7 +9520,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -9554,10 +9570,10 @@
         <v>90</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>2</v>
@@ -9588,7 +9604,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -9638,10 +9654,10 @@
         <v>90</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>2</v>
@@ -9672,7 +9688,7 @@
         <v>241</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -9722,10 +9738,10 @@
         <v>90</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>2</v>
@@ -9756,7 +9772,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -9806,10 +9822,10 @@
         <v>90</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>2</v>
@@ -9840,7 +9856,7 @@
         <v>243</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -9890,10 +9906,10 @@
         <v>90</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>2</v>
@@ -9924,7 +9940,7 @@
         <v>456</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E16" s="15">
         <v>4</v>
@@ -9974,10 +9990,10 @@
         <v>100</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>114</v>
@@ -10004,13 +10020,13 @@
         <v>53000014</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>635</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>636</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -10054,19 +10070,19 @@
         <v>30</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S17">
         <v>100</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1">
@@ -10096,7 +10112,7 @@
         <v>244</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -10146,7 +10162,7 @@
         <v>75</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U18" s="7" t="s">
         <v>376</v>
@@ -10182,7 +10198,7 @@
         <v>245</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -10232,7 +10248,7 @@
         <v>75</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>377</v>
@@ -10268,7 +10284,7 @@
         <v>246</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -10318,10 +10334,10 @@
         <v>100</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>24</v>
@@ -10354,7 +10370,7 @@
         <v>247</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -10404,7 +10420,7 @@
         <v>102</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>481</v>
@@ -10429,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="60">
+    <row r="22" spans="1:28" ht="24">
       <c r="A22">
         <v>53000019</v>
       </c>
@@ -10440,7 +10456,7 @@
         <v>248</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
@@ -10453,7 +10469,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -10474,26 +10490,26 @@
         <v>0</v>
       </c>
       <c r="O22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P22" s="41">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="1">
         <v>40</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S22">
         <v>100</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>482</v>
+        <v>774</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>28</v>
@@ -10528,10 +10544,10 @@
         <v>249</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>201</v>
@@ -10541,13 +10557,13 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -10566,30 +10582,32 @@
       </c>
       <c r="P23" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Q23" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>345</v>
       </c>
       <c r="S23">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="T23" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="U23" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="W23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="1"/>
+        <v>770</v>
+      </c>
+      <c r="X23" s="1">
+        <v>11000007</v>
+      </c>
       <c r="Y23" s="1">
         <v>4</v>
       </c>
@@ -10614,7 +10632,7 @@
         <v>250</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -10664,10 +10682,10 @@
         <v>93.75</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>31</v>
@@ -10700,7 +10718,7 @@
         <v>251</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -10750,10 +10768,10 @@
         <v>75</v>
       </c>
       <c r="T25" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="U25" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>34</v>
@@ -10784,7 +10802,7 @@
         <v>252</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -10834,10 +10852,10 @@
         <v>100</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>2</v>
@@ -10868,7 +10886,7 @@
         <v>253</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -10918,10 +10936,10 @@
         <v>90</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>34</v>
@@ -10954,7 +10972,7 @@
         <v>254</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -11004,10 +11022,10 @@
         <v>100</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>38</v>
@@ -11040,7 +11058,7 @@
         <v>255</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -11090,10 +11108,10 @@
         <v>75</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>41</v>
@@ -11124,7 +11142,7 @@
         <v>256</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -11174,10 +11192,10 @@
         <v>96</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>44</v>
@@ -11208,7 +11226,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -11258,10 +11276,10 @@
         <v>96</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>46</v>
@@ -11292,7 +11310,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -11342,7 +11360,7 @@
         <v>100</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="U32" s="22" t="s">
         <v>406</v>
@@ -11370,13 +11388,13 @@
         <v>53000030</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -11426,10 +11444,10 @@
         <v>100</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>4</v>
@@ -11456,13 +11474,13 @@
         <v>53000031</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="D34" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -11512,10 +11530,10 @@
         <v>100</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>4</v>
@@ -11548,7 +11566,7 @@
         <v>259</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -11598,7 +11616,7 @@
         <v>100</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>379</v>
@@ -11632,7 +11650,7 @@
         <v>260</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -11683,10 +11701,10 @@
         <v>61</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>57</v>
@@ -11717,7 +11735,7 @@
         <v>261</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -11767,10 +11785,10 @@
         <v>100</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>59</v>
@@ -11801,7 +11819,7 @@
         <v>262</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -11851,10 +11869,10 @@
         <v>100</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>61</v>
@@ -11881,13 +11899,13 @@
         <v>53000039</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="D39" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -11937,10 +11955,10 @@
         <v>85</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>4</v>
@@ -11967,13 +11985,13 @@
         <v>53000040</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -12023,10 +12041,10 @@
         <v>100</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>4</v>
@@ -12059,7 +12077,7 @@
         <v>264</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -12112,7 +12130,7 @@
         <v>434</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>63</v>
@@ -12143,7 +12161,7 @@
         <v>265</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -12193,7 +12211,7 @@
         <v>100</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>380</v>
@@ -12227,7 +12245,7 @@
         <v>266</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -12277,10 +12295,10 @@
         <v>100</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>4</v>
@@ -12305,13 +12323,13 @@
         <v>53000044</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -12361,10 +12379,10 @@
         <v>95</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>4</v>
@@ -12397,7 +12415,7 @@
         <v>268</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -12447,10 +12465,10 @@
         <v>100</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>364</v>
@@ -12483,7 +12501,7 @@
         <v>269</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -12533,7 +12551,7 @@
         <v>100</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>393</v>
@@ -12567,7 +12585,7 @@
         <v>270</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
@@ -12617,7 +12635,7 @@
         <v>110</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>394</v>
@@ -12653,7 +12671,7 @@
         <v>271</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -12703,7 +12721,7 @@
         <v>100</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>381</v>
@@ -12737,7 +12755,7 @@
         <v>272</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -12787,7 +12805,7 @@
         <v>110</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>395</v>
@@ -12823,7 +12841,7 @@
         <v>273</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E50" s="1">
         <v>4</v>
@@ -12867,16 +12885,16 @@
         <v>0</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S50">
         <v>90</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>76</v>
@@ -12907,7 +12925,7 @@
         <v>274</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -12957,7 +12975,7 @@
         <v>100</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>382</v>
@@ -12991,7 +13009,7 @@
         <v>275</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -13041,7 +13059,7 @@
         <v>100</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>383</v>
@@ -13075,7 +13093,7 @@
         <v>276</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -13125,7 +13143,7 @@
         <v>100</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>384</v>
@@ -13159,7 +13177,7 @@
         <v>217</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -13209,7 +13227,7 @@
         <v>83.5</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U54" s="7" t="s">
         <v>440</v>
@@ -13243,7 +13261,7 @@
         <v>277</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -13293,10 +13311,10 @@
         <v>80</v>
       </c>
       <c r="T55" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>2</v>
@@ -13327,7 +13345,7 @@
         <v>278</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -13377,7 +13395,7 @@
         <v>37.5</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>421</v>
@@ -13411,7 +13429,7 @@
         <v>336</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -13455,16 +13473,16 @@
         <v>3</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S57">
         <v>75</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>2</v>
@@ -13495,7 +13513,7 @@
         <v>279</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -13545,7 +13563,7 @@
         <v>90</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>385</v>
@@ -13579,7 +13597,7 @@
         <v>280</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -13629,7 +13647,7 @@
         <v>100</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>436</v>
@@ -13665,7 +13683,7 @@
         <v>281</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -13715,10 +13733,10 @@
         <v>100</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>92</v>
@@ -13751,7 +13769,7 @@
         <v>282</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
@@ -13801,7 +13819,7 @@
         <v>100</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>428</v>
@@ -13837,7 +13855,7 @@
         <v>283</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -13887,7 +13905,7 @@
         <v>100</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>386</v>
@@ -13923,7 +13941,7 @@
         <v>284</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -13973,7 +13991,7 @@
         <v>75</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U63" s="7" t="s">
         <v>429</v>
@@ -14007,7 +14025,7 @@
         <v>285</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -14057,10 +14075,10 @@
         <v>75</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>101</v>
@@ -14091,7 +14109,7 @@
         <v>219</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E65" s="1">
         <v>6</v>
@@ -14141,10 +14159,10 @@
         <v>100</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>102</v>
@@ -14177,7 +14195,7 @@
         <v>286</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -14227,10 +14245,10 @@
         <v>85</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>4</v>
@@ -14263,7 +14281,7 @@
         <v>287</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -14313,10 +14331,10 @@
         <v>100</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>104</v>
@@ -14349,7 +14367,7 @@
         <v>288</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -14399,10 +14417,10 @@
         <v>60</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>106</v>
@@ -14435,7 +14453,7 @@
         <v>222</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -14485,7 +14503,7 @@
         <v>100</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>387</v>
@@ -14519,7 +14537,7 @@
         <v>224</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -14601,7 +14619,7 @@
         <v>221</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
@@ -14651,7 +14669,7 @@
         <v>100</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>352</v>
@@ -14687,7 +14705,7 @@
         <v>289</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -14737,7 +14755,7 @@
         <v>200</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>467</v>
@@ -14771,7 +14789,7 @@
         <v>290</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E73" s="1">
         <v>3</v>
@@ -14821,10 +14839,10 @@
         <v>95</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>116</v>
@@ -14855,7 +14873,7 @@
         <v>335</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -14939,7 +14957,7 @@
         <v>291</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E75" s="1">
         <v>4</v>
@@ -14989,7 +15007,7 @@
         <v>180</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>388</v>
@@ -15023,7 +15041,7 @@
         <v>292</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -15073,10 +15091,10 @@
         <v>110</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U76" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>122</v>
@@ -15109,7 +15127,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E77" s="1">
         <v>4</v>
@@ -15159,7 +15177,7 @@
         <v>60</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>389</v>
@@ -15193,7 +15211,7 @@
         <v>294</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -15237,16 +15255,16 @@
         <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S78">
         <v>50</v>
       </c>
       <c r="T78" s="43" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>102</v>
@@ -15277,7 +15295,7 @@
         <v>295</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -15327,10 +15345,10 @@
         <v>120</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>126</v>
@@ -15363,7 +15381,7 @@
         <v>296</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E80" s="1">
         <v>2</v>
@@ -15413,7 +15431,7 @@
         <v>100</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>390</v>
@@ -15449,7 +15467,7 @@
         <v>297</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -15499,7 +15517,7 @@
         <v>90</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>396</v>
@@ -15535,7 +15553,7 @@
         <v>298</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -15585,10 +15603,10 @@
         <v>120</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="U82" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V82" s="1" t="s">
         <v>131</v>
@@ -15613,13 +15631,13 @@
         <v>53000083</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E83" s="1">
         <v>2</v>
@@ -15669,13 +15687,13 @@
         <v>60</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U83" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
@@ -15703,7 +15721,7 @@
         <v>223</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -15753,13 +15771,13 @@
         <v>40</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>424</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
@@ -15787,7 +15805,7 @@
         <v>225</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -15837,7 +15855,7 @@
         <v>100</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>397</v>
@@ -15873,7 +15891,7 @@
         <v>226</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -15924,7 +15942,7 @@
       </c>
       <c r="T86" s="11"/>
       <c r="U86" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>2</v>
@@ -15955,7 +15973,7 @@
         <v>227</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -16005,10 +16023,10 @@
         <v>75</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>65</v>
@@ -16041,7 +16059,7 @@
         <v>300</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -16091,7 +16109,7 @@
         <v>100</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U88" s="7" t="s">
         <v>398</v>
@@ -16129,7 +16147,7 @@
         <v>301</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -16179,13 +16197,13 @@
         <v>90</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>394</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>140</v>
@@ -16215,7 +16233,7 @@
         <v>302</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E90" s="1">
         <v>4</v>
@@ -16265,10 +16283,10 @@
         <v>82.5</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U90" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>26</v>
@@ -16301,7 +16319,7 @@
         <v>303</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
@@ -16351,7 +16369,7 @@
         <v>100</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="U91" s="7" t="s">
         <v>399</v>
@@ -16385,7 +16403,7 @@
         <v>304</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -16435,7 +16453,7 @@
         <v>75</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>400</v>
@@ -16471,7 +16489,7 @@
         <v>305</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -16521,7 +16539,7 @@
         <v>125</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U93" s="7" t="s">
         <v>417</v>
@@ -16555,7 +16573,7 @@
         <v>306</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -16605,7 +16623,7 @@
         <v>25</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U94" s="1" t="s">
         <v>468</v>
@@ -16639,7 +16657,7 @@
         <v>307</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -16689,7 +16707,7 @@
         <v>80</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U95" s="7" t="s">
         <v>426</v>
@@ -16725,7 +16743,7 @@
         <v>308</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
@@ -16809,7 +16827,7 @@
         <v>309</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E97" s="1">
         <v>2</v>
@@ -16859,7 +16877,7 @@
         <v>45</v>
       </c>
       <c r="T97" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U97" s="7" t="s">
         <v>391</v>
@@ -16895,7 +16913,7 @@
         <v>310</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
@@ -16945,7 +16963,7 @@
         <v>110</v>
       </c>
       <c r="T98" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="U98" s="7" t="s">
         <v>402</v>
@@ -16979,7 +16997,7 @@
         <v>311</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -17029,7 +17047,7 @@
         <v>95</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="U99" s="7" t="s">
         <v>401</v>
@@ -17063,7 +17081,7 @@
         <v>312</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -17100,7 +17118,7 @@
         <v>3</v>
       </c>
       <c r="P100" s="41">
-        <f t="shared" ref="P100:P131" si="7">S100-100+O100</f>
+        <f t="shar